--- a/results/garant_neprednasi.xlsx
+++ b/results/garant_neprednasi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="327">
   <si>
     <t>katedra</t>
   </si>
@@ -232,6 +232,9 @@
     <t>DIB</t>
   </si>
   <si>
+    <t>EDAV</t>
+  </si>
+  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -274,6 +277,9 @@
     <t>KTZI2</t>
   </si>
   <si>
+    <t>KVICT</t>
+  </si>
+  <si>
     <t>KZEL</t>
   </si>
   <si>
@@ -310,6 +316,9 @@
     <t>Datová a informační bezpečnost</t>
   </si>
   <si>
+    <t>Data Analysis and Visualisation</t>
+  </si>
+  <si>
     <t>Programování pro GUI</t>
   </si>
   <si>
@@ -346,6 +355,9 @@
     <t>Teoretické základy informatiky II</t>
   </si>
   <si>
+    <t>Využití ICT ve výuce</t>
+  </si>
+  <si>
     <t>Základy elektroniky</t>
   </si>
   <si>
@@ -403,34 +415,37 @@
     <t>'doc. RNDr. Mgr. Viktor Maškov, DrSc.' (100)</t>
   </si>
   <si>
-    <t>2776</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>3521</t>
-  </si>
-  <si>
-    <t>609</t>
-  </si>
-  <si>
-    <t>2220</t>
-  </si>
-  <si>
-    <t>2239</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>3416</t>
+    <t>[2776]</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>[650]</t>
+  </si>
+  <si>
+    <t>[251]</t>
+  </si>
+  <si>
+    <t>[449]</t>
+  </si>
+  <si>
+    <t>[3521]</t>
+  </si>
+  <si>
+    <t>[609]</t>
+  </si>
+  <si>
+    <t>[2220]</t>
+  </si>
+  <si>
+    <t>[2239]</t>
+  </si>
+  <si>
+    <t>[264]</t>
+  </si>
+  <si>
+    <t>[3416]</t>
   </si>
   <si>
     <t>'RNDr. Jan Krejčí, Ph.D.', 'Ing. Vojtěch Šindler'</t>
@@ -439,6 +454,9 @@
     <t>'RNDr. Jan Krejčí, Ph.D.', 'doc. RNDr. Zbyšek Posel, Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Zbyšek Posel, Ph.D.', 'Ricardo Rodriguez Jorge, Ph.D.', 'RNDr. Jiří Škvor, Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ing. Mgr. Pavel Beránek', 'RNDr. Petr Kubera, Ph.D.'</t>
   </si>
   <si>
@@ -490,6 +508,9 @@
     <t>'RNDr. Jan Krejčí, Ph.D.' (100), 'doc. RNDr. Zbyšek Posel, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'doc. RNDr. Zbyšek Posel, Ph.D.' (100), 'Ricardo Rodriguez Jorge, Ph.D.' (100), 'RNDr. Jiří Škvor, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'Ing. Mgr. Pavel Beránek' (100), 'RNDr. Petr Kubera, Ph.D.' (100)</t>
   </si>
   <si>
@@ -535,55 +556,58 @@
     <t>'Ing. Petr Haberzettl' (100), 'doc. RNDr. Mgr. Viktor Maškov, DrSc.' (100)</t>
   </si>
   <si>
-    <t>2776, 7152</t>
-  </si>
-  <si>
-    <t>2776, 3521</t>
-  </si>
-  <si>
-    <t>6973, 650</t>
-  </si>
-  <si>
-    <t>251, 650, 4195</t>
-  </si>
-  <si>
-    <t>650, 9114</t>
-  </si>
-  <si>
-    <t>449, 650</t>
-  </si>
-  <si>
-    <t>251, 3521</t>
-  </si>
-  <si>
-    <t>251, 609, 3521</t>
-  </si>
-  <si>
-    <t>3416, 6259, 2220</t>
-  </si>
-  <si>
-    <t>650, 2239</t>
-  </si>
-  <si>
-    <t>251, 2855, 3521</t>
-  </si>
-  <si>
-    <t>264, 267</t>
-  </si>
-  <si>
-    <t>3416, 1780</t>
-  </si>
-  <si>
-    <t>2776, 2239, 835</t>
-  </si>
-  <si>
-    <t>449, 650, 2220</t>
-  </si>
-  <si>
-    <t>3416, 650</t>
-  </si>
-  <si>
-    <t>1780, 2239</t>
+    <t>[2776, 7152]</t>
+  </si>
+  <si>
+    <t>[2776, 3521]</t>
+  </si>
+  <si>
+    <t>[3521, 8514, 2220]</t>
+  </si>
+  <si>
+    <t>[6973, 650]</t>
+  </si>
+  <si>
+    <t>[251, 650, 4195]</t>
+  </si>
+  <si>
+    <t>[650, 9114]</t>
+  </si>
+  <si>
+    <t>[449, 650]</t>
+  </si>
+  <si>
+    <t>[251, 3521]</t>
+  </si>
+  <si>
+    <t>[251, 609, 3521]</t>
+  </si>
+  <si>
+    <t>[3416, 6259, 2220]</t>
+  </si>
+  <si>
+    <t>[650, 2239]</t>
+  </si>
+  <si>
+    <t>[251, 2855, 3521]</t>
+  </si>
+  <si>
+    <t>[264, 267]</t>
+  </si>
+  <si>
+    <t>[3416, 1780]</t>
+  </si>
+  <si>
+    <t>[2776, 2239, 835]</t>
+  </si>
+  <si>
+    <t>[449, 650, 2220]</t>
+  </si>
+  <si>
+    <t>[3416, 650]</t>
+  </si>
+  <si>
+    <t>[1780, 2239]</t>
   </si>
   <si>
     <t>'Ing. Mgr. Pavel Beránek', 'Mgr. Jiří Fišer, Ph.D.', 'RNDr. Petr Kubera, Ph.D.', 'Mgr. Květuše Sýkorová'</t>
@@ -631,25 +655,25 @@
     <t>'Mgr. Květuše Sýkorová' (100)</t>
   </si>
   <si>
-    <t>6973, 251, 650, 835</t>
-  </si>
-  <si>
-    <t>650, 835</t>
-  </si>
-  <si>
-    <t>650, 2220</t>
-  </si>
-  <si>
-    <t>3416, 6973, 650, 2220</t>
-  </si>
-  <si>
-    <t>1780</t>
-  </si>
-  <si>
-    <t>650, 835, 2220</t>
-  </si>
-  <si>
-    <t>835</t>
+    <t>[6973, 251, 650, 835]</t>
+  </si>
+  <si>
+    <t>[650, 835]</t>
+  </si>
+  <si>
+    <t>[650, 2220]</t>
+  </si>
+  <si>
+    <t>[3416, 6973, 650, 2220]</t>
+  </si>
+  <si>
+    <t>[1780]</t>
+  </si>
+  <si>
+    <t>[650, 835, 2220]</t>
+  </si>
+  <si>
+    <t>[835]</t>
   </si>
   <si>
     <t>'Ing. Mgr. Pavel Beránek', 'Mgr. Jiří Fišer, Ph.D.', 'RNDr. Petr Kubera, Ph.D.'</t>
@@ -658,7 +682,7 @@
     <t>'Ing. Mgr. Pavel Beránek' (100), 'Mgr. Jiří Fišer, Ph.D.' (100), 'RNDr. Petr Kubera, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>6973, 251, 650</t>
+    <t>[6973, 251, 650]</t>
   </si>
   <si>
     <t>KI/BTE</t>
@@ -810,6 +834,9 @@
     <t>Obsahem kurzu je seznámení s ucelenou problematikou SOC s využitím automatizovaných analýz síťových logů prostřednictvím metod strojového učení. Analyzované síťové logy jsou generovány aktivními prvky napříč síťovou infrastrukturou.</t>
   </si>
   <si>
+    <t>The course focuses on the presentation of information that are necessary to the basic and comprehensive evaluation of the data. Emphasis is placed on gaining the ability to visualize data by appropriate means. An integral part of the course is the practical application of theoretical knowledge on available data using appropriate software tools (typically Python, R, Matlab, Excel).</t>
+  </si>
+  <si>
     <t>Kurz je zaměřen na vizuální programování v moderních desktopových prostředích. V souladu se zaměřením moderních operačních systémů je důraz kladen na interaktivní graficky orientované aplikace a na návrh grafických uživatelských rozhraní. Student je prostřednictvím tohoto kurzu seznámen s filozofií událostmi řízeného programování a získá základní stupeň znalostí programátora v dominantní počítačové platformě.</t>
   </si>
   <si>
@@ -846,6 +873,15 @@
   <si>
     <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů
 s ohledem na potřeby v dalších oblastech informatiky, jako je algoritmizace, kódování a šifrování, či optimalizace.</t>
+  </si>
+  <si>
+    <t>1. Mezipředmětové přesahy IKT do oborových didaktik (1 týden)
+2. Výukové aplikace a online služby pro podporu oborových didaktik (1 týden)
+3. Využití IKT v jiných didaktikách (3 týdny)
+a. čtenářská gramotnost
+b. matematická gramotnost
+c. finanční gramotnost
+d. přírodovědná gramotnost</t>
   </si>
   <si>
     <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na
@@ -863,7 +899,7 @@
     <t>Základní kurs numerické matematiky pro informatiky.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kurz je zaměřen na seznámení studentů se základními postupy optimalizace. Důraz je kladen na úlohy lineárního programování, včetně celočíselného a vybrané metody pro řešení nelineárních úloh. Nedílnou součástí kurzu je i praktické řešení úloh na cvičeních pomocí vhodného software._x005F_x000D_
+    <t xml:space="preserve">Kurz je zaměřen na seznámení studentů se základními postupy optimalizace. Důraz je kladen na úlohy lineárního programování, včetně celočíselného a vybrané metody pro řešení nelineárních úloh. Nedílnou součástí kurzu je i praktické řešení úloh na cvičeních pomocí vhodného software._x000D_
 </t>
   </si>
   <si>
@@ -891,7 +927,7 @@
 </t>
   </si>
   <si>
-    <t>Podmínkou zápočtu je účast na seminářích a prezentace tématu vztahujícího se tvorbě GUI aplikací. Téma je zadáváno vyučujícím._x005F_x000D_
+    <t>Podmínkou zápočtu je účast na seminářích a prezentace tématu vztahujícího se tvorbě GUI aplikací. Téma je zadáváno vyučujícím._x000D_
 Zkouška je udělena za vypracování programu na zvolené téma, technologii. Známka je určena na základě kvality programu a obtížnosti zvoleného tématu.</t>
   </si>
   <si>
@@ -903,7 +939,7 @@
     <t>Zápočet: laboratorní úloha</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet je udělen za účast na seminářích a za vypracování programu na zvolené téma. Téma seminární práce a technologii je třeba si dohodnout s vyučujícím._x005F_x000D_
+    <t xml:space="preserve">Zápočet je udělen za účast na seminářích a za vypracování programu na zvolené téma. Téma seminární práce a technologii je třeba si dohodnout s vyučujícím._x000D_
 Zkouška se skládá z prezentace (obhajoby) programu a diskuze nad použitou technologií. </t>
   </si>
   <si>
@@ -940,10 +976,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Požadavky k zápočtu:_x005F_x000D_
-V prvním týdnu zkouškového období se bude psát jedna zápočtová písemná práce. Zápočet bude udělen za získání aspoň 70 bodů ze 100 možných. V případě nezískání zápočtu je možné zápočtovou písemnou práci dvakrát opakovat, přičemž podmínky udělení zápočtu jsou stále stejné._x005F_x000D_
-_x005F_x000D_
+    <t xml:space="preserve">Požadavky k zápočtu:_x000D_
+V prvním týdnu zkouškového období se bude psát jedna zápočtová písemná práce. Zápočet bude udělen za získání aspoň 70 bodů ze 100 možných. V případě nezískání zápočtu je možné zápočtovou písemnou práci dvakrát opakovat, přičemž podmínky udělení zápočtu jsou stále stejné._x000D_
+_x000D_
 </t>
+  </si>
+  <si>
+    <t>- tvořivá práce ve skupině,
+- prezentace výsledků řešení projektu před ostatními skupinami.</t>
   </si>
   <si>
     <t>Zápočet: aktivní účast na laboratořích
@@ -953,21 +993,21 @@
     <t>Vstupní test následovaný ústní zkouškou</t>
   </si>
   <si>
-    <t xml:space="preserve">Požadavky pro udělení zápočtu_x005F_x000D_
-- aktivní účast na seminářích (povoleny jsou nejvýše 3 absence)_x005F_x000D_
-- prezentace řešení vybraných úloh ve vhodném programovacím jazyce a jejich vysvětlení_x005F_x000D_
-_x005F_x000D_
-Zkouška je ústní a proběhne v časovém rozsahu zhruba 30 minut. Prověřovány jsou teoretické znalosti a schopnost popisu, rozboru a odvození vybraných algoritmů._x005F_x000D_
+    <t xml:space="preserve">Požadavky pro udělení zápočtu_x000D_
+- aktivní účast na seminářích (povoleny jsou nejvýše 3 absence)_x000D_
+- prezentace řešení vybraných úloh ve vhodném programovacím jazyce a jejich vysvětlení_x000D_
+_x000D_
+Zkouška je ústní a proběhne v časovém rozsahu zhruba 30 minut. Prověřovány jsou teoretické znalosti a schopnost popisu, rozboru a odvození vybraných algoritmů._x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Předmět je ukončen zápočtem a ústní zkouškou._x005F_x000D_
-U zkoušky je kladen důraz na porozumění základním principům a orientace v problematice (nikoliv na schopnost mechanické aplikace daných metod)._x005F_x000D_
-_x005F_x000D_
+    <t xml:space="preserve">Předmět je ukončen zápočtem a ústní zkouškou._x000D_
+U zkoušky je kladen důraz na porozumění základním principům a orientace v problematice (nikoliv na schopnost mechanické aplikace daných metod)._x000D_
+_x000D_
 </t>
   </si>
   <si>
-    <t>Požadavky k zápočtu:_x005F_x000D_
+    <t>Požadavky k zápočtu:_x000D_
 V prvním týdnu zkouškového období se bude psát jedna zápočtová písemná práce. Zápočet bude udělen za získání aspoň 70 bodů ze 100 možných. V případě nezískání zápočtu je možné zápočtovou písemnou práci dvakrát opakovat, přičemž podmínky udělení zápočtu jsou stále stejné.</t>
   </si>
   <si>
@@ -993,17 +1033,17 @@
 </t>
   </si>
   <si>
-    <t>1.	Model událostmi řízeného programování (návrhový vzor observer a jeho užití, delegáty, události)_x005F_x000D_
-2.	Vizuální návrh aplikace (použití formulářů, dialogů, tlačítek apod.)_x005F_x000D_
-3.	Tvorba SDA a MDA aplikací (hlavní okno aplikace, menu, přebírání dat z formulářů, dynamické generování prvků)_x005F_x000D_
-4.	Zpracování XML v aplikacích (jednoduché ukládání dat, serializace pomocí SOAP, konfigurace aplikací)_x005F_x000D_
-5.	Globalizace a lokalizace aplikací_x005F_x000D_
-6.	Použití relačních databází v aplikacích_x005F_x000D_
-7.	Základy multithreadingu a tvorba vícevláknových aplikací_x005F_x000D_
-8.	Práce s grafikou (GDI+, DirectX, OpenGL, XNA)_x005F_x000D_
-9.	Zpracování tisku v aplikacích_x005F_x000D_
-10.	Vytváření vlastních komponent a jejich integrace do návrháře_x005F_x000D_
-11.	Reflexe a tvorba pluginů aplikace_x005F_x000D_
+    <t>1.	Model událostmi řízeného programování (návrhový vzor observer a jeho užití, delegáty, události)_x000D_
+2.	Vizuální návrh aplikace (použití formulářů, dialogů, tlačítek apod.)_x000D_
+3.	Tvorba SDA a MDA aplikací (hlavní okno aplikace, menu, přebírání dat z formulářů, dynamické generování prvků)_x000D_
+4.	Zpracování XML v aplikacích (jednoduché ukládání dat, serializace pomocí SOAP, konfigurace aplikací)_x000D_
+5.	Globalizace a lokalizace aplikací_x000D_
+6.	Použití relačních databází v aplikacích_x000D_
+7.	Základy multithreadingu a tvorba vícevláknových aplikací_x000D_
+8.	Práce s grafikou (GDI+, DirectX, OpenGL, XNA)_x000D_
+9.	Zpracování tisku v aplikacích_x000D_
+10.	Vytváření vlastních komponent a jejich integrace do návrháře_x000D_
+11.	Reflexe a tvorba pluginů aplikace_x000D_
 12.	Tvorba síťových aplikací</t>
   </si>
   <si>
@@ -1080,18 +1120,18 @@
 </t>
   </si>
   <si>
-    <t>1.	Principy a klasifikace paralelních systémů (Flynnova taxonomie, masivně paralelní systémy, SMP)_x005F_x000D_
-2.	Efektivita paralelizace (Amdahlův zákon, Gustafson-Barsisův zákon)_x005F_x000D_
-3.	Procesy: paralelismus na úrovni OS versus paralelismus na úrovni aplikací (vlákna a jejich role)_x005F_x000D_
-4.	Paměť: nízkoúrovňový přístup k paměti (C ukazatelů a kešování u SMP)_x005F_x000D_
-5.	OpenMP (jazyk C)_x005F_x000D_
-6.	Praktický příklad v OpenMP_x005F_x000D_
-7.	Parallel-LINQ a Parallel Tasks (v jazyce C#)_x005F_x000D_
-8.	Praktický příklad v Parallel-LINQ_x005F_x000D_
-9.	OpenCL (nehomogenní systémy s GPU)_x005F_x000D_
-10.	Praktický příklad v OpenCL_x005F_x000D_
-11.	MPI (implementace v C)_x005F_x000D_
-12.	Praktický příklad v MPI_x005F_x000D_
+    <t>1.	Principy a klasifikace paralelních systémů (Flynnova taxonomie, masivně paralelní systémy, SMP)_x000D_
+2.	Efektivita paralelizace (Amdahlův zákon, Gustafson-Barsisův zákon)_x000D_
+3.	Procesy: paralelismus na úrovni OS versus paralelismus na úrovni aplikací (vlákna a jejich role)_x000D_
+4.	Paměť: nízkoúrovňový přístup k paměti (C ukazatelů a kešování u SMP)_x000D_
+5.	OpenMP (jazyk C)_x000D_
+6.	Praktický příklad v OpenMP_x000D_
+7.	Parallel-LINQ a Parallel Tasks (v jazyce C#)_x000D_
+8.	Praktický příklad v Parallel-LINQ_x000D_
+9.	OpenCL (nehomogenní systémy s GPU)_x000D_
+10.	Praktický příklad v OpenCL_x000D_
+11.	MPI (implementace v C)_x000D_
+12.	Praktický příklad v MPI_x000D_
 13.	Automatická paralelizace (např. Parallel Computing Toolbox Matlabu)</t>
   </si>
   <si>
@@ -1108,18 +1148,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Přehled úloh strojového učení: klasifikace, regrese, predikce a oblasti použití_x005F_x000D_
-2. Rozhodovací stromy: konstrukce, metriky_x005F_x000D_
-3. - 4. Metoda podpůrných vektorů (SVM): formulace, soft margin, řešení, použití jader, jádrový trik, klasifikace do více tříd_x005F_x000D_
-5. Úvod do neuronových sítí: druhy sítí a jejich architektura, druhy učení_x005F_x000D_
-6. - 7. Sítě typu vícevrstvý perceptron (MLP): perceptron, aktivační funkce a jejich druhy, vrstvy a učení, přeučení, regularizace_x005F_x000D_
-8. Zpětnovazební učení: použití a přehled algoritmů se zaměřením na Q-learning_x005F_x000D_
-9. Metaalgoritmy strojového učení: seskupování slabých klasifikátorů, náhodné lesy, boostování, AdaBoost_x005F_x000D_
-10. Fuzzy množina: zavedení, vlastnosti (obor hodnot, výška, nosič, jádro), řezy, příslušnost_x005F_x000D_
-11. Fuzzy množiny a jejich rozšíření: přehled množinových a výrokových operací a jejich vlastností, fuzzy čísla a fuzzy relace_x005F_x000D_
-12. Použití fuzzy logiky: proces fuzzifikace a defuzzifikace, lingvistické proměnné_x005F_x000D_
-13. Bayesovská statistika: definice základních pojmů (rozdělení, apriorní, posteriorní), Bayesova věta a její využití_x005F_x000D_
-14. Bayesovské sítě (BN): grafová reprezentace, distribuce pravděpodobnosti modelu (řetězcové pravidlo), přehled algoritmů učení BN_x005F_x000D_
+    <t xml:space="preserve">1. Přehled úloh strojového učení: klasifikace, regrese, predikce a oblasti použití_x000D_
+2. Rozhodovací stromy: konstrukce, metriky_x000D_
+3. - 4. Metoda podpůrných vektorů (SVM): formulace, soft margin, řešení, použití jader, jádrový trik, klasifikace do více tříd_x000D_
+5. Úvod do neuronových sítí: druhy sítí a jejich architektura, druhy učení_x000D_
+6. - 7. Sítě typu vícevrstvý perceptron (MLP): perceptron, aktivační funkce a jejich druhy, vrstvy a učení, přeučení, regularizace_x000D_
+8. Zpětnovazební učení: použití a přehled algoritmů se zaměřením na Q-learning_x000D_
+9. Metaalgoritmy strojového učení: seskupování slabých klasifikátorů, náhodné lesy, boostování, AdaBoost_x000D_
+10. Fuzzy množina: zavedení, vlastnosti (obor hodnot, výška, nosič, jádro), řezy, příslušnost_x000D_
+11. Fuzzy množiny a jejich rozšíření: přehled množinových a výrokových operací a jejich vlastností, fuzzy čísla a fuzzy relace_x000D_
+12. Použití fuzzy logiky: proces fuzzifikace a defuzzifikace, lingvistické proměnné_x000D_
+13. Bayesovská statistika: definice základních pojmů (rozdělení, apriorní, posteriorní), Bayesova věta a její využití_x000D_
+14. Bayesovské sítě (BN): grafová reprezentace, distribuce pravděpodobnosti modelu (řetězcové pravidlo), přehled algoritmů učení BN_x000D_
 </t>
   </si>
   <si>
@@ -1136,32 +1176,32 @@
 </t>
   </si>
   <si>
-    <t>1. Rekurence a základní metody řešení rekurencí: substituční metoda, iterační metoda_x005F_x000D_
-2. Redukce rekurencí na algebraické rovnice: homogenní lineární rekurence, charakteristický polynom,_x005F_x000D_
-charakteristické kořeny_x005F_x000D_
-3. Speciální funkce: funkce dolní a horní celé části, logaritmy, binomické koeficienty, binomická věta_x005F_x000D_
-4. Asymptotika: asymptotická hierarchie, O-, Theta- a Omega-notace, relace mezi asymptotickými notacemi,_x005F_x000D_
-manipulace s O-notací, asymptotika a rekurence: analýza algoritmů rozděl a panuj_x005F_x000D_
-5. Euklidův algoritmus a prvočísla: Euklidův algoritmus: největší společný dělitel, nejmenší společný_x005F_x000D_
-násobek, rozšířený Euklidův algoritmus, analýza Euklidova algoritmu; prvočísla: Základní věta aritmetiky,_x005F_x000D_
-Eratosthenovo síto, Eulerova funkce phi, Prvočíselná věta_x005F_x000D_
-6. Kongruence: zbytkové třídy modulo n, řešení lineárních kongruencí, Čínská věta o zbytcích, modulární_x005F_x000D_
-umocňování, Malá Fermatova věta, Eulerova věta_x005F_x000D_
-7. Diskrétní logaritmy: primitivní kořeny, diskrétní logaritmus_x005F_x000D_
-8. Základní pojmy z teorie grafů: orientovaný a neorientovaný graf, vrcholy, hrany, incidence, stupně,_x005F_x000D_
-reprezentace grafů: seznamy sousedů, matice sousednosti, matice incidence_x005F_x000D_
-9. Další vlastnosti grafů: sledy, tahy, cesty, cykly, souvislé komponenty, silně souvislé komponenty,_x005F_x000D_
-vrcholová souvislost, hranová souvislost, isomorfismus, regularita, vrcholově symetrický graf, hranově_x005F_x000D_
-symetrický graf, podgrafy, úplné grafy, bipartitní grafy, stromy, kostry grafu, rovinné grafy, Kuratowského_x005F_x000D_
-věta, průměr grafu, multigrafy, hypergrafy_x005F_x000D_
-10. Párování a barvení v grafech: párování, perfektní párování, Hallova věta, Talleova věta, hranové barvení,_x005F_x000D_
-Vizingova věta, vrcholové barvení, chromatické číslo_x005F_x000D_
-11. Cestování grafem: eulerovský tah, eulerovský graf, hamiltonovská cesta, hamiltonovský graf, prohledávání_x005F_x000D_
-do šířky, prohledávání do hloubky, minimální kostra, Kruskalův algoritmus, Primův algoritmus, problém_x005F_x000D_
-obchodního cestujícího_x005F_x000D_
-12. Stromy: strom, les, kořenový strom, hloubka stromu, uspořádaný strom, binární strom, reprezentace_x005F_x000D_
-binárních stromů_x005F_x000D_
-13. Základy teorie složitosti: některé třídy složitosti: rozhodovací problém, třída P, třída NP; polynomiální_x005F_x000D_
+    <t>1. Rekurence a základní metody řešení rekurencí: substituční metoda, iterační metoda_x000D_
+2. Redukce rekurencí na algebraické rovnice: homogenní lineární rekurence, charakteristický polynom,_x000D_
+charakteristické kořeny_x000D_
+3. Speciální funkce: funkce dolní a horní celé části, logaritmy, binomické koeficienty, binomická věta_x000D_
+4. Asymptotika: asymptotická hierarchie, O-, Theta- a Omega-notace, relace mezi asymptotickými notacemi,_x000D_
+manipulace s O-notací, asymptotika a rekurence: analýza algoritmů rozděl a panuj_x000D_
+5. Euklidův algoritmus a prvočísla: Euklidův algoritmus: největší společný dělitel, nejmenší společný_x000D_
+násobek, rozšířený Euklidův algoritmus, analýza Euklidova algoritmu; prvočísla: Základní věta aritmetiky,_x000D_
+Eratosthenovo síto, Eulerova funkce phi, Prvočíselná věta_x000D_
+6. Kongruence: zbytkové třídy modulo n, řešení lineárních kongruencí, Čínská věta o zbytcích, modulární_x000D_
+umocňování, Malá Fermatova věta, Eulerova věta_x000D_
+7. Diskrétní logaritmy: primitivní kořeny, diskrétní logaritmus_x000D_
+8. Základní pojmy z teorie grafů: orientovaný a neorientovaný graf, vrcholy, hrany, incidence, stupně,_x000D_
+reprezentace grafů: seznamy sousedů, matice sousednosti, matice incidence_x000D_
+9. Další vlastnosti grafů: sledy, tahy, cesty, cykly, souvislé komponenty, silně souvislé komponenty,_x000D_
+vrcholová souvislost, hranová souvislost, isomorfismus, regularita, vrcholově symetrický graf, hranově_x000D_
+symetrický graf, podgrafy, úplné grafy, bipartitní grafy, stromy, kostry grafu, rovinné grafy, Kuratowského_x000D_
+věta, průměr grafu, multigrafy, hypergrafy_x000D_
+10. Párování a barvení v grafech: párování, perfektní párování, Hallova věta, Talleova věta, hranové barvení,_x000D_
+Vizingova věta, vrcholové barvení, chromatické číslo_x000D_
+11. Cestování grafem: eulerovský tah, eulerovský graf, hamiltonovská cesta, hamiltonovský graf, prohledávání_x000D_
+do šířky, prohledávání do hloubky, minimální kostra, Kruskalův algoritmus, Primův algoritmus, problém_x000D_
+obchodního cestujícího_x000D_
+12. Stromy: strom, les, kořenový strom, hloubka stromu, uspořádaný strom, binární strom, reprezentace_x000D_
+binárních stromů_x000D_
+13. Základy teorie složitosti: některé třídy složitosti: rozhodovací problém, třída P, třída NP; polynomiální_x000D_
 redukce: NP-těžký problém, NP-úplný problém; výpočetně obtížné problémy teorie grafů</t>
   </si>
   <si>
@@ -1202,17 +1242,17 @@
 14. Ochrana dat na úrovni kabelových sítí (principy, dělení, využití)</t>
   </si>
   <si>
-    <t>1.	Aproximace funkcí v R, Lagrangeův interpolační polynom, chyba Lagrangeovy interpolace. _x005F_x000D_
-2.	Kubický spline, konstrukce přirozeného kubického spline. _x005F_x000D_
-3.	Numerická integrace funkcí, Newtonovy-Cotesovy vzorce, složené Newtonovy-Cotesovy vzorce. _x005F_x000D_
-4.	Rombergova kvadratura, Gaussova kvadratura. _x005F_x000D_
-5.	Metody řešení nelineárních rovnic, Newtonova metoda, důkaz konvergence Newtonovy metody. _x005F_x000D_
-6.	Metoda postupných aproximací pro nelineární rovnice, kořeny polynomu, Hornerovo schéma. _x005F_x000D_
-7.	Soustavy lineárních rovnic, podmíněnost matic, Gaussova eliminace, pivotace, Gaussova eliminace jako faktorizační metoda. _x005F_x000D_
-8.	LU rozklad, vliv zaokrouhlovacích chyb, Choleského rozklad, QR rozklad. _x005F_x000D_
-9.	Iterační metody řešení soustav lineárních algebraických rovnic, klasické iterační metody. _x005F_x000D_
-10.	Výpočet vlastních čísel matic, mocninná metoda. _x005F_x000D_
-11.	Numerická integrace obyčejných diferenciálních rovnic, jednokrokové metody, metody typu Runge-Kutta, Rungeova-Kuttova metoda 2. řádu. _x005F_x000D_
+    <t>1.	Aproximace funkcí v R, Lagrangeův interpolační polynom, chyba Lagrangeovy interpolace. _x000D_
+2.	Kubický spline, konstrukce přirozeného kubického spline. _x000D_
+3.	Numerická integrace funkcí, Newtonovy-Cotesovy vzorce, složené Newtonovy-Cotesovy vzorce. _x000D_
+4.	Rombergova kvadratura, Gaussova kvadratura. _x000D_
+5.	Metody řešení nelineárních rovnic, Newtonova metoda, důkaz konvergence Newtonovy metody. _x000D_
+6.	Metoda postupných aproximací pro nelineární rovnice, kořeny polynomu, Hornerovo schéma. _x000D_
+7.	Soustavy lineárních rovnic, podmíněnost matic, Gaussova eliminace, pivotace, Gaussova eliminace jako faktorizační metoda. _x000D_
+8.	LU rozklad, vliv zaokrouhlovacích chyb, Choleského rozklad, QR rozklad. _x000D_
+9.	Iterační metody řešení soustav lineárních algebraických rovnic, klasické iterační metody. _x000D_
+10.	Výpočet vlastních čísel matic, mocninná metoda. _x000D_
+11.	Numerická integrace obyčejných diferenciálních rovnic, jednokrokové metody, metody typu Runge-Kutta, Rungeova-Kuttova metoda 2. řádu. _x000D_
 12.	Gradientní metody.</t>
   </si>
   <si>
@@ -1229,17 +1269,17 @@
 </t>
   </si>
   <si>
-    <t>1.	Architektura procesorů z hlediska programátora_x005F_x000D_
-2.	Adresování na úrovni HW (bázové a indexové registry)_x005F_x000D_
-3.	Hardwarová přerušení_x005F_x000D_
-4.	Bitově orientovaný přístup_x005F_x000D_
-5.	Paměť, architektura, správa_x005F_x000D_
-6.	Programovatelné hardwarové prostředky (porty, A/D převodníky, apod.)_x005F_x000D_
-7.	Assembler a jeho vztah ke strojovému kódu_x005F_x000D_
-8.	Assembler - makra_x005F_x000D_
-9.	Mechanismy programování vestavěných zařízení_x005F_x000D_
-10.	Vyšší programovací jazyky s podporou programování na HW úrovni_x005F_x000D_
-11.	Senzory (přístup, využití)_x005F_x000D_
+    <t>1.	Architektura procesorů z hlediska programátora_x000D_
+2.	Adresování na úrovni HW (bázové a indexové registry)_x000D_
+3.	Hardwarová přerušení_x000D_
+4.	Bitově orientovaný přístup_x000D_
+5.	Paměť, architektura, správa_x000D_
+6.	Programovatelné hardwarové prostředky (porty, A/D převodníky, apod.)_x000D_
+7.	Assembler a jeho vztah ke strojovému kódu_x000D_
+8.	Assembler - makra_x000D_
+9.	Mechanismy programování vestavěných zařízení_x000D_
+10.	Vyšší programovací jazyky s podporou programování na HW úrovni_x000D_
+11.	Senzory (přístup, využití)_x000D_
 12.	Aktuátory (typy, ovládání)</t>
   </si>
   <si>
@@ -1268,7 +1308,7 @@
     <t>Mgr.</t>
   </si>
   <si>
-    <t>0</t>
+    <t>[0]</t>
   </si>
 </sst>
 </file>
@@ -1330,8 +1370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:BQ27" totalsRowShown="0">
-  <autoFilter ref="A1:BQ27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:BQ29" totalsRowShown="0">
+  <autoFilter ref="A1:BQ29"/>
   <tableColumns count="69">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1692,7 +1732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ27"/>
+  <dimension ref="A1:BQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1918,133 +1958,135 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AI2" s="2">
         <v>9</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK2" s="2">
         <v>27</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM2" s="2">
         <v>0</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="2">
@@ -2052,13 +2094,13 @@
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
@@ -2075,54 +2117,56 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H3" s="2">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -2135,67 +2179,67 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI3" s="2">
         <v>1</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AK3" s="2">
         <v>2</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AM3" s="2">
         <v>0</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BI3" s="1"/>
       <c r="BJ3" s="2">
@@ -2203,13 +2247,13 @@
       </c>
       <c r="BK3" s="1"/>
       <c r="BL3" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
@@ -2226,146 +2270,136 @@
         <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H4" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AK4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AM4" s="2">
         <v>0</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>290</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
       <c r="BG4" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BI4" s="1"/>
       <c r="BJ4" s="2">
         <v>0</v>
       </c>
       <c r="BK4" s="1"/>
-      <c r="BL4" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN4" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
@@ -2381,135 +2415,135 @@
         <v>2023</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AD5" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AK5" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AM5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
       <c r="BG5" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="2">
@@ -2517,13 +2551,13 @@
       </c>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
@@ -2540,54 +2574,60 @@
         <v>2023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -2600,67 +2640,69 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI6" s="2">
         <v>4</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK6" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM6" s="2">
         <v>2</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO6" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="AP6" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI6" s="1"/>
       <c r="BJ6" s="2">
@@ -2668,13 +2710,13 @@
       </c>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
@@ -2691,54 +2733,56 @@
         <v>2023</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -2751,69 +2795,67 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI7" s="2">
         <v>4</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK7" s="2">
         <v>6</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM7" s="2">
         <v>2</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="AO7" s="1"/>
       <c r="AP7" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="2">
@@ -2821,13 +2863,13 @@
       </c>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -2844,139 +2886,131 @@
         <v>2023</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H8" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK8" s="2">
         <v>6</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM8" s="2">
         <v>2</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI8" s="1"/>
       <c r="BJ8" s="2">
@@ -2984,12 +3018,14 @@
       </c>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN8" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="1"/>
@@ -3011,131 +3047,133 @@
         <v>101</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
+      <c r="AA9" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI9" s="2">
         <v>6</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK9" s="2">
         <v>6</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM9" s="2">
         <v>2</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
       <c r="BG9" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI9" s="1"/>
       <c r="BJ9" s="2">
@@ -3143,13 +3181,13 @@
       </c>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
@@ -3166,131 +3204,137 @@
         <v>2023</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1" t="s">
-        <v>218</v>
-      </c>
+      <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AD10" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI10" s="2">
         <v>6</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK10" s="2">
         <v>6</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM10" s="2">
         <v>2</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI10" s="1"/>
       <c r="BJ10" s="2">
@@ -3298,13 +3342,13 @@
       </c>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="BM10" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
@@ -3321,60 +3365,62 @@
         <v>2023</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="V11" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -3383,69 +3429,69 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI11" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK11" s="2">
         <v>6</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI11" s="1"/>
       <c r="BJ11" s="2">
@@ -3453,13 +3499,13 @@
       </c>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
@@ -3476,59 +3522,63 @@
         <v>2023</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="V12" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -3536,69 +3586,69 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI12" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK12" s="2">
         <v>6</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
       <c r="BG12" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI12" s="1"/>
       <c r="BJ12" s="2">
@@ -3606,13 +3656,13 @@
       </c>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
@@ -3629,131 +3679,131 @@
         <v>2023</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H13" s="2">
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI13" s="2">
         <v>6</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK13" s="2">
         <v>6</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS13" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="AT13" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
       <c r="BG13" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI13" s="1"/>
       <c r="BJ13" s="2">
@@ -3761,12 +3811,14 @@
       </c>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN13" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1"/>
@@ -3782,131 +3834,133 @@
         <v>2023</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI14" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK14" s="2">
         <v>6</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AS14" s="1"/>
       <c r="AT14" s="1" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="2">
@@ -3914,13 +3968,13 @@
       </c>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
@@ -3937,133 +3991,133 @@
         <v>2023</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI15" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK15" s="2">
         <v>6</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM15" s="2">
         <v>2</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ15" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS15" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
       <c r="BG15" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="2">
@@ -4071,13 +4125,13 @@
       </c>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN15" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
@@ -4094,129 +4148,135 @@
         <v>2023</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI16" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK16" s="2">
         <v>6</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM16" s="2">
         <v>2</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS16" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
       <c r="BG16" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="2">
@@ -4224,13 +4284,13 @@
       </c>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="BM16" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
@@ -4247,22 +4307,22 @@
         <v>2023</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
@@ -4272,108 +4332,106 @@
         <v>125</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK17" s="2">
         <v>6</v>
       </c>
-      <c r="AJ17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK17" s="2">
-        <v>4</v>
-      </c>
       <c r="AL17" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM17" s="2">
         <v>2</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
       <c r="BG17" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI17" s="1"/>
       <c r="BJ17" s="2">
@@ -4381,13 +4439,13 @@
       </c>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="BM17" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
@@ -4404,131 +4462,135 @@
         <v>2023</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="V18" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
+      <c r="AA18" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK18" s="2">
         <v>4</v>
       </c>
-      <c r="AJ18" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>6</v>
-      </c>
       <c r="AL18" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM18" s="2">
         <v>2</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
       <c r="AY18" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="2">
@@ -4536,13 +4598,13 @@
       </c>
       <c r="BK18" s="1"/>
       <c r="BL18" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
@@ -4559,127 +4621,127 @@
         <v>2023</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI19" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AK19" s="2">
         <v>0</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AM19" s="2">
         <v>2</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
       <c r="BG19" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BI19" s="1"/>
       <c r="BJ19" s="2">
@@ -4687,13 +4749,13 @@
       </c>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
@@ -4710,137 +4772,133 @@
         <v>2023</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>6</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM20" s="2">
         <v>2</v>
       </c>
-      <c r="AJ20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK20" s="2">
-        <v>2</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AM20" s="2">
-        <v>0</v>
-      </c>
       <c r="AN20" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ20" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU20" s="1" t="s">
-        <v>307</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AZ20" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="AZ20" s="1"/>
       <c r="BA20" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
       <c r="BG20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="BI20" s="1"/>
       <c r="BJ20" s="2">
@@ -4848,12 +4906,14 @@
       </c>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN20" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="1"/>
@@ -4869,137 +4929,131 @@
         <v>2023</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AE21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM21" s="2">
         <v>2</v>
       </c>
-      <c r="AJ21" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK21" s="2">
-        <v>2</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>0</v>
-      </c>
       <c r="AN21" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ21" s="1" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AU21" s="1" t="s">
-        <v>308</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AZ21" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="AZ21" s="1"/>
       <c r="BA21" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
       <c r="BG21" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="2">
@@ -5007,12 +5061,14 @@
       </c>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="BM21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN21" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="BN21" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
@@ -5028,131 +5084,139 @@
         <v>2023</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H22" s="2">
         <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
+      <c r="AD22" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI22" s="2">
         <v>2</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AK22" s="2">
         <v>2</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AM22" s="2">
         <v>0</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO22" s="1" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AP22" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ22" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR22" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AU22" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="AU22" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AZ22" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="BA22" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
       <c r="BG22" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="2">
@@ -5160,13 +5224,13 @@
       </c>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="BM22" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN22" s="1" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
@@ -5183,131 +5247,139 @@
         <v>2023</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
+      <c r="AD23" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI23" s="2">
         <v>2</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AK23" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AM23" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AP23" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AU23" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="AU23" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AZ23" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="AZ23" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="BA23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
       <c r="BG23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="2">
@@ -5315,13 +5387,13 @@
       </c>
       <c r="BK23" s="1"/>
       <c r="BL23" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="BM23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN23" s="1" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
@@ -5338,131 +5410,133 @@
         <v>2023</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
         <v>124</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="V24" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AK24" s="2">
         <v>2</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AM24" s="2">
         <v>0</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AP24" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AQ24" s="1" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="AR24" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS24" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="AT24" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
       <c r="BG24" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BH24" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="2">
@@ -5470,12 +5544,14 @@
       </c>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="BM24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN24" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="BN24" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
@@ -5491,133 +5567,133 @@
         <v>2023</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H25" s="2">
         <v>5</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI25" s="2">
         <v>2</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AK25" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AM25" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN25" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AO25" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AP25" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ25" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AR25" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
       <c r="BG25" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BH25" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="2">
@@ -5625,13 +5701,13 @@
       </c>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN25" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
@@ -5648,133 +5724,133 @@
         <v>2023</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H26" s="2">
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK26" s="2">
         <v>2</v>
       </c>
-      <c r="AJ26" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>1</v>
-      </c>
       <c r="AL26" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AM26" s="2">
         <v>0</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS26" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
       <c r="BG26" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BI26" s="1"/>
       <c r="BJ26" s="2">
@@ -5782,13 +5858,13 @@
       </c>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="BM26" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN26" s="1" t="s">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
@@ -5805,125 +5881,135 @@
         <v>2023</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="V27" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="AA27" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AI27" s="2">
         <v>2</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AK27" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AM27" s="2">
         <v>0</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO27" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AP27" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AQ27" s="1" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AS27" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
       <c r="BG27" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BH27" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="2">
@@ -5931,17 +6017,329 @@
       </c>
       <c r="BK27" s="1"/>
       <c r="BL27" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="BM27" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BN27" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
+    </row>
+    <row r="28" spans="1:69">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN28" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+    </row>
+    <row r="29" spans="1:69">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR29" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/garant_neprednasi.xlsx
+++ b/results/garant_neprednasi.xlsx
@@ -745,80 +745,80 @@
     <t>KI/BTE, KI/ZKR</t>
   </si>
   <si>
-    <t>'Nelson, B., Phillips, A., Steuart, Ch. Guide to computer forensics and investigations. 4th ed. Boston: Course Technology Cengage Learning, 2010. Preparing tomorrow s information security professionals. ISBN 978-1-435-49883-9. ',
-'Wilhelm, T., Neely, M., ed. Professional penetration testing: creating and learning in a hacking lab. Second edition. Amsterdam: Syngress, an imprint of Elsevier, 2013. ISBN 978-1-59749-993-4. ',
-'Orebaugh, A. Wireshark a Ethereal: kompletní průvodce analýzou a diagnostikou sítí. Brno: Computer Press, 2008. ISBN 978-80-251-2048-4. ',
-'Gogolin, G. Digital forensics explained. Boca Raton: CRC Press, Taylor &amp; Francis Group, 2013. ISBN 978-1-4398-7495-0. ',
-'Erickson, J. Hacking: the art of exploitation. 2nd edition. San Francisco: No Starch Press, 2008. ',
-'Shema, M., Alcover, J. B., ed. Hacking web apps: detecting and preventing web application security problems. Waltham: Syngress, 2012. ISBN 978-1-59749-951-4. ',
+    <t>'Nelson, B., Phillips, A., Steuart, Ch. Guide to computer forensics and investigations. 4th ed. Boston: Course Technology Cengage Learning, 2010. Preparing tomorrow s information security professionals. ISBN 978-1-435-49883-9. ',_x000D_
+'Wilhelm, T., Neely, M., ed. Professional penetration testing: creating and learning in a hacking lab. Second edition. Amsterdam: Syngress, an imprint of Elsevier, 2013. ISBN 978-1-59749-993-4. ',_x000D_
+'Orebaugh, A. Wireshark a Ethereal: kompletní průvodce analýzou a diagnostikou sítí. Brno: Computer Press, 2008. ISBN 978-80-251-2048-4. ',_x000D_
+'Gogolin, G. Digital forensics explained. Boca Raton: CRC Press, Taylor &amp; Francis Group, 2013. ISBN 978-1-4398-7495-0. ',_x000D_
+'Erickson, J. Hacking: the art of exploitation. 2nd edition. San Francisco: No Starch Press, 2008. ',_x000D_
+'Shema, M., Alcover, J. B., ed. Hacking web apps: detecting and preventing web application security problems. Waltham: Syngress, 2012. ISBN 978-1-59749-951-4. ',_x000D_
 'Muniz, J., McIntyre, G., Alfardan, N. Security operations center. Indianopolis: Cisco Press, 2016. Security. ISBN 978-0-13-405201-4. '</t>
   </si>
   <si>
-    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',
-'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',
-'Oracle and/or its affiliates. ',
-'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',
-'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',
-'Windows Presentation Foundation Microsoft Docs. [online]. ',
-'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',
-'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',
-'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',
+    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',_x000D_
+'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',_x000D_
+'Oracle and/or its affiliates. ',_x000D_
+'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',_x000D_
+'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',_x000D_
+'Windows Presentation Foundation Microsoft Docs. [online]. ',_x000D_
+'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',_x000D_
+'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',_x000D_
+'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',_x000D_
 'Documentation | Electron. Electron | Build cross platform desktop apps with JavaScript, HTML, and CSS. [online]. '</t>
   </si>
   <si>
-    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',
-'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',
-'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',
-'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',
-'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',
-'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',
+    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',_x000D_
+'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',_x000D_
+'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',_x000D_
+'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',_x000D_
+'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',_x000D_
+'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',_x000D_
 'Míka, S. Matematická optimalizace. Západočeská univerzita, Plzeň, 1997. ISBN 80-7082-319-4.'</t>
   </si>
   <si>
-    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',
-'AMD. OpenCL Zone. ',
-'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',
-'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',
-'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',
+    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',_x000D_
+'AMD. OpenCL Zone. ',_x000D_
+'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',_x000D_
+'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',_x000D_
+'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',_x000D_
 'Chandra R. Parallel Programming in OpenMP. Morgan Kaufmann, 2000. ISBN 978-1558606715.'</t>
   </si>
   <si>
-    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
+    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',_x000D_
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
 'Meyer, A., Chlipala, A. 6.042J Mathematics for Computer Science. Massachusetts Institute of Technology: MIT OpenCourseWare, 2015. '</t>
   </si>
   <si>
-    <t>'Felcman J. Numerická matematika. 2013. ',
-'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',
-'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',
-'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',
+    <t>'Felcman J. Numerická matematika. 2013. ',_x000D_
+'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',_x000D_
+'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',_x000D_
+'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',_x000D_
 'Quarteroni, A., Sacco, R., and Saleri, F. Numerical Mathematics (2ndedn), Volume 37 of Texts in Applied Mathematics. Springer, Berlin. ISBN 0-387-98959-5. '</t>
   </si>
   <si>
-    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',
-'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',
-'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',
+    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',_x000D_
+'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',_x000D_
+'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',_x000D_
 'Míka S. Matematická optimalizace. ZČU Plzeň, 1997. '</t>
   </si>
   <si>
-    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',
-'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',
-'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',
-'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',
-'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',
+    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',_x000D_
+'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',_x000D_
+'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',_x000D_
+'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',_x000D_
+'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',_x000D_
 'Vacek V. Učebnice programování Atmel s jádrem 8051. BEN- Technická literatura, Praha, 2001. BEN-Technická literatura, Praha, 2001. ISBN 80-7300-043-1.'</t>
   </si>
   <si>
-    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
+    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',_x000D_
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
 'https://ocw.mit.edu/courses/electrical-engineering-and-computer-science/6-042j-mathematics-for-computer-science-spring-2015/'</t>
   </si>
   <si>
@@ -843,7 +843,7 @@
     <t>Předmět je zaměřen na problematiku zpracování velkého a rychle rostoucího objemu dat prostřednictvím technologie Hadoop respektive některých typů tzv. NoSQL databází. Přednášky jsou zaměřeny na základní principy distribuovaných úložišť a distribuované zpracování dat, cvičení pak na implementaci ukázkových příkladů. Úvodní přednášky se věnují instalaci jednotlivých softwarových komponent a jejich spolupráci s využitím virtualizovaných kontejnerů.</t>
   </si>
   <si>
-    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti
+    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti_x000D_
 se seznámí s moderními nástroji pro její zajištění.</t>
   </si>
   <si>
@@ -871,28 +871,28 @@
     <t>Předmět je zaměřen na počítačové simulace využitelné v široké oblasti od ekonomických a dopravních problémů po simulace biologických či chemických dějů. Přednášky jsou zaměřeny na prezentaci existujících nástrojů včetně ukázek použití. V rámci cvičení jsou navrhovány jednoduché modely dynamických systémů, které jsou implementovány na příslušných simulačních platformách, a výsledky simulací jsou vizualizovány a analyzovány.</t>
   </si>
   <si>
-    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů
+    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů_x000D_
 s ohledem na potřeby v dalších oblastech informatiky, jako je algoritmizace, kódování a šifrování, či optimalizace.</t>
   </si>
   <si>
-    <t>1. Mezipředmětové přesahy IKT do oborových didaktik (1 týden)
-2. Výukové aplikace a online služby pro podporu oborových didaktik (1 týden)
-3. Využití IKT v jiných didaktikách (3 týdny)
-a. čtenářská gramotnost
-b. matematická gramotnost
-c. finanční gramotnost
+    <t>1. Mezipředmětové přesahy IKT do oborových didaktik (1 týden)_x000D_
+2. Výukové aplikace a online služby pro podporu oborových didaktik (1 týden)_x000D_
+3. Využití IKT v jiných didaktikách (3 týdny)_x000D_
+a. čtenářská gramotnost_x000D_
+b. matematická gramotnost_x000D_
+c. finanční gramotnost_x000D_
 d. přírodovědná gramotnost</t>
   </si>
   <si>
-    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na
-pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení
-základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem
+    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na_x000D_
+pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení_x000D_
+základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem_x000D_
 kombinačních obvodů. Ke každé části přísluší samostatná tříhodinová laboratorní praktika.</t>
   </si>
   <si>
-    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními
-pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani
-analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších
+    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními_x000D_
+pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani_x000D_
+analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších_x000D_
 předmětech.</t>
   </si>
   <si>
@@ -918,12 +918,12 @@
     <t>Kombinovaná</t>
   </si>
   <si>
-    <t>Zápočet: laboratorní úloha
+    <t>Zápočet: laboratorní úloha_x000D_
 Zkouška: ústní</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: laboratorní úloha
-Zkouška: ústní
+    <t xml:space="preserve">Zápočet: laboratorní úloha_x000D_
+Zkouška: ústní_x000D_
 </t>
   </si>
   <si>
@@ -931,8 +931,9 @@
 Zkouška je udělena za vypracování programu na zvolené téma, technologii. Známka je určena na základě kvality programu a obtížnosti zvoleného tématu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému
-Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)
+    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému_x000D_
+_x000D_
+Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)_x000D_
 </t>
   </si>
   <si>
@@ -946,33 +947,34 @@
     <t>Podmínkou získání zápočtu je úspěšně napsaný písemný test, zpracování seminární práce a její obhajoba. Zkouška bude ústní.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: seminární práce_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)
-Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)
+    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)_x000D_
+_x000D_
+Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce
-Zkouška: ústní
+    <t xml:space="preserve">Zápočet: seminární práce_x000D_
+Zkouška: ústní_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)
-Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací
+    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)_x000D_
+Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací_x000D_
 </t>
   </si>
   <si>
@@ -982,11 +984,11 @@
 </t>
   </si>
   <si>
-    <t>- tvořivá práce ve skupině,
+    <t>- tvořivá práce ve skupině,_x000D_
 - prezentace výsledků řešení projektu před ostatními skupinami.</t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích
+    <t>Zápočet: aktivní účast na laboratořích_x000D_
 Zkouška: ústní</t>
   </si>
   <si>
@@ -1011,25 +1013,26 @@
 V prvním týdnu zkouškového období se bude psát jedna zápočtová písemná práce. Zápočet bude udělen za získání aspoň 70 bodů ze 100 možných. V případě nezískání zápočtu je možné zápočtovou písemnou práci dvakrát opakovat, přičemž podmínky udělení zápočtu jsou stále stejné.</t>
   </si>
   <si>
-    <t>1. Úvod do problematiky SOC
-2. Logování aktivních síťových prvků a endpointů
-3. Logování AAA systémů a jejich konfigurace
-4. Logika a funkce automatizovaných řešení (3 týdny)
+    <t>1. Úvod do problematiky SOC_x000D_
+2. Logování aktivních síťových prvků a endpointů_x000D_
+3. Logování AAA systémů a jejich konfigurace_x000D_
+4. Logika a funkce automatizovaných řešení (3 týdny)_x000D_
 5. Opensource (LinuxBased) systémy pro analýzu provozu infrastruktury (3 týdny)</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění.
-1. Úvod do datové bezpečnosti
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat
-4. DLP systémy
-5. Systémy vysoké dostupnosti datových úložišť
-6. Zálohovací technologie pro koncové prvky
-7. Zálohovací technologie pro infrastrukturní systémy
-8. Archivační technologie
-9. Systémy logování a struktura logů pro framework AAA
-10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
-13. - 14. Vyhledávání souvislostí v uložených datech
+    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění._x000D_
+_x000D_
+1. Úvod do datové bezpečnosti_x000D_
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
+4. DLP systémy_x000D_
+5. Systémy vysoké dostupnosti datových úložišť_x000D_
+6. Zálohovací technologie pro koncové prvky_x000D_
+7. Zálohovací technologie pro infrastrukturní systémy_x000D_
+8. Archivační technologie_x000D_
+9. Systémy logování a struktura logů pro framework AAA_x000D_
+10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
+13. - 14. Vyhledávání souvislostí v uložených datech_x000D_
 </t>
   </si>
   <si>
@@ -1047,76 +1050,77 @@
 12.	Tvorba síťových aplikací</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů
-2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt
-3. Architektura clusteru: přehled Hadoop
-4. Ukládání dat (storage) HDFS, HiveQL
-5. MapReduce framework (principy)
-6. Spark a jeho architektura
-7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)
-8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)
+    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů_x000D_
+2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt_x000D_
+3. Architektura clusteru: přehled Hadoop_x000D_
+4. Ukládání dat (storage) HDFS, HiveQL_x000D_
+5. MapReduce framework (principy)_x000D_
+6. Spark a jeho architektura_x000D_
+7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)_x000D_
+8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)_x000D_
 </t>
   </si>
   <si>
-    <t>1. Úvod do datové bezpečnosti
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat
-4. DLP systémy
-5. Systémy vysoké dostupnosti datových úložišť
-6. Zálohovací technologie pro koncové prvky
-7. Zálohovací technologie pro infrastrukturní systémy
-8. Archivační technologie
-9. Systémy logování a struktura logů pro framework AAA
-10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
+    <t>1. Úvod do datové bezpečnosti_x000D_
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
+4. DLP systémy_x000D_
+5. Systémy vysoké dostupnosti datových úložišť_x000D_
+6. Zálohovací technologie pro koncové prvky_x000D_
+7. Zálohovací technologie pro infrastrukturní systémy_x000D_
+8. Archivační technologie_x000D_
+9. Systémy logování a struktura logů pro framework AAA_x000D_
+10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
 13. ? 14. Vyhledávání souvislostí v uložených datech</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti
-2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP
-5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení
-8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT
-10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace
-12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace
+    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti_x000D_
+2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP_x000D_
+5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení_x000D_
+8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT_x000D_
+10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace_x000D_
+12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh
-2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace
-3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda
-4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam
-6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody
-7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda
-8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda
-9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search
-11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody
-13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení
+    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh_x000D_
+2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace_x000D_
+3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda_x000D_
+4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam_x000D_
+6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody_x000D_
+7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda_x000D_
+8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda_x000D_
+9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search_x000D_
+11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody_x000D_
+13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)
-3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)
-4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front
-5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)
-7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)
-9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)
-12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)
-Exkurze + cvičení
-1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking
-4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek
-Předmět je vyučován v anglickém jazyce.
+    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)_x000D_
+3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)_x000D_
+4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front_x000D_
+5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)_x000D_
+7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)_x000D_
+9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)_x000D_
+12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)_x000D_
+Exkurze + cvičení_x000D_
+1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking_x000D_
+4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek_x000D_
+_x000D_
+Předmět je vyučován v anglickém jazyce._x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv
-2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace
-4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů
-6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)
-8. SVD rozklad, jeho výpočet a aplikace
-9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence
-10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda
-11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo
-12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod
-13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace
+    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv_x000D_
+2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace_x000D_
+4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů_x000D_
+6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)_x000D_
+8. SVD rozklad, jeho výpočet a aplikace_x000D_
+9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence_x000D_
+10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda_x000D_
+11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo_x000D_
+12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod_x000D_
+13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace_x000D_
 </t>
   </si>
   <si>
@@ -1135,16 +1139,16 @@
 13.	Automatická paralelizace (např. Parallel Computing Toolbox Matlabu)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R
-2. Základy práce s daty a datovými soubory a jejich vizualizace
-3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)
-4. Pokročilé techniky vizualizace dat
-5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika
-7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)
-9. Základy textové analýzy, analýza sentimentu
-10. Analýza sítí
-11. - 12. Reporty, dashboardy a interaktivní vizualizace dat
-13. Shrnutí, diskuse nad zadáními seminárních prací
+    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R_x000D_
+2. Základy práce s daty a datovými soubory a jejich vizualizace_x000D_
+3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)_x000D_
+4. Pokročilé techniky vizualizace dat_x000D_
+5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika_x000D_
+7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)_x000D_
+9. Základy textové analýzy, analýza sentimentu_x000D_
+10. Analýza sítí_x000D_
+11. - 12. Reporty, dashboardy a interaktivní vizualizace dat_x000D_
+13. Shrnutí, diskuse nad zadáními seminárních prací_x000D_
 </t>
   </si>
   <si>
@@ -1163,16 +1167,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů
-2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace
-3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů
-4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)
-5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)
-6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely
-7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)
-8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)
-9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů
-Předmět je vyučován v anglickém jazyce.
+    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů_x000D_
+2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace_x000D_
+3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů_x000D_
+4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)_x000D_
+5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)_x000D_
+6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely_x000D_
+7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)_x000D_
+8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)_x000D_
+9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů_x000D_
+Předmět je vyučován v anglickém jazyce._x000D_
 </t>
   </si>
   <si>
@@ -1205,40 +1209,40 @@
 redukce: NP-těžký problém, NP-úplný problém; výpočetně obtížné problémy teorie grafů</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní
-vodivost, PN přechod)
-2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)
-3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,
-řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)
-4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,
-fázorový diagram, rezonance)
-5. Grafické řešení nelineárních elektronických obvodů
-6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)
-7. Pasivní součásti elektrických obvodů (RLC)
-Digitální část
-8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII
-9. Logické funkce, Booleova algebra, logické výrazy
-10. Kombinační logické sítě
-11. Minimalizace normálních forem výrazů
-12. Syntéza kombinačních obvodů
+    <t>_x000D_
+1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní_x000D_
+vodivost, PN přechod)_x000D_
+2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)_x000D_
+3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,_x000D_
+řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)_x000D_
+4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,_x000D_
+fázorový diagram, rezonance)_x000D_
+5. Grafické řešení nelineárních elektronických obvodů_x000D_
+6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)_x000D_
+7. Pasivní součásti elektrických obvodů (RLC)_x000D_
+Digitální část_x000D_
+8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII_x000D_
+9. Logické funkce, Booleova algebra, logické výrazy_x000D_
+10. Kombinační logické sítě_x000D_
+11. Minimalizace normálních forem výrazů_x000D_
+12. Syntéza kombinačních obvodů_x000D_
 13. Fyzikální realizace a analýza kombinačních logických členů</t>
   </si>
   <si>
-    <t>1. Základní pojmy kryptologie, Modulární aritmetika
-2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti
-3. Klasická kryptologie (substituční a transpoziční šifry)
-4. Symetrická kryptografie ? blokové šifry (DES, AES)
-5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)
-6. Kryptografie veřejného klíče (RSA, DSA, DH)
-7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)
-8. Digitální měny, HW a SW peněženky, blockchain (principy)
-9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)
-10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)
-11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií
-(typy, techniky, možnosti)
-12. AAA framework (principy, dělení, účel, protokoly, využití)
-13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu
+    <t>1. Základní pojmy kryptologie, Modulární aritmetika_x000D_
+2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti_x000D_
+3. Klasická kryptologie (substituční a transpoziční šifry)_x000D_
+4. Symetrická kryptografie ? blokové šifry (DES, AES)_x000D_
+5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)_x000D_
+6. Kryptografie veřejného klíče (RSA, DSA, DH)_x000D_
+7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)_x000D_
+8. Digitální měny, HW a SW peněženky, blockchain (principy)_x000D_
+9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)_x000D_
+10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)_x000D_
+11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií_x000D_
+(typy, techniky, možnosti)_x000D_
+12. AAA framework (principy, dělení, účel, protokoly, využití)_x000D_
+13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu_x000D_
 14. Ochrana dat na úrovni kabelových sítí (principy, dělení, využití)</t>
   </si>
   <si>
@@ -1256,16 +1260,16 @@
 12.	Gradientní metody.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh.
-2.	Úlohy derivační a nederivační. 
-3.	Úlohy jednorozměrné optimalizace.
-4.	Úlohy vícerozměrné optimalizace.
-5.	Úlohy lineární optimalizace.
-6.	Simplexová metoda.
-7.	Dopravní problém.
-8.	Metoda nejmenších čtverců.
-9.	Úlohy nelineární optimalizace s omezeními.
-10.	Úlohy nelineární optimalizace bez omezení.
+    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh._x000D_
+2.	Úlohy derivační a nederivační. _x000D_
+3.	Úlohy jednorozměrné optimalizace._x000D_
+4.	Úlohy vícerozměrné optimalizace._x000D_
+5.	Úlohy lineární optimalizace._x000D_
+6.	Simplexová metoda._x000D_
+7.	Dopravní problém._x000D_
+8.	Metoda nejmenších čtverců._x000D_
+9.	Úlohy nelineární optimalizace s omezeními._x000D_
+10.	Úlohy nelineární optimalizace bez omezení._x000D_
 </t>
   </si>
   <si>
@@ -1286,7 +1290,7 @@
     <t>Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>
-    <t>Základní znalosti z oblasti numerické matematiky
+    <t>Základní znalosti z oblasti numerické matematiky_x000D_
 Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>

--- a/results/garant_neprednasi.xlsx
+++ b/results/garant_neprednasi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="323">
   <si>
     <t>katedra</t>
   </si>
@@ -277,9 +277,6 @@
     <t>KTZI2</t>
   </si>
   <si>
-    <t>KVICT</t>
-  </si>
-  <si>
     <t>KZEL</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>Teoretické základy informatiky II</t>
   </si>
   <si>
-    <t>Využití ICT ve výuce</t>
-  </si>
-  <si>
     <t>Základy elektroniky</t>
   </si>
   <si>
@@ -745,80 +739,80 @@
     <t>KI/BTE, KI/ZKR</t>
   </si>
   <si>
-    <t>'Nelson, B., Phillips, A., Steuart, Ch. Guide to computer forensics and investigations. 4th ed. Boston: Course Technology Cengage Learning, 2010. Preparing tomorrow s information security professionals. ISBN 978-1-435-49883-9. ',_x000D_
-'Wilhelm, T., Neely, M., ed. Professional penetration testing: creating and learning in a hacking lab. Second edition. Amsterdam: Syngress, an imprint of Elsevier, 2013. ISBN 978-1-59749-993-4. ',_x000D_
-'Orebaugh, A. Wireshark a Ethereal: kompletní průvodce analýzou a diagnostikou sítí. Brno: Computer Press, 2008. ISBN 978-80-251-2048-4. ',_x000D_
-'Gogolin, G. Digital forensics explained. Boca Raton: CRC Press, Taylor &amp; Francis Group, 2013. ISBN 978-1-4398-7495-0. ',_x000D_
-'Erickson, J. Hacking: the art of exploitation. 2nd edition. San Francisco: No Starch Press, 2008. ',_x000D_
-'Shema, M., Alcover, J. B., ed. Hacking web apps: detecting and preventing web application security problems. Waltham: Syngress, 2012. ISBN 978-1-59749-951-4. ',_x000D_
+    <t>'Nelson, B., Phillips, A., Steuart, Ch. Guide to computer forensics and investigations. 4th ed. Boston: Course Technology Cengage Learning, 2010. Preparing tomorrow s information security professionals. ISBN 978-1-435-49883-9. ',
+'Wilhelm, T., Neely, M., ed. Professional penetration testing: creating and learning in a hacking lab. Second edition. Amsterdam: Syngress, an imprint of Elsevier, 2013. ISBN 978-1-59749-993-4. ',
+'Orebaugh, A. Wireshark a Ethereal: kompletní průvodce analýzou a diagnostikou sítí. Brno: Computer Press, 2008. ISBN 978-80-251-2048-4. ',
+'Gogolin, G. Digital forensics explained. Boca Raton: CRC Press, Taylor &amp; Francis Group, 2013. ISBN 978-1-4398-7495-0. ',
+'Erickson, J. Hacking: the art of exploitation. 2nd edition. San Francisco: No Starch Press, 2008. ',
+'Shema, M., Alcover, J. B., ed. Hacking web apps: detecting and preventing web application security problems. Waltham: Syngress, 2012. ISBN 978-1-59749-951-4. ',
 'Muniz, J., McIntyre, G., Alfardan, N. Security operations center. Indianopolis: Cisco Press, 2016. Security. ISBN 978-0-13-405201-4. '</t>
   </si>
   <si>
-    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',_x000D_
-'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',_x000D_
-'Oracle and/or its affiliates. ',_x000D_
-'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',_x000D_
-'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',_x000D_
-'Windows Presentation Foundation Microsoft Docs. [online]. ',_x000D_
-'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',_x000D_
-'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',_x000D_
-'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',_x000D_
+    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',
+'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',
+'Oracle and/or its affiliates. ',
+'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',
+'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',
+'Windows Presentation Foundation Microsoft Docs. [online]. ',
+'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',
+'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',
+'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',
 'Documentation | Electron. Electron | Build cross platform desktop apps with JavaScript, HTML, and CSS. [online]. '</t>
   </si>
   <si>
-    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',_x000D_
-'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',_x000D_
-'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',_x000D_
-'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',_x000D_
-'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',_x000D_
-'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',_x000D_
+    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',
+'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',
+'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',
+'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',
+'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',
+'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',
 'Míka, S. Matematická optimalizace. Západočeská univerzita, Plzeň, 1997. ISBN 80-7082-319-4.'</t>
   </si>
   <si>
-    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',_x000D_
-'AMD. OpenCL Zone. ',_x000D_
-'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',_x000D_
-'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',_x000D_
-'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',_x000D_
+    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',
+'AMD. OpenCL Zone. ',
+'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',
+'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',
+'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',
 'Chandra R. Parallel Programming in OpenMP. Morgan Kaufmann, 2000. ISBN 978-1558606715.'</t>
   </si>
   <si>
-    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',_x000D_
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
+    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
 'Meyer, A., Chlipala, A. 6.042J Mathematics for Computer Science. Massachusetts Institute of Technology: MIT OpenCourseWare, 2015. '</t>
   </si>
   <si>
-    <t>'Felcman J. Numerická matematika. 2013. ',_x000D_
-'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',_x000D_
-'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',_x000D_
-'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',_x000D_
+    <t>'Felcman J. Numerická matematika. 2013. ',
+'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',
+'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',
+'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',
 'Quarteroni, A., Sacco, R., and Saleri, F. Numerical Mathematics (2ndedn), Volume 37 of Texts in Applied Mathematics. Springer, Berlin. ISBN 0-387-98959-5. '</t>
   </si>
   <si>
-    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',_x000D_
-'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',_x000D_
-'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',_x000D_
+    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',
+'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',
+'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',
 'Míka S. Matematická optimalizace. ZČU Plzeň, 1997. '</t>
   </si>
   <si>
-    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',_x000D_
-'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',_x000D_
-'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',_x000D_
-'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',_x000D_
-'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',_x000D_
+    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',
+'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',
+'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',
+'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',
+'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',
 'Vacek V. Učebnice programování Atmel s jádrem 8051. BEN- Technická literatura, Praha, 2001. BEN-Technická literatura, Praha, 2001. ISBN 80-7300-043-1.'</t>
   </si>
   <si>
-    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',_x000D_
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
+    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
 'https://ocw.mit.edu/courses/electrical-engineering-and-computer-science/6-042j-mathematics-for-computer-science-spring-2015/'</t>
   </si>
   <si>
@@ -843,7 +837,7 @@
     <t>Předmět je zaměřen na problematiku zpracování velkého a rychle rostoucího objemu dat prostřednictvím technologie Hadoop respektive některých typů tzv. NoSQL databází. Přednášky jsou zaměřeny na základní principy distribuovaných úložišť a distribuované zpracování dat, cvičení pak na implementaci ukázkových příkladů. Úvodní přednášky se věnují instalaci jednotlivých softwarových komponent a jejich spolupráci s využitím virtualizovaných kontejnerů.</t>
   </si>
   <si>
-    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti_x000D_
+    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti
 se seznámí s moderními nástroji pro její zajištění.</t>
   </si>
   <si>
@@ -871,28 +865,19 @@
     <t>Předmět je zaměřen na počítačové simulace využitelné v široké oblasti od ekonomických a dopravních problémů po simulace biologických či chemických dějů. Přednášky jsou zaměřeny na prezentaci existujících nástrojů včetně ukázek použití. V rámci cvičení jsou navrhovány jednoduché modely dynamických systémů, které jsou implementovány na příslušných simulačních platformách, a výsledky simulací jsou vizualizovány a analyzovány.</t>
   </si>
   <si>
-    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů_x000D_
+    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů
 s ohledem na potřeby v dalších oblastech informatiky, jako je algoritmizace, kódování a šifrování, či optimalizace.</t>
   </si>
   <si>
-    <t>1. Mezipředmětové přesahy IKT do oborových didaktik (1 týden)_x000D_
-2. Výukové aplikace a online služby pro podporu oborových didaktik (1 týden)_x000D_
-3. Využití IKT v jiných didaktikách (3 týdny)_x000D_
-a. čtenářská gramotnost_x000D_
-b. matematická gramotnost_x000D_
-c. finanční gramotnost_x000D_
-d. přírodovědná gramotnost</t>
-  </si>
-  <si>
-    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na_x000D_
-pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení_x000D_
-základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem_x000D_
+    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na
+pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení
+základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem
 kombinačních obvodů. Ke každé části přísluší samostatná tříhodinová laboratorní praktika.</t>
   </si>
   <si>
-    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními_x000D_
-pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani_x000D_
-analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších_x000D_
+    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními
+pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani
+analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších
 předmětech.</t>
   </si>
   <si>
@@ -918,12 +903,12 @@
     <t>Kombinovaná</t>
   </si>
   <si>
-    <t>Zápočet: laboratorní úloha_x000D_
+    <t>Zápočet: laboratorní úloha
 Zkouška: ústní</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: laboratorní úloha_x000D_
-Zkouška: ústní_x000D_
+    <t xml:space="preserve">Zápočet: laboratorní úloha
+Zkouška: ústní
 </t>
   </si>
   <si>
@@ -931,9 +916,8 @@
 Zkouška je udělena za vypracování programu na zvolené téma, technologii. Známka je určena na základě kvality programu a obtížnosti zvoleného tématu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému_x000D_
-_x000D_
-Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)_x000D_
+    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému
+Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)
 </t>
   </si>
   <si>
@@ -947,34 +931,33 @@
     <t>Podmínkou získání zápočtu je úspěšně napsaný písemný test, zpracování seminární práce a její obhajoba. Zkouška bude ústní.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)_x000D_
-_x000D_
-Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)
+Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce_x000D_
-Zkouška: ústní_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce
+Zkouška: ústní
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma_x000D_
-Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
+    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma
+Zkouška: ústní, zaměřená na ověření teoretických znalostí
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)_x000D_
-Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací_x000D_
+    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)
+Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací
 </t>
   </si>
   <si>
@@ -984,11 +967,7 @@
 </t>
   </si>
   <si>
-    <t>- tvořivá práce ve skupině,_x000D_
-- prezentace výsledků řešení projektu před ostatními skupinami.</t>
-  </si>
-  <si>
-    <t>Zápočet: aktivní účast na laboratořích_x000D_
+    <t>Zápočet: aktivní účast na laboratořích
 Zkouška: ústní</t>
   </si>
   <si>
@@ -1013,26 +992,25 @@
 V prvním týdnu zkouškového období se bude psát jedna zápočtová písemná práce. Zápočet bude udělen za získání aspoň 70 bodů ze 100 možných. V případě nezískání zápočtu je možné zápočtovou písemnou práci dvakrát opakovat, přičemž podmínky udělení zápočtu jsou stále stejné.</t>
   </si>
   <si>
-    <t>1. Úvod do problematiky SOC_x000D_
-2. Logování aktivních síťových prvků a endpointů_x000D_
-3. Logování AAA systémů a jejich konfigurace_x000D_
-4. Logika a funkce automatizovaných řešení (3 týdny)_x000D_
+    <t>1. Úvod do problematiky SOC
+2. Logování aktivních síťových prvků a endpointů
+3. Logování AAA systémů a jejich konfigurace
+4. Logika a funkce automatizovaných řešení (3 týdny)
 5. Opensource (LinuxBased) systémy pro analýzu provozu infrastruktury (3 týdny)</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění._x000D_
-_x000D_
-1. Úvod do datové bezpečnosti_x000D_
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
-4. DLP systémy_x000D_
-5. Systémy vysoké dostupnosti datových úložišť_x000D_
-6. Zálohovací technologie pro koncové prvky_x000D_
-7. Zálohovací technologie pro infrastrukturní systémy_x000D_
-8. Archivační technologie_x000D_
-9. Systémy logování a struktura logů pro framework AAA_x000D_
-10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
-13. - 14. Vyhledávání souvislostí v uložených datech_x000D_
+    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění.
+1. Úvod do datové bezpečnosti
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat
+4. DLP systémy
+5. Systémy vysoké dostupnosti datových úložišť
+6. Zálohovací technologie pro koncové prvky
+7. Zálohovací technologie pro infrastrukturní systémy
+8. Archivační technologie
+9. Systémy logování a struktura logů pro framework AAA
+10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
+13. - 14. Vyhledávání souvislostí v uložených datech
 </t>
   </si>
   <si>
@@ -1050,77 +1028,76 @@
 12.	Tvorba síťových aplikací</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů_x000D_
-2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt_x000D_
-3. Architektura clusteru: přehled Hadoop_x000D_
-4. Ukládání dat (storage) HDFS, HiveQL_x000D_
-5. MapReduce framework (principy)_x000D_
-6. Spark a jeho architektura_x000D_
-7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)_x000D_
-8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)_x000D_
+    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů
+2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt
+3. Architektura clusteru: přehled Hadoop
+4. Ukládání dat (storage) HDFS, HiveQL
+5. MapReduce framework (principy)
+6. Spark a jeho architektura
+7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)
+8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)
 </t>
   </si>
   <si>
-    <t>1. Úvod do datové bezpečnosti_x000D_
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
-4. DLP systémy_x000D_
-5. Systémy vysoké dostupnosti datových úložišť_x000D_
-6. Zálohovací technologie pro koncové prvky_x000D_
-7. Zálohovací technologie pro infrastrukturní systémy_x000D_
-8. Archivační technologie_x000D_
-9. Systémy logování a struktura logů pro framework AAA_x000D_
-10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
+    <t>1. Úvod do datové bezpečnosti
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat
+4. DLP systémy
+5. Systémy vysoké dostupnosti datových úložišť
+6. Zálohovací technologie pro koncové prvky
+7. Zálohovací technologie pro infrastrukturní systémy
+8. Archivační technologie
+9. Systémy logování a struktura logů pro framework AAA
+10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
 13. ? 14. Vyhledávání souvislostí v uložených datech</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti_x000D_
-2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP_x000D_
-5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení_x000D_
-8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT_x000D_
-10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace_x000D_
-12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace_x000D_
+    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti
+2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP
+5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení
+8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT
+10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace
+12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh_x000D_
-2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace_x000D_
-3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda_x000D_
-4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam_x000D_
-6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody_x000D_
-7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda_x000D_
-8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda_x000D_
-9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search_x000D_
-11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody_x000D_
-13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení_x000D_
+    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh
+2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace
+3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda
+4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam
+6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody
+7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda
+8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda
+9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search
+11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody
+13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)_x000D_
-3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)_x000D_
-4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front_x000D_
-5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)_x000D_
-7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)_x000D_
-9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)_x000D_
-12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)_x000D_
-Exkurze + cvičení_x000D_
-1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking_x000D_
-4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek_x000D_
-_x000D_
-Předmět je vyučován v anglickém jazyce._x000D_
+    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)
+3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)
+4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front
+5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)
+7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)
+9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)
+12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)
+Exkurze + cvičení
+1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking
+4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek
+Předmět je vyučován v anglickém jazyce.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv_x000D_
-2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace_x000D_
-4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů_x000D_
-6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)_x000D_
-8. SVD rozklad, jeho výpočet a aplikace_x000D_
-9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence_x000D_
-10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda_x000D_
-11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo_x000D_
-12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod_x000D_
-13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace_x000D_
+    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv
+2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace
+4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů
+6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)
+8. SVD rozklad, jeho výpočet a aplikace
+9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence
+10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda
+11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo
+12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod
+13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace
 </t>
   </si>
   <si>
@@ -1139,16 +1116,16 @@
 13.	Automatická paralelizace (např. Parallel Computing Toolbox Matlabu)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R_x000D_
-2. Základy práce s daty a datovými soubory a jejich vizualizace_x000D_
-3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)_x000D_
-4. Pokročilé techniky vizualizace dat_x000D_
-5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika_x000D_
-7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)_x000D_
-9. Základy textové analýzy, analýza sentimentu_x000D_
-10. Analýza sítí_x000D_
-11. - 12. Reporty, dashboardy a interaktivní vizualizace dat_x000D_
-13. Shrnutí, diskuse nad zadáními seminárních prací_x000D_
+    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R
+2. Základy práce s daty a datovými soubory a jejich vizualizace
+3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)
+4. Pokročilé techniky vizualizace dat
+5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika
+7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)
+9. Základy textové analýzy, analýza sentimentu
+10. Analýza sítí
+11. - 12. Reporty, dashboardy a interaktivní vizualizace dat
+13. Shrnutí, diskuse nad zadáními seminárních prací
 </t>
   </si>
   <si>
@@ -1167,16 +1144,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů_x000D_
-2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace_x000D_
-3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů_x000D_
-4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)_x000D_
-5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)_x000D_
-6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely_x000D_
-7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)_x000D_
-8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)_x000D_
-9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů_x000D_
-Předmět je vyučován v anglickém jazyce._x000D_
+    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů
+2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace
+3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů
+4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)
+5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)
+6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely
+7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)
+8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)
+9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů
+Předmět je vyučován v anglickém jazyce.
 </t>
   </si>
   <si>
@@ -1209,40 +1186,40 @@
 redukce: NP-těžký problém, NP-úplný problém; výpočetně obtížné problémy teorie grafů</t>
   </si>
   <si>
-    <t>_x000D_
-1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní_x000D_
-vodivost, PN přechod)_x000D_
-2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)_x000D_
-3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,_x000D_
-řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)_x000D_
-4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,_x000D_
-fázorový diagram, rezonance)_x000D_
-5. Grafické řešení nelineárních elektronických obvodů_x000D_
-6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)_x000D_
-7. Pasivní součásti elektrických obvodů (RLC)_x000D_
-Digitální část_x000D_
-8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII_x000D_
-9. Logické funkce, Booleova algebra, logické výrazy_x000D_
-10. Kombinační logické sítě_x000D_
-11. Minimalizace normálních forem výrazů_x000D_
-12. Syntéza kombinačních obvodů_x000D_
+    <t xml:space="preserve">
+1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní
+vodivost, PN přechod)
+2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)
+3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,
+řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)
+4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,
+fázorový diagram, rezonance)
+5. Grafické řešení nelineárních elektronických obvodů
+6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)
+7. Pasivní součásti elektrických obvodů (RLC)
+Digitální část
+8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII
+9. Logické funkce, Booleova algebra, logické výrazy
+10. Kombinační logické sítě
+11. Minimalizace normálních forem výrazů
+12. Syntéza kombinačních obvodů
 13. Fyzikální realizace a analýza kombinačních logických členů</t>
   </si>
   <si>
-    <t>1. Základní pojmy kryptologie, Modulární aritmetika_x000D_
-2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti_x000D_
-3. Klasická kryptologie (substituční a transpoziční šifry)_x000D_
-4. Symetrická kryptografie ? blokové šifry (DES, AES)_x000D_
-5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)_x000D_
-6. Kryptografie veřejného klíče (RSA, DSA, DH)_x000D_
-7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)_x000D_
-8. Digitální měny, HW a SW peněženky, blockchain (principy)_x000D_
-9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)_x000D_
-10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)_x000D_
-11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií_x000D_
-(typy, techniky, možnosti)_x000D_
-12. AAA framework (principy, dělení, účel, protokoly, využití)_x000D_
-13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu_x000D_
+    <t>1. Základní pojmy kryptologie, Modulární aritmetika
+2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti
+3. Klasická kryptologie (substituční a transpoziční šifry)
+4. Symetrická kryptografie ? blokové šifry (DES, AES)
+5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)
+6. Kryptografie veřejného klíče (RSA, DSA, DH)
+7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)
+8. Digitální měny, HW a SW peněženky, blockchain (principy)
+9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)
+10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)
+11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií
+(typy, techniky, možnosti)
+12. AAA framework (principy, dělení, účel, protokoly, využití)
+13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu
 14. Ochrana dat na úrovni kabelových sítí (principy, dělení, využití)</t>
   </si>
   <si>
@@ -1260,16 +1237,16 @@
 12.	Gradientní metody.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh._x000D_
-2.	Úlohy derivační a nederivační. _x000D_
-3.	Úlohy jednorozměrné optimalizace._x000D_
-4.	Úlohy vícerozměrné optimalizace._x000D_
-5.	Úlohy lineární optimalizace._x000D_
-6.	Simplexová metoda._x000D_
-7.	Dopravní problém._x000D_
-8.	Metoda nejmenších čtverců._x000D_
-9.	Úlohy nelineární optimalizace s omezeními._x000D_
-10.	Úlohy nelineární optimalizace bez omezení._x000D_
+    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh.
+2.	Úlohy derivační a nederivační. 
+3.	Úlohy jednorozměrné optimalizace.
+4.	Úlohy vícerozměrné optimalizace.
+5.	Úlohy lineární optimalizace.
+6.	Simplexová metoda.
+7.	Dopravní problém.
+8.	Metoda nejmenších čtverců.
+9.	Úlohy nelineární optimalizace s omezeními.
+10.	Úlohy nelineární optimalizace bez omezení.
 </t>
   </si>
   <si>
@@ -1290,7 +1267,7 @@
     <t>Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>
-    <t>Základní znalosti z oblasti numerické matematiky_x000D_
+    <t>Základní znalosti z oblasti numerické matematiky
 Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>
@@ -1374,8 +1351,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:BQ29" totalsRowShown="0">
-  <autoFilter ref="A1:BQ29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:BQ28" totalsRowShown="0">
+  <autoFilter ref="A1:BQ28"/>
   <tableColumns count="69">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1736,7 +1713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ29"/>
+  <dimension ref="A1:BQ28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1962,135 +1939,135 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AI2" s="2">
         <v>9</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK2" s="2">
         <v>27</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM2" s="2">
         <v>0</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AP2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS2" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="2">
@@ -2098,13 +2075,13 @@
       </c>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
@@ -2121,55 +2098,55 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H3" s="2">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -2183,67 +2160,67 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI3" s="2">
         <v>1</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK3" s="2">
         <v>2</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM3" s="2">
         <v>0</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="AT3" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI3" s="1"/>
       <c r="BJ3" s="2">
@@ -2251,13 +2228,13 @@
       </c>
       <c r="BK3" s="1"/>
       <c r="BL3" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
@@ -2274,51 +2251,51 @@
         <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H4" s="2">
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -2332,37 +2309,37 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI4" s="2">
         <v>3</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK4" s="2">
         <v>3</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM4" s="2">
         <v>0</v>
       </c>
       <c r="AN4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AO4" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="AP4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR4" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
@@ -2371,26 +2348,26 @@
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
       <c r="BG4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI4" s="1"/>
       <c r="BJ4" s="2">
@@ -2399,10 +2376,10 @@
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -2419,135 +2396,135 @@
         <v>2023</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI5" s="2">
         <v>2</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK5" s="2">
         <v>2</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM5" s="2">
         <v>0</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AP5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR5" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AS5" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="AT5" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
       <c r="BG5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI5" s="1"/>
       <c r="BJ5" s="2">
@@ -2555,13 +2532,13 @@
       </c>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
@@ -2578,59 +2555,59 @@
         <v>2023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" s="2">
         <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -2644,69 +2621,69 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI6" s="2">
         <v>4</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK6" s="2">
         <v>8</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM6" s="2">
         <v>2</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AP6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS6" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
       <c r="BG6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI6" s="1"/>
       <c r="BJ6" s="2">
@@ -2714,13 +2691,13 @@
       </c>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
@@ -2737,55 +2714,55 @@
         <v>2023</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -2799,67 +2776,67 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI7" s="2">
         <v>4</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK7" s="2">
         <v>6</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM7" s="2">
         <v>2</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AR7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="AT7" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
       <c r="BG7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI7" s="1"/>
       <c r="BJ7" s="2">
@@ -2867,13 +2844,13 @@
       </c>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -2890,55 +2867,55 @@
         <v>2023</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -2952,69 +2929,69 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI8" s="2">
         <v>4</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK8" s="2">
         <v>6</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM8" s="2">
         <v>2</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
       <c r="AY8" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI8" s="1"/>
       <c r="BJ8" s="2">
@@ -3022,13 +2999,13 @@
       </c>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM8" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
@@ -3045,139 +3022,139 @@
         <v>2023</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" s="2">
         <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI9" s="2">
         <v>6</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK9" s="2">
         <v>6</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM9" s="2">
         <v>2</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AP9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR9" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS9" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
       <c r="AY9" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
       <c r="BG9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI9" s="1"/>
       <c r="BJ9" s="2">
@@ -3185,13 +3162,13 @@
       </c>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
@@ -3208,59 +3185,59 @@
         <v>2023</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -3270,75 +3247,75 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI10" s="2">
         <v>6</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK10" s="2">
         <v>6</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM10" s="2">
         <v>2</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AP10" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR10" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS10" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
       <c r="AY10" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI10" s="1"/>
       <c r="BJ10" s="2">
@@ -3346,13 +3323,13 @@
       </c>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
@@ -3369,62 +3346,62 @@
         <v>2023</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H11" s="2">
         <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -3433,69 +3410,69 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI11" s="2">
         <v>6</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK11" s="2">
         <v>6</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM11" s="2">
         <v>2</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AP11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR11" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ11" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS11" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AU11" s="1"/>
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
       <c r="BG11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI11" s="1"/>
       <c r="BJ11" s="2">
@@ -3503,13 +3480,13 @@
       </c>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
@@ -3526,62 +3503,62 @@
         <v>2023</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -3590,69 +3567,69 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI12" s="2">
         <v>8</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK12" s="2">
         <v>6</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM12" s="2">
         <v>3</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AP12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR12" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ12" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS12" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
       <c r="BG12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI12" s="1"/>
       <c r="BJ12" s="2">
@@ -3660,13 +3637,13 @@
       </c>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
@@ -3683,55 +3660,55 @@
         <v>2023</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H13" s="2">
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -3745,69 +3722,69 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI13" s="2">
         <v>6</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK13" s="2">
         <v>6</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM13" s="2">
         <v>2</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AP13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR13" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ13" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR13" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS13" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AU13" s="1"/>
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
       <c r="BG13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI13" s="1"/>
       <c r="BJ13" s="2">
@@ -3815,13 +3792,13 @@
       </c>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
@@ -3838,133 +3815,133 @@
         <v>2023</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" s="2">
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI14" s="2">
         <v>6</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK14" s="2">
         <v>6</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM14" s="2">
         <v>0</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AP14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR14" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
       <c r="BG14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI14" s="1"/>
       <c r="BJ14" s="2">
@@ -3972,13 +3949,13 @@
       </c>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
@@ -3995,55 +3972,55 @@
         <v>2023</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H15" s="2">
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -4052,76 +4029,76 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI15" s="2">
         <v>4</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK15" s="2">
         <v>6</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM15" s="2">
         <v>2</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AP15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR15" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ15" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS15" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
       <c r="BG15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="2">
@@ -4129,13 +4106,13 @@
       </c>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN15" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
@@ -4152,135 +4129,135 @@
         <v>2023</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="2">
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI16" s="2">
         <v>6</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK16" s="2">
         <v>6</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM16" s="2">
         <v>2</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AP16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR16" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ16" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS16" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AU16" s="1"/>
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
       <c r="AY16" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
       <c r="BG16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI16" s="1"/>
       <c r="BJ16" s="2">
@@ -4288,13 +4265,13 @@
       </c>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN16" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
@@ -4311,55 +4288,55 @@
         <v>2023</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H17" s="2">
         <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -4373,69 +4350,69 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI17" s="2">
         <v>2</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK17" s="2">
         <v>6</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM17" s="2">
         <v>2</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AP17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR17" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ17" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS17" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
       <c r="BG17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI17" s="1"/>
       <c r="BJ17" s="2">
@@ -4443,13 +4420,13 @@
       </c>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
@@ -4466,135 +4443,135 @@
         <v>2023</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI18" s="2">
         <v>6</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK18" s="2">
         <v>4</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM18" s="2">
         <v>2</v>
       </c>
       <c r="AN18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AQ18" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
       <c r="AY18" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
       <c r="BG18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI18" s="1"/>
       <c r="BJ18" s="2">
@@ -4602,13 +4579,13 @@
       </c>
       <c r="BK18" s="1"/>
       <c r="BL18" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
@@ -4625,51 +4602,55 @@
         <v>2023</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="P19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="S19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
       <c r="V19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -4677,75 +4658,77 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="AC19" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI19" s="2">
         <v>4</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM19" s="2">
         <v>2</v>
       </c>
       <c r="AN19" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO19" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AP19" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AQ19" s="1" t="s">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AS19" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="AU19" s="1"/>
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
       <c r="AY19" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
       <c r="BG19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI19" s="1"/>
       <c r="BJ19" s="2">
@@ -4753,13 +4736,13 @@
       </c>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
@@ -4776,55 +4759,51 @@
         <v>2023</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H20" s="2">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -4833,76 +4812,78 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="AE20" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI20" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AK20" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM20" s="2">
         <v>2</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AP20" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR20" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ20" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS20" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
       <c r="BG20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI20" s="1"/>
       <c r="BJ20" s="2">
@@ -4910,13 +4891,13 @@
       </c>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
@@ -4933,131 +4914,139 @@
         <v>2023</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="2">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="S21" s="1" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
+      <c r="AA21" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI21" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AK21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM21" s="2">
         <v>0</v>
       </c>
-      <c r="AL21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>2</v>
-      </c>
       <c r="AN21" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AO21" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AP21" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS21" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AT21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU21" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ21" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="BA21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
       <c r="BG21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="2">
@@ -5065,13 +5054,13 @@
       </c>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
@@ -5088,139 +5077,139 @@
         <v>2023</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="2">
         <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI22" s="2">
         <v>2</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK22" s="2">
         <v>2</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM22" s="2">
         <v>0</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP22" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AP22" s="1" t="s">
+      <c r="AQ22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR22" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ22" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS22" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AT22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU22" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="AU22" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="BA22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
       <c r="BG22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="2">
@@ -5228,13 +5217,13 @@
       </c>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
@@ -5251,139 +5240,133 @@
         <v>2023</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI23" s="2">
         <v>2</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK23" s="2">
         <v>2</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM23" s="2">
         <v>0</v>
       </c>
       <c r="AN23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO23" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="AP23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR23" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ23" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS23" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AU23" s="1" t="s">
-        <v>319</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AZ23" s="1" t="s">
-        <v>323</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="AZ23" s="1"/>
       <c r="BA23" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
       <c r="BG23" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="2">
@@ -5391,13 +5374,13 @@
       </c>
       <c r="BK23" s="1"/>
       <c r="BL23" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BM23" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN23" s="1" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
@@ -5420,56 +5403,56 @@
         <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H24" s="2">
         <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -5478,69 +5461,69 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI24" s="2">
         <v>2</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK24" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM24" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AO24" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AP24" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR24" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ24" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS24" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
       <c r="BG24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="2">
@@ -5548,13 +5531,13 @@
       </c>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BM24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN24" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
@@ -5571,133 +5554,133 @@
         <v>2023</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
+      <c r="AD25" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AI25" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ25" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK25" s="2">
-        <v>25</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AM25" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO25" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AP25" s="1" t="s">
+      <c r="AR25" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ25" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AS25" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
       <c r="BG25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="2">
@@ -5705,13 +5688,13 @@
       </c>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="BM25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN25" s="1" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
@@ -5728,133 +5711,135 @@
         <v>2023</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H26" s="2">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="AC26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK26" s="2">
         <v>2</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM26" s="2">
         <v>0</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="AP26" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AQ26" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="AR26" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AS26" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="AT26" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
       <c r="BG26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI26" s="1"/>
       <c r="BJ26" s="2">
@@ -5862,13 +5847,13 @@
       </c>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BM26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN26" s="1" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
@@ -5885,32 +5870,32 @@
         <v>2023</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="2">
-        <v>5</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>154</v>
@@ -5922,98 +5907,98 @@
         <v>190</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI27" s="2">
         <v>2</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM27" s="2">
         <v>0</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO27" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AP27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR27" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AQ27" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="AS27" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
       <c r="BG27" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="2">
@@ -6021,13 +6006,13 @@
       </c>
       <c r="BK27" s="1"/>
       <c r="BL27" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="BM27" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN27" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
@@ -6044,32 +6029,32 @@
         <v>2023</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H28" s="2">
         <v>3</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>156</v>
@@ -6080,99 +6065,93 @@
       <c r="P28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="AC28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AI28" s="2">
         <v>2</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AK28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AM28" s="2">
         <v>0</v>
       </c>
       <c r="AN28" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO28" s="1" t="s">
         <v>268</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BB28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BC28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
       <c r="BG28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BI28" s="1"/>
       <c r="BJ28" s="2">
@@ -6180,170 +6159,17 @@
       </c>
       <c r="BK28" s="1"/>
       <c r="BL28" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BM28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BN28" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
-    </row>
-    <row r="29" spans="1:69">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="2">
-        <v>3</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI29" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AM29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AO29" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AQ29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AU29" s="1"/>
-      <c r="AV29" s="1"/>
-      <c r="AW29" s="1"/>
-      <c r="AX29" s="1"/>
-      <c r="AY29" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AZ29" s="1"/>
-      <c r="BA29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BD29" s="1"/>
-      <c r="BE29" s="1"/>
-      <c r="BF29" s="1"/>
-      <c r="BG29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BH29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BI29" s="1"/>
-      <c r="BJ29" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK29" s="1"/>
-      <c r="BL29" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN29" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="BO29" s="1"/>
-      <c r="BP29" s="1"/>
-      <c r="BQ29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/garant_neprednasi.xlsx
+++ b/results/garant_neprednasi.xlsx
@@ -739,80 +739,80 @@
     <t>KI/BTE, KI/ZKR</t>
   </si>
   <si>
-    <t>'Nelson, B., Phillips, A., Steuart, Ch. Guide to computer forensics and investigations. 4th ed. Boston: Course Technology Cengage Learning, 2010. Preparing tomorrow s information security professionals. ISBN 978-1-435-49883-9. ',
-'Wilhelm, T., Neely, M., ed. Professional penetration testing: creating and learning in a hacking lab. Second edition. Amsterdam: Syngress, an imprint of Elsevier, 2013. ISBN 978-1-59749-993-4. ',
-'Orebaugh, A. Wireshark a Ethereal: kompletní průvodce analýzou a diagnostikou sítí. Brno: Computer Press, 2008. ISBN 978-80-251-2048-4. ',
-'Gogolin, G. Digital forensics explained. Boca Raton: CRC Press, Taylor &amp; Francis Group, 2013. ISBN 978-1-4398-7495-0. ',
-'Erickson, J. Hacking: the art of exploitation. 2nd edition. San Francisco: No Starch Press, 2008. ',
-'Shema, M., Alcover, J. B., ed. Hacking web apps: detecting and preventing web application security problems. Waltham: Syngress, 2012. ISBN 978-1-59749-951-4. ',
+    <t>'Nelson, B., Phillips, A., Steuart, Ch. Guide to computer forensics and investigations. 4th ed. Boston: Course Technology Cengage Learning, 2010. Preparing tomorrow s information security professionals. ISBN 978-1-435-49883-9. ',_x000D_
+'Wilhelm, T., Neely, M., ed. Professional penetration testing: creating and learning in a hacking lab. Second edition. Amsterdam: Syngress, an imprint of Elsevier, 2013. ISBN 978-1-59749-993-4. ',_x000D_
+'Orebaugh, A. Wireshark a Ethereal: kompletní průvodce analýzou a diagnostikou sítí. Brno: Computer Press, 2008. ISBN 978-80-251-2048-4. ',_x000D_
+'Gogolin, G. Digital forensics explained. Boca Raton: CRC Press, Taylor &amp; Francis Group, 2013. ISBN 978-1-4398-7495-0. ',_x000D_
+'Erickson, J. Hacking: the art of exploitation. 2nd edition. San Francisco: No Starch Press, 2008. ',_x000D_
+'Shema, M., Alcover, J. B., ed. Hacking web apps: detecting and preventing web application security problems. Waltham: Syngress, 2012. ISBN 978-1-59749-951-4. ',_x000D_
 'Muniz, J., McIntyre, G., Alfardan, N. Security operations center. Indianopolis: Cisco Press, 2016. Security. ISBN 978-0-13-405201-4. '</t>
   </si>
   <si>
-    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',
-'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',
-'Oracle and/or its affiliates. ',
-'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',
-'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',
-'Windows Presentation Foundation Microsoft Docs. [online]. ',
-'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',
-'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',
-'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',
+    <t>'Sells Ch. C# a WinForms: programování formulářů Windows. Zoner Press, Brno, 2005. ISBN 80-86815-25-0.',_x000D_
+'JavaFX Documentation Home | JavaFX 2 Tutorials and Documentation. Moved [online]. Copyright 2011, 2014. ',_x000D_
+'Oracle and/or its affiliates. ',_x000D_
+'Petzold Ch. Programování Microsoft Windows Forms v jazyce C#. Computer Press, Brno, 2006. ISBN 80-251-1058-3.',_x000D_
+'PyQt5 Reference Guide- PyQt v5.14.0 Reference Guide. [online]. ',_x000D_
+'Windows Presentation Foundation Microsoft Docs. [online]. ',_x000D_
+'Nash T. C# 2010 : rychlý průvodce novinkami a nejlepšími postupy. Computer Press, Brno, 2010. ',_x000D_
+'Creating a GUI With JFC/Swing (The JavaTM Tutorials). [online]. Copyright 1995, 2019 Oracle and/or its affiliates. ',_x000D_
+'Agarwal V. V., Huddleston J. Databáze v C# 2008 : průvodce programátora. Computer Press, Brno, 2009. ISBN 978-80-251-2309-6.',_x000D_
 'Documentation | Electron. Electron | Build cross platform desktop apps with JavaScript, HTML, and CSS. [online]. '</t>
   </si>
   <si>
-    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',
-'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',
-'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',
-'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',
-'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',
-'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',
+    <t>'Lagová, M. Metody operačního výzkumu I. Univerzita J. E. Purkyně, Ústí nad Labem, 1997. ISBN 80-7044-158-5.',_x000D_
+'Plevný, M., Žižka, M. Modelování a optimalizace v manažerském rozhodování. Západočeská univerzita, Plzeň, 2010. ISBN 978-80-7043-933-3.',_x000D_
+'Jablonský, J. Operační výzkum: kvantitativní modely pro ekonomické rozhodování. Professional Publishing, Praha, 2007. ISBN 978-80-86946-44-3.',_x000D_
+'Shortle, J. F., Thompson, J. M., Gross, D., Harris, C. M. Fundamentals of Queueing Theory. Wiley, 2018. ISBN 9781118943526. ',_x000D_
+'Rohn, J. Lineární algebra a optimalizace. Karolinum, Praha, 2004. ISBN 80-246-0932-0.',_x000D_
+'Lagová, M., Jablonský, J. Lineární modely. Praha, 2014. ISBN 978-80-245-2020-9.',_x000D_
 'Míka, S. Matematická optimalizace. Západočeská univerzita, Plzeň, 1997. ISBN 80-7082-319-4.'</t>
   </si>
   <si>
-    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',
-'AMD. OpenCL Zone. ',
-'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',
-'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',
-'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',
+    <t>'Albahari J. C# 4.0 in a Nutshell: The Definitive Reference. O Reilly Media, 2010. ISBN 978-0596800956.',_x000D_
+'AMD. OpenCL Zone. ',_x000D_
+'Lísal M. Paralelní počítání. Univerzita J.E.Purkyně, 2006. ISBN 80-7044-784-2.',_x000D_
+'M. Lísal. Paralelní programování s aplikacemi. Ústí n. Lab., 2007. ',_x000D_
+'Quinn M. Parallel Programming in C with MPI and OpenMP. McGraw-Hill, 2003. ISBN 978-0072822564.',_x000D_
 'Chandra R. Parallel Programming in OpenMP. Morgan Kaufmann, 2000. ISBN 978-1558606715.'</t>
   </si>
   <si>
-    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
+    <t>'Demel, J. Grafy a jejich aplikace. 2019. ',_x000D_
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
 'Meyer, A., Chlipala, A. 6.042J Mathematics for Computer Science. Massachusetts Institute of Technology: MIT OpenCourseWare, 2015. '</t>
   </si>
   <si>
-    <t>'Felcman J. Numerická matematika. 2013. ',
-'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',
-'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',
-'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',
+    <t>'Felcman J. Numerická matematika. 2013. ',_x000D_
+'Segethova, J. Základy numerické matematiky. Karolinum, Praha. ',_x000D_
+'Mathematics. Springer, Berlin. ISBN 0-387-98959-5.',_x000D_
+'Ueberhuber, W. Numerical Computation 1, 2: Methods, Software, and Analysis. Springer, Berlin. ',_x000D_
 'Quarteroni, A., Sacco, R., and Saleri, F. Numerical Mathematics (2ndedn), Volume 37 of Texts in Applied Mathematics. Springer, Berlin. ISBN 0-387-98959-5. '</t>
   </si>
   <si>
-    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',
-'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',
-'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',
+    <t>'LAGOVÁ, M. Metody operačního výzkumu I. FSE UJEP, Ústí nad Labem 1997. ',_x000D_
+'Jablonský J. Operační výzkum. VŠE, Praha, 1999. ',_x000D_
+'J. Rohn. Lineární algebra a optimalizace. 2004. ISBN 80-246-0932-0.',_x000D_
 'Míka S. Matematická optimalizace. ZČU Plzeň, 1997. '</t>
   </si>
   <si>
-    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',
-'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',
-'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',
-'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',
-'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',
+    <t>'Gook M. Hardwarová rozhraní: průvodce programátora. Computer Press, Brno, 2006. Computer Press, Brno, 2006. ISBN 80-251-1019-2.',_x000D_
+'Pirogov V. Mistrovství v jazyce Assembler. Computer Press, 2005. Computer Press, 2005. ISBN 80-251-0888-0.',_x000D_
+'Virius M. Od C k C++. Kopp, České Budějovice, 2000. ISBN 80-7232-110-2.',_x000D_
+'Herout P. Učebnice jazyka C. Kopp, České Budějovice, 2000. ISBN 80-85828-21-9.',_x000D_
+'Margolis M. Arduino Cookbook. O´Reilly, 2011. O Reilly, 2011. ISBN 978-1-4493-0310-5.',_x000D_
 'Vacek V. Učebnice programování Atmel s jádrem 8051. BEN- Technická literatura, Praha, 2001. BEN-Technická literatura, Praha, 2001. ISBN 80-7300-043-1.'</t>
   </si>
   <si>
-    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',
-'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',
-'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',
-'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',
-'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',
-'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',
+    <t>'https://kix.fsv.cvut.cz/~demel/grafy/gr.pdf',_x000D_
+'Matoušek, J., Nešetřil, J. Kapitoly z diskrétní matematiky. Karolinum, Praha, 2010. ',_x000D_
+'Knuth, D. E. Umění programování, 1. díl, Základní algoritmy. Computer Press, a.s., Brno, 2008. ',_x000D_
+'Rigo, M. Advanced Graph Theory and Combinatorics. ISTE Ltd and John Wiley &amp; Sons, Inc., 2016. ',_x000D_
+'Graham, R. L., Knuth, D. E., Patashnik, O. Concrete Mathematics. Addison - Wesley Publishing Company, 1994. ',_x000D_
+'Gruska, J. Foundations of Computing. International Thomson Computer Press, 1997. ',_x000D_
 'https://ocw.mit.edu/courses/electrical-engineering-and-computer-science/6-042j-mathematics-for-computer-science-spring-2015/'</t>
   </si>
   <si>
@@ -837,7 +837,7 @@
     <t>Předmět je zaměřen na problematiku zpracování velkého a rychle rostoucího objemu dat prostřednictvím technologie Hadoop respektive některých typů tzv. NoSQL databází. Přednášky jsou zaměřeny na základní principy distribuovaných úložišť a distribuované zpracování dat, cvičení pak na implementaci ukázkových příkladů. Úvodní přednášky se věnují instalaci jednotlivých softwarových komponent a jejich spolupráci s využitím virtualizovaných kontejnerů.</t>
   </si>
   <si>
-    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti
+    <t>Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti_x000D_
 se seznámí s moderními nástroji pro její zajištění.</t>
   </si>
   <si>
@@ -865,19 +865,19 @@
     <t>Předmět je zaměřen na počítačové simulace využitelné v široké oblasti od ekonomických a dopravních problémů po simulace biologických či chemických dějů. Přednášky jsou zaměřeny na prezentaci existujících nástrojů včetně ukázek použití. V rámci cvičení jsou navrhovány jednoduché modely dynamických systémů, které jsou implementovány na příslušných simulačních platformách, a výsledky simulací jsou vizualizovány a analyzovány.</t>
   </si>
   <si>
-    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů
+    <t>Kurz je koncipován jako úvodní kurz, který má prezentovat vybrané partie z diskrétní matematiky a teorie grafů_x000D_
 s ohledem na potřeby v dalších oblastech informatiky, jako je algoritmizace, kódování a šifrování, či optimalizace.</t>
   </si>
   <si>
-    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na
-pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení
-základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem
+    <t>V analogové části předmětu se studenti seznámí se základy elektroniky, řešením elektrických obvodů a připraví se na_x000D_
+pochopení aktivních prvků v elektronice. Navazující část věnovaná logickým obvodům je zaměřena na pochopení_x000D_
+základních vztahů logických systémů a na aplikaci diskrétní matematiky. Student se v ní seznámí s návrhem_x000D_
 kombinačních obvodů. Ke každé části přísluší samostatná tříhodinová laboratorní praktika.</t>
   </si>
   <si>
-    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními
-pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani
-analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších
+    <t>Předmět je zaměřen na získání základních znalostí z oblasti kyberbezpečnosti. Studenti se tak seznámí se základními_x000D_
+pojmy z oblasti klasické i moderní kryptologie, stejně jako se základními principy zabezpečení dat. Nebude chybět ani_x000D_
+analýza hrozeb a rizik současných informačních systémů. Tyto základní kompetence budou následně využity v dalších_x000D_
 předmětech.</t>
   </si>
   <si>
@@ -903,12 +903,12 @@
     <t>Kombinovaná</t>
   </si>
   <si>
-    <t>Zápočet: laboratorní úloha
+    <t>Zápočet: laboratorní úloha_x000D_
 Zkouška: ústní</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: laboratorní úloha
-Zkouška: ústní
+    <t xml:space="preserve">Zápočet: laboratorní úloha_x000D_
+Zkouška: ústní_x000D_
 </t>
   </si>
   <si>
@@ -916,8 +916,9 @@
 Zkouška je udělena za vypracování programu na zvolené téma, technologii. Známka je určena na základě kvality programu a obtížnosti zvoleného tématu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému
-Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)
+    <t xml:space="preserve">Zápočet: vypracování programu zpracovávající data v distribuovaném systému_x000D_
+_x000D_
+Zkouška: ústní (diskuse nad seminárním programem a ověření obecných faktických znalostí)_x000D_
 </t>
   </si>
   <si>
@@ -931,33 +932,34 @@
     <t>Podmínkou získání zápočtu je úspěšně napsaný písemný test, zpracování seminární práce a její obhajoba. Zkouška bude ústní.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: seminární práce_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)
-Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)
+    <t xml:space="preserve">Zápočet: seminární práce (implementace paralelní verze netriviálního algoritmu za použití CPU a GPU)_x000D_
+_x000D_
+Zkouška: ústní (diskuse nad seminární prací a ověření obecných faktických znalostí)_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: praktický test (řešení zadané úlohy na počítači v počítačové učebně)_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce
-Zkouška: ústní
+    <t xml:space="preserve">Zápočet: seminární práce_x000D_
+Zkouška: ústní_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma
-Zkouška: ústní, zaměřená na ověření teoretických znalostí
+    <t xml:space="preserve">Zápočet: tvorba a obhájení seminární práce na zadané téma_x000D_
+Zkouška: ústní, zaměřená na ověření teoretických znalostí_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)
-Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací
+    <t xml:space="preserve">Zápočet: seminární práce (implementace modelu a vizualizace výsledku simulace)_x000D_
+Zkouška: ústní, zaměřená na praktické i teoretické aspekty simulací_x000D_
 </t>
   </si>
   <si>
@@ -967,7 +969,7 @@
 </t>
   </si>
   <si>
-    <t>Zápočet: aktivní účast na laboratořích
+    <t>Zápočet: aktivní účast na laboratořích_x000D_
 Zkouška: ústní</t>
   </si>
   <si>
@@ -992,25 +994,26 @@
 V prvním týdnu zkouškového období se bude psát jedna zápočtová písemná práce. Zápočet bude udělen za získání aspoň 70 bodů ze 100 možných. V případě nezískání zápočtu je možné zápočtovou písemnou práci dvakrát opakovat, přičemž podmínky udělení zápočtu jsou stále stejné.</t>
   </si>
   <si>
-    <t>1. Úvod do problematiky SOC
-2. Logování aktivních síťových prvků a endpointů
-3. Logování AAA systémů a jejich konfigurace
-4. Logika a funkce automatizovaných řešení (3 týdny)
+    <t>1. Úvod do problematiky SOC_x000D_
+2. Logování aktivních síťových prvků a endpointů_x000D_
+3. Logování AAA systémů a jejich konfigurace_x000D_
+4. Logika a funkce automatizovaných řešení (3 týdny)_x000D_
 5. Opensource (LinuxBased) systémy pro analýzu provozu infrastruktury (3 týdny)</t>
   </si>
   <si>
-    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění.
-1. Úvod do datové bezpečnosti
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat
-4. DLP systémy
-5. Systémy vysoké dostupnosti datových úložišť
-6. Zálohovací technologie pro koncové prvky
-7. Zálohovací technologie pro infrastrukturní systémy
-8. Archivační technologie
-9. Systémy logování a struktura logů pro framework AAA
-10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
-13. - 14. Vyhledávání souvislostí v uložených datech
+    <t xml:space="preserve">Obsahem předmětu jsou aktuální technologie pro řešení datové a informační bezpečnosti ve firemním prostředí. Studenti se seznámí s moderními nástroji pro její zajištění._x000D_
+_x000D_
+1. Úvod do datové bezpečnosti_x000D_
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
+4. DLP systémy_x000D_
+5. Systémy vysoké dostupnosti datových úložišť_x000D_
+6. Zálohovací technologie pro koncové prvky_x000D_
+7. Zálohovací technologie pro infrastrukturní systémy_x000D_
+8. Archivační technologie_x000D_
+9. Systémy logování a struktura logů pro framework AAA_x000D_
+10. - 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
+13. - 14. Vyhledávání souvislostí v uložených datech_x000D_
 </t>
   </si>
   <si>
@@ -1028,76 +1031,77 @@
 12.	Tvorba síťových aplikací</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů
-2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt
-3. Architektura clusteru: přehled Hadoop
-4. Ukládání dat (storage) HDFS, HiveQL
-5. MapReduce framework (principy)
-6. Spark a jeho architektura
-7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)
-8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)
+    <t xml:space="preserve">1. Principy virtualizace a přehled nástrojů_x000D_
+2. Tvorba unifikovaných prostředí (izolace aplikací): Docker, CoreOS, rkt_x000D_
+3. Architektura clusteru: přehled Hadoop_x000D_
+4. Ukládání dat (storage) HDFS, HiveQL_x000D_
+5. MapReduce framework (principy)_x000D_
+6. Spark a jeho architektura_x000D_
+7. Moduly Spark: MLlib (strojové učení), GraphX, Spark Streaming (streamování dat)_x000D_
+8. - 9. NoSQL databáze a BigData (MongoDB, Neo4j, Caché)_x000D_
 </t>
   </si>
   <si>
-    <t>1. Úvod do datové bezpečnosti
-2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti
-3. Ochrana osobních údajů (např. GDPR), anonymizace dat
-4. DLP systémy
-5. Systémy vysoké dostupnosti datových úložišť
-6. Zálohovací technologie pro koncové prvky
-7. Zálohovací technologie pro infrastrukturní systémy
-8. Archivační technologie
-9. Systémy logování a struktura logů pro framework AAA
-10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA
+    <t>1. Úvod do datové bezpečnosti_x000D_
+2. Klasifikace a analýza dat z pohledu jejich správy, citlivosti a bezpečnosti_x000D_
+3. Ochrana osobních údajů (např. GDPR), anonymizace dat_x000D_
+4. DLP systémy_x000D_
+5. Systémy vysoké dostupnosti datových úložišť_x000D_
+6. Zálohovací technologie pro koncové prvky_x000D_
+7. Zálohovací technologie pro infrastrukturní systémy_x000D_
+8. Archivační technologie_x000D_
+9. Systémy logování a struktura logů pro framework AAA_x000D_
+10. ? 12. Správa systémů pro ukládání logovacích údajů frameworku AAA_x000D_
 13. ? 14. Vyhledávání souvislostí v uložených datech</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti
-2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP
-5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení
-8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT
-10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace
-12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace
+    <t xml:space="preserve">1. Úlohy lineárního programování (LP) a jejich vlastnosti_x000D_
+2. - 4. Řešení úloh LP, grafické řešení úloh LP, simplexová metoda, převod na M-úlohu, dualita v LP_x000D_
+5. - 7. Dopravní problém a jeho řešení metodou MODI, přiřazovací problém, okružní problém a jejich řešení_x000D_
+8. - 9. Řízení projektů metodou CPM, časově nákladová analýza projektů, řízení projektů metodou PERT_x000D_
+10. - 11. Modely hromadné obsluhy: Kendallova klasifikace, modely M/M/1 a M/M/m a jejich aplikace_x000D_
+12. - 13. Modely hromadné obsluhy: modely M/M/1/k a M/M/m/k a jejich aplikace_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh
-2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace
-3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda
-4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam
-6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody
-7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda
-8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda
-9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search
-11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody
-13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení
+    <t xml:space="preserve">1. Formulace úloh optimalizace, volné a vázané extrémy, spojitá a diskrétní optimalizace, konvexní optimalizace, vícekriteriální optimalizace, příklady typických úloh_x000D_
+2. Možnosti výpočtu derivací a gradientů: symbolická derivace, numerická derivace, principy automatické diferenciace_x000D_
+3. Hledání minima v 1D: hledání minima ve směru, metoda zlatého řezu, Fibonacciho metoda_x000D_
+4. - 5. Metody prvního řádu pro hledání minima: gradientní metoda, metoda konjugovaných gradientů, Nesterova metoda, metody Adagrad, RMSProp, Adam_x000D_
+6. Metody druhého řádu: Newtonova metoda, kvazi-Newtonovské metody_x000D_
+7. Metoda nejmenších čtverců: lineární, nelineární, Levenbergova-Marquardtova metoda_x000D_
+8. Metody minimalizace bez výpočtu derivace: Hookova-Jeevesova metoda, Powellova metoda, Nelderova-Meadova metoda_x000D_
+9. - 10. Principy stochastických a populačních metod: simulované žíhání, metody particle swarm, firefly metoda a cockoo search_x000D_
+11. - 12. Úlohy s omezeními: Lagrangeova metoda, KKT podmínky, Lagrangeova dualita, penaltové metody_x000D_
+13. - 14. Kvadratické programování: formulace, příklady užití (SVM) a možnosti řešení_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)
-3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)
-4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front
-5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)
-7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)
-9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)
-12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)
-Exkurze + cvičení
-1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking
-4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek
-Předmět je vyučován v anglickém jazyce.
+    <t xml:space="preserve">1. - 2. Paralelní hardware (Flynnova taxonomie, volně a těsně vázané systémy, NUMA, SIMD podpora na plaformě AMD/Intel x86_64, AMD, výpočetní clustery, masivní paralelismus prostřednictvím GPGU)_x000D_
+3. Omezení paralelismu (Amdahlův a Gustafsonův zákon, organizace paměti, vliv mezipaměti), paralelismus z pohledu softwaru (asynchronní a souběžné programování, výpočetní vlákna, datově a úlohově orientovaný paralelismus, sdílení paměti versus předávání zpráv, synchronizace využitelná pro HPC úlohy)_x000D_
+4. Modul multiprocessing, paralelní map, explicitní využívání komunikačních front_x000D_
+5. - 6. MPI v Pythonu (point-to-point communication, kolektivní komunikace)_x000D_
+7. - 8. Paralelismus nad sdílenou pamětí, OpenMP a jeho využití v Pythonu (Numba, Cython, integrace kódu v jazyce C)_x000D_
+9. - 11. Využití platformy CUDA v Pythonu (Numba Cuda, Python CUDA)_x000D_
+12. - 14. Moderní přístupy k HPC paralelismu (např. paralelismus v jazyce Julia, Intel oneAPI, obsah se bude přizpůsobovat aktuálním trendům)_x000D_
+Exkurze + cvičení_x000D_
+1. - 3. Motivační exkurze, podpora paralelismu v OS Linux, instalace a zprovoznění, profiling kódu, benchmarking_x000D_
+4. - 14. Řešení praktických úloh a implementace základních paralelních algoritmů s využitím nástrojů zavedených v rámci přednášek_x000D_
+_x000D_
+Předmět je vyučován v anglickém jazyce._x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv
-2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace
-4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů
-6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)
-8. SVD rozklad, jeho výpočet a aplikace
-9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence
-10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda
-11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo
-12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod
-13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace
+    <t xml:space="preserve">1. Stabilita, zdroje zaokrouhlovacích chyb a jejich vliv_x000D_
+2. - 3. Přímé metody pro řešení lineárních rovnic: GEM, LU rozklad, Choleského faktorizace, QR faktorizace a jejich aplikace_x000D_
+4. - 5. Iterační metody pro řešení lineárních rovnic: Jacobiova, Gaussova-Seidelova metoda, SOR, gradientní metoda a metoda sdružených gradientů_x000D_
+6. - 7. Vlastní čísla a jejich výpočet: odhady vlastních čísel, částečný problém vlastních čísel (mocninná metoda), úplný problém vlastních čísel (QR iterace a konstrukce QR rozkladu)_x000D_
+8. SVD rozklad, jeho výpočet a aplikace_x000D_
+9. Iterační metody řešení nelineárních rovnic a jejich soustav: Newtonova metoda a její varianty, metoda prosté iterace, metody pevného bodu a jejich konvergence_x000D_
+10. Hledání kořenů polynomů: odhady kořenů polynomů, Newtonova-Hornerova metoda, Mullerova metoda, Bernoulliova metoda_x000D_
+11. Numerická kvadratura: zopakování základních metod pro jednorozměrné integrály (Newtonovy-Cotesovy vzorce), Gaussova kvadratura, výpočet nevlastních integrálů, adaptivní přístupy, redukce pro vícerozměrné integrály a metoda Monte Carlo_x000D_
+12. Řešení ODR a jejich soustav: jednokrokové a vícekrokové metody, metody prediktor-korektor, metody Rungeho-Kutty, stiff problémy a stabilita metod_x000D_
+13. Aproximace a interpolace funkcí: zopakování základních metod (interpolace polynomem aj.), kubický spline, Čebyševovská aproximace_x000D_
 </t>
   </si>
   <si>
@@ -1116,16 +1120,16 @@
 13.	Automatická paralelizace (např. Parallel Computing Toolbox Matlabu)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R
-2. Základy práce s daty a datovými soubory a jejich vizualizace
-3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)
-4. Pokročilé techniky vizualizace dat
-5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika
-7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)
-9. Základy textové analýzy, analýza sentimentu
-10. Analýza sítí
-11. - 12. Reporty, dashboardy a interaktivní vizualizace dat
-13. Shrnutí, diskuse nad zadáními seminárních prací
+    <t xml:space="preserve">1. Prohloubení základů syntaxe a základních konstrukcí jazyků Python a R_x000D_
+2. Základy práce s daty a datovými soubory a jejich vizualizace_x000D_
+3. Pokročilé techniky práce s daty a datovými soubory (import, čištění dat aj.)_x000D_
+4. Pokročilé techniky vizualizace dat_x000D_
+5. - 6. Explorační analýza dat, vybrané pokročilé statistické metody (korelační, regresní analýza, faktorová, shluková analýza aj.), inferenční statistika_x000D_
+7. - 8. Základní aplikace metod strojového učení (vybrané klasifikátory či algoritmy pro regresi a shlukování)_x000D_
+9. Základy textové analýzy, analýza sentimentu_x000D_
+10. Analýza sítí_x000D_
+11. - 12. Reporty, dashboardy a interaktivní vizualizace dat_x000D_
+13. Shrnutí, diskuse nad zadáními seminárních prací_x000D_
 </t>
   </si>
   <si>
@@ -1144,16 +1148,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů
-2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace
-3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů
-4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)
-5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)
-6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely
-7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)
-8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)
-9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů
-Předmět je vyučován v anglickém jazyce.
+    <t xml:space="preserve">1.	Úvod do počítačových simulací (typy simulací, cíle simulací, oblasti použití, moderní trendy) s důrazem na stochastické simulace a spojité a částicové modelování dynamických systémů_x000D_
+2.	Diskrétní událostmi řízené simulace v SimPy (principy, základní typy objektů, implementace pomocí korutin), praktický návrh simulace, její implementace a vizualizace_x000D_
+3.	Komerční systémy pro diskrétní simulace a vizualizace (Simio, SIMUL8 aj.) včetně real-time 3D simulačních systémů_x000D_
+4.	Dynamické systémy (jejich popis, vazby, rovnováha a přechodový stav, lineární odezva systému aj.), základní metody pro modelování vývoje dynamických systémů (soustavy obyčejných diferenciálních rovnic)_x000D_
+5.	SimuPy, nástroj pro spojité modelování dynamických systémů založený na jazyku Python (definice objektu, vazby objektů, metody řešení, vizualizace výsledků)_x000D_
+6.	Praktické řešení dynamických systémů pomocí SimuPy: fyzikální nebo biologické modely_x000D_
+7.	Dynamické modelování částicových systémů, popisy systémů (škály), metody a moderní trendy, paralelizace, simulační balíky a analýza trajektorií pomocí jazyka Python (např. LAMMPS, MDAnalysis aj.)_x000D_
+8.	Deterministické a stochastické modelování jednoduchých a komplexních částicových systémů (počítačové modely, metody, vizualizace)_x000D_
+9.	Praktické řešení úloh zaměřených na modelování deterministických a stochastických částicových systémů_x000D_
+Předmět je vyučován v anglickém jazyce._x000D_
 </t>
   </si>
   <si>
@@ -1186,40 +1190,40 @@
 redukce: NP-těžký problém, NP-úplný problém; výpočetně obtížné problémy teorie grafů</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní
-vodivost, PN přechod)
-2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)
-3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,
-řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)
-4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,
-fázorový diagram, rezonance)
-5. Grafické řešení nelineárních elektronických obvodů
-6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)
-7. Pasivní součásti elektrických obvodů (RLC)
-Digitální část
-8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII
-9. Logické funkce, Booleova algebra, logické výrazy
-10. Kombinační logické sítě
-11. Minimalizace normálních forem výrazů
-12. Syntéza kombinačních obvodů
+    <t>_x000D_
+1. Základy fyziky polovodičů, elektrická vodivost vodičů, nevodičů, polovodičů, intrinzitní, extrinzitní_x000D_
+vodivost, PN přechod)_x000D_
+2. Základní pojmy obvodové elektroniky (I, U, R, C, Q, AC/DC, zdroje napětí a proudu, VA charakteristiky)_x000D_
+3. Řešení elektrických obvodů stejnosměrného proudu (Ohmův zákon, Théveninova věta, Nortonova věta,_x000D_
+řešení obvodů dle Kirchhoffových zákonů, smyčkových proudů, uzlových napětí, lineární superpozice)_x000D_
+4. Řešení obvodů střídavého proudu (induktance, kapacitance, fázové posunutí proudu a napětí na C a L,_x000D_
+fázorový diagram, rezonance)_x000D_
+5. Grafické řešení nelineárních elektronických obvodů_x000D_
+6. Náhradní lineární obvody (jednobran, dvojbran, admitanční a impedanční rovnice)_x000D_
+7. Pasivní součásti elektrických obvodů (RLC)_x000D_
+Digitální část_x000D_
+8. Digitální signál, bit, byte, číselné soustavy, kódy, BCD, ASCII_x000D_
+9. Logické funkce, Booleova algebra, logické výrazy_x000D_
+10. Kombinační logické sítě_x000D_
+11. Minimalizace normálních forem výrazů_x000D_
+12. Syntéza kombinačních obvodů_x000D_
 13. Fyzikální realizace a analýza kombinačních logických členů</t>
   </si>
   <si>
-    <t>1. Základní pojmy kryptologie, Modulární aritmetika
-2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti
-3. Klasická kryptologie (substituční a transpoziční šifry)
-4. Symetrická kryptografie ? blokové šifry (DES, AES)
-5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)
-6. Kryptografie veřejného klíče (RSA, DSA, DH)
-7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)
-8. Digitální měny, HW a SW peněženky, blockchain (principy)
-9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)
-10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)
-11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií
-(typy, techniky, možnosti)
-12. AAA framework (principy, dělení, účel, protokoly, využití)
-13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu
+    <t>1. Základní pojmy kryptologie, Modulární aritmetika_x000D_
+2. Generátory (pseudo)náhodných čísel, testy prvočíselnosti_x000D_
+3. Klasická kryptologie (substituční a transpoziční šifry)_x000D_
+4. Symetrická kryptografie ? blokové šifry (DES, AES)_x000D_
+5. Symetrická kryptografie ? proudové šifry (A5, Salsa20, Chacha20)_x000D_
+6. Kryptografie veřejného klíče (RSA, DSA, DH)_x000D_
+7. Hashovací funkce (MD5, SHA, digitální podpis ? princip)_x000D_
+8. Digitální měny, HW a SW peněženky, blockchain (principy)_x000D_
+9. Důvěrnost, integrita, dostupnost (princip, klasifikace, prostředky, algoritmy)_x000D_
+10. Řízení bezpečnosti dat (služby, metody, ověření bezpečnosti)_x000D_
+11. Analýza hrozeb a rizik (aktiva, zranitelnost, ohrožení, opatření), soudobé hrozby informačních technologií_x000D_
+(typy, techniky, možnosti)_x000D_
+12. AAA framework (principy, dělení, účel, protokoly, využití)_x000D_
+13. Protokoly a metody bezpečnosti a ochrany dat v prostředí Internetu_x000D_
 14. Ochrana dat na úrovni kabelových sítí (principy, dělení, využití)</t>
   </si>
   <si>
@@ -1237,16 +1241,16 @@
 12.	Gradientní metody.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh.
-2.	Úlohy derivační a nederivační. 
-3.	Úlohy jednorozměrné optimalizace.
-4.	Úlohy vícerozměrné optimalizace.
-5.	Úlohy lineární optimalizace.
-6.	Simplexová metoda.
-7.	Dopravní problém.
-8.	Metoda nejmenších čtverců.
-9.	Úlohy nelineární optimalizace s omezeními.
-10.	Úlohy nelineární optimalizace bez omezení.
+    <t xml:space="preserve">1.	Klasifikace optimalizačních úloh._x000D_
+2.	Úlohy derivační a nederivační. _x000D_
+3.	Úlohy jednorozměrné optimalizace._x000D_
+4.	Úlohy vícerozměrné optimalizace._x000D_
+5.	Úlohy lineární optimalizace._x000D_
+6.	Simplexová metoda._x000D_
+7.	Dopravní problém._x000D_
+8.	Metoda nejmenších čtverců._x000D_
+9.	Úlohy nelineární optimalizace s omezeními._x000D_
+10.	Úlohy nelineární optimalizace bez omezení._x000D_
 </t>
   </si>
   <si>
@@ -1267,7 +1271,7 @@
     <t>Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>
-    <t>Základní znalosti z oblasti numerické matematiky
+    <t>Základní znalosti z oblasti numerické matematiky_x000D_
 Výuka v angličtině je určena pro erasmové a zahraniční studenty. Výuka v případě malého počtu studentů probíhá formou individuálních konzultací.</t>
   </si>
   <si>

--- a/results/garant_neprednasi.xlsx
+++ b/results/garant_neprednasi.xlsx
@@ -1111,12 +1111,12 @@
     <t>Fyzická geografie I</t>
   </si>
   <si>
+    <t>Anatomie a fyziologie člověka</t>
+  </si>
+  <si>
     <t>Sociální geografie I</t>
   </si>
   <si>
-    <t>Anatomie a fyziologie člověka</t>
-  </si>
-  <si>
     <t>Fyzická geografie II</t>
   </si>
   <si>
@@ -1135,12 +1135,12 @@
     <t>Obecná didaktika chemie</t>
   </si>
   <si>
+    <t>Toxikologie rostlin a živočišných toxinů</t>
+  </si>
+  <si>
     <t>Geologie pro geografy</t>
   </si>
   <si>
-    <t>Toxikologie rostlin a živočišných toxinů</t>
-  </si>
-  <si>
     <t>Heterocyklické a organokovové sloučeniny</t>
   </si>
   <si>
@@ -1180,12 +1180,12 @@
     <t>Organická chemie</t>
   </si>
   <si>
+    <t>Chemie a fyzika živých soustav</t>
+  </si>
+  <si>
     <t>Fyzika pro chemiky</t>
   </si>
   <si>
-    <t>Chemie a fyzika živých soustav</t>
-  </si>
-  <si>
     <t>Fyzika pro chemiky II</t>
   </si>
   <si>
@@ -1246,12 +1246,12 @@
     <t>Data Analysis and Visualisation</t>
   </si>
   <si>
+    <t>Fyzika a fyz. chemie mat.a nanomateriálů</t>
+  </si>
+  <si>
     <t>Fyzika a fyzikální chemie materiálů</t>
   </si>
   <si>
-    <t>Fyzika a fyz. chemie mat.a nanomateriálů</t>
-  </si>
-  <si>
     <t>Programování pro GUI</t>
   </si>
   <si>
@@ -1261,12 +1261,12 @@
     <t>Instrumentální metody pro nanotechnology</t>
   </si>
   <si>
+    <t>Lineární algebra a geometrie I</t>
+  </si>
+  <si>
     <t>Toxikologie I</t>
   </si>
   <si>
-    <t>Lineární algebra a geometrie I</t>
-  </si>
-  <si>
     <t>Úvod do toxikologie</t>
   </si>
   <si>
@@ -1288,12 +1288,12 @@
     <t>Poč. mod. - zpracování obrazu a signálu</t>
   </si>
   <si>
+    <t>Matematická analýza I</t>
+  </si>
+  <si>
     <t>Organická chemie I</t>
   </si>
   <si>
-    <t>Matematická analýza I</t>
-  </si>
-  <si>
     <t>Matematika III</t>
   </si>
   <si>
@@ -1321,12 +1321,12 @@
     <t>Analytická chemie I</t>
   </si>
   <si>
+    <t>Fyziologie živočichů a člověka</t>
+  </si>
+  <si>
     <t>Úvod do molekulárních simulací</t>
   </si>
   <si>
-    <t>Fyziologie živočichů a člověka</t>
-  </si>
-  <si>
     <t>Antropologie a genetika člověka</t>
   </si>
   <si>
@@ -1465,13 +1465,13 @@
     <t>Vědecká komunikace v biologii</t>
   </si>
   <si>
+    <t>Historie matematiky</t>
+  </si>
+  <si>
+    <t>Metody přípravy nanomateriálů</t>
+  </si>
+  <si>
     <t>Lokální a regionální rozvoj</t>
-  </si>
-  <si>
-    <t>Historie matematiky</t>
-  </si>
-  <si>
-    <t>Metody přípravy nanomateriálů</t>
   </si>
   <si>
     <t>Aktuální problémy Česka</t>
@@ -1544,12 +1544,12 @@
     <t>Fyziologie a molekul. biologie živ. buňk</t>
   </si>
   <si>
+    <t>Metody molekulární biologie</t>
+  </si>
+  <si>
     <t>Biochemie</t>
   </si>
   <si>
-    <t>Metody molekulární biologie</t>
-  </si>
-  <si>
     <t>Mikrofluid. systémy a biologická analýza</t>
   </si>
   <si>
@@ -1733,12 +1733,12 @@
     <t>'RNDr. Ivan Farský, CSc.'</t>
   </si>
   <si>
+    <t>'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
+  </si>
+  <si>
     <t>'Mgr. Kristýna Rybová, Ph.D.'</t>
   </si>
   <si>
-    <t>'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
@@ -1781,12 +1781,12 @@
     <t>'Mgr. Michaela Liegertová, Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Oldřich Benada, CSc.'</t>
+  </si>
+  <si>
     <t>'prof. RNDr. Ivo Nezbeda, DrSc.'</t>
   </si>
   <si>
-    <t>'RNDr. Oldřich Benada, CSc.'</t>
-  </si>
-  <si>
     <t>'prof. doc. RNDr. Milan Gryndler, CSc.'</t>
   </si>
   <si>
@@ -2099,12 +2099,12 @@
     <t>[315]</t>
   </si>
   <si>
+    <t>[3066]</t>
+  </si>
+  <si>
     <t>[5856]</t>
   </si>
   <si>
-    <t>[3066]</t>
-  </si>
-  <si>
     <t>[3164]</t>
   </si>
   <si>
@@ -2147,12 +2147,12 @@
     <t>[4472]</t>
   </si>
   <si>
+    <t>[1983]</t>
+  </si>
+  <si>
     <t>[305]</t>
   </si>
   <si>
-    <t>[1983]</t>
-  </si>
-  <si>
     <t>[3661]</t>
   </si>
   <si>
@@ -2342,12 +2342,12 @@
     <t>'RNDr. Ivan Farský, CSc.', 'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Petr Jošt, Ph.D.', 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Jiří Anděl, CSc.', 'Mgr. Kristýna Rybová, Ph.D.'</t>
   </si>
   <si>
-    <t>'Mgr. Petr Jošt, Ph.D.', 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Jan Jirsák, Ph.D.', 'Ing. Magda Škvorová, Ph.D.'</t>
   </si>
   <si>
@@ -2462,12 +2462,12 @@
     <t>'Ing. Jiří Henych, Ph.D.', 'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
   </si>
   <si>
+    <t>'PhDr. Magdalena Krátká, Ph.D.', 'RNDr. Martin Kuřil, Ph.D.'</t>
+  </si>
+  <si>
     <t>'PharmDr. Markéta Švarcová, Ph.D.'</t>
   </si>
   <si>
-    <t>'PhDr. Magdalena Krátká, Ph.D.', 'RNDr. Martin Kuřil, Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Alena Černíková, MSc., Ph.D.', 'Mgr. Lucie Loukotová'</t>
   </si>
   <si>
@@ -2519,12 +2519,12 @@
     <t>'doc. RNDr. Vlastimil Dohnal, Ph.D.', 'RNDr. Milan Šmídl, Ph.D.', 'RNDr. Ľuboš Vrtoch, PhD., Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Marian Rupert', 'Ing. Stanislav Vinopal, Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Filip Moučka, Ph.D.', 'prof. RNDr. Ivo Nezbeda, DrSc.'</t>
   </si>
   <si>
-    <t>'Mgr. Marian Rupert', 'Ing. Stanislav Vinopal, Ph.D.'</t>
-  </si>
-  <si>
     <t>'RNDr. Jan Ipser, CSc.', 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.'</t>
   </si>
   <si>
@@ -2621,12 +2621,12 @@
     <t>'doc. RNDr. Jaromír Hajer, CSc.', 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.', 'Mgr. Jan Malý, Ph.D.'</t>
   </si>
   <si>
+    <t>'prof. Ing. Zdeňka Kolská, Ph.D.', 'Mgr. Jan Malý, Ph.D.', 'doc. RNDr. Jaroslav Pavlík, CSc.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Jaroslav Koutský, Ph.D.', 'RNDr. Silvie Rita Kučerová, Ph.D.'</t>
   </si>
   <si>
-    <t>'prof. Ing. Zdeňka Kolská, Ph.D.', 'Mgr. Jan Malý, Ph.D.', 'doc. RNDr. Jaroslav Pavlík, CSc.'</t>
-  </si>
-  <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.', 'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
@@ -2768,12 +2768,12 @@
     <t>'RNDr. Ivan Farský, CSc.' (100), 'Mgr. Jiří Riezner, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'Mgr. Petr Jošt, Ph.D.' (100), 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Jiří Anděl, CSc.' (100), 'Mgr. Kristýna Rybová, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'Mgr. Petr Jošt, Ph.D.' (100), 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Jan Jirsák, Ph.D.' (100), 'Ing. Magda Škvorová, Ph.D.' (100)</t>
   </si>
   <si>
@@ -2894,12 +2894,12 @@
     <t>'Ing. Jiří Henych, Ph.D.' (90), 'prof. Ing. Zdeňka Kolská, Ph.D.' (10)</t>
   </si>
   <si>
+    <t>'PhDr. Magdalena Krátká, Ph.D.' (100), 'RNDr. Martin Kuřil, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'PharmDr. Markéta Švarcová, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'PhDr. Magdalena Krátká, Ph.D.' (100), 'RNDr. Martin Kuřil, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'Mgr. Alena Černíková, MSc., Ph.D.' (100), 'Mgr. Lucie Loukotová' (100)</t>
   </si>
   <si>
@@ -2951,12 +2951,12 @@
     <t>'doc. RNDr. Vlastimil Dohnal, Ph.D.' (100), 'RNDr. Milan Šmídl, Ph.D.' (100), 'RNDr. Ľuboš Vrtoch, PhD., Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'Mgr. Marian Rupert' (100), 'Ing. Stanislav Vinopal, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Filip Moučka, Ph.D.' (100), 'prof. RNDr. Ivo Nezbeda, DrSc.' (100)</t>
   </si>
   <si>
-    <t>'Mgr. Marian Rupert' (100), 'Ing. Stanislav Vinopal, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'RNDr. Jan Ipser, CSc.' (100), 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.' (100)</t>
   </si>
   <si>
@@ -3074,12 +3074,12 @@
     <t>'doc. RNDr. Jaromír Hajer, CSc.' (100), 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100), 'doc. RNDr. Jaroslav Pavlík, CSc.' (100)</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Jaroslav Koutský, Ph.D.' (100), 'RNDr. Silvie Rita Kučerová, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100), 'doc. RNDr. Jaroslav Pavlík, CSc.' (100)</t>
-  </si>
-  <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.' (100), 'Mgr. Jiří Riezner, Ph.D.' (100)</t>
   </si>
   <si>
@@ -3236,12 +3236,12 @@
     <t>[315, 3164]</t>
   </si>
   <si>
+    <t>[8815, 3066]</t>
+  </si>
+  <si>
     <t>[312, 5856]</t>
   </si>
   <si>
-    <t>[8815, 3066]</t>
-  </si>
-  <si>
     <t>[2855, 2856]</t>
   </si>
   <si>
@@ -3356,12 +3356,12 @@
     <t>[5431, 332]</t>
   </si>
   <si>
+    <t>[425, 264]</t>
+  </si>
+  <si>
     <t>[3176]</t>
   </si>
   <si>
-    <t>[425, 264]</t>
-  </si>
-  <si>
     <t>[9488, 3188]</t>
   </si>
   <si>
@@ -3413,12 +3413,12 @@
     <t>[2227, 3704, 4117]</t>
   </si>
   <si>
+    <t>[5275, 8024]</t>
+  </si>
+  <si>
     <t>[3222, 305]</t>
   </si>
   <si>
-    <t>[5275, 8024]</t>
-  </si>
-  <si>
     <t>[930, 2939]</t>
   </si>
   <si>
@@ -3515,12 +3515,12 @@
     <t>[278, 2939, 280]</t>
   </si>
   <si>
+    <t>[332, 280, 308]</t>
+  </si>
+  <si>
     <t>[1644, 3528]</t>
   </si>
   <si>
-    <t>[332, 280, 308]</t>
-  </si>
-  <si>
     <t>[3528, 3164]</t>
   </si>
   <si>
@@ -4220,10 +4220,10 @@
     <t>KCH/K211, KI/KAEL</t>
   </si>
   <si>
+    <t>KMA/K401</t>
+  </si>
+  <si>
     <t>KCH/K501, KCH/K505, KCH/K507, KCH/K603</t>
-  </si>
-  <si>
-    <t>KMA/K401</t>
   </si>
   <si>
     <t>KCH/K501</t>
@@ -4667,13 +4667,6 @@
 'Janko a kol. Analýza znečištěnin a technika jejich odběru. VŠCHT, Pardubice, 1984. '</t>
   </si>
   <si>
-    <t>'Patočka J. Úvod do obecné toxikologie. ZSF JU, 2003. ',
-'Horák, J., Linhart, I., Klusoň, K. Úvod do toxikologie a ekologie pro chemiky. VŠCHT Praha. 2004. ',
-'Prokeš J a kol.:. Základy toxikologie. Galén, 2005. ',
-'Vopršalová M., Žáčková P. Základy toxikologie pro farmaceuty. UK Praha, Vydavatelství Karolinum, 1996. ',
-'HRDINA, V.; HRDINA, R.; JAHODÁŘ, L.; MARTINEC, Z.; MĚRKA, V. Přírodní toxiny a jedy. Koedice GALÉN-KAROLINUM. Praha. 2004. Praha, 2004. '</t>
-  </si>
-  <si>
     <t>'Blažek, J. et al. Algebra a teoretická aritmetika I, SPN Praha, 1983. ',
 'W. K. NICHOLSON. Elementary Linear Algebra with Applications, Brunele, Weber and Schmidt, Boston, 1986. ',
 'PAUL R. HALMOS. Finite-Dimensional Vector Spaces, Springer, New York - Berlin - Heidelberg, 1974. ',
@@ -4685,6 +4678,13 @@
 'I. V. PROSKURJAKOV. Sbornik zadač po linějnoj algebre, Nauka, Moskva, 1984. ',
 'PETER KAPRÁLIK, JOZEF TVAROŽEK. Zbierka riešených príkladov a úloh z lineárnej algebry a analytickej geometrie, Alfa, Bratislava, 1987. ',
 'A. K. FADDEJEV, J. S. SOMINSKIJ. Zbierka úloh z vyššej algebry, Alfa, Bratislava, 1968. '</t>
+  </si>
+  <si>
+    <t>'Patočka J. Úvod do obecné toxikologie. ZSF JU, 2003. ',
+'Horák, J., Linhart, I., Klusoň, K. Úvod do toxikologie a ekologie pro chemiky. VŠCHT Praha. 2004. ',
+'Prokeš J a kol.:. Základy toxikologie. Galén, 2005. ',
+'Vopršalová M., Žáčková P. Základy toxikologie pro farmaceuty. UK Praha, Vydavatelství Karolinum, 1996. ',
+'HRDINA, V.; HRDINA, R.; JAHODÁŘ, L.; MARTINEC, Z.; MĚRKA, V. Přírodní toxiny a jedy. Koedice GALÉN-KAROLINUM. Praha. 2004. Praha, 2004. '</t>
   </si>
   <si>
     <t>'http://biology.ujep.cz/vyuka/',
@@ -4741,20 +4741,20 @@
 'http://www.fi.muni.cz/~hlineny/Vyuka/GT/Grafy-text10.pdf'</t>
   </si>
   <si>
+    <t>'ČERNÝ, Ilja. Inteligentní kalkulus. ',
+'ČERNÝ, Ilja. Matematická analýza I. Liberec: Technická univerzita, 1995. ISBN 80-7083-188-X.',
+'ČERNÝ, Ilja. Matematická analýza II. Liberec: Technická univerzita, 1996. ISBN 80-7083-188-X.',
+'VESELÝ, Jiří. Matematická analýza pro učitele. Praha: Matfyzpress, 1997. ISBN 80-85863-23-5.',
+'JARNÍK, Vojtěch. Integrální počet I. Praha: Academia, 1984. ',
+'KOPÁČEK, Jiří. Matematická analýza pro fyziky I. Praha: Matfyzpress, 1997. ISBN 80-85863-74-X.'</t>
+  </si>
+  <si>
     <t>'Svoboda J. a kol. Organická chemie I, skripta VŠCHT Praha. VŠCHT Praha, 2005. ',
 'McMurry J. organická chemie VUTIUM Praha 2007. ISBN 978-80-7080-637-1. ',
 'Studijní opora Organická chemie I (on-line: http://chemistry.ujep.cz/1214-studijni-opory). ',
 'Bláha K., Ferles M., Staněk J. a kol. Nomenklatura organické chemie. SNTL, Praha. 1982. ',
 'Orchin M., Kaplan F. ,Macomber R. S. Organická chemie - příruční naučný slovník, SNTL, Praha. 1986. ',
 'Panico R., Powell W. H., Richer J. C. Průvodce názvoslovím organických sloučenin podle IUPAC, doporučení 1993. Academia Praha. 2000. '</t>
-  </si>
-  <si>
-    <t>'ČERNÝ, Ilja. Inteligentní kalkulus. ',
-'ČERNÝ, Ilja. Matematická analýza I. Liberec: Technická univerzita, 1995. ISBN 80-7083-188-X.',
-'ČERNÝ, Ilja. Matematická analýza II. Liberec: Technická univerzita, 1996. ISBN 80-7083-188-X.',
-'VESELÝ, Jiří. Matematická analýza pro učitele. Praha: Matfyzpress, 1997. ISBN 80-85863-23-5.',
-'JARNÍK, Vojtěch. Integrální počet I. Praha: Academia, 1984. ',
-'KOPÁČEK, Jiří. Matematická analýza pro fyziky I. Praha: Matfyzpress, 1997. ISBN 80-85863-74-X.'</t>
   </si>
   <si>
     <t>'Rosypal S. a kol. Nový přehled biologie. 2003. ',
@@ -5240,10 +5240,6 @@
 'Daníčková S. Skrytá poselství vědy, Academia Praha. 2009. '</t>
   </si>
   <si>
-    <t>'Jakubíková, D. Strategický marketing. Strategie a trendy. 2013. ISBN 978-80-247-4670-8.',
-'BLAŽEK, Jiří, UHLÍŘ, David. Teorie regionálního rozvoje: nástin, kritika, implikace. Praha: Karolinum, 2011. ISBN 978-80-246-1974-3.'</t>
-  </si>
-  <si>
     <t>'AL CHVÁRIZMÍ. Aritmetický a Algebraický traktát, OPS, 2009. ',
 'STRUIK, D.J. Dějiny matematiky, Orbis, Pha, 1963. ',
 'JUŠKEVIČ, A.P. Dějiny matematiky ve středověku, Academia, Praha, 1978. ',
@@ -5263,6 +5259,10 @@
 'Hošek Jan. Úvod do nanotechnologie, ČVUT v Praze, 2011. '</t>
   </si>
   <si>
+    <t>'Jakubíková, D. Strategický marketing. Strategie a trendy. 2013. ISBN 978-80-247-4670-8.',
+'BLAŽEK, Jiří, UHLÍŘ, David. Teorie regionálního rozvoje: nástin, kritika, implikace. Praha: Karolinum, 2011. ISBN 978-80-246-1974-3.'</t>
+  </si>
+  <si>
     <t>'J. Kopáček. Matematika pro fyziky II, Praha, Matfyzpress, 1998. ',
 'KOPÁČEK, J. Matematika pro fyziky III. Matfyzpress, Praha. ',
 'KOPÁČEK, J. Matematika pro fyziky IV. Matfyzpress, Praha. ',
@@ -5412,15 +5412,6 @@
 'Rozsypal S. et al. Nový přehled biologie (pouze vydání z roku 2003). Praha, 2003. ISBN 80-7183-268-5.',
 'Archibald J. One plus One, Equals One, Symbiosis and the Evolution Complex, Oxford University Press, 2014 (česky Vyšehrad, 2017). ',
 'Sheetz M., Yu H. The Cell as a Machine, Cambridge University Press, 2018. '</t>
-  </si>
-  <si>
-    <t>'Vodrážka Z. Biochemie, Academia, Praha. 1999. ',
-'KODÍČEK, M., VALENTOVÁ O., HYNEK R. Biochemie. VŠCHT Praha 2015. ISBN: 978-80-7080-927-3. ',
-'Campbell, M. K. Biochemistry, belmont: Thomson Brooks/Cole, 2009. ',
-'Murray R.K., Granner D.K., Mayes P.A., Rodwell V.W. Harperova biochemie, HaH, Praha. 1998. ',
-'Poušek, L. Přehled biochemie člověka, Praha:ČVUT, 2008. ',
-'Rozsypal S. a kol. Úvod do molekulární biologie I.-III. Academia, Praha 2000. ',
-'Skálová L., Szotáková B., Netopilová M. Základní biochemické dráhy v buňce, UK Praha, 2004. Praha, 2004. '</t>
   </si>
   <si>
     <t>'ŠMARDA, J. a kol. Metody molekulární biologie. Masarykova univerzita, Brno, 2010. ISBN 978-8-0210-3841-7. ',
@@ -5435,6 +5426,15 @@
 'KOČÁREK, E. et al. Molekulární biologie v medicíně. Praha: NCO NZO, 2007. 218 s. ISBN 978-80-7013-450-4. ',
 'Cvrčková Fatima. Úvod do praktické bioinformatiky, Academia, (2006). ',
 'Dorian J., et al. Základy lékařské genetiky. Praha: Galén, 2007. ISBN 978-80-7262-449-2.'</t>
+  </si>
+  <si>
+    <t>'Vodrážka Z. Biochemie, Academia, Praha. 1999. ',
+'KODÍČEK, M., VALENTOVÁ O., HYNEK R. Biochemie. VŠCHT Praha 2015. ISBN: 978-80-7080-927-3. ',
+'Campbell, M. K. Biochemistry, belmont: Thomson Brooks/Cole, 2009. ',
+'Murray R.K., Granner D.K., Mayes P.A., Rodwell V.W. Harperova biochemie, HaH, Praha. 1998. ',
+'Poušek, L. Přehled biochemie člověka, Praha:ČVUT, 2008. ',
+'Rozsypal S. a kol. Úvod do molekulární biologie I.-III. Academia, Praha 2000. ',
+'Skálová L., Szotáková B., Netopilová M. Základní biochemické dráhy v buňce, UK Praha, 2004. Praha, 2004. '</t>
   </si>
   <si>
     <t>'FRANSSILA, Sami. Introduction to microfabrication. 2nd ed. Chichester, West Sussex [England]: John Wiley &amp; Sons, 2010. ISBN 978-0-470-74983-8. ',
@@ -5863,10 +5863,10 @@
     <t>KFY/P219</t>
   </si>
   <si>
+    <t>KFY/NA08</t>
+  </si>
+  <si>
     <t>KFY/P317</t>
-  </si>
-  <si>
-    <t>KFY/NA08</t>
   </si>
   <si>
     <t>KBI/P000</t>
@@ -5945,11 +5945,11 @@
     <t>Kurz se soustředí na seznámení studentů s vybranými základními okruhy z oblasti fyzické geografie. Objasňuje potřebnou fyzickogeografickou terminologiia a teorie. Zabývá se vztahy uvnitř fyzickogeografických subsystémů (litosféra a atmosféra). Teoretickou problematiku vede k dovednostem studenta ve vymezování přírodních regionů a jejich charakteristiky. Kurz je věnován vymezení disciplíny fyzické geografie, postavení a pohybům Země ve vesmíru, geologické stavbě Země, energetické bilanci Země a globálnímu klimatu, klimatologii a meteorologii.</t>
   </si>
   <si>
-    <t>Kurz se soustředí na uvedení posluchačů do základů sociální geografie a sociogeografického výzkumu. Objasňuje základní pojmy, zabývá zákonitostmi rozmístění sociogeografických jevů a vztahy uvnitř sociogeografických systémů. Teoretickou problematiku vede k dovednostem vymezování sociogeografických regionů (jádro x periferie) a chápání řádovostní hierarchie.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Předmět pokrývá znalosti o stavbě lidského těla, na které bezprostředně navazuje vysvětlení funkce jednotlivých orgánových soustav na úrovni buňky, tkání, orgánů ale i organismu, jako celku. V rámci fyziologie by absolvent předmětu měl získat znalosti o stavbě a funkci jednotlivých orgánových soustav a o základních fyziologických mechanismech regulace procesů v lidském těle. Předmět tvoří základ pro studium dalších toxikologických disciplín, které vycházejí ze znalostí normální anatomie a fyziologie.
 </t>
+  </si>
+  <si>
+    <t>Kurz se soustředí na uvedení posluchačů do základů sociální geografie a sociogeografického výzkumu. Objasňuje základní pojmy, zabývá zákonitostmi rozmístění sociogeografických jevů a vztahy uvnitř sociogeografických systémů. Teoretickou problematiku vede k dovednostem vymezování sociogeografických regionů (jádro x periferie) a chápání řádovostní hierarchie.</t>
   </si>
   <si>
     <t>Kurz se soustředí na seznámení studentů s vybranými základními okruhy z oblasti fyzické geografie. Objasňuje potřebnou
@@ -6037,12 +6037,12 @@
 touto přednáškou a seminářem.</t>
   </si>
   <si>
+    <t xml:space="preserve">Seminář je určen pro studenty 1. ročníku, oboru biologie, studijního programu biologie. Cílem semináře je sjednocení získaných znalostí středoškolské chemie, fyziky a biologie makromolekul, které jsou nezbytné pro studium dalších biologických předmětů. Studenti by měli získat přehled o vzájemné propojenosti fyzikálních a chemických zákonů v základních biologických systémech (Makromolekuly - Buňky - Organismy).  Část semináře bude věnována moderním fyzikálním metodám pro charakterizaci struktury funkce biologických objektů.
+</t>
+  </si>
+  <si>
     <t>Student se aktivně seznámí s vybranými partiemi z fyziky, které jsou zapotřebí pro bezproblémové studium navazujících
 kurzů z oblasti chemie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seminář je určen pro studenty 1. ročníku, oboru biologie, studijního programu biologie. Cílem semináře je sjednocení získaných znalostí středoškolské chemie, fyziky a biologie makromolekul, které jsou nezbytné pro studium dalších biologických předmětů. Studenti by měli získat přehled o vzájemné propojenosti fyzikálních a chemických zákonů v základních biologických systémech (Makromolekuly - Buňky - Organismy).  Část semináře bude věnována moderním fyzikálním metodám pro charakterizaci struktury funkce biologických objektů.
-</t>
   </si>
   <si>
     <t>Cílem kurzu bude seznámit posluchače s mikrobiálními biofilmy, jejich životním cyklem, vlivem na okolní prostředí (včetně člověka) a metodickými postupy. V rámci cvičení budou provedeny jednoduché kultivační pokusy a analýza narostlého biofilmu. Kurz bude zakončen zápočtovým testem.</t>
@@ -6145,10 +6145,10 @@
     <t>Kurz je zaměřen na vizuální programování v moderních desktopových prostředích. V souladu se zaměřením moderních operačních systémů je důraz kladen na interaktivní graficky orientované aplikace a na návrh grafických uživatelských rozhraní. Student je prostřednictvím tohoto kurzu seznámen s filozofií událostmi řízeného programování a získá základní stupeň znalostí programátora v dominantní počítačové platformě.</t>
   </si>
   <si>
+    <t>Předmět studentům poskytuje, spolu s paralelní přednáškou Základy matematiky, základní matematické znalosti a nástroje pro další matematické disciplíny.</t>
+  </si>
+  <si>
     <t>Přednáška z toxikologie podává základní přehled o obecné a speciální toxikologii posluchačům 1. ročníku oborů s chemií. V obecné části je předmět zaměřen na vymezení základních pojmů, jsou popsány možnosti vstupu škodlivin do organismu, distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Dále jsou probrány faktory ovlivňující toxický účinek, projevy toxického účinku, všeobecné zásady terapie otrav a první pomoci. V souvislosti s tím jsou studenti seznamováni i s platnou legislativou související s nakládáním s chemickými látkami a způsoby ochrany proti působení chemických látek.Ve speciální části je pozornost zaměřena na toxické vlastnosti vybraných anorganických a organických sloučenin, přírodních toxinů živočišného a rostlinného původu a dále omamných látek a některých běžně užívaných léků.</t>
-  </si>
-  <si>
-    <t>Předmět studentům poskytuje, spolu s paralelní přednáškou Základy matematiky, základní matematické znalosti a nástroje pro další matematické disciplíny.</t>
   </si>
   <si>
     <t>Přednáška je určena studentům 1. ročníku studijních oborů s chemií a úspěšné složení zkoušky je podmínkou pro přijetí k praktickým laboratorním cvičením na katedře chemie. V úvodu budou studenti seznámeni se základními toxikologickými pojmy, možnostmi vstupu, mechanismy biotransformace a vyloučení toxických látek organismem. V rámci speciální toxikologie je pozornost zaměřena na toxické vlastnosti nebezpečných anorganických a organických látek a nakládání s těmito látkami s ohledem na zásady bezpečnosti práce a správné laboratorní praxe.</t>
@@ -6164,10 +6164,10 @@
     <t>Posluchači se seznámí se základy kalkulu a matematické analýzy, hlavně integrálního počtu, a jejich použití v jiných oborech. V kurzu bude probírán integrál (Newtonův a Riemannův přístup) a jeho aplikace (hlavně geometrické, fyzikální), jednoduché diferenciální rovnice a funkce více proměnných (parciální derivace, integrace, extrémy).</t>
   </si>
   <si>
+    <t>Cílem kurzu je seznámit posluchače s teoretickými základy matematické analýzy, hlavně přesnými matematickými definicemi spojitosti, limity a derivace. Navazuje úzce na kurz Úvod do infinitezimálního počtu. Dále se studenti seznámí s využitím těchto pojmů v oborech jako je fyzika, ekonomie i samotná matematika (průběh funkce a aproximace polynomy, číselné posloupnosti a řady).</t>
+  </si>
+  <si>
     <t>Předmět je koncipován tak, že po převážně obecných partiích, které mají vytvořit potřebný aparát pro pochopení zákonitostí chemismu organických sloučenin, následuje přehled jednotlivých skupin organických sloučenin. Cílem je vytvořit ucelený obraz moderní organické chemie a nezbytný základ pro navazující předměty.</t>
-  </si>
-  <si>
-    <t>Cílem kurzu je seznámit posluchače s teoretickými základy matematické analýzy, hlavně přesnými matematickými definicemi spojitosti, limity a derivace. Navazuje úzce na kurz Úvod do infinitezimálního počtu. Dále se studenti seznámí s využitím těchto pojmů v oborech jako je fyzika, ekonomie i samotná matematika (průběh funkce a aproximace polynomy, číselné posloupnosti a řady).</t>
   </si>
   <si>
     <t xml:space="preserve">Cílem tohoto kurzu je poskytnout základní informace o morfologii (stavba buňky a stélky), systematice, ekologii, historickém vývoji a významu organismů, které tradičně studují vědecké obory algologie, mykologie, lichenologie a bryologie. Důraz je kladen především na vývojové vztahy jednotlivých skupin organismů, na jejich roli v ekosystémech a na propojení s praktickou aplikací (biotechnologie, medicína, zemědělství, bioindikace apod.).
@@ -6206,14 +6206,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Předmět poskytne studentům informace (1) o společných základních funkcích živočichů (dráždivost, vzrušivost, smyslové vnímání, neuroendokrinní regulace, metabolismus, pohyb, imunita, adaptace, vyšší nervová činnost, emoce, chování apod.) a (2) o jejich orgánových, buněčných a molekulárních atributech, vč. nástinu jejich fylogeneze.
+Přednášky jsou členěny do 13 bloků. Po přednášce následuje cvičení zahrnující monitoraci a procvičování probraných funkcí za využití speciálních pomůcek a přístrojů včetně mikroskopie a simulačních, interaktivních počítačových programů.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Naivní versus preferenční vzorkování konfiguračního prostoru; Metropolisův algoritmus; jedno-duché simulace v NVT souboru; technické detaily a měření. Základní metody na určení entro-pických veličin. 
 Aplikace: jednoduchá kapalina a Isingův model. Základy molekulární dynamiky (MD) 
 Algoritmy řešení diferenciálních rovnic; Verletův algoritmus; metody prediktor-korektor; simu-lace v mikrokanonickém souboru.Nefyzikální aplikace: optimalizace problému s mnoha stupni volnosti. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Předmět poskytne studentům informace (1) o společných základních funkcích živočichů (dráždivost, vzrušivost, smyslové vnímání, neuroendokrinní regulace, metabolismus, pohyb, imunita, adaptace, vyšší nervová činnost, emoce, chování apod.) a (2) o jejich orgánových, buněčných a molekulárních atributech, vč. nástinu jejich fylogeneze.
-Přednášky jsou členěny do 13 bloků. Po přednášce následuje cvičení zahrnující monitoraci a procvičování probraných funkcí za využití speciálních pomůcek a přístrojů včetně mikroskopie a simulačních, interaktivních počítačových programů.
 </t>
   </si>
   <si>
@@ -6397,10 +6397,13 @@
     <t>Kurz předpokládá znalost zásad tzv. vědecké metody (vymezení otázky/problému, tvorby hypotéz a zásad jejich ověřování, vč. plánování experimentu, formulace závěrů a základů statistiky). Kurz je součástí výchovy studentů k přípravě diplomové práce, jakož i případné postgraduální studium a vstup absolventů do výzkumné praxe.</t>
   </si>
   <si>
+    <t>Kurz má umožnit studentům zařadit jejich matematické znalosti do historického kontextu. Stručně popisuje prehistorii matematiky, ustavení matematiky jako vědy, antickou matematiku, arabskou matematiku a její vliv na evropskou matematiku ve středověku, vznik infinitesimálního počtu, podrobněji se věnuje zrodu teorie množin.</t>
+  </si>
+  <si>
     <t>Cílem kurzu je seznámit účastníky s vývojem a současnými trendy v teorii regionálního a lokálního rozvoje. Je kladen důraz na pochopení problematiky v kontextu vývoje ekonomického myšlení, vývoje širších socioekonomických procesů, proměn prostorové organizace společnosti a kulturních aspektů. Osvojení si teorie regionálního rozvoje je nezbytným předpokladem pro kvalifikovanou práci v decizní sféře, orgánech státní správy a samosprávy, rozvojových agenturách a dalších institucích, které mají možnost ovlivňovat a definovat vývoj území. Jádro kurzu tvoří analýza příslušných teorií regionálního rozvoje, doplněná konkrétními příklady z praxe na úrovni makroregionální i lokální.</t>
   </si>
   <si>
-    <t>Kurz má umožnit studentům zařadit jejich matematické znalosti do historického kontextu. Stručně popisuje prehistorii matematiky, ustavení matematiky jako vědy, antickou matematiku, arabskou matematiku a její vliv na evropskou matematiku ve středověku, vznik infinitesimálního počtu, podrobněji se věnuje zrodu teorie množin.</t>
+    <t>Teorie funkcí více proměnných (diferenciální i integrální počet) a její použití v geometrii a ve fyzice. Konvergence řad funkcí, jejich derivace a integrace, mocninné řady.</t>
   </si>
   <si>
     <t xml:space="preserve">Kurz nazvaný Biologie členovců navazuje na povinný kurz Fylogeneze a systém bezobratlých živočichů, který studenti
@@ -6408,9 +6411,6 @@
 o skupině živočichů, která významně ovlivňuje život na Zemi.
 Kurz je doplněn o online kurz se 13 tématy a závěrečným testem v aplikaci Moodle. Přihlásit se lze na tomto odkaze:  https://moodle.biology.ujep.cz/course/view.php?id=42 a to po zadání hesla, které sdělí vyučující.
 </t>
-  </si>
-  <si>
-    <t>Teorie funkcí více proměnných (diferenciální i integrální počet) a její použití v geometrii a ve fyzice. Konvergence řad funkcí, jejich derivace a integrace, mocninné řady.</t>
   </si>
   <si>
     <t>Cílem kurzu je představit a diskutovat aktuální problémy Česka zejména v oblasti environmentální, geopolitické, hospodářství a regionálního rozvoje, demografických, sociálních a kulturních aspektů. Hodnoceny jsou různé hierarchické úrovně vybraných problémů - od jejich globálního rozměru až po specifické projevy na lokální úrovni. Kurz plní funkci regionální syntézy poznatků o rozvojovém potenciálu a problémech Česka, které si student osvojil v dílčích etapách svého geografického studia.</t>
@@ -6509,12 +6509,12 @@
 buněčného a tkáňového bioinženýrství.</t>
   </si>
   <si>
+    <t>Cílem kurzu je seznámit účastníky s vývojem a současnými trendy v oblasti experimentální molekulární biologie a
+molekulární genetiky.</t>
+  </si>
+  <si>
     <t>Předmět seznamuje studenty se základy biochemie především pro hlubší pochopení souvisejících biologických
 předmětů. Předmět navazuje na znalosti bakalářského studia a rozšiřuje je do hloubky i do šířky.</t>
-  </si>
-  <si>
-    <t>Cílem kurzu je seznámit účastníky s vývojem a současnými trendy v oblasti experimentální molekulární biologie a
-molekulární genetiky.</t>
   </si>
   <si>
     <t>Cílem kurzu je seznámit studenty s aktuálními trendy mikrotechnologií využitelnými v oblasti biologických věd a věd hraničních s biologií. Studenti se seznámí s významem miniaturizace pro vývoj experimentálních metod a na praktických příkladech získají přehled o možnostech využití mikrofluidních systémů v bioaplikacích s různým zaměřením (např. kultivace buněčných kultur, manipulace s buňkami, tvorba koncentračních gradientů pro experiment, povrchové modifikace pro imobilizace bioaktivních látek, příprava microarrays apod.). V průběhu kurzu si studenti prakticky osvojí vybrané techniky z workflow výroby mikrofluidních systémů a provedou vybrané experimenty související s daným tématem.</t>
@@ -6704,13 +6704,13 @@
     <t xml:space="preserve"> - zápočtový test</t>
   </si>
   <si>
-    <t>75% účast na přednáškách, 60% úspěšnost testu</t>
-  </si>
-  <si>
     <t>Zápočet je formou testu.
 Zkouška je formou ústního zkoušení.</t>
   </si>
   <si>
+    <t>75% účast na přednáškách, 60% úspěšnost testu</t>
+  </si>
+  <si>
     <t>zápočtový test</t>
   </si>
   <si>
@@ -6718,11 +6718,11 @@
 Zkouška je formou ústního zkoušení.</t>
   </si>
   <si>
-    <t>Zpracování semestrálního úkolu - geologická mapa a geologický profil malým územím.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 zápočtový test, ústní zkouška.</t>
+  </si>
+  <si>
+    <t>Zpracování semestrálního úkolu - geologická mapa a geologický profil malým územím.</t>
   </si>
   <si>
     <t>Zápočet je formou zápočtové písemné práce.
@@ -7151,12 +7151,6 @@
 Studenti vypracují návrh posterové prezentace ze zadaných výsledků, v mateřském jazyce s anglickým souhrnem. Provedou  scientometrické  zhodnocení zadaného konkrétního článku (evidence a "ranking" daného publikačního média  v databázích, citační odezva článku a autora).  Provedou rozbor předloženého, záměrně "mutovaného" manuskriptu, vyhledají záměrné nedostatky a doporučí, nebo zamítnou k publikaci. Seznámí se s formuláři pro žádost o finanční podporu vybraných grantových agentur ČR.</t>
   </si>
   <si>
-    <t xml:space="preserve">- aktivní účast na cvičeních (max. 2 neomluvené absence)
-- prezentace a obhajoba návrhu řešení vybraného rozvojového projektu
-- ústní zkouška
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zápočet:_x000D_
 1. Vypracování seminární práce na zadané téma. _x000D_
 2. Připomínkování seminární práce._x000D_
@@ -7167,6 +7161,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">- aktivní účast na cvičeních (max. 2 neomluvené absence)
+- prezentace a obhajoba návrhu řešení vybraného rozvojového projektu
+- ústní zkouška
+</t>
+  </si>
+  <si>
     <t>Podmínkou k udělení zápočtu je úspěšné zvládnutí zápočtové písemky a snaha o maximální účast na výuce. Absence budou posuzovány v relaci k výsledku písemky.</t>
   </si>
   <si>
@@ -7228,10 +7228,10 @@
     <t>Kromě účasti na cvičeních je podmínkou udělení zápočtu získání alespoň polovičního množství bodů ze tří zápočtových písemných prací, které studenti píšou v průběhu semestru a odevzdání všech seminárních prací.</t>
   </si>
   <si>
+    <t>Předpokládají se znalosti principů molekulární biologie a zásad práce v laboratoři na úrovni bakalářského studia</t>
+  </si>
+  <si>
     <t>Písemný zápočtový test, ústní zkouška (3 otázky)</t>
-  </si>
-  <si>
-    <t>Předpokládají se znalosti principů molekulární biologie a zásad práce v laboratoři na úrovni bakalářského studia</t>
   </si>
   <si>
     <t>Zápočet: řešení příkladů_x000D_
@@ -7403,22 +7403,6 @@
 12. Srážky, vlhkost. Regionální proudění v atmosféře.
 13. Synoptická meteorologie I.
 14. Synoptická meteorologie II.</t>
-  </si>
-  <si>
-    <t>1. Úvod do problematiky, hlavní pojmy. Teorie a definice.
-2. Předmětová specifikace sociální geografie a klasifikace věd.
-3. Paradigma v sociální geografii.
-4. Sociogeografické regiony. 
-5. Typy regionů a sociogeografická regionalizace.
-6. Rozmístění obyvatelstva ve vztahu k přírodním a socioekonomickým faktorům. Antropogeneze.
-7. Objekt a předmět studia environmentální geografie, její postavení v sociální geografie.
-8. Objekt a předmět studia politické geografie, její postavení v sociální geografie.
-9.  Objekt a předmět studia kulturní geografie, její postavení v sociální geografie.
-10.  Objekt a předmět studia geografie obyvatelstva, její postavení v sociální geografie.
-11. Mechanický a sociální pohyb.
-12. Demografický cyklus a demografická revoluce.
-13. Sociogeografické makroregiony světa.
-14. Základní metody sociogeografického výzkumu</t>
   </si>
   <si>
     <t xml:space="preserve">  1.  Úvod do anatomie a fyziologie člověka
@@ -7439,6 +7423,22 @@
 </t>
   </si>
   <si>
+    <t>1. Úvod do problematiky, hlavní pojmy. Teorie a definice.
+2. Předmětová specifikace sociální geografie a klasifikace věd.
+3. Paradigma v sociální geografii.
+4. Sociogeografické regiony. 
+5. Typy regionů a sociogeografická regionalizace.
+6. Rozmístění obyvatelstva ve vztahu k přírodním a socioekonomickým faktorům. Antropogeneze.
+7. Objekt a předmět studia environmentální geografie, její postavení v sociální geografie.
+8. Objekt a předmět studia politické geografie, její postavení v sociální geografie.
+9.  Objekt a předmět studia kulturní geografie, její postavení v sociální geografie.
+10.  Objekt a předmět studia geografie obyvatelstva, její postavení v sociální geografie.
+11. Mechanický a sociální pohyb.
+12. Demografický cyklus a demografická revoluce.
+13. Sociogeografické makroregiony světa.
+14. Základní metody sociogeografického výzkumu</t>
+  </si>
+  <si>
     <t>1. Úvod do fyzické geografie (objekt a předmět), modely a základní literatura.
 2. Základní fyzickogeografické metody, pravidla a postupy terénního fyzickogeografického výzkumu.
 3. Geologická stavba Země, teorie deskové tektoniky, vybrané horniny a jejich složení.
@@ -7527,23 +7527,6 @@
 11. Imunotoxicita nanočástic
 12. Regulace, testování toxicity, bezpečnost nanočástic
 13. Hodnocení rizika nanočástic - koncept BED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Metody studia vnitřní stavby Země. Seismický model, jeho hlavní strukturní složky a diskontinuity.
-2. Zemská kůra - chemické, minerální a horninové složení.  Kritéria pro klasifikaci minerálů - systém minerálů a jeho hlavní reprezentanti.  Kritéria pro klasifikaci hornin -  systém hornin a jeho hlavní reprezentanti. 
-3. Zemská kůra, kontinentální a oceánský typ. Morfostrukturní jednotky zemské kůry (hypsografická křivka), kratogeny, pevninská pohoří, pevninský svah, úpatí, oceánská pánev, hlubokomořské příkopy. 
-4. Zemský plášť a jeho strukturní složky (litosféra, astenosféra, střední plášť, spodní plášť), vnější jádro, jadérko. Termální model Země, teplota a tepelný tok v zemském tělese. Geotermální energie.  
-5. Teorie deskové tektoniky, její východiska a základní principy.  Pohyb litosférických desek a pohyb plášťových hmot. Divergentní hranice mezi deskami, pevninský, mezipevninský a oceánský rift. Konvergentní hranice mezi deskami, typy subdukce (japonský, andský, himalájský typ), obdukce. Transformní hranice. 
-6. Tektogeneze a její fáze podle Wilsnova cyklu. Magmatismus, metamorfismus a orogeneze v  riftogenezi a kratonizaci.    
-7. Geografické důsledky deskové tektoniky. Geologický cyklus, vývoj zemské kůry na Zemi. Paleogeografie - rekonstrukce pohybu litosférických desek v minulosti. Neotektonika a její regionální projevy.  
-8. Zemětřesení, jeho typy a  klasifikační stupnice. Geografické rozšíření seismických jevů.  Epeirogeneze  a její důsledky. 
-9. Magmatismus, jeho typy a klasifikace. Krystalizace magmatu,  struktury magmatitů a typy magmatických těles. Systém magmatitů a jeho klasifikační kritéria. 
-10. Vulkanismus, tvary těles vulkanitů, sopečné produkty a postvulkanické jevy. Geografické rozšíření vulkanických pásem na Zemi. 
-11. Metamorfóza, její procesy, typy a činitelé. Migmatitizace. Systém metamorfitů a jeho klasifikační kritéria. 
-12. Zvětrávání hornin, jeho typy a činitelé.  Mechanické zvětrávání  (dezintegrace, deskvamace, kongelifrakce, exfoliace), zvětrávání  chemické a biologické.
-13. Geneze sedimentů. Transport, sedimentace, sedimentační prostředí. Úložné poměry sedimentů (stratigrafický hiát, konkordance, diskordance). Systém sedimentů a jeho klasifikační kritéria. 
-14. Geologické struktury.  
-</t>
   </si>
   <si>
     <t>Úvod do problematiky: charakteristika hlavních přednášených částí - látky obsažené v přírodních zdrojích, pesticidy a
@@ -7567,6 +7550,23 @@
 Látky izolované ze živočichů - rozdělení podle rodů - látky produkované hmyzem, látky izolované z měkkýšů, látky
 izolované z obratlovců (toxiny, barviva, léčiva). Struktura hlavních látek, význam v historii a v současnosti.
 Studijní literatura a studijní pomůcky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Metody studia vnitřní stavby Země. Seismický model, jeho hlavní strukturní složky a diskontinuity.
+2. Zemská kůra - chemické, minerální a horninové složení.  Kritéria pro klasifikaci minerálů - systém minerálů a jeho hlavní reprezentanti.  Kritéria pro klasifikaci hornin -  systém hornin a jeho hlavní reprezentanti. 
+3. Zemská kůra, kontinentální a oceánský typ. Morfostrukturní jednotky zemské kůry (hypsografická křivka), kratogeny, pevninská pohoří, pevninský svah, úpatí, oceánská pánev, hlubokomořské příkopy. 
+4. Zemský plášť a jeho strukturní složky (litosféra, astenosféra, střední plášť, spodní plášť), vnější jádro, jadérko. Termální model Země, teplota a tepelný tok v zemském tělese. Geotermální energie.  
+5. Teorie deskové tektoniky, její východiska a základní principy.  Pohyb litosférických desek a pohyb plášťových hmot. Divergentní hranice mezi deskami, pevninský, mezipevninský a oceánský rift. Konvergentní hranice mezi deskami, typy subdukce (japonský, andský, himalájský typ), obdukce. Transformní hranice. 
+6. Tektogeneze a její fáze podle Wilsnova cyklu. Magmatismus, metamorfismus a orogeneze v  riftogenezi a kratonizaci.    
+7. Geografické důsledky deskové tektoniky. Geologický cyklus, vývoj zemské kůry na Zemi. Paleogeografie - rekonstrukce pohybu litosférických desek v minulosti. Neotektonika a její regionální projevy.  
+8. Zemětřesení, jeho typy a  klasifikační stupnice. Geografické rozšíření seismických jevů.  Epeirogeneze  a její důsledky. 
+9. Magmatismus, jeho typy a klasifikace. Krystalizace magmatu,  struktury magmatitů a typy magmatických těles. Systém magmatitů a jeho klasifikační kritéria. 
+10. Vulkanismus, tvary těles vulkanitů, sopečné produkty a postvulkanické jevy. Geografické rozšíření vulkanických pásem na Zemi. 
+11. Metamorfóza, její procesy, typy a činitelé. Migmatitizace. Systém metamorfitů a jeho klasifikační kritéria. 
+12. Zvětrávání hornin, jeho typy a činitelé.  Mechanické zvětrávání  (dezintegrace, deskvamace, kongelifrakce, exfoliace), zvětrávání  chemické a biologické.
+13. Geneze sedimentů. Transport, sedimentace, sedimentační prostředí. Úložné poměry sedimentů (stratigrafický hiát, konkordance, diskordance). Systém sedimentů a jeho klasifikační kritéria. 
+14. Geologické struktury.  
+</t>
   </si>
   <si>
     <t>1. Seznámení s předmětem, definice oboru a oblastí zájmu medicíny katastrof.
@@ -7805,21 +7805,6 @@
 kyslíkem a sírou</t>
   </si>
   <si>
-    <t xml:space="preserve">
-? Optika ? Vlnová a částicová povaha světla.
-? Elektrostatika ? Coulombův zákon, intenzita a potenciál, elektrický dipól, kondenzátory, pohyb elektrického
-náboje v homogenním elektrickém poli.
-? Stejnosměrný obvod ? Ohmův zákon, elektrický odpor, výkon, Jouleův zákon.
-? Magnetické pole ? silové účinky magnetického pole, hmotový spektrograf, měřicí přístroje, cyklotron, Hallův
-jev, Biotův-Savartův zákon, magnetické pole v látkách.
-? Elektromagnetické pole ? magnetická indukce, síla na pohybující se náboj, pohyb nabité částice v
-elektromagnetickém poli, světlo jako elektromagnetická vlna.
-? Obvody střídavého proudu ? generátor střídavého proudu, střední a efektivní hodnota střídavého proudu, výkon
-střídavého proudu, impedance, fázové posunutí, sériový rezonanční obvod.
-? Základní pojmy moderní fyziky ? záření černého tělesa, Stefanův-Boltzmannův zákon, Planckův zákon,
-vyzařování, absorpce, emise, laser, Fotoelektrický jev, rentgenové záření, rentgenová difrakce na krystalech</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Atributy živých systémů
 Chemické složení živých organismů, Anorganické a organické látky, Biopolymery.
 2. Chemie a fyzika - základy
@@ -7834,6 +7819,21 @@
 5. Bioenergetika
 Energetika enzymových reakcí, makroergické sloučeniny, respirační řetězec, oxidační fosforylace, metabolismus sacharidů, glykolýza, cyklus trikarboxylových kyselin, energetický zisk, pasteurův efekt. 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+? Optika ? Vlnová a částicová povaha světla.
+? Elektrostatika ? Coulombův zákon, intenzita a potenciál, elektrický dipól, kondenzátory, pohyb elektrického
+náboje v homogenním elektrickém poli.
+? Stejnosměrný obvod ? Ohmův zákon, elektrický odpor, výkon, Jouleův zákon.
+? Magnetické pole ? silové účinky magnetického pole, hmotový spektrograf, měřicí přístroje, cyklotron, Hallův
+jev, Biotův-Savartův zákon, magnetické pole v látkách.
+? Elektromagnetické pole ? magnetická indukce, síla na pohybující se náboj, pohyb nabité částice v
+elektromagnetickém poli, světlo jako elektromagnetická vlna.
+? Obvody střídavého proudu ? generátor střídavého proudu, střední a efektivní hodnota střídavého proudu, výkon
+střídavého proudu, impedance, fázové posunutí, sériový rezonanční obvod.
+? Základní pojmy moderní fyziky ? záření černého tělesa, Stefanův-Boltzmannův zákon, Planckův zákon,
+vyzařování, absorpce, emise, laser, Fotoelektrický jev, rentgenové záření, rentgenová difrakce na krystalech</t>
   </si>
   <si>
     <t>ELEKTROSTATIKA
@@ -8266,14 +8266,6 @@
 porozita, krystalinita aj.) a jejich vztah k chemické analýze.</t>
   </si>
   <si>
-    <t>Obsah 1. bloku:
-Základní pojmy toxikologie: Toxikologické disciplíny a jejich souvislost s lékařskými a chemickými obory: 
-Pojem toxická látka. Letální dávka. Expozice. 
-Obecná toxikologie: Cesty a mechanismy vstupu jedů do organismu, brány vstupu, vstřebávání toxinů, jejich metabolismus. Distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Zásady pro bezpečnou práci v chemických laboratořích, první předlékařská pomoc. Speciální toxikologie: toxikologické vlastnosti toxikologicky významných látek v rámci jednotlivých prvků hlavních a vedlejších skupin PSP a jejich sloučenin.
-Obsah 2. bloku:
-Speciální toxikologie: toxické vlastnosti vybraných toxikologicky významných organických látek (po skupinách podle funkčních skupin), živočišné jedy, fytotoxikologie, toxikologie omamných látek a některých běžně užívaných léků. Základy vojenské toxikologie.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Těleso, vektorové prostory (význačné příklady)
 2. - 3.	Maticový počet
 4. - 5.	Soustavy lineárních rovnic (maticový zápis soustavy, Gauss-Jordanova eliminační metoda)
@@ -8284,6 +8276,14 @@
 12. - 13. Determinanty (definice, základní vlastnosti, Laplaceův rozvoj, výpočet determinantu, inverzní matice, Cramerovy formule)
 14. Vlastní čísla a vlastní vektory matice, charakteristický polynom
 </t>
+  </si>
+  <si>
+    <t>Obsah 1. bloku:
+Základní pojmy toxikologie: Toxikologické disciplíny a jejich souvislost s lékařskými a chemickými obory: 
+Pojem toxická látka. Letální dávka. Expozice. 
+Obecná toxikologie: Cesty a mechanismy vstupu jedů do organismu, brány vstupu, vstřebávání toxinů, jejich metabolismus. Distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Zásady pro bezpečnou práci v chemických laboratořích, první předlékařská pomoc. Speciální toxikologie: toxikologické vlastnosti toxikologicky významných látek v rámci jednotlivých prvků hlavních a vedlejších skupin PSP a jejich sloučenin.
+Obsah 2. bloku:
+Speciální toxikologie: toxické vlastnosti vybraných toxikologicky významných organických látek (po skupinách podle funkčních skupin), živočišné jedy, fytotoxikologie, toxikologie omamných látek a některých běžně užívaných léků. Základy vojenské toxikologie.</t>
   </si>
   <si>
     <t>1. základní pojmy, historie toxikologie, toxikologie a její dělení
@@ -8404,14 +8404,6 @@
 7) Toky v sítích (definice sítě, hledání největšího toku, zobecnění sítí, další aplikace algoritmu pro hledání největšího toku - párování v bipartitním grafu a Hallova věta). </t>
   </si>
   <si>
-    <t>Obsah 1. bloku: 
-Úvod - význam a základní principy organické chemie. Vazby v organických sloučeninách:  Kyseliny a báze, elektrofily a nukleofily, funkční skupiny. Alkany, izomerie, konformace cykloalkanů. Chiralita obecně a chirální molekuly. Stereochemie v chemických reakcích. Haloalkany: SN2 substituce, SN1 substituce, stabilita karbokationtů. Mono- a bimolekulární eliminace E1 a E2, konkurence mezi substitucí a eliminací. Alkoholy: acidobazické vlastnosti, syntéza. Organokovové sloučeniny. Příprava a použití alkoxidů. Přesmyky karbokationtů.  Ethery a analogy alkoholů a etherů se sírou.
-Obsah 2. bloku: 
-NMR pro určení struktury organických sloučenin.  Alkeny. Infračervená spektroskopie. Alkyny a trojná vazba. Příprava alkynů, reakce alkynů. Delokalizované p-systémy, 2-propenylový (allylový) systém, konjugované dieny. Dielsova-Alderova cykloadice. UV/VIS spektroskopie. Benzen a aromaticita, Hückelovo pravidlo.  Elektrofilní aromatická substituce. Aktivační a deaktivační vlivy substituentů, řízení substituce. Benzylový systém. Fenoly a nukleofilní aromatická substituce. Arendiazoniové soli. Aldehydy a ketony. Reakce karbonylové skupiny. a,b-Nenasycené aldehydy a ketony. Enoly, enoláty, aldolová kondenzace. Konjugované adice na a,b-nenasycené aldehydy a ketony. Michaelova adice.
-Obsah 3. bloku: 
-Karboxylové kyseliny a jejich funkční deriváty. Acidobazické vlastnosti, syntéza. Adičně-eliminační mechanismus substituce na karboxylovém uhlíku. Hmotnostní spektrometrie. Aminy, jejich deriváty a další funkční skupiny obsahující dusík. Kvarterní amoniové soli a Hofmannova eliminace. Mannichova reakce a nitrosace aminů. b-Dikarbonylové sloučeniny. Claisenova kondenzace a ostatní použití b-dikarbonylových sloučenin jako syntetických intermediátů. Aromatické a nearomatické pětičlenné a šestičlenné heterocykly s dusíkem, kyslíkem a sírou.</t>
-  </si>
-  <si>
     <t>1. Reálná čísla a jejich vlastnosti
 2. Suprema a infima, posloupnosti a jejich limity
 3. Základní vlastnosti limit posloupností a jejich výpočet
@@ -8427,6 +8419,14 @@
 13. Aproximace funkcí polynomy, Taylorovy polynomy
 14. Goniometrické funkce pomocí Taylorových řad.
 15. Opakování</t>
+  </si>
+  <si>
+    <t>Obsah 1. bloku: 
+Úvod - význam a základní principy organické chemie. Vazby v organických sloučeninách:  Kyseliny a báze, elektrofily a nukleofily, funkční skupiny. Alkany, izomerie, konformace cykloalkanů. Chiralita obecně a chirální molekuly. Stereochemie v chemických reakcích. Haloalkany: SN2 substituce, SN1 substituce, stabilita karbokationtů. Mono- a bimolekulární eliminace E1 a E2, konkurence mezi substitucí a eliminací. Alkoholy: acidobazické vlastnosti, syntéza. Organokovové sloučeniny. Příprava a použití alkoxidů. Přesmyky karbokationtů.  Ethery a analogy alkoholů a etherů se sírou.
+Obsah 2. bloku: 
+NMR pro určení struktury organických sloučenin.  Alkeny. Infračervená spektroskopie. Alkyny a trojná vazba. Příprava alkynů, reakce alkynů. Delokalizované p-systémy, 2-propenylový (allylový) systém, konjugované dieny. Dielsova-Alderova cykloadice. UV/VIS spektroskopie. Benzen a aromaticita, Hückelovo pravidlo.  Elektrofilní aromatická substituce. Aktivační a deaktivační vlivy substituentů, řízení substituce. Benzylový systém. Fenoly a nukleofilní aromatická substituce. Arendiazoniové soli. Aldehydy a ketony. Reakce karbonylové skupiny. a,b-Nenasycené aldehydy a ketony. Enoly, enoláty, aldolová kondenzace. Konjugované adice na a,b-nenasycené aldehydy a ketony. Michaelova adice.
+Obsah 3. bloku: 
+Karboxylové kyseliny a jejich funkční deriváty. Acidobazické vlastnosti, syntéza. Adičně-eliminační mechanismus substituce na karboxylovém uhlíku. Hmotnostní spektrometrie. Aminy, jejich deriváty a další funkční skupiny obsahující dusík. Kvarterní amoniové soli a Hofmannova eliminace. Mannichova reakce a nitrosace aminů. b-Dikarbonylové sloučeniny. Claisenova kondenzace a ostatní použití b-dikarbonylových sloučenin jako syntetických intermediátů. Aromatické a nearomatické pětičlenné a šestičlenné heterocykly s dusíkem, kyslíkem a sírou.</t>
   </si>
   <si>
     <t xml:space="preserve">1. blok 2 hod. SK + 3 hod. PS 
@@ -9535,22 +9535,6 @@
 Programy EU, nadace apod).</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Teorie regionálního rozvoje, definice rozvojových problémů.
-2. Hlavní teoreticko-metodologické přístupy ve 20. a 21. století.
-3. Hlavní teorie v moderní ekonomii.
-4. Neoklasické a neoliberální teorie regionálního rozvoje.
-5. Keynesiánské období: teorie skupiny jádro-periferie.
-6. Strukturalistické přístupy, neomarxismus.
-7. Kritickorealistické přístupy.
-8. Institucionální směry.
-9. Síťování, clustery, šíření inovací, spolupráce a konkurence.
-10. Globální komoditní řetězce a produkční sítě.
-11. Nadnárodní korporace a malé a střední podniky jako aktéři na různých hierarchických úrovních.
-12. Aktuální trendy v regionálním rozvoji a regionální politice.
-13. Současné období regionální politiky v kontextu Evropské unie.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.	Význam historie matematiky, etapy vývoje matematiky, prehistorie matematiky
 2.	Egyptská matematika
 3.	Matematika v Mezopotámii
@@ -9572,6 +9556,22 @@
 1)	Teoretické základy fyzikálních metod přípravy nanomateriálů - top-down versus bottom -   up procesy, plazmové depozice tenkých vrstev a nanočástic, plazmové modifikace a funkcionalizace povrchů, litografické techniky (EBL, UV - litografie, milling techniky, AFM litografie, koloidní a polymerní templátová nanolitografie.
 2)	Chemické metody přípravy nanomateriálů - příprava nanostruktur nulté dimenze (0D), příprava jednodimenzioálních nanostruktur (1D) - nanodrátky, nanotrubičky, příprava dvoudimenzionálních nanostruktur (2D) - nanostrukturované povrchy, interkalace, chemické metody depozice nanočástic a chemické modifikace povrchů, hybridní organo-inorganické nanostruktury, dendrimerní nanokompozity.
 3)       Bionanotechnologie, příprava nanočástic pomocí mikroorganismů
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Teorie regionálního rozvoje, definice rozvojových problémů.
+2. Hlavní teoreticko-metodologické přístupy ve 20. a 21. století.
+3. Hlavní teorie v moderní ekonomii.
+4. Neoklasické a neoliberální teorie regionálního rozvoje.
+5. Keynesiánské období: teorie skupiny jádro-periferie.
+6. Strukturalistické přístupy, neomarxismus.
+7. Kritickorealistické přístupy.
+8. Institucionální směry.
+9. Síťování, clustery, šíření inovací, spolupráce a konkurence.
+10. Globální komoditní řetězce a produkční sítě.
+11. Nadnárodní korporace a malé a střední podniky jako aktéři na různých hierarchických úrovních.
+12. Aktuální trendy v regionálním rozvoji a regionální politice.
+13. Současné období regionální politiky v kontextu Evropské unie.
 </t>
   </si>
   <si>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>82</v>
@@ -12179,13 +12179,13 @@
         <v>365</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>566</v>
@@ -12195,7 +12195,7 @@
         <v>572</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>650</v>
+        <v>572</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>694</v>
@@ -12226,9 +12226,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1" t="s">
-        <v>1451</v>
-      </c>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -12236,7 +12234,7 @@
         <v>565</v>
       </c>
       <c r="AI7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>1628</v>
@@ -12257,10 +12255,10 @@
         <v>1635</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>1801</v>
@@ -12309,7 +12307,7 @@
         <v>564</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -12317,7 +12315,7 @@
     </row>
     <row r="8" spans="1:69">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>82</v>
@@ -12332,13 +12330,13 @@
         <v>366</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>566</v>
@@ -12348,7 +12346,7 @@
         <v>573</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>695</v>
@@ -12379,7 +12377,9 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="1" t="s">
+        <v>1451</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
@@ -12387,7 +12387,7 @@
         <v>565</v>
       </c>
       <c r="AI8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>1628</v>
@@ -12408,10 +12408,10 @@
         <v>1636</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>1801</v>
@@ -12460,7 +12460,7 @@
         <v>564</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
@@ -13823,9 +13823,15 @@
       <c r="BN17" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
+      <c r="BO17" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>2181</v>
+      </c>
     </row>
     <row r="18" spans="1:69">
       <c r="A18" s="1" t="s">
@@ -13974,19 +13980,13 @@
       <c r="BN18" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="BO18" s="1" t="s">
-        <v>2177</v>
-      </c>
-      <c r="BP18" s="1" t="s">
-        <v>2181</v>
-      </c>
-      <c r="BQ18" s="1" t="s">
-        <v>2181</v>
-      </c>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
     </row>
     <row r="19" spans="1:69">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>91</v>
@@ -13998,7 +13998,7 @@
         <v>373</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>373</v>
+        <v>543</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>564</v>
@@ -14014,31 +14014,27 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>652</v>
+        <v>577</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>1243</v>
-      </c>
+        <v>1077</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -14049,12 +14045,12 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
+      <c r="AA19" s="1" t="s">
+        <v>1321</v>
+      </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1" t="s">
-        <v>1454</v>
-      </c>
+      <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -14062,13 +14058,13 @@
         <v>565</v>
       </c>
       <c r="AI19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ19" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1" t="s">
         <v>1628</v>
@@ -14079,9 +14075,7 @@
       <c r="AN19" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO19" s="1" t="s">
-        <v>1640</v>
-      </c>
+      <c r="AO19" s="1"/>
       <c r="AP19" s="1" t="s">
         <v>1799</v>
       </c>
@@ -14135,21 +14129,15 @@
         <v>564</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="BO19" s="1" t="s">
-        <v>2178</v>
-      </c>
-      <c r="BP19" s="1" t="s">
-        <v>2183</v>
-      </c>
-      <c r="BQ19" s="1" t="s">
-        <v>2178</v>
-      </c>
+        <v>2176</v>
+      </c>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
     </row>
     <row r="20" spans="1:69">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>91</v>
@@ -14161,7 +14149,7 @@
         <v>374</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>543</v>
+        <v>374</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>564</v>
@@ -14177,27 +14165,31 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+        <v>1080</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>1243</v>
+      </c>
       <c r="S20" s="1" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -14208,12 +14200,12 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>1321</v>
-      </c>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>1454</v>
+      </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -14221,13 +14213,13 @@
         <v>565</v>
       </c>
       <c r="AI20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1" t="s">
         <v>1628</v>
@@ -14238,7 +14230,9 @@
       <c r="AN20" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO20" s="1"/>
+      <c r="AO20" s="1" t="s">
+        <v>1640</v>
+      </c>
       <c r="AP20" s="1" t="s">
         <v>1799</v>
       </c>
@@ -14292,11 +14286,17 @@
         <v>564</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>2176</v>
-      </c>
-      <c r="BO20" s="1"/>
-      <c r="BP20" s="1"/>
-      <c r="BQ20" s="1"/>
+        <v>722</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>2178</v>
+      </c>
     </row>
     <row r="21" spans="1:69">
       <c r="A21" s="1" t="s">
@@ -14477,13 +14477,13 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>784</v>
@@ -14607,10 +14607,10 @@
         <v>2023</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>564</v>
@@ -14704,7 +14704,7 @@
         <v>1801</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="AT23" s="1" t="s">
         <v>1961</v>
@@ -16179,10 +16179,10 @@
         <v>2023</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>565</v>
@@ -16198,22 +16198,22 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -16258,7 +16258,7 @@
         <v>1629</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>1799</v>
@@ -16270,10 +16270,10 @@
         <v>1801</v>
       </c>
       <c r="AS33" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="36" spans="1:69">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>107</v>
@@ -16670,19 +16670,15 @@
         <v>588</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>937</v>
-      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>1092</v>
+        <v>722</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -16698,14 +16694,12 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="1" t="s">
-        <v>1323</v>
-      </c>
+      <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="AD36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1" t="s">
+        <v>1463</v>
+      </c>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
@@ -16713,13 +16707,13 @@
         <v>565</v>
       </c>
       <c r="AI36" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ36" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK36" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="1" t="s">
         <v>1629</v>
@@ -16742,11 +16736,15 @@
       <c r="AR36" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS36" s="1"/>
+      <c r="AS36" s="1" t="s">
+        <v>1823</v>
+      </c>
       <c r="AT36" s="1" t="s">
         <v>1972</v>
       </c>
-      <c r="AU36" s="1"/>
+      <c r="AU36" s="1" t="s">
+        <v>2131</v>
+      </c>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
@@ -16770,19 +16768,21 @@
         <v>565</v>
       </c>
       <c r="BH36" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI36" s="1"/>
       <c r="BJ36" s="2">
         <v>0</v>
       </c>
       <c r="BK36" s="1"/>
-      <c r="BL36" s="1"/>
+      <c r="BL36" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM36" s="1" t="s">
         <v>564</v>
       </c>
       <c r="BN36" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
@@ -16790,7 +16790,7 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>107</v>
@@ -16821,15 +16821,19 @@
         <v>589</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>655</v>
+        <v>589</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="N37" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>937</v>
+      </c>
       <c r="P37" s="1" t="s">
-        <v>722</v>
+        <v>1092</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -16845,12 +16849,14 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
+      <c r="AA37" s="1" t="s">
+        <v>1323</v>
+      </c>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1" t="s">
-        <v>1463</v>
-      </c>
+      <c r="AC37" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
@@ -16858,13 +16864,13 @@
         <v>565</v>
       </c>
       <c r="AI37" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ37" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK37" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AL37" s="1" t="s">
         <v>1629</v>
@@ -16887,15 +16893,11 @@
       <c r="AR37" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS37" s="1" t="s">
-        <v>1823</v>
-      </c>
+      <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="AU37" s="1" t="s">
-        <v>2131</v>
-      </c>
+      <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
@@ -16919,21 +16921,19 @@
         <v>565</v>
       </c>
       <c r="BH37" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="2">
         <v>0</v>
       </c>
       <c r="BK37" s="1"/>
-      <c r="BL37" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL37" s="1"/>
       <c r="BM37" s="1" t="s">
         <v>564</v>
       </c>
       <c r="BN37" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
@@ -16969,13 +16969,13 @@
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>794</v>
@@ -17035,7 +17035,7 @@
         <v>1629</v>
       </c>
       <c r="AO38" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="AP38" s="1" t="s">
         <v>1798</v>
@@ -18317,7 +18317,7 @@
         <v>2023</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>543</v>
@@ -18408,10 +18408,10 @@
         <v>1801</v>
       </c>
       <c r="AS47" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
@@ -18636,13 +18636,13 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>784</v>
@@ -20157,10 +20157,10 @@
         <v>2023</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>564</v>
@@ -20176,13 +20176,13 @@
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>655</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -20234,7 +20234,7 @@
         <v>1628</v>
       </c>
       <c r="AO59" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="AP59" s="1" t="s">
         <v>1799</v>
@@ -20249,7 +20249,7 @@
         <v>1823</v>
       </c>
       <c r="AT59" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="AU59" s="1" t="s">
         <v>2131</v>
@@ -23272,7 +23272,7 @@
     </row>
     <row r="79" spans="1:69">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>148</v>
@@ -23337,15 +23337,11 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
-      <c r="AC79" s="1" t="s">
-        <v>1394</v>
-      </c>
+      <c r="AC79" s="1"/>
       <c r="AD79" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="AE79" s="1" t="s">
-        <v>1598</v>
-      </c>
+      <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1" t="s">
@@ -23406,7 +23402,7 @@
       <c r="BE79" s="1"/>
       <c r="BF79" s="1"/>
       <c r="BG79" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BH79" s="1" t="s">
         <v>565</v>
@@ -23416,9 +23412,7 @@
         <v>0</v>
       </c>
       <c r="BK79" s="1"/>
-      <c r="BL79" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL79" s="1"/>
       <c r="BM79" s="1" t="s">
         <v>564</v>
       </c>
@@ -23431,7 +23425,7 @@
     </row>
     <row r="80" spans="1:69">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>148</v>
@@ -23496,11 +23490,15 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
+      <c r="AC80" s="1" t="s">
+        <v>1394</v>
+      </c>
       <c r="AD80" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="AE80" s="1"/>
+      <c r="AE80" s="1" t="s">
+        <v>1598</v>
+      </c>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1" t="s">
@@ -23561,7 +23559,7 @@
       <c r="BE80" s="1"/>
       <c r="BF80" s="1"/>
       <c r="BG80" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH80" s="1" t="s">
         <v>565</v>
@@ -23571,7 +23569,9 @@
         <v>0</v>
       </c>
       <c r="BK80" s="1"/>
-      <c r="BL80" s="1"/>
+      <c r="BL80" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM80" s="1" t="s">
         <v>564</v>
       </c>
@@ -24047,7 +24047,7 @@
     </row>
     <row r="84" spans="1:69">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>151</v>
@@ -24068,20 +24068,20 @@
         <v>565</v>
       </c>
       <c r="H84" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>661</v>
+        <v>603</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>815</v>
@@ -24092,10 +24092,14 @@
       <c r="P84" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
+      <c r="Q84" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>959</v>
+      </c>
       <c r="S84" s="1" t="s">
-        <v>722</v>
+        <v>1113</v>
       </c>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -24108,9 +24112,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
-      <c r="AC84" s="1" t="s">
-        <v>1396</v>
-      </c>
+      <c r="AC84" s="1"/>
       <c r="AD84" s="1" t="s">
         <v>1478</v>
       </c>
@@ -24121,13 +24123,13 @@
         <v>565</v>
       </c>
       <c r="AI84" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ84" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK84" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL84" s="1" t="s">
         <v>1629</v>
@@ -24145,21 +24147,25 @@
         <v>1799</v>
       </c>
       <c r="AQ84" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR84" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS84" s="1"/>
+      <c r="AS84" s="1" t="s">
+        <v>1841</v>
+      </c>
       <c r="AT84" s="1" t="s">
         <v>1994</v>
       </c>
-      <c r="AU84" s="1"/>
+      <c r="AU84" s="1" t="s">
+        <v>2133</v>
+      </c>
       <c r="AV84" s="1"/>
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
       <c r="AY84" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1" t="s">
@@ -24178,14 +24184,16 @@
         <v>565</v>
       </c>
       <c r="BH84" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI84" s="1"/>
       <c r="BJ84" s="2">
         <v>0</v>
       </c>
       <c r="BK84" s="1"/>
-      <c r="BL84" s="1"/>
+      <c r="BL84" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM84" s="1" t="s">
         <v>564</v>
       </c>
@@ -24198,7 +24206,7 @@
     </row>
     <row r="85" spans="1:69">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>151</v>
@@ -24219,20 +24227,20 @@
         <v>565</v>
       </c>
       <c r="H85" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>816</v>
@@ -24243,14 +24251,10 @@
       <c r="P85" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="Q85" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>960</v>
-      </c>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
       <c r="S85" s="1" t="s">
-        <v>1114</v>
+        <v>722</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -24263,7 +24267,9 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
+      <c r="AC85" s="1" t="s">
+        <v>1396</v>
+      </c>
       <c r="AD85" s="1" t="s">
         <v>1479</v>
       </c>
@@ -24274,13 +24280,13 @@
         <v>565</v>
       </c>
       <c r="AI85" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ85" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK85" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL85" s="1" t="s">
         <v>1629</v>
@@ -24298,25 +24304,21 @@
         <v>1799</v>
       </c>
       <c r="AQ85" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR85" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS85" s="1" t="s">
-        <v>1841</v>
-      </c>
+      <c r="AS85" s="1"/>
       <c r="AT85" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="AU85" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="AU85" s="1"/>
       <c r="AV85" s="1"/>
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
       <c r="AY85" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1" t="s">
@@ -24335,16 +24337,14 @@
         <v>565</v>
       </c>
       <c r="BH85" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI85" s="1"/>
       <c r="BJ85" s="2">
         <v>0</v>
       </c>
       <c r="BK85" s="1"/>
-      <c r="BL85" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL85" s="1"/>
       <c r="BM85" s="1" t="s">
         <v>564</v>
       </c>
@@ -25740,7 +25740,7 @@
     </row>
     <row r="95" spans="1:69">
       <c r="A95" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>159</v>
@@ -25761,38 +25761,38 @@
         <v>565</v>
       </c>
       <c r="H95" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>659</v>
+        <v>596</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
@@ -25803,9 +25803,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-      <c r="AA95" s="1" t="s">
-        <v>1335</v>
-      </c>
+      <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1" t="s">
         <v>1401</v>
@@ -25820,7 +25818,7 @@
         <v>565</v>
       </c>
       <c r="AI95" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ95" s="1" t="s">
         <v>1629</v>
@@ -25841,24 +25839,28 @@
         <v>1681</v>
       </c>
       <c r="AP95" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ95" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR95" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS95" s="1"/>
+      <c r="AS95" s="1" t="s">
+        <v>1848</v>
+      </c>
       <c r="AT95" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="AU95" s="1"/>
+      <c r="AU95" s="1" t="s">
+        <v>2133</v>
+      </c>
       <c r="AV95" s="1"/>
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
       <c r="AY95" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1" t="s">
@@ -25899,7 +25901,7 @@
     </row>
     <row r="96" spans="1:69">
       <c r="A96" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>159</v>
@@ -25920,38 +25922,38 @@
         <v>565</v>
       </c>
       <c r="H96" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
@@ -25962,7 +25964,9 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
+      <c r="AA96" s="1" t="s">
+        <v>1335</v>
+      </c>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1" t="s">
         <v>1402</v>
@@ -25977,7 +25981,7 @@
         <v>565</v>
       </c>
       <c r="AI96" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ96" s="1" t="s">
         <v>1629</v>
@@ -25998,28 +26002,24 @@
         <v>1682</v>
       </c>
       <c r="AP96" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ96" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR96" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS96" s="1" t="s">
-        <v>1848</v>
-      </c>
+      <c r="AS96" s="1"/>
       <c r="AT96" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="AU96" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="AU96" s="1"/>
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
       <c r="AY96" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ96" s="1"/>
       <c r="BA96" s="1" t="s">
@@ -26887,13 +26887,13 @@
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>669</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>828</v>
@@ -27036,13 +27036,13 @@
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>669</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>829</v>
@@ -27354,13 +27354,13 @@
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>669</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>830</v>
@@ -27958,7 +27958,7 @@
     </row>
     <row r="109" spans="1:69">
       <c r="A109" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>170</v>
@@ -27976,19 +27976,23 @@
         <v>564</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H109" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
+      <c r="K109" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>616</v>
+      </c>
       <c r="M109" s="1" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>834</v>
@@ -28000,22 +28004,18 @@
         <v>1132</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>635</v>
+        <v>834</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>1252</v>
+        <v>978</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="T109" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="U109" s="1" t="s">
-        <v>1252</v>
-      </c>
+        <v>1132</v>
+      </c>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
       <c r="V109" s="1" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
@@ -28024,15 +28024,21 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
-      <c r="AD109" s="1"/>
+      <c r="AD109" s="1" t="s">
+        <v>1496</v>
+      </c>
       <c r="AE109" s="1"/>
-      <c r="AF109" s="1"/>
-      <c r="AG109" s="1"/>
+      <c r="AF109" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AG109" s="1" t="s">
+        <v>1625</v>
+      </c>
       <c r="AH109" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI109" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ109" s="1" t="s">
         <v>1629</v>
@@ -28059,12 +28065,20 @@
         <v>1800</v>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="AS109" s="1"/>
-      <c r="AT109" s="1"/>
-      <c r="AU109" s="1"/>
-      <c r="AV109" s="1"/>
+        <v>1802</v>
+      </c>
+      <c r="AS109" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AT109" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AU109" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="AV109" s="1" t="s">
+        <v>2151</v>
+      </c>
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
       <c r="AY109" s="1" t="s">
@@ -28087,7 +28101,7 @@
         <v>565</v>
       </c>
       <c r="BH109" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI109" s="1"/>
       <c r="BJ109" s="2">
@@ -28109,7 +28123,7 @@
     </row>
     <row r="110" spans="1:69">
       <c r="A110" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>170</v>
@@ -28127,23 +28141,19 @@
         <v>564</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H110" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J110" s="1"/>
-      <c r="K110" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>616</v>
-      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>835</v>
@@ -28155,18 +28165,22 @@
         <v>1133</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>835</v>
+        <v>635</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>979</v>
+        <v>1252</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
+        <v>758</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>1252</v>
+      </c>
       <c r="V110" s="1" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
@@ -28175,21 +28189,15 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
-      <c r="AD110" s="1" t="s">
-        <v>1496</v>
-      </c>
+      <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
-      <c r="AF110" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="AG110" s="1" t="s">
-        <v>1625</v>
-      </c>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
       <c r="AH110" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI110" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ110" s="1" t="s">
         <v>1629</v>
@@ -28216,20 +28224,12 @@
         <v>1800</v>
       </c>
       <c r="AR110" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="AS110" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="AT110" s="1" t="s">
-        <v>2015</v>
-      </c>
-      <c r="AU110" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="AV110" s="1" t="s">
-        <v>2151</v>
-      </c>
+        <v>1801</v>
+      </c>
+      <c r="AS110" s="1"/>
+      <c r="AT110" s="1"/>
+      <c r="AU110" s="1"/>
+      <c r="AV110" s="1"/>
       <c r="AW110" s="1"/>
       <c r="AX110" s="1"/>
       <c r="AY110" s="1" t="s">
@@ -28252,7 +28252,7 @@
         <v>565</v>
       </c>
       <c r="BH110" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI110" s="1"/>
       <c r="BJ110" s="2">
@@ -30562,10 +30562,10 @@
         <v>2023</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>564</v>
@@ -32489,13 +32489,13 @@
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N138" s="1" t="s">
         <v>794</v>
@@ -32814,22 +32814,22 @@
         <v>731</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
@@ -32975,22 +32975,22 @@
         <v>731</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
@@ -38017,13 +38017,13 @@
         <v>731</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -39538,7 +39538,7 @@
     </row>
     <row r="183" spans="1:69">
       <c r="A183" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>243</v>
@@ -39559,38 +39559,38 @@
         <v>565</v>
       </c>
       <c r="H183" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J183" s="1"/>
       <c r="K183" s="1" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>868</v>
+        <v>808</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>1019</v>
+        <v>952</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>1166</v>
+        <v>1106</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>1232</v>
+        <v>808</v>
       </c>
       <c r="R183" s="1" t="s">
-        <v>1266</v>
+        <v>952</v>
       </c>
       <c r="S183" s="1" t="s">
-        <v>1297</v>
+        <v>1106</v>
       </c>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
@@ -39695,7 +39695,7 @@
     </row>
     <row r="184" spans="1:69">
       <c r="A184" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>243</v>
@@ -39716,38 +39716,34 @@
         <v>565</v>
       </c>
       <c r="H184" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J184" s="1"/>
       <c r="K184" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>808</v>
+        <v>868</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>952</v>
+        <v>1019</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="Q184" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="R184" s="1" t="s">
-        <v>952</v>
-      </c>
+        <v>1166</v>
+      </c>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
       <c r="S184" s="1" t="s">
-        <v>1106</v>
+        <v>722</v>
       </c>
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
@@ -39766,7 +39762,9 @@
       </c>
       <c r="AE184" s="1"/>
       <c r="AF184" s="1"/>
-      <c r="AG184" s="1"/>
+      <c r="AG184" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH184" s="1" t="s">
         <v>565</v>
       </c>
@@ -39777,7 +39775,7 @@
         <v>1628</v>
       </c>
       <c r="AK184" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL184" s="1" t="s">
         <v>1628</v>
@@ -39788,21 +39786,17 @@
       <c r="AN184" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO184" s="1" t="s">
-        <v>1739</v>
-      </c>
+      <c r="AO184" s="1"/>
       <c r="AP184" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ184" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR184" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS184" s="1" t="s">
-        <v>1906</v>
-      </c>
+      <c r="AS184" s="1"/>
       <c r="AT184" s="1" t="s">
         <v>2071</v>
       </c>
@@ -39852,7 +39846,7 @@
     </row>
     <row r="185" spans="1:69">
       <c r="A185" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>243</v>
@@ -39873,20 +39867,20 @@
         <v>565</v>
       </c>
       <c r="H185" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="N185" s="1" t="s">
         <v>869</v>
@@ -39897,10 +39891,14 @@
       <c r="P185" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
+      <c r="Q185" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>1266</v>
+      </c>
       <c r="S185" s="1" t="s">
-        <v>722</v>
+        <v>1297</v>
       </c>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
@@ -39919,9 +39917,7 @@
       </c>
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
-      <c r="AG185" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AG185" s="1"/>
       <c r="AH185" s="1" t="s">
         <v>565</v>
       </c>
@@ -39932,7 +39928,7 @@
         <v>1628</v>
       </c>
       <c r="AK185" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL185" s="1" t="s">
         <v>1628</v>
@@ -39943,17 +39939,21 @@
       <c r="AN185" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO185" s="1"/>
+      <c r="AO185" s="1" t="s">
+        <v>1739</v>
+      </c>
       <c r="AP185" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ185" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR185" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS185" s="1"/>
+      <c r="AS185" s="1" t="s">
+        <v>1906</v>
+      </c>
       <c r="AT185" s="1" t="s">
         <v>2072</v>
       </c>
@@ -40003,7 +40003,7 @@
     </row>
     <row r="186" spans="1:69">
       <c r="A186" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>244</v>
@@ -40012,10 +40012,10 @@
         <v>2023</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>564</v>
@@ -40031,27 +40031,31 @@
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="1" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>592</v>
+        <v>678</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>998</v>
+        <v>962</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
+        <v>1116</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>962</v>
+      </c>
       <c r="S186" s="1" t="s">
-        <v>722</v>
+        <v>1116</v>
       </c>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
@@ -40064,17 +40068,15 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
-      <c r="AC186" s="1"/>
+      <c r="AC186" s="1" t="s">
+        <v>1428</v>
+      </c>
       <c r="AD186" s="1" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="AE186" s="1"/>
-      <c r="AF186" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="AG186" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AF186" s="1"/>
+      <c r="AG186" s="1"/>
       <c r="AH186" s="1" t="s">
         <v>565</v>
       </c>
@@ -40085,7 +40087,7 @@
         <v>1628</v>
       </c>
       <c r="AK186" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL186" s="1" t="s">
         <v>1628</v>
@@ -40100,7 +40102,7 @@
         <v>1740</v>
       </c>
       <c r="AP186" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ186" s="1" t="s">
         <v>566</v>
@@ -40109,19 +40111,19 @@
         <v>1801</v>
       </c>
       <c r="AS186" s="1" t="s">
-        <v>1878</v>
+        <v>1907</v>
       </c>
       <c r="AT186" s="1" t="s">
-        <v>2039</v>
+        <v>2073</v>
       </c>
       <c r="AU186" s="1" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
       <c r="AV186" s="1"/>
       <c r="AW186" s="1"/>
       <c r="AX186" s="1"/>
       <c r="AY186" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ186" s="1"/>
       <c r="BA186" s="1" t="s">
@@ -40162,7 +40164,7 @@
     </row>
     <row r="187" spans="1:69">
       <c r="A187" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>244</v>
@@ -40171,10 +40173,10 @@
         <v>2023</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>564</v>
@@ -40190,31 +40192,27 @@
       </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>678</v>
+        <v>592</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>962</v>
+        <v>998</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="Q187" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="R187" s="1" t="s">
-        <v>962</v>
-      </c>
+        <v>1147</v>
+      </c>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
       <c r="S187" s="1" t="s">
-        <v>1116</v>
+        <v>722</v>
       </c>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
@@ -40227,15 +40225,17 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
-      <c r="AC187" s="1" t="s">
-        <v>1428</v>
-      </c>
+      <c r="AC187" s="1"/>
       <c r="AD187" s="1" t="s">
-        <v>1535</v>
+        <v>1512</v>
       </c>
       <c r="AE187" s="1"/>
-      <c r="AF187" s="1"/>
-      <c r="AG187" s="1"/>
+      <c r="AF187" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AG187" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH187" s="1" t="s">
         <v>565</v>
       </c>
@@ -40246,7 +40246,7 @@
         <v>1628</v>
       </c>
       <c r="AK187" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL187" s="1" t="s">
         <v>1628</v>
@@ -40261,7 +40261,7 @@
         <v>1741</v>
       </c>
       <c r="AP187" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ187" s="1" t="s">
         <v>566</v>
@@ -40270,19 +40270,19 @@
         <v>1801</v>
       </c>
       <c r="AS187" s="1" t="s">
-        <v>1907</v>
+        <v>1878</v>
       </c>
       <c r="AT187" s="1" t="s">
-        <v>2073</v>
+        <v>2039</v>
       </c>
       <c r="AU187" s="1" t="s">
-        <v>2133</v>
+        <v>2141</v>
       </c>
       <c r="AV187" s="1"/>
       <c r="AW187" s="1"/>
       <c r="AX187" s="1"/>
       <c r="AY187" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ187" s="1"/>
       <c r="BA187" s="1" t="s">
@@ -41397,7 +41397,7 @@
         <v>2023</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>543</v>
@@ -41488,7 +41488,7 @@
         <v>1801</v>
       </c>
       <c r="AS195" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AT195" s="1" t="s">
         <v>2080</v>
@@ -44629,7 +44629,7 @@
     </row>
     <row r="216" spans="1:69">
       <c r="A216" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>270</v>
@@ -44650,38 +44650,38 @@
         <v>564</v>
       </c>
       <c r="H216" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J216" s="1"/>
       <c r="K216" s="1" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>1000</v>
+        <v>1039</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>1149</v>
+        <v>1185</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>851</v>
+        <v>1236</v>
       </c>
       <c r="R216" s="1" t="s">
-        <v>1000</v>
+        <v>1270</v>
       </c>
       <c r="S216" s="1" t="s">
-        <v>1149</v>
+        <v>1301</v>
       </c>
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
@@ -44698,20 +44698,22 @@
       <c r="AD216" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="AE216" s="1"/>
+      <c r="AE216" s="1" t="s">
+        <v>1604</v>
+      </c>
       <c r="AF216" s="1"/>
       <c r="AG216" s="1"/>
       <c r="AH216" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AI216" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ216" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK216" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL216" s="1" t="s">
         <v>1628</v>
@@ -44726,10 +44728,10 @@
         <v>1761</v>
       </c>
       <c r="AP216" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ216" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR216" s="1" t="s">
         <v>1801</v>
@@ -44738,9 +44740,11 @@
         <v>1920</v>
       </c>
       <c r="AT216" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="AU216" s="1"/>
+        <v>2092</v>
+      </c>
+      <c r="AU216" s="1" t="s">
+        <v>2144</v>
+      </c>
       <c r="AV216" s="1"/>
       <c r="AW216" s="1"/>
       <c r="AX216" s="1"/>
@@ -44778,7 +44782,7 @@
         <v>564</v>
       </c>
       <c r="BN216" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO216" s="1"/>
       <c r="BP216" s="1"/>
@@ -44786,7 +44790,7 @@
     </row>
     <row r="217" spans="1:69">
       <c r="A217" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>270</v>
@@ -44807,38 +44811,38 @@
         <v>564</v>
       </c>
       <c r="H217" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J217" s="1"/>
       <c r="K217" s="1" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>887</v>
+        <v>851</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>1039</v>
+        <v>1000</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>1185</v>
+        <v>1149</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>1236</v>
+        <v>851</v>
       </c>
       <c r="R217" s="1" t="s">
-        <v>1270</v>
+        <v>1000</v>
       </c>
       <c r="S217" s="1" t="s">
-        <v>1301</v>
+        <v>1149</v>
       </c>
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
@@ -44855,22 +44859,20 @@
       <c r="AD217" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="AE217" s="1" t="s">
-        <v>1604</v>
-      </c>
+      <c r="AE217" s="1"/>
       <c r="AF217" s="1"/>
       <c r="AG217" s="1"/>
       <c r="AH217" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI217" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ217" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK217" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL217" s="1" t="s">
         <v>1628</v>
@@ -44885,10 +44887,10 @@
         <v>1762</v>
       </c>
       <c r="AP217" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ217" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR217" s="1" t="s">
         <v>1801</v>
@@ -44897,11 +44899,9 @@
         <v>1921</v>
       </c>
       <c r="AT217" s="1" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AU217" s="1" t="s">
-        <v>2144</v>
-      </c>
+        <v>2043</v>
+      </c>
+      <c r="AU217" s="1"/>
       <c r="AV217" s="1"/>
       <c r="AW217" s="1"/>
       <c r="AX217" s="1"/>
@@ -44939,7 +44939,7 @@
         <v>564</v>
       </c>
       <c r="BN217" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO217" s="1"/>
       <c r="BP217" s="1"/>
@@ -45653,7 +45653,7 @@
         <v>1628</v>
       </c>
       <c r="AO222" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="AP222" s="1" t="s">
         <v>1798</v>
@@ -47304,13 +47304,13 @@
       </c>
       <c r="J233" s="1"/>
       <c r="K233" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L233" s="1" t="s">
         <v>669</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N233" s="1" t="s">
         <v>829</v>
@@ -48992,10 +48992,10 @@
         <v>2023</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>564</v>
@@ -49448,7 +49448,7 @@
     </row>
     <row r="247" spans="1:69">
       <c r="A247" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>300</v>
@@ -49457,10 +49457,10 @@
         <v>2023</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>564</v>
@@ -49485,13 +49485,13 @@
         <v>720</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
@@ -49513,7 +49513,7 @@
         <v>1436</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="AE247" s="1" t="s">
         <v>1609</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="AS247" s="1"/>
       <c r="AT247" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="AU247" s="1"/>
       <c r="AV247" s="1"/>
@@ -49578,7 +49578,7 @@
       <c r="BE247" s="1"/>
       <c r="BF247" s="1"/>
       <c r="BG247" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH247" s="1" t="s">
         <v>565</v>
@@ -49588,7 +49588,9 @@
         <v>0</v>
       </c>
       <c r="BK247" s="1"/>
-      <c r="BL247" s="1"/>
+      <c r="BL247" s="1" t="s">
+        <v>2173</v>
+      </c>
       <c r="BM247" s="1" t="s">
         <v>564</v>
       </c>
@@ -49601,7 +49603,7 @@
     </row>
     <row r="248" spans="1:69">
       <c r="A248" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>300</v>
@@ -49610,10 +49612,10 @@
         <v>2023</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>564</v>
@@ -49638,13 +49640,13 @@
         <v>720</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O248" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
@@ -49666,7 +49668,7 @@
         <v>1436</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="AE248" s="1" t="s">
         <v>1610</v>
@@ -49708,7 +49710,7 @@
       </c>
       <c r="AS248" s="1"/>
       <c r="AT248" s="1" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="AU248" s="1"/>
       <c r="AV248" s="1"/>
@@ -49731,7 +49733,7 @@
       <c r="BE248" s="1"/>
       <c r="BF248" s="1"/>
       <c r="BG248" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BH248" s="1" t="s">
         <v>565</v>
@@ -49741,9 +49743,7 @@
         <v>0</v>
       </c>
       <c r="BK248" s="1"/>
-      <c r="BL248" s="1" t="s">
-        <v>2173</v>
-      </c>
+      <c r="BL248" s="1"/>
       <c r="BM248" s="1" t="s">
         <v>564</v>
       </c>
@@ -51033,10 +51033,10 @@
         <v>2023</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>564</v>
@@ -51052,13 +51052,13 @@
       </c>
       <c r="J257" s="1"/>
       <c r="K257" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L257" s="1" t="s">
         <v>655</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
@@ -51110,7 +51110,7 @@
         <v>1628</v>
       </c>
       <c r="AO257" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="AP257" s="1" t="s">
         <v>1798</v>
@@ -52425,7 +52425,7 @@
     </row>
     <row r="266" spans="1:69">
       <c r="A266" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>318</v>
@@ -52453,13 +52453,13 @@
       </c>
       <c r="J266" s="1"/>
       <c r="K266" s="1" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="N266" s="1" t="s">
         <v>835</v>
@@ -52488,21 +52488,21 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
-      <c r="AA266" s="1"/>
+      <c r="AA266" s="1" t="s">
+        <v>1368</v>
+      </c>
       <c r="AB266" s="1"/>
-      <c r="AC266" s="1"/>
-      <c r="AD266" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="AE266" s="1"/>
-      <c r="AF266" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="AG266" s="1" t="s">
-        <v>1625</v>
-      </c>
+      <c r="AC266" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AD266" s="1"/>
+      <c r="AE266" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AF266" s="1"/>
+      <c r="AG266" s="1"/>
       <c r="AH266" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI266" s="2">
         <v>2</v>
@@ -52511,7 +52511,7 @@
         <v>1628</v>
       </c>
       <c r="AK266" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL266" s="1" t="s">
         <v>1628</v>
@@ -52534,14 +52534,10 @@
       <c r="AR266" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS266" s="1" t="s">
-        <v>1934</v>
-      </c>
-      <c r="AT266" s="1" t="s">
-        <v>2015</v>
-      </c>
+      <c r="AS266" s="1"/>
+      <c r="AT266" s="1"/>
       <c r="AU266" s="1" t="s">
-        <v>2148</v>
+        <v>2133</v>
       </c>
       <c r="AV266" s="1"/>
       <c r="AW266" s="1"/>
@@ -52563,7 +52559,7 @@
       <c r="BE266" s="1"/>
       <c r="BF266" s="1"/>
       <c r="BG266" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BH266" s="1" t="s">
         <v>565</v>
@@ -52573,9 +52569,7 @@
         <v>0</v>
       </c>
       <c r="BK266" s="1"/>
-      <c r="BL266" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL266" s="1"/>
       <c r="BM266" s="1" t="s">
         <v>564</v>
       </c>
@@ -52588,7 +52582,7 @@
     </row>
     <row r="267" spans="1:69">
       <c r="A267" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>318</v>
@@ -52616,13 +52610,13 @@
       </c>
       <c r="J267" s="1"/>
       <c r="K267" s="1" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>669</v>
+        <v>616</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="N267" s="1" t="s">
         <v>834</v>
@@ -52651,21 +52645,21 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
-      <c r="AA267" s="1" t="s">
-        <v>1368</v>
-      </c>
+      <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
-      <c r="AC267" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="AD267" s="1"/>
-      <c r="AE267" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="AF267" s="1"/>
-      <c r="AG267" s="1"/>
+      <c r="AC267" s="1"/>
+      <c r="AD267" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AE267" s="1"/>
+      <c r="AF267" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AG267" s="1" t="s">
+        <v>1625</v>
+      </c>
       <c r="AH267" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AI267" s="2">
         <v>2</v>
@@ -52674,7 +52668,7 @@
         <v>1628</v>
       </c>
       <c r="AK267" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL267" s="1" t="s">
         <v>1628</v>
@@ -52697,10 +52691,14 @@
       <c r="AR267" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS267" s="1"/>
-      <c r="AT267" s="1"/>
+      <c r="AS267" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AT267" s="1" t="s">
+        <v>2015</v>
+      </c>
       <c r="AU267" s="1" t="s">
-        <v>2133</v>
+        <v>2148</v>
       </c>
       <c r="AV267" s="1"/>
       <c r="AW267" s="1"/>
@@ -52722,7 +52720,7 @@
       <c r="BE267" s="1"/>
       <c r="BF267" s="1"/>
       <c r="BG267" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH267" s="1" t="s">
         <v>565</v>
@@ -52732,7 +52730,9 @@
         <v>0</v>
       </c>
       <c r="BK267" s="1"/>
-      <c r="BL267" s="1"/>
+      <c r="BL267" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM267" s="1" t="s">
         <v>564</v>
       </c>
@@ -53070,10 +53070,10 @@
         <v>2023</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>564</v>
@@ -53098,22 +53098,22 @@
         <v>739</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="Q270" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="R270" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="S270" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="T270" s="1"/>
       <c r="U270" s="1"/>
@@ -53159,7 +53159,7 @@
         <v>1628</v>
       </c>
       <c r="AO270" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="AP270" s="1" t="s">
         <v>1799</v>
@@ -55238,10 +55238,10 @@
         <v>2023</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>564</v>

--- a/results/garant_neprednasi.xlsx
+++ b/results/garant_neprednasi.xlsx
@@ -1111,12 +1111,12 @@
     <t>Fyzická geografie I</t>
   </si>
   <si>
+    <t>Sociální geografie I</t>
+  </si>
+  <si>
     <t>Anatomie a fyziologie člověka</t>
   </si>
   <si>
-    <t>Sociální geografie I</t>
-  </si>
-  <si>
     <t>Fyzická geografie II</t>
   </si>
   <si>
@@ -1135,12 +1135,12 @@
     <t>Obecná didaktika chemie</t>
   </si>
   <si>
+    <t>Geologie pro geografy</t>
+  </si>
+  <si>
     <t>Toxikologie rostlin a živočišných toxinů</t>
   </si>
   <si>
-    <t>Geologie pro geografy</t>
-  </si>
-  <si>
     <t>Heterocyklické a organokovové sloučeniny</t>
   </si>
   <si>
@@ -1246,39 +1246,39 @@
     <t>Data Analysis and Visualisation</t>
   </si>
   <si>
+    <t>Fyzika a fyzikální chemie materiálů</t>
+  </si>
+  <si>
     <t>Fyzika a fyz. chemie mat.a nanomateriálů</t>
   </si>
   <si>
-    <t>Fyzika a fyzikální chemie materiálů</t>
-  </si>
-  <si>
     <t>Programování pro GUI</t>
   </si>
   <si>
+    <t>Instrumentální metody pro nanotechnology</t>
+  </si>
+  <si>
     <t>Instrumentál. analýza pro nanotechnology</t>
   </si>
   <si>
-    <t>Instrumentální metody pro nanotechnology</t>
+    <t>Toxikologie I</t>
   </si>
   <si>
     <t>Lineární algebra a geometrie I</t>
   </si>
   <si>
-    <t>Toxikologie I</t>
-  </si>
-  <si>
     <t>Úvod do toxikologie</t>
   </si>
   <si>
     <t>Statistika v biologii</t>
   </si>
   <si>
+    <t>Metody řešení matematických úloh</t>
+  </si>
+  <si>
     <t>Úvod do fyziky</t>
   </si>
   <si>
-    <t>Metody řešení matematických úloh</t>
-  </si>
-  <si>
     <t>Odborné prezentace v matematice</t>
   </si>
   <si>
@@ -1288,12 +1288,12 @@
     <t>Poč. mod. - zpracování obrazu a signálu</t>
   </si>
   <si>
+    <t>Organická chemie I</t>
+  </si>
+  <si>
     <t>Matematická analýza I</t>
   </si>
   <si>
-    <t>Organická chemie I</t>
-  </si>
-  <si>
     <t>Matematika III</t>
   </si>
   <si>
@@ -1468,22 +1468,22 @@
     <t>Historie matematiky</t>
   </si>
   <si>
+    <t>Lokální a regionální rozvoj</t>
+  </si>
+  <si>
     <t>Metody přípravy nanomateriálů</t>
   </si>
   <si>
-    <t>Lokální a regionální rozvoj</t>
-  </si>
-  <si>
     <t>Aktuální problémy Česka</t>
-  </si>
-  <si>
-    <t>Dějiny myšlení v geografii</t>
   </si>
   <si>
     <t xml:space="preserve">Metody charakterizace látek a materiálů
 </t>
   </si>
   <si>
+    <t>Dějiny myšlení v geografii</t>
+  </si>
+  <si>
     <t>Vakuová fyzika a technika</t>
   </si>
   <si>
@@ -1733,12 +1733,12 @@
     <t>'RNDr. Ivan Farský, CSc.'</t>
   </si>
   <si>
+    <t>'Mgr. Kristýna Rybová, Ph.D.'</t>
+  </si>
+  <si>
     <t>'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
   </si>
   <si>
-    <t>'Mgr. Kristýna Rybová, Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
@@ -1838,12 +1838,12 @@
     <t>'RNDr. Veronika Pitrová, PhD., Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Martin Kuřil, Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Jiří Králík, Ph.D.'</t>
   </si>
   <si>
-    <t>'RNDr. Martin Kuřil, Ph.D.'</t>
-  </si>
-  <si>
     <t>'PhDr. Jiří Přibyl, Ph.D.'</t>
   </si>
   <si>
@@ -2099,12 +2099,12 @@
     <t>[315]</t>
   </si>
   <si>
+    <t>[5856]</t>
+  </si>
+  <si>
     <t>[3066]</t>
   </si>
   <si>
-    <t>[5856]</t>
-  </si>
-  <si>
     <t>[3164]</t>
   </si>
   <si>
@@ -2207,12 +2207,12 @@
     <t>[5205]</t>
   </si>
   <si>
+    <t>[264]</t>
+  </si>
+  <si>
     <t>[303]</t>
   </si>
   <si>
-    <t>[264]</t>
-  </si>
-  <si>
     <t>[267]</t>
   </si>
   <si>
@@ -2342,12 +2342,12 @@
     <t>'RNDr. Ivan Farský, CSc.', 'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Jiří Anděl, CSc.', 'Mgr. Kristýna Rybová, Ph.D.'</t>
+  </si>
+  <si>
     <t>'Mgr. Petr Jošt, Ph.D.', 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Jiří Anděl, CSc.', 'Mgr. Kristýna Rybová, Ph.D.'</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Jan Jirsák, Ph.D.', 'Ing. Magda Škvorová, Ph.D.'</t>
   </si>
   <si>
@@ -2456,30 +2456,30 @@
     <t>'Ing. Mgr. Pavel Beránek', 'RNDr. Petr Kubera, Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Jiří Henych, Ph.D.', 'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
+  </si>
+  <si>
     <t>'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
   </si>
   <si>
-    <t>'Ing. Jiří Henych, Ph.D.', 'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
+    <t>'PharmDr. Markéta Švarcová, Ph.D.'</t>
   </si>
   <si>
     <t>'PhDr. Magdalena Krátká, Ph.D.', 'RNDr. Martin Kuřil, Ph.D.'</t>
   </si>
   <si>
-    <t>'PharmDr. Markéta Švarcová, Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Alena Černíková, MSc., Ph.D.', 'Mgr. Lucie Loukotová'</t>
   </si>
   <si>
     <t>'doc. RNDr. Bohumír Opic, DrSc.', 'RNDr. Veronika Pitrová, PhD., Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Gabriel Kádek', 'RNDr. Veronika Pitrová, PhD., Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Jiří Králík, Ph.D.', 'RNDr. Martin Švec, Ph.D.'</t>
   </si>
   <si>
-    <t>'Mgr. Gabriel Kádek', 'RNDr. Veronika Pitrová, PhD., Ph.D.'</t>
-  </si>
-  <si>
     <t>'doc. PaedDr. Petr Eisenmann, CSc.', 'Mgr. Lucie Loukotová'</t>
   </si>
   <si>
@@ -2621,12 +2621,12 @@
     <t>'doc. RNDr. Jaromír Hajer, CSc.', 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.', 'Mgr. Jan Malý, Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Jaroslav Koutský, Ph.D.', 'RNDr. Silvie Rita Kučerová, Ph.D.'</t>
+  </si>
+  <si>
     <t>'prof. Ing. Zdeňka Kolská, Ph.D.', 'Mgr. Jan Malý, Ph.D.', 'doc. RNDr. Jaroslav Pavlík, CSc.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Jaroslav Koutský, Ph.D.', 'RNDr. Silvie Rita Kučerová, Ph.D.'</t>
-  </si>
-  <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.', 'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
@@ -2768,12 +2768,12 @@
     <t>'RNDr. Ivan Farský, CSc.' (100), 'Mgr. Jiří Riezner, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'doc. RNDr. Jiří Anděl, CSc.' (100), 'Mgr. Kristýna Rybová, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'Mgr. Petr Jošt, Ph.D.' (100), 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'doc. RNDr. Jiří Anděl, CSc.' (100), 'Mgr. Kristýna Rybová, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Jan Jirsák, Ph.D.' (100), 'Ing. Magda Škvorová, Ph.D.' (100)</t>
   </si>
   <si>
@@ -2888,30 +2888,30 @@
     <t>'Ing. Mgr. Pavel Beránek' (100), 'RNDr. Petr Kubera, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'Ing. Jiří Henych, Ph.D.' (90), 'prof. Ing. Zdeňka Kolská, Ph.D.' (10)</t>
+  </si>
+  <si>
     <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'Ing. Jiří Henych, Ph.D.' (90), 'prof. Ing. Zdeňka Kolská, Ph.D.' (10)</t>
+    <t>'PharmDr. Markéta Švarcová, Ph.D.' (100)</t>
   </si>
   <si>
     <t>'PhDr. Magdalena Krátká, Ph.D.' (100), 'RNDr. Martin Kuřil, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'PharmDr. Markéta Švarcová, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'Mgr. Alena Černíková, MSc., Ph.D.' (100), 'Mgr. Lucie Loukotová' (100)</t>
   </si>
   <si>
     <t>'doc. RNDr. Bohumír Opic, DrSc.' (100), 'RNDr. Veronika Pitrová, PhD., Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'Mgr. Gabriel Kádek' (100), 'RNDr. Veronika Pitrová, PhD., Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'RNDr. Jiří Králík, Ph.D.' (100), 'RNDr. Martin Švec, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'Mgr. Gabriel Kádek' (100), 'RNDr. Veronika Pitrová, PhD., Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'doc. PaedDr. Petr Eisenmann, CSc.' (100), 'Mgr. Lucie Loukotová' (100)</t>
   </si>
   <si>
@@ -3074,12 +3074,12 @@
     <t>'doc. RNDr. Jaromír Hajer, CSc.' (100), 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'doc. RNDr. Jaroslav Koutský, Ph.D.' (100), 'RNDr. Silvie Rita Kučerová, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100), 'doc. RNDr. Jaroslav Pavlík, CSc.' (100)</t>
   </si>
   <si>
-    <t>'doc. RNDr. Jaroslav Koutský, Ph.D.' (100), 'RNDr. Silvie Rita Kučerová, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.' (100), 'Mgr. Jiří Riezner, Ph.D.' (100)</t>
   </si>
   <si>
@@ -3236,12 +3236,12 @@
     <t>[315, 3164]</t>
   </si>
   <si>
+    <t>[312, 5856]</t>
+  </si>
+  <si>
     <t>[8815, 3066]</t>
   </si>
   <si>
-    <t>[312, 5856]</t>
-  </si>
-  <si>
     <t>[2855, 2856]</t>
   </si>
   <si>
@@ -3350,30 +3350,30 @@
     <t>[6973, 650]</t>
   </si>
   <si>
+    <t>[5431, 332]</t>
+  </si>
+  <si>
     <t>[332]</t>
   </si>
   <si>
-    <t>[5431, 332]</t>
+    <t>[3176]</t>
   </si>
   <si>
     <t>[425, 264]</t>
   </si>
   <si>
-    <t>[3176]</t>
-  </si>
-  <si>
     <t>[9488, 3188]</t>
   </si>
   <si>
     <t>[8438, 5205]</t>
   </si>
   <si>
+    <t>[9489, 5205]</t>
+  </si>
+  <si>
     <t>[303, 613]</t>
   </si>
   <si>
-    <t>[9489, 5205]</t>
-  </si>
-  <si>
     <t>[261, 3188]</t>
   </si>
   <si>
@@ -3515,12 +3515,12 @@
     <t>[278, 2939, 280]</t>
   </si>
   <si>
+    <t>[1644, 3528]</t>
+  </si>
+  <si>
     <t>[332, 280, 308]</t>
   </si>
   <si>
-    <t>[1644, 3528]</t>
-  </si>
-  <si>
     <t>[3528, 3164]</t>
   </si>
   <si>
@@ -4220,10 +4220,10 @@
     <t>KCH/K211, KI/KAEL</t>
   </si>
   <si>
+    <t>KCH/K501, KCH/K505, KCH/K507, KCH/K603</t>
+  </si>
+  <si>
     <t>KMA/K401</t>
-  </si>
-  <si>
-    <t>KCH/K501, KCH/K505, KCH/K507, KCH/K603</t>
   </si>
   <si>
     <t>KCH/K501</t>
@@ -4667,6 +4667,13 @@
 'Janko a kol. Analýza znečištěnin a technika jejich odběru. VŠCHT, Pardubice, 1984. '</t>
   </si>
   <si>
+    <t>'Patočka J. Úvod do obecné toxikologie. ZSF JU, 2003. ',
+'Horák, J., Linhart, I., Klusoň, K. Úvod do toxikologie a ekologie pro chemiky. VŠCHT Praha. 2004. ',
+'Prokeš J a kol.:. Základy toxikologie. Galén, 2005. ',
+'Vopršalová M., Žáčková P. Základy toxikologie pro farmaceuty. UK Praha, Vydavatelství Karolinum, 1996. ',
+'HRDINA, V.; HRDINA, R.; JAHODÁŘ, L.; MARTINEC, Z.; MĚRKA, V. Přírodní toxiny a jedy. Koedice GALÉN-KAROLINUM. Praha. 2004. Praha, 2004. '</t>
+  </si>
+  <si>
     <t>'Blažek, J. et al. Algebra a teoretická aritmetika I, SPN Praha, 1983. ',
 'W. K. NICHOLSON. Elementary Linear Algebra with Applications, Brunele, Weber and Schmidt, Boston, 1986. ',
 'PAUL R. HALMOS. Finite-Dimensional Vector Spaces, Springer, New York - Berlin - Heidelberg, 1974. ',
@@ -4678,13 +4685,6 @@
 'I. V. PROSKURJAKOV. Sbornik zadač po linějnoj algebre, Nauka, Moskva, 1984. ',
 'PETER KAPRÁLIK, JOZEF TVAROŽEK. Zbierka riešených príkladov a úloh z lineárnej algebry a analytickej geometrie, Alfa, Bratislava, 1987. ',
 'A. K. FADDEJEV, J. S. SOMINSKIJ. Zbierka úloh z vyššej algebry, Alfa, Bratislava, 1968. '</t>
-  </si>
-  <si>
-    <t>'Patočka J. Úvod do obecné toxikologie. ZSF JU, 2003. ',
-'Horák, J., Linhart, I., Klusoň, K. Úvod do toxikologie a ekologie pro chemiky. VŠCHT Praha. 2004. ',
-'Prokeš J a kol.:. Základy toxikologie. Galén, 2005. ',
-'Vopršalová M., Žáčková P. Základy toxikologie pro farmaceuty. UK Praha, Vydavatelství Karolinum, 1996. ',
-'HRDINA, V.; HRDINA, R.; JAHODÁŘ, L.; MARTINEC, Z.; MĚRKA, V. Přírodní toxiny a jedy. Koedice GALÉN-KAROLINUM. Praha. 2004. Praha, 2004. '</t>
   </si>
   <si>
     <t>'http://biology.ujep.cz/vyuka/',
@@ -4741,20 +4741,20 @@
 'http://www.fi.muni.cz/~hlineny/Vyuka/GT/Grafy-text10.pdf'</t>
   </si>
   <si>
+    <t>'Svoboda J. a kol. Organická chemie I, skripta VŠCHT Praha. VŠCHT Praha, 2005. ',
+'McMurry J. organická chemie VUTIUM Praha 2007. ISBN 978-80-7080-637-1. ',
+'Studijní opora Organická chemie I (on-line: http://chemistry.ujep.cz/1214-studijni-opory). ',
+'Bláha K., Ferles M., Staněk J. a kol. Nomenklatura organické chemie. SNTL, Praha. 1982. ',
+'Orchin M., Kaplan F. ,Macomber R. S. Organická chemie - příruční naučný slovník, SNTL, Praha. 1986. ',
+'Panico R., Powell W. H., Richer J. C. Průvodce názvoslovím organických sloučenin podle IUPAC, doporučení 1993. Academia Praha. 2000. '</t>
+  </si>
+  <si>
     <t>'ČERNÝ, Ilja. Inteligentní kalkulus. ',
 'ČERNÝ, Ilja. Matematická analýza I. Liberec: Technická univerzita, 1995. ISBN 80-7083-188-X.',
 'ČERNÝ, Ilja. Matematická analýza II. Liberec: Technická univerzita, 1996. ISBN 80-7083-188-X.',
 'VESELÝ, Jiří. Matematická analýza pro učitele. Praha: Matfyzpress, 1997. ISBN 80-85863-23-5.',
 'JARNÍK, Vojtěch. Integrální počet I. Praha: Academia, 1984. ',
 'KOPÁČEK, Jiří. Matematická analýza pro fyziky I. Praha: Matfyzpress, 1997. ISBN 80-85863-74-X.'</t>
-  </si>
-  <si>
-    <t>'Svoboda J. a kol. Organická chemie I, skripta VŠCHT Praha. VŠCHT Praha, 2005. ',
-'McMurry J. organická chemie VUTIUM Praha 2007. ISBN 978-80-7080-637-1. ',
-'Studijní opora Organická chemie I (on-line: http://chemistry.ujep.cz/1214-studijni-opory). ',
-'Bláha K., Ferles M., Staněk J. a kol. Nomenklatura organické chemie. SNTL, Praha. 1982. ',
-'Orchin M., Kaplan F. ,Macomber R. S. Organická chemie - příruční naučný slovník, SNTL, Praha. 1986. ',
-'Panico R., Powell W. H., Richer J. C. Průvodce názvoslovím organických sloučenin podle IUPAC, doporučení 1993. Academia Praha. 2000. '</t>
   </si>
   <si>
     <t>'Rosypal S. a kol. Nový přehled biologie. 2003. ',
@@ -4808,16 +4808,16 @@
 'Kuřina, F. Deset geometrických transformací. Praha: Prometheus, 2002. ISBN 80-7196-231-7.'</t>
   </si>
   <si>
+    <t>'JARNÍK, V. Integrální počet I, Praha, ACADEMIA, 1984. ',
+'VESELÝ, J. Matematická analýza pro učitele I, II, Matfyz press, 1994. ',
+'ČERNÝ, I. Matematická analýza 2. část, Liberec, 1995. ',
+'ČERNÝ, I. Matematická analýza 3. část, Liberec, 1996. '</t>
+  </si>
+  <si>
     <t>'BARTOVSKÁ, L. Aplikovaná fyzikální chemie. Praha: VŠCHT, 1995. ',
 'Novák, J. Fyzikální chemie I, VŠCHT Praha. 1999. ',
 'Brdička, R., Dvořák, J. Základy fyzikální chemie, Praha. 1977. ',
 'Atkins P.W. Physical Chemistry. Oxford Univ. Press., 1994. '</t>
-  </si>
-  <si>
-    <t>'JARNÍK, V. Integrální počet I, Praha, ACADEMIA, 1984. ',
-'VESELÝ, J. Matematická analýza pro učitele I, II, Matfyz press, 1994. ',
-'ČERNÝ, I. Matematická analýza 2. část, Liberec, 1995. ',
-'ČERNÝ, I. Matematická analýza 3. část, Liberec, 1996. '</t>
   </si>
   <si>
     <t>'Bartovská L., J. Novák. Úlohy z fyzikální chemie, VŠCHT Praha 2005. ',
@@ -5252,15 +5252,15 @@
 'VOPĚNKA, P. Vyprávění o kráse novobarokní matematiky, Práh, Praha, 2004. '</t>
   </si>
   <si>
+    <t>'Jakubíková, D. Strategický marketing. Strategie a trendy. 2013. ISBN 978-80-247-4670-8.',
+'BLAŽEK, Jiří, UHLÍŘ, David. Teorie regionálního rozvoje: nástin, kritika, implikace. Praha: Karolinum, 2011. ISBN 978-80-246-1974-3.'</t>
+  </si>
+  <si>
     <t>'Challa S. S. R. Kumar (ed.). Nanomaterials for Biosensors. ',
 'Koch C. C. Nanostructured materials - Processing, Properties and Potential Application, Noyes Publication / William Andrew Publishing, 2002. ',
 'Cao G., Wang Y. Nanostructures and Nanomaterials - Synthesis. ',
 'Schmid, G. (ed.):. Nanotechnology. ',
 'Hošek Jan. Úvod do nanotechnologie, ČVUT v Praze, 2011. '</t>
-  </si>
-  <si>
-    <t>'Jakubíková, D. Strategický marketing. Strategie a trendy. 2013. ISBN 978-80-247-4670-8.',
-'BLAŽEK, Jiří, UHLÍŘ, David. Teorie regionálního rozvoje: nástin, kritika, implikace. Praha: Karolinum, 2011. ISBN 978-80-246-1974-3.'</t>
   </si>
   <si>
     <t>'J. Kopáček. Matematika pro fyziky II, Praha, Matfyzpress, 1998. ',
@@ -5945,11 +5945,11 @@
     <t>Kurz se soustředí na seznámení studentů s vybranými základními okruhy z oblasti fyzické geografie. Objasňuje potřebnou fyzickogeografickou terminologiia a teorie. Zabývá se vztahy uvnitř fyzickogeografických subsystémů (litosféra a atmosféra). Teoretickou problematiku vede k dovednostem studenta ve vymezování přírodních regionů a jejich charakteristiky. Kurz je věnován vymezení disciplíny fyzické geografie, postavení a pohybům Země ve vesmíru, geologické stavbě Země, energetické bilanci Země a globálnímu klimatu, klimatologii a meteorologii.</t>
   </si>
   <si>
+    <t>Kurz se soustředí na uvedení posluchačů do základů sociální geografie a sociogeografického výzkumu. Objasňuje základní pojmy, zabývá zákonitostmi rozmístění sociogeografických jevů a vztahy uvnitř sociogeografických systémů. Teoretickou problematiku vede k dovednostem vymezování sociogeografických regionů (jádro x periferie) a chápání řádovostní hierarchie.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Předmět pokrývá znalosti o stavbě lidského těla, na které bezprostředně navazuje vysvětlení funkce jednotlivých orgánových soustav na úrovni buňky, tkání, orgánů ale i organismu, jako celku. V rámci fyziologie by absolvent předmětu měl získat znalosti o stavbě a funkci jednotlivých orgánových soustav a o základních fyziologických mechanismech regulace procesů v lidském těle. Předmět tvoří základ pro studium dalších toxikologických disciplín, které vycházejí ze znalostí normální anatomie a fyziologie.
 </t>
-  </si>
-  <si>
-    <t>Kurz se soustředí na uvedení posluchačů do základů sociální geografie a sociogeografického výzkumu. Objasňuje základní pojmy, zabývá zákonitostmi rozmístění sociogeografických jevů a vztahy uvnitř sociogeografických systémů. Teoretickou problematiku vede k dovednostem vymezování sociogeografických regionů (jádro x periferie) a chápání řádovostní hierarchie.</t>
   </si>
   <si>
     <t>Kurz se soustředí na seznámení studentů s vybranými základními okruhy z oblasti fyzické geografie. Objasňuje potřebnou
@@ -6145,10 +6145,10 @@
     <t>Kurz je zaměřen na vizuální programování v moderních desktopových prostředích. V souladu se zaměřením moderních operačních systémů je důraz kladen na interaktivní graficky orientované aplikace a na návrh grafických uživatelských rozhraní. Student je prostřednictvím tohoto kurzu seznámen s filozofií událostmi řízeného programování a získá základní stupeň znalostí programátora v dominantní počítačové platformě.</t>
   </si>
   <si>
+    <t>Přednáška z toxikologie podává základní přehled o obecné a speciální toxikologii posluchačům 1. ročníku oborů s chemií. V obecné části je předmět zaměřen na vymezení základních pojmů, jsou popsány možnosti vstupu škodlivin do organismu, distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Dále jsou probrány faktory ovlivňující toxický účinek, projevy toxického účinku, všeobecné zásady terapie otrav a první pomoci. V souvislosti s tím jsou studenti seznamováni i s platnou legislativou související s nakládáním s chemickými látkami a způsoby ochrany proti působení chemických látek.Ve speciální části je pozornost zaměřena na toxické vlastnosti vybraných anorganických a organických sloučenin, přírodních toxinů živočišného a rostlinného původu a dále omamných látek a některých běžně užívaných léků.</t>
+  </si>
+  <si>
     <t>Předmět studentům poskytuje, spolu s paralelní přednáškou Základy matematiky, základní matematické znalosti a nástroje pro další matematické disciplíny.</t>
-  </si>
-  <si>
-    <t>Přednáška z toxikologie podává základní přehled o obecné a speciální toxikologii posluchačům 1. ročníku oborů s chemií. V obecné části je předmět zaměřen na vymezení základních pojmů, jsou popsány možnosti vstupu škodlivin do organismu, distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Dále jsou probrány faktory ovlivňující toxický účinek, projevy toxického účinku, všeobecné zásady terapie otrav a první pomoci. V souvislosti s tím jsou studenti seznamováni i s platnou legislativou související s nakládáním s chemickými látkami a způsoby ochrany proti působení chemických látek.Ve speciální části je pozornost zaměřena na toxické vlastnosti vybraných anorganických a organických sloučenin, přírodních toxinů živočišného a rostlinného původu a dále omamných látek a některých běžně užívaných léků.</t>
   </si>
   <si>
     <t>Přednáška je určena studentům 1. ročníku studijních oborů s chemií a úspěšné složení zkoušky je podmínkou pro přijetí k praktickým laboratorním cvičením na katedře chemie. V úvodu budou studenti seznámeni se základními toxikologickými pojmy, možnostmi vstupu, mechanismy biotransformace a vyloučení toxických látek organismem. V rámci speciální toxikologie je pozornost zaměřena na toxické vlastnosti nebezpečných anorganických a organických látek a nakládání s těmito látkami s ohledem na zásady bezpečnosti práce a správné laboratorní praxe.</t>
@@ -6164,10 +6164,10 @@
     <t>Posluchači se seznámí se základy kalkulu a matematické analýzy, hlavně integrálního počtu, a jejich použití v jiných oborech. V kurzu bude probírán integrál (Newtonův a Riemannův přístup) a jeho aplikace (hlavně geometrické, fyzikální), jednoduché diferenciální rovnice a funkce více proměnných (parciální derivace, integrace, extrémy).</t>
   </si>
   <si>
+    <t>Předmět je koncipován tak, že po převážně obecných partiích, které mají vytvořit potřebný aparát pro pochopení zákonitostí chemismu organických sloučenin, následuje přehled jednotlivých skupin organických sloučenin. Cílem je vytvořit ucelený obraz moderní organické chemie a nezbytný základ pro navazující předměty.</t>
+  </si>
+  <si>
     <t>Cílem kurzu je seznámit posluchače s teoretickými základy matematické analýzy, hlavně přesnými matematickými definicemi spojitosti, limity a derivace. Navazuje úzce na kurz Úvod do infinitezimálního počtu. Dále se studenti seznámí s využitím těchto pojmů v oborech jako je fyzika, ekonomie i samotná matematika (průběh funkce a aproximace polynomy, číselné posloupnosti a řady).</t>
-  </si>
-  <si>
-    <t>Předmět je koncipován tak, že po převážně obecných partiích, které mají vytvořit potřebný aparát pro pochopení zákonitostí chemismu organických sloučenin, následuje přehled jednotlivých skupin organických sloučenin. Cílem je vytvořit ucelený obraz moderní organické chemie a nezbytný základ pro navazující předměty.</t>
   </si>
   <si>
     <t xml:space="preserve">Cílem tohoto kurzu je poskytnout základní informace o morfologii (stavba buňky a stélky), systematice, ekologii, historickém vývoji a významu organismů, které tradičně studují vědecké obory algologie, mykologie, lichenologie a bryologie. Důraz je kladen především na vývojové vztahy jednotlivých skupin organismů, na jejich roli v ekosystémech a na propojení s praktickou aplikací (biotechnologie, medicína, zemědělství, bioindikace apod.).
@@ -6704,13 +6704,13 @@
     <t xml:space="preserve"> - zápočtový test</t>
   </si>
   <si>
+    <t>75% účast na přednáškách, 60% úspěšnost testu</t>
+  </si>
+  <si>
     <t>Zápočet je formou testu.
 Zkouška je formou ústního zkoušení.</t>
   </si>
   <si>
-    <t>75% účast na přednáškách, 60% úspěšnost testu</t>
-  </si>
-  <si>
     <t>zápočtový test</t>
   </si>
   <si>
@@ -6718,11 +6718,11 @@
 Zkouška je formou ústního zkoušení.</t>
   </si>
   <si>
+    <t>Zpracování semestrálního úkolu - geologická mapa a geologický profil malým územím.</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 zápočtový test, ústní zkouška.</t>
-  </si>
-  <si>
-    <t>Zpracování semestrálního úkolu - geologická mapa a geologický profil malým územím.</t>
   </si>
   <si>
     <t>Zápočet je formou zápočtové písemné práce.
@@ -7403,6 +7403,22 @@
 12. Srážky, vlhkost. Regionální proudění v atmosféře.
 13. Synoptická meteorologie I.
 14. Synoptická meteorologie II.</t>
+  </si>
+  <si>
+    <t>1. Úvod do problematiky, hlavní pojmy. Teorie a definice.
+2. Předmětová specifikace sociální geografie a klasifikace věd.
+3. Paradigma v sociální geografii.
+4. Sociogeografické regiony. 
+5. Typy regionů a sociogeografická regionalizace.
+6. Rozmístění obyvatelstva ve vztahu k přírodním a socioekonomickým faktorům. Antropogeneze.
+7. Objekt a předmět studia environmentální geografie, její postavení v sociální geografie.
+8. Objekt a předmět studia politické geografie, její postavení v sociální geografie.
+9.  Objekt a předmět studia kulturní geografie, její postavení v sociální geografie.
+10.  Objekt a předmět studia geografie obyvatelstva, její postavení v sociální geografie.
+11. Mechanický a sociální pohyb.
+12. Demografický cyklus a demografická revoluce.
+13. Sociogeografické makroregiony světa.
+14. Základní metody sociogeografického výzkumu</t>
   </si>
   <si>
     <t xml:space="preserve">  1.  Úvod do anatomie a fyziologie člověka
@@ -7423,22 +7439,6 @@
 </t>
   </si>
   <si>
-    <t>1. Úvod do problematiky, hlavní pojmy. Teorie a definice.
-2. Předmětová specifikace sociální geografie a klasifikace věd.
-3. Paradigma v sociální geografii.
-4. Sociogeografické regiony. 
-5. Typy regionů a sociogeografická regionalizace.
-6. Rozmístění obyvatelstva ve vztahu k přírodním a socioekonomickým faktorům. Antropogeneze.
-7. Objekt a předmět studia environmentální geografie, její postavení v sociální geografie.
-8. Objekt a předmět studia politické geografie, její postavení v sociální geografie.
-9.  Objekt a předmět studia kulturní geografie, její postavení v sociální geografie.
-10.  Objekt a předmět studia geografie obyvatelstva, její postavení v sociální geografie.
-11. Mechanický a sociální pohyb.
-12. Demografický cyklus a demografická revoluce.
-13. Sociogeografické makroregiony světa.
-14. Základní metody sociogeografického výzkumu</t>
-  </si>
-  <si>
     <t>1. Úvod do fyzické geografie (objekt a předmět), modely a základní literatura.
 2. Základní fyzickogeografické metody, pravidla a postupy terénního fyzickogeografického výzkumu.
 3. Geologická stavba Země, teorie deskové tektoniky, vybrané horniny a jejich složení.
@@ -7527,6 +7527,23 @@
 11. Imunotoxicita nanočástic
 12. Regulace, testování toxicity, bezpečnost nanočástic
 13. Hodnocení rizika nanočástic - koncept BED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Metody studia vnitřní stavby Země. Seismický model, jeho hlavní strukturní složky a diskontinuity.
+2. Zemská kůra - chemické, minerální a horninové složení.  Kritéria pro klasifikaci minerálů - systém minerálů a jeho hlavní reprezentanti.  Kritéria pro klasifikaci hornin -  systém hornin a jeho hlavní reprezentanti. 
+3. Zemská kůra, kontinentální a oceánský typ. Morfostrukturní jednotky zemské kůry (hypsografická křivka), kratogeny, pevninská pohoří, pevninský svah, úpatí, oceánská pánev, hlubokomořské příkopy. 
+4. Zemský plášť a jeho strukturní složky (litosféra, astenosféra, střední plášť, spodní plášť), vnější jádro, jadérko. Termální model Země, teplota a tepelný tok v zemském tělese. Geotermální energie.  
+5. Teorie deskové tektoniky, její východiska a základní principy.  Pohyb litosférických desek a pohyb plášťových hmot. Divergentní hranice mezi deskami, pevninský, mezipevninský a oceánský rift. Konvergentní hranice mezi deskami, typy subdukce (japonský, andský, himalájský typ), obdukce. Transformní hranice. 
+6. Tektogeneze a její fáze podle Wilsnova cyklu. Magmatismus, metamorfismus a orogeneze v  riftogenezi a kratonizaci.    
+7. Geografické důsledky deskové tektoniky. Geologický cyklus, vývoj zemské kůry na Zemi. Paleogeografie - rekonstrukce pohybu litosférických desek v minulosti. Neotektonika a její regionální projevy.  
+8. Zemětřesení, jeho typy a  klasifikační stupnice. Geografické rozšíření seismických jevů.  Epeirogeneze  a její důsledky. 
+9. Magmatismus, jeho typy a klasifikace. Krystalizace magmatu,  struktury magmatitů a typy magmatických těles. Systém magmatitů a jeho klasifikační kritéria. 
+10. Vulkanismus, tvary těles vulkanitů, sopečné produkty a postvulkanické jevy. Geografické rozšíření vulkanických pásem na Zemi. 
+11. Metamorfóza, její procesy, typy a činitelé. Migmatitizace. Systém metamorfitů a jeho klasifikační kritéria. 
+12. Zvětrávání hornin, jeho typy a činitelé.  Mechanické zvětrávání  (dezintegrace, deskvamace, kongelifrakce, exfoliace), zvětrávání  chemické a biologické.
+13. Geneze sedimentů. Transport, sedimentace, sedimentační prostředí. Úložné poměry sedimentů (stratigrafický hiát, konkordance, diskordance). Systém sedimentů a jeho klasifikační kritéria. 
+14. Geologické struktury.  
+</t>
   </si>
   <si>
     <t>Úvod do problematiky: charakteristika hlavních přednášených částí - látky obsažené v přírodních zdrojích, pesticidy a
@@ -7550,23 +7567,6 @@
 Látky izolované ze živočichů - rozdělení podle rodů - látky produkované hmyzem, látky izolované z měkkýšů, látky
 izolované z obratlovců (toxiny, barviva, léčiva). Struktura hlavních látek, význam v historii a v současnosti.
 Studijní literatura a studijní pomůcky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Metody studia vnitřní stavby Země. Seismický model, jeho hlavní strukturní složky a diskontinuity.
-2. Zemská kůra - chemické, minerální a horninové složení.  Kritéria pro klasifikaci minerálů - systém minerálů a jeho hlavní reprezentanti.  Kritéria pro klasifikaci hornin -  systém hornin a jeho hlavní reprezentanti. 
-3. Zemská kůra, kontinentální a oceánský typ. Morfostrukturní jednotky zemské kůry (hypsografická křivka), kratogeny, pevninská pohoří, pevninský svah, úpatí, oceánská pánev, hlubokomořské příkopy. 
-4. Zemský plášť a jeho strukturní složky (litosféra, astenosféra, střední plášť, spodní plášť), vnější jádro, jadérko. Termální model Země, teplota a tepelný tok v zemském tělese. Geotermální energie.  
-5. Teorie deskové tektoniky, její východiska a základní principy.  Pohyb litosférických desek a pohyb plášťových hmot. Divergentní hranice mezi deskami, pevninský, mezipevninský a oceánský rift. Konvergentní hranice mezi deskami, typy subdukce (japonský, andský, himalájský typ), obdukce. Transformní hranice. 
-6. Tektogeneze a její fáze podle Wilsnova cyklu. Magmatismus, metamorfismus a orogeneze v  riftogenezi a kratonizaci.    
-7. Geografické důsledky deskové tektoniky. Geologický cyklus, vývoj zemské kůry na Zemi. Paleogeografie - rekonstrukce pohybu litosférických desek v minulosti. Neotektonika a její regionální projevy.  
-8. Zemětřesení, jeho typy a  klasifikační stupnice. Geografické rozšíření seismických jevů.  Epeirogeneze  a její důsledky. 
-9. Magmatismus, jeho typy a klasifikace. Krystalizace magmatu,  struktury magmatitů a typy magmatických těles. Systém magmatitů a jeho klasifikační kritéria. 
-10. Vulkanismus, tvary těles vulkanitů, sopečné produkty a postvulkanické jevy. Geografické rozšíření vulkanických pásem na Zemi. 
-11. Metamorfóza, její procesy, typy a činitelé. Migmatitizace. Systém metamorfitů a jeho klasifikační kritéria. 
-12. Zvětrávání hornin, jeho typy a činitelé.  Mechanické zvětrávání  (dezintegrace, deskvamace, kongelifrakce, exfoliace), zvětrávání  chemické a biologické.
-13. Geneze sedimentů. Transport, sedimentace, sedimentační prostředí. Úložné poměry sedimentů (stratigrafický hiát, konkordance, diskordance). Systém sedimentů a jeho klasifikační kritéria. 
-14. Geologické struktury.  
-</t>
   </si>
   <si>
     <t>1. Seznámení s předmětem, definice oboru a oblastí zájmu medicíny katastrof.
@@ -8266,6 +8266,14 @@
 porozita, krystalinita aj.) a jejich vztah k chemické analýze.</t>
   </si>
   <si>
+    <t>Obsah 1. bloku:
+Základní pojmy toxikologie: Toxikologické disciplíny a jejich souvislost s lékařskými a chemickými obory: 
+Pojem toxická látka. Letální dávka. Expozice. 
+Obecná toxikologie: Cesty a mechanismy vstupu jedů do organismu, brány vstupu, vstřebávání toxinů, jejich metabolismus. Distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Zásady pro bezpečnou práci v chemických laboratořích, první předlékařská pomoc. Speciální toxikologie: toxikologické vlastnosti toxikologicky významných látek v rámci jednotlivých prvků hlavních a vedlejších skupin PSP a jejich sloučenin.
+Obsah 2. bloku:
+Speciální toxikologie: toxické vlastnosti vybraných toxikologicky významných organických látek (po skupinách podle funkčních skupin), živočišné jedy, fytotoxikologie, toxikologie omamných látek a některých běžně užívaných léků. Základy vojenské toxikologie.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.Těleso, vektorové prostory (význačné příklady)
 2. - 3.	Maticový počet
 4. - 5.	Soustavy lineárních rovnic (maticový zápis soustavy, Gauss-Jordanova eliminační metoda)
@@ -8276,14 +8284,6 @@
 12. - 13. Determinanty (definice, základní vlastnosti, Laplaceův rozvoj, výpočet determinantu, inverzní matice, Cramerovy formule)
 14. Vlastní čísla a vlastní vektory matice, charakteristický polynom
 </t>
-  </si>
-  <si>
-    <t>Obsah 1. bloku:
-Základní pojmy toxikologie: Toxikologické disciplíny a jejich souvislost s lékařskými a chemickými obory: 
-Pojem toxická látka. Letální dávka. Expozice. 
-Obecná toxikologie: Cesty a mechanismy vstupu jedů do organismu, brány vstupu, vstřebávání toxinů, jejich metabolismus. Distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Zásady pro bezpečnou práci v chemických laboratořích, první předlékařská pomoc. Speciální toxikologie: toxikologické vlastnosti toxikologicky významných látek v rámci jednotlivých prvků hlavních a vedlejších skupin PSP a jejich sloučenin.
-Obsah 2. bloku:
-Speciální toxikologie: toxické vlastnosti vybraných toxikologicky významných organických látek (po skupinách podle funkčních skupin), živočišné jedy, fytotoxikologie, toxikologie omamných látek a některých běžně užívaných léků. Základy vojenské toxikologie.</t>
   </si>
   <si>
     <t>1. základní pojmy, historie toxikologie, toxikologie a její dělení
@@ -8404,6 +8404,14 @@
 7) Toky v sítích (definice sítě, hledání největšího toku, zobecnění sítí, další aplikace algoritmu pro hledání největšího toku - párování v bipartitním grafu a Hallova věta). </t>
   </si>
   <si>
+    <t>Obsah 1. bloku: 
+Úvod - význam a základní principy organické chemie. Vazby v organických sloučeninách:  Kyseliny a báze, elektrofily a nukleofily, funkční skupiny. Alkany, izomerie, konformace cykloalkanů. Chiralita obecně a chirální molekuly. Stereochemie v chemických reakcích. Haloalkany: SN2 substituce, SN1 substituce, stabilita karbokationtů. Mono- a bimolekulární eliminace E1 a E2, konkurence mezi substitucí a eliminací. Alkoholy: acidobazické vlastnosti, syntéza. Organokovové sloučeniny. Příprava a použití alkoxidů. Přesmyky karbokationtů.  Ethery a analogy alkoholů a etherů se sírou.
+Obsah 2. bloku: 
+NMR pro určení struktury organických sloučenin.  Alkeny. Infračervená spektroskopie. Alkyny a trojná vazba. Příprava alkynů, reakce alkynů. Delokalizované p-systémy, 2-propenylový (allylový) systém, konjugované dieny. Dielsova-Alderova cykloadice. UV/VIS spektroskopie. Benzen a aromaticita, Hückelovo pravidlo.  Elektrofilní aromatická substituce. Aktivační a deaktivační vlivy substituentů, řízení substituce. Benzylový systém. Fenoly a nukleofilní aromatická substituce. Arendiazoniové soli. Aldehydy a ketony. Reakce karbonylové skupiny. a,b-Nenasycené aldehydy a ketony. Enoly, enoláty, aldolová kondenzace. Konjugované adice na a,b-nenasycené aldehydy a ketony. Michaelova adice.
+Obsah 3. bloku: 
+Karboxylové kyseliny a jejich funkční deriváty. Acidobazické vlastnosti, syntéza. Adičně-eliminační mechanismus substituce na karboxylovém uhlíku. Hmotnostní spektrometrie. Aminy, jejich deriváty a další funkční skupiny obsahující dusík. Kvarterní amoniové soli a Hofmannova eliminace. Mannichova reakce a nitrosace aminů. b-Dikarbonylové sloučeniny. Claisenova kondenzace a ostatní použití b-dikarbonylových sloučenin jako syntetických intermediátů. Aromatické a nearomatické pětičlenné a šestičlenné heterocykly s dusíkem, kyslíkem a sírou.</t>
+  </si>
+  <si>
     <t>1. Reálná čísla a jejich vlastnosti
 2. Suprema a infima, posloupnosti a jejich limity
 3. Základní vlastnosti limit posloupností a jejich výpočet
@@ -8419,14 +8427,6 @@
 13. Aproximace funkcí polynomy, Taylorovy polynomy
 14. Goniometrické funkce pomocí Taylorových řad.
 15. Opakování</t>
-  </si>
-  <si>
-    <t>Obsah 1. bloku: 
-Úvod - význam a základní principy organické chemie. Vazby v organických sloučeninách:  Kyseliny a báze, elektrofily a nukleofily, funkční skupiny. Alkany, izomerie, konformace cykloalkanů. Chiralita obecně a chirální molekuly. Stereochemie v chemických reakcích. Haloalkany: SN2 substituce, SN1 substituce, stabilita karbokationtů. Mono- a bimolekulární eliminace E1 a E2, konkurence mezi substitucí a eliminací. Alkoholy: acidobazické vlastnosti, syntéza. Organokovové sloučeniny. Příprava a použití alkoxidů. Přesmyky karbokationtů.  Ethery a analogy alkoholů a etherů se sírou.
-Obsah 2. bloku: 
-NMR pro určení struktury organických sloučenin.  Alkeny. Infračervená spektroskopie. Alkyny a trojná vazba. Příprava alkynů, reakce alkynů. Delokalizované p-systémy, 2-propenylový (allylový) systém, konjugované dieny. Dielsova-Alderova cykloadice. UV/VIS spektroskopie. Benzen a aromaticita, Hückelovo pravidlo.  Elektrofilní aromatická substituce. Aktivační a deaktivační vlivy substituentů, řízení substituce. Benzylový systém. Fenoly a nukleofilní aromatická substituce. Arendiazoniové soli. Aldehydy a ketony. Reakce karbonylové skupiny. a,b-Nenasycené aldehydy a ketony. Enoly, enoláty, aldolová kondenzace. Konjugované adice na a,b-nenasycené aldehydy a ketony. Michaelova adice.
-Obsah 3. bloku: 
-Karboxylové kyseliny a jejich funkční deriváty. Acidobazické vlastnosti, syntéza. Adičně-eliminační mechanismus substituce na karboxylovém uhlíku. Hmotnostní spektrometrie. Aminy, jejich deriváty a další funkční skupiny obsahující dusík. Kvarterní amoniové soli a Hofmannova eliminace. Mannichova reakce a nitrosace aminů. b-Dikarbonylové sloučeniny. Claisenova kondenzace a ostatní použití b-dikarbonylových sloučenin jako syntetických intermediátů. Aromatické a nearomatické pětičlenné a šestičlenné heterocykly s dusíkem, kyslíkem a sírou.</t>
   </si>
   <si>
     <t xml:space="preserve">1. blok 2 hod. SK + 3 hod. PS 
@@ -8561,12 +8561,6 @@
 9. Axiomatika</t>
   </si>
   <si>
-    <t>Blok 1.
-Rovnovážné vlastnosti plynů, kapalin a pevných látek. Klasická termodynamika. Fázová rovnováha v jednosložkových systémech.
-Blok 2.
-Chemická rovnováha. Chemická kinetika. Elektrochemie.</t>
-  </si>
-  <si>
     <t>1. Primitivní funkce, základní vlastnosti, per partes_x000D_
 2. Substituce, rozklad rac. funkcí na parc. zlomky_x000D_
 3. Integrace parc. zlomků, převody na rac. funkce_x000D_
@@ -8582,6 +8576,12 @@
 13. Extrémy funkcí více proměnných (i vázané) Integrování funkcí více proměnných_x000D_
 14. Integrování funkcí více proměnných_x000D_
 15. Extrémy, opakování</t>
+  </si>
+  <si>
+    <t>Blok 1.
+Rovnovážné vlastnosti plynů, kapalin a pevných látek. Klasická termodynamika. Fázová rovnováha v jednosložkových systémech.
+Blok 2.
+Chemická rovnováha. Chemická kinetika. Elektrochemie.</t>
   </si>
   <si>
     <t>Úvod do fyzikální chemie: Rozvoj metod v 19. a 20. století, vlastnosti stavové/nestavové, vývoj disciplin - nauky o struktuře atomů a molekul, termodynamiky klasické a statistické, reakční kinetiky.   
@@ -9551,14 +9551,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Předmět bude zahrnovat tři tematické okruhy: 
-Fyzikální metody přípravy nanomateriálů, chemické metody přípravy nanomateriálů a bionanotechnologie.
-1)	Teoretické základy fyzikálních metod přípravy nanomateriálů - top-down versus bottom -   up procesy, plazmové depozice tenkých vrstev a nanočástic, plazmové modifikace a funkcionalizace povrchů, litografické techniky (EBL, UV - litografie, milling techniky, AFM litografie, koloidní a polymerní templátová nanolitografie.
-2)	Chemické metody přípravy nanomateriálů - příprava nanostruktur nulté dimenze (0D), příprava jednodimenzioálních nanostruktur (1D) - nanodrátky, nanotrubičky, příprava dvoudimenzionálních nanostruktur (2D) - nanostrukturované povrchy, interkalace, chemické metody depozice nanočástic a chemické modifikace povrchů, hybridní organo-inorganické nanostruktury, dendrimerní nanokompozity.
-3)       Bionanotechnologie, příprava nanočástic pomocí mikroorganismů
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Teorie regionálního rozvoje, definice rozvojových problémů.
 2. Hlavní teoreticko-metodologické přístupy ve 20. a 21. století.
 3. Hlavní teorie v moderní ekonomii.
@@ -9572,6 +9564,14 @@
 11. Nadnárodní korporace a malé a střední podniky jako aktéři na různých hierarchických úrovních.
 12. Aktuální trendy v regionálním rozvoji a regionální politice.
 13. Současné období regionální politiky v kontextu Evropské unie.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Předmět bude zahrnovat tři tematické okruhy: 
+Fyzikální metody přípravy nanomateriálů, chemické metody přípravy nanomateriálů a bionanotechnologie.
+1)	Teoretické základy fyzikálních metod přípravy nanomateriálů - top-down versus bottom -   up procesy, plazmové depozice tenkých vrstev a nanočástic, plazmové modifikace a funkcionalizace povrchů, litografické techniky (EBL, UV - litografie, milling techniky, AFM litografie, koloidní a polymerní templátová nanolitografie.
+2)	Chemické metody přípravy nanomateriálů - příprava nanostruktur nulté dimenze (0D), příprava jednodimenzioálních nanostruktur (1D) - nanodrátky, nanotrubičky, příprava dvoudimenzionálních nanostruktur (2D) - nanostrukturované povrchy, interkalace, chemické metody depozice nanočástic a chemické modifikace povrchů, hybridní organo-inorganické nanostruktury, dendrimerní nanokompozity.
+3)       Bionanotechnologie, příprava nanočástic pomocí mikroorganismů
 </t>
   </si>
   <si>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>82</v>
@@ -12179,13 +12179,13 @@
         <v>365</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H7" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>566</v>
@@ -12195,7 +12195,7 @@
         <v>572</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>572</v>
+        <v>650</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>694</v>
@@ -12226,7 +12226,9 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="AD7" s="1" t="s">
+        <v>1451</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -12234,7 +12236,7 @@
         <v>565</v>
       </c>
       <c r="AI7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>1628</v>
@@ -12255,10 +12257,10 @@
         <v>1635</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>1801</v>
@@ -12307,7 +12309,7 @@
         <v>564</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -12315,7 +12317,7 @@
     </row>
     <row r="8" spans="1:69">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>82</v>
@@ -12330,13 +12332,13 @@
         <v>366</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>566</v>
@@ -12346,7 +12348,7 @@
         <v>573</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>650</v>
+        <v>573</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>695</v>
@@ -12377,9 +12379,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1" t="s">
-        <v>1451</v>
-      </c>
+      <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
@@ -12387,7 +12387,7 @@
         <v>565</v>
       </c>
       <c r="AI8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>1628</v>
@@ -12408,10 +12408,10 @@
         <v>1636</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>1801</v>
@@ -12460,7 +12460,7 @@
         <v>564</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
@@ -13986,7 +13986,7 @@
     </row>
     <row r="19" spans="1:69">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>91</v>
@@ -13998,7 +13998,7 @@
         <v>373</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>543</v>
+        <v>373</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>564</v>
@@ -14014,27 +14014,31 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+        <v>1080</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>1243</v>
+      </c>
       <c r="S19" s="1" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -14045,12 +14049,12 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1" t="s">
-        <v>1321</v>
-      </c>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+      <c r="AD19" s="1" t="s">
+        <v>1454</v>
+      </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -14058,13 +14062,13 @@
         <v>565</v>
       </c>
       <c r="AI19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1" t="s">
         <v>1628</v>
@@ -14075,7 +14079,9 @@
       <c r="AN19" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO19" s="1"/>
+      <c r="AO19" s="1" t="s">
+        <v>1640</v>
+      </c>
       <c r="AP19" s="1" t="s">
         <v>1799</v>
       </c>
@@ -14129,15 +14135,21 @@
         <v>564</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>2176</v>
-      </c>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="1"/>
+        <v>722</v>
+      </c>
+      <c r="BO19" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
+        <v>2178</v>
+      </c>
     </row>
     <row r="20" spans="1:69">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>91</v>
@@ -14149,7 +14161,7 @@
         <v>374</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>374</v>
+        <v>543</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>564</v>
@@ -14165,31 +14177,27 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>652</v>
+        <v>577</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>1243</v>
-      </c>
+        <v>1077</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -14200,12 +14208,12 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="AA20" s="1" t="s">
+        <v>1321</v>
+      </c>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
-        <v>1454</v>
-      </c>
+      <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -14213,13 +14221,13 @@
         <v>565</v>
       </c>
       <c r="AI20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ20" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="1" t="s">
         <v>1628</v>
@@ -14230,9 +14238,7 @@
       <c r="AN20" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO20" s="1" t="s">
-        <v>1640</v>
-      </c>
+      <c r="AO20" s="1"/>
       <c r="AP20" s="1" t="s">
         <v>1799</v>
       </c>
@@ -14286,17 +14292,11 @@
         <v>564</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="BO20" s="1" t="s">
-        <v>2178</v>
-      </c>
-      <c r="BP20" s="1" t="s">
-        <v>2183</v>
-      </c>
-      <c r="BQ20" s="1" t="s">
-        <v>2178</v>
-      </c>
+        <v>2176</v>
+      </c>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
     </row>
     <row r="21" spans="1:69">
       <c r="A21" s="1" t="s">
@@ -14477,13 +14477,13 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>784</v>
@@ -14607,10 +14607,10 @@
         <v>2023</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>564</v>
@@ -14704,7 +14704,7 @@
         <v>1801</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AT23" s="1" t="s">
         <v>1961</v>
@@ -16179,10 +16179,10 @@
         <v>2023</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>565</v>
@@ -16198,22 +16198,22 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -16258,7 +16258,7 @@
         <v>1629</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>1799</v>
@@ -16270,10 +16270,10 @@
         <v>1801</v>
       </c>
       <c r="AS33" s="1" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
@@ -18317,7 +18317,7 @@
         <v>2023</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>543</v>
@@ -18408,10 +18408,10 @@
         <v>1801</v>
       </c>
       <c r="AS47" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
@@ -18636,13 +18636,13 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>784</v>
@@ -23272,7 +23272,7 @@
     </row>
     <row r="79" spans="1:69">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>148</v>
@@ -23337,11 +23337,15 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
+      <c r="AC79" s="1" t="s">
+        <v>1394</v>
+      </c>
       <c r="AD79" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="AE79" s="1"/>
+      <c r="AE79" s="1" t="s">
+        <v>1598</v>
+      </c>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1" t="s">
@@ -23402,7 +23406,7 @@
       <c r="BE79" s="1"/>
       <c r="BF79" s="1"/>
       <c r="BG79" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH79" s="1" t="s">
         <v>565</v>
@@ -23412,7 +23416,9 @@
         <v>0</v>
       </c>
       <c r="BK79" s="1"/>
-      <c r="BL79" s="1"/>
+      <c r="BL79" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM79" s="1" t="s">
         <v>564</v>
       </c>
@@ -23425,7 +23431,7 @@
     </row>
     <row r="80" spans="1:69">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>148</v>
@@ -23490,15 +23496,11 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
-      <c r="AC80" s="1" t="s">
-        <v>1394</v>
-      </c>
+      <c r="AC80" s="1"/>
       <c r="AD80" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="AE80" s="1" t="s">
-        <v>1598</v>
-      </c>
+      <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1" t="s">
@@ -23559,7 +23561,7 @@
       <c r="BE80" s="1"/>
       <c r="BF80" s="1"/>
       <c r="BG80" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BH80" s="1" t="s">
         <v>565</v>
@@ -23569,9 +23571,7 @@
         <v>0</v>
       </c>
       <c r="BK80" s="1"/>
-      <c r="BL80" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL80" s="1"/>
       <c r="BM80" s="1" t="s">
         <v>564</v>
       </c>
@@ -23743,7 +23743,7 @@
     </row>
     <row r="82" spans="1:69">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>150</v>
@@ -23755,29 +23755,29 @@
         <v>413</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>547</v>
+        <v>413</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H82" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>813</v>
@@ -23788,10 +23788,14 @@
       <c r="P82" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
+      <c r="Q82" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>1246</v>
+      </c>
       <c r="S82" s="1" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -23812,7 +23816,7 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AI82" s="2">
         <v>2</v>
@@ -23821,7 +23825,7 @@
         <v>1628</v>
       </c>
       <c r="AK82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="1" t="s">
         <v>1628</v>
@@ -23869,7 +23873,7 @@
       <c r="BE82" s="1"/>
       <c r="BF82" s="1"/>
       <c r="BG82" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH82" s="1" t="s">
         <v>565</v>
@@ -23879,7 +23883,9 @@
         <v>0</v>
       </c>
       <c r="BK82" s="1"/>
-      <c r="BL82" s="1"/>
+      <c r="BL82" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM82" s="1" t="s">
         <v>564</v>
       </c>
@@ -23892,7 +23898,7 @@
     </row>
     <row r="83" spans="1:69">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>150</v>
@@ -23904,29 +23910,29 @@
         <v>414</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>414</v>
+        <v>547</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H83" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>814</v>
@@ -23937,14 +23943,10 @@
       <c r="P83" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="Q83" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>1246</v>
-      </c>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
       <c r="S83" s="1" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -23965,7 +23967,7 @@
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI83" s="2">
         <v>2</v>
@@ -23974,7 +23976,7 @@
         <v>1628</v>
       </c>
       <c r="AK83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="1" t="s">
         <v>1628</v>
@@ -24022,7 +24024,7 @@
       <c r="BE83" s="1"/>
       <c r="BF83" s="1"/>
       <c r="BG83" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BH83" s="1" t="s">
         <v>565</v>
@@ -24032,9 +24034,7 @@
         <v>0</v>
       </c>
       <c r="BK83" s="1"/>
-      <c r="BL83" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL83" s="1"/>
       <c r="BM83" s="1" t="s">
         <v>564</v>
       </c>
@@ -24047,7 +24047,7 @@
     </row>
     <row r="84" spans="1:69">
       <c r="A84" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>151</v>
@@ -24068,20 +24068,20 @@
         <v>565</v>
       </c>
       <c r="H84" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>815</v>
@@ -24092,14 +24092,10 @@
       <c r="P84" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="Q84" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>959</v>
-      </c>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
       <c r="S84" s="1" t="s">
-        <v>1113</v>
+        <v>722</v>
       </c>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -24112,7 +24108,9 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
+      <c r="AC84" s="1" t="s">
+        <v>1396</v>
+      </c>
       <c r="AD84" s="1" t="s">
         <v>1478</v>
       </c>
@@ -24123,13 +24121,13 @@
         <v>565</v>
       </c>
       <c r="AI84" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ84" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK84" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL84" s="1" t="s">
         <v>1629</v>
@@ -24147,25 +24145,21 @@
         <v>1799</v>
       </c>
       <c r="AQ84" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR84" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS84" s="1" t="s">
-        <v>1841</v>
-      </c>
+      <c r="AS84" s="1"/>
       <c r="AT84" s="1" t="s">
         <v>1994</v>
       </c>
-      <c r="AU84" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="AU84" s="1"/>
       <c r="AV84" s="1"/>
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
       <c r="AY84" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1" t="s">
@@ -24184,16 +24178,14 @@
         <v>565</v>
       </c>
       <c r="BH84" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI84" s="1"/>
       <c r="BJ84" s="2">
         <v>0</v>
       </c>
       <c r="BK84" s="1"/>
-      <c r="BL84" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL84" s="1"/>
       <c r="BM84" s="1" t="s">
         <v>564</v>
       </c>
@@ -24206,7 +24198,7 @@
     </row>
     <row r="85" spans="1:69">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>151</v>
@@ -24227,20 +24219,20 @@
         <v>565</v>
       </c>
       <c r="H85" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>661</v>
+        <v>603</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>816</v>
@@ -24251,10 +24243,14 @@
       <c r="P85" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="Q85" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>960</v>
+      </c>
       <c r="S85" s="1" t="s">
-        <v>722</v>
+        <v>1114</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -24267,9 +24263,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
-      <c r="AC85" s="1" t="s">
-        <v>1396</v>
-      </c>
+      <c r="AC85" s="1"/>
       <c r="AD85" s="1" t="s">
         <v>1479</v>
       </c>
@@ -24280,13 +24274,13 @@
         <v>565</v>
       </c>
       <c r="AI85" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ85" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK85" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL85" s="1" t="s">
         <v>1629</v>
@@ -24304,21 +24298,25 @@
         <v>1799</v>
       </c>
       <c r="AQ85" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR85" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS85" s="1"/>
+      <c r="AS85" s="1" t="s">
+        <v>1841</v>
+      </c>
       <c r="AT85" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="AU85" s="1"/>
+      <c r="AU85" s="1" t="s">
+        <v>2133</v>
+      </c>
       <c r="AV85" s="1"/>
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
       <c r="AY85" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1" t="s">
@@ -24337,14 +24335,16 @@
         <v>565</v>
       </c>
       <c r="BH85" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI85" s="1"/>
       <c r="BJ85" s="2">
         <v>0</v>
       </c>
       <c r="BK85" s="1"/>
-      <c r="BL85" s="1"/>
+      <c r="BL85" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM85" s="1" t="s">
         <v>564</v>
       </c>
@@ -24975,7 +24975,7 @@
     </row>
     <row r="90" spans="1:69">
       <c r="A90" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>156</v>
@@ -25006,7 +25006,7 @@
         <v>607</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>607</v>
+        <v>663</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>730</v>
@@ -25040,10 +25040,10 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
-      <c r="AC90" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="AD90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1" t="s">
+        <v>1482</v>
+      </c>
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
@@ -25057,7 +25057,7 @@
         <v>1629</v>
       </c>
       <c r="AK90" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AL90" s="1" t="s">
         <v>1629</v>
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="AN90" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="AO90" s="1"/>
       <c r="AP90" s="1" t="s">
@@ -25078,8 +25078,12 @@
       <c r="AR90" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS90" s="1"/>
-      <c r="AT90" s="1"/>
+      <c r="AS90" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="AT90" s="1" t="s">
+        <v>2000</v>
+      </c>
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
@@ -25126,7 +25130,7 @@
     </row>
     <row r="91" spans="1:69">
       <c r="A91" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>156</v>
@@ -25157,7 +25161,7 @@
         <v>608</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>663</v>
+        <v>608</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>731</v>
@@ -25191,10 +25195,10 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AD91" s="1" t="s">
-        <v>1482</v>
-      </c>
+      <c r="AC91" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
@@ -25208,7 +25212,7 @@
         <v>1629</v>
       </c>
       <c r="AK91" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL91" s="1" t="s">
         <v>1629</v>
@@ -25217,7 +25221,7 @@
         <v>0</v>
       </c>
       <c r="AN91" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="AO91" s="1"/>
       <c r="AP91" s="1" t="s">
@@ -25229,12 +25233,8 @@
       <c r="AR91" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS91" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="AT91" s="1" t="s">
-        <v>2000</v>
-      </c>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
@@ -25464,13 +25464,13 @@
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>663</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>822</v>
@@ -25740,7 +25740,7 @@
     </row>
     <row r="95" spans="1:69">
       <c r="A95" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>159</v>
@@ -25761,38 +25761,38 @@
         <v>565</v>
       </c>
       <c r="H95" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
@@ -25803,7 +25803,9 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-      <c r="AA95" s="1"/>
+      <c r="AA95" s="1" t="s">
+        <v>1335</v>
+      </c>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1" t="s">
         <v>1401</v>
@@ -25818,7 +25820,7 @@
         <v>565</v>
       </c>
       <c r="AI95" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ95" s="1" t="s">
         <v>1629</v>
@@ -25839,28 +25841,24 @@
         <v>1681</v>
       </c>
       <c r="AP95" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ95" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR95" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS95" s="1" t="s">
-        <v>1848</v>
-      </c>
+      <c r="AS95" s="1"/>
       <c r="AT95" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="AU95" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="AU95" s="1"/>
       <c r="AV95" s="1"/>
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
       <c r="AY95" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1" t="s">
@@ -25901,7 +25899,7 @@
     </row>
     <row r="96" spans="1:69">
       <c r="A96" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>159</v>
@@ -25922,38 +25920,38 @@
         <v>565</v>
       </c>
       <c r="H96" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>659</v>
+        <v>596</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
@@ -25964,9 +25962,7 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-      <c r="AA96" s="1" t="s">
-        <v>1335</v>
-      </c>
+      <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1" t="s">
         <v>1402</v>
@@ -25981,7 +25977,7 @@
         <v>565</v>
       </c>
       <c r="AI96" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ96" s="1" t="s">
         <v>1629</v>
@@ -26002,24 +25998,28 @@
         <v>1682</v>
       </c>
       <c r="AP96" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ96" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR96" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS96" s="1"/>
+      <c r="AS96" s="1" t="s">
+        <v>1848</v>
+      </c>
       <c r="AT96" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="AU96" s="1"/>
+      <c r="AU96" s="1" t="s">
+        <v>2133</v>
+      </c>
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
       <c r="AY96" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ96" s="1"/>
       <c r="BA96" s="1" t="s">
@@ -27008,7 +27008,7 @@
     </row>
     <row r="103" spans="1:69">
       <c r="A103" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>165</v>
@@ -27017,10 +27017,10 @@
         <v>2023</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>565</v>
@@ -27036,31 +27036,31 @@
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>669</v>
+        <v>606</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>575</v>
+        <v>818</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>1250</v>
+        <v>962</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>697</v>
+        <v>1116</v>
       </c>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
@@ -27071,28 +27071,30 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
-      <c r="AA103" s="1"/>
+      <c r="AA103" s="1" t="s">
+        <v>1337</v>
+      </c>
       <c r="AB103" s="1"/>
-      <c r="AC103" s="1" t="s">
-        <v>1403</v>
-      </c>
+      <c r="AC103" s="1"/>
       <c r="AD103" s="1" t="s">
         <v>1491</v>
       </c>
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
-      <c r="AG103" s="1"/>
+      <c r="AG103" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH103" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI103" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ103" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK103" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL103" s="1" t="s">
         <v>1629</v>
@@ -27104,7 +27106,7 @@
         <v>1628</v>
       </c>
       <c r="AO103" s="1" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="AP103" s="1" t="s">
         <v>1799</v>
@@ -27115,16 +27117,20 @@
       <c r="AR103" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS103" s="1"/>
+      <c r="AS103" s="1" t="s">
+        <v>1853</v>
+      </c>
       <c r="AT103" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="AU103" s="1"/>
+      <c r="AU103" s="1" t="s">
+        <v>2133</v>
+      </c>
       <c r="AV103" s="1"/>
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
       <c r="AY103" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ103" s="1"/>
       <c r="BA103" s="1" t="s">
@@ -27143,14 +27149,16 @@
         <v>565</v>
       </c>
       <c r="BH103" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI103" s="1"/>
       <c r="BJ103" s="2">
         <v>0</v>
       </c>
       <c r="BK103" s="1"/>
-      <c r="BL103" s="1"/>
+      <c r="BL103" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM103" s="1" t="s">
         <v>564</v>
       </c>
@@ -27163,7 +27171,7 @@
     </row>
     <row r="104" spans="1:69">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>165</v>
@@ -27172,10 +27180,10 @@
         <v>2023</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>565</v>
@@ -27191,31 +27199,31 @@
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>606</v>
+        <v>669</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>818</v>
+        <v>575</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>962</v>
+        <v>1250</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>1116</v>
+        <v>697</v>
       </c>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
@@ -27226,30 +27234,28 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
-      <c r="AA104" s="1" t="s">
-        <v>1337</v>
-      </c>
+      <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
+      <c r="AC104" s="1" t="s">
+        <v>1403</v>
+      </c>
       <c r="AD104" s="1" t="s">
         <v>1492</v>
       </c>
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
-      <c r="AG104" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AG104" s="1"/>
       <c r="AH104" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI104" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ104" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK104" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL104" s="1" t="s">
         <v>1629</v>
@@ -27261,7 +27267,7 @@
         <v>1628</v>
       </c>
       <c r="AO104" s="1" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="AP104" s="1" t="s">
         <v>1799</v>
@@ -27272,20 +27278,16 @@
       <c r="AR104" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS104" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="AS104" s="1"/>
       <c r="AT104" s="1" t="s">
         <v>2010</v>
       </c>
-      <c r="AU104" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="AU104" s="1"/>
       <c r="AV104" s="1"/>
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
       <c r="AY104" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ104" s="1"/>
       <c r="BA104" s="1" t="s">
@@ -27304,16 +27306,14 @@
         <v>565</v>
       </c>
       <c r="BH104" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI104" s="1"/>
       <c r="BJ104" s="2">
         <v>0</v>
       </c>
       <c r="BK104" s="1"/>
-      <c r="BL104" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL104" s="1"/>
       <c r="BM104" s="1" t="s">
         <v>564</v>
       </c>
@@ -32805,31 +32805,31 @@
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
@@ -32966,31 +32966,31 @@
       </c>
       <c r="J141" s="1"/>
       <c r="K141" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
@@ -38008,22 +38008,22 @@
       </c>
       <c r="J173" s="1"/>
       <c r="K173" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -38161,13 +38161,13 @@
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N174" s="1" t="s">
         <v>822</v>
@@ -38936,13 +38936,13 @@
       </c>
       <c r="J179" s="1"/>
       <c r="K179" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>865</v>
@@ -39095,13 +39095,13 @@
       </c>
       <c r="J180" s="1"/>
       <c r="K180" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N180" s="1" t="s">
         <v>865</v>
@@ -39695,7 +39695,7 @@
     </row>
     <row r="184" spans="1:69">
       <c r="A184" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>243</v>
@@ -39716,20 +39716,20 @@
         <v>565</v>
       </c>
       <c r="H184" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J184" s="1"/>
       <c r="K184" s="1" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="N184" s="1" t="s">
         <v>868</v>
@@ -39740,10 +39740,14 @@
       <c r="P184" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
+      <c r="Q184" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>1266</v>
+      </c>
       <c r="S184" s="1" t="s">
-        <v>722</v>
+        <v>1297</v>
       </c>
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
@@ -39762,9 +39766,7 @@
       </c>
       <c r="AE184" s="1"/>
       <c r="AF184" s="1"/>
-      <c r="AG184" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AG184" s="1"/>
       <c r="AH184" s="1" t="s">
         <v>565</v>
       </c>
@@ -39775,7 +39777,7 @@
         <v>1628</v>
       </c>
       <c r="AK184" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL184" s="1" t="s">
         <v>1628</v>
@@ -39786,17 +39788,21 @@
       <c r="AN184" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO184" s="1"/>
+      <c r="AO184" s="1" t="s">
+        <v>1739</v>
+      </c>
       <c r="AP184" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ184" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR184" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS184" s="1"/>
+      <c r="AS184" s="1" t="s">
+        <v>1906</v>
+      </c>
       <c r="AT184" s="1" t="s">
         <v>2071</v>
       </c>
@@ -39846,7 +39852,7 @@
     </row>
     <row r="185" spans="1:69">
       <c r="A185" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>243</v>
@@ -39867,20 +39873,20 @@
         <v>565</v>
       </c>
       <c r="H185" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="N185" s="1" t="s">
         <v>869</v>
@@ -39891,14 +39897,10 @@
       <c r="P185" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="Q185" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="R185" s="1" t="s">
-        <v>1266</v>
-      </c>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
       <c r="S185" s="1" t="s">
-        <v>1297</v>
+        <v>722</v>
       </c>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
@@ -39917,7 +39919,9 @@
       </c>
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
-      <c r="AG185" s="1"/>
+      <c r="AG185" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH185" s="1" t="s">
         <v>565</v>
       </c>
@@ -39928,7 +39932,7 @@
         <v>1628</v>
       </c>
       <c r="AK185" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL185" s="1" t="s">
         <v>1628</v>
@@ -39939,21 +39943,17 @@
       <c r="AN185" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO185" s="1" t="s">
-        <v>1739</v>
-      </c>
+      <c r="AO185" s="1"/>
       <c r="AP185" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ185" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR185" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS185" s="1" t="s">
-        <v>1906</v>
-      </c>
+      <c r="AS185" s="1"/>
       <c r="AT185" s="1" t="s">
         <v>2072</v>
       </c>
@@ -40480,7 +40480,7 @@
     </row>
     <row r="189" spans="1:69">
       <c r="A189" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>246</v>
@@ -40501,29 +40501,25 @@
         <v>565</v>
       </c>
       <c r="H189" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J189" s="1"/>
       <c r="K189" s="1" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="O189" s="1" t="s">
-        <v>1022</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
       <c r="P189" s="1" t="s">
-        <v>1169</v>
+        <v>722</v>
       </c>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
@@ -40542,14 +40538,10 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
-      <c r="AD189" s="1" t="s">
-        <v>1537</v>
-      </c>
+      <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
       <c r="AF189" s="1"/>
-      <c r="AG189" s="1" t="s">
-        <v>1622</v>
-      </c>
+      <c r="AG189" s="1"/>
       <c r="AH189" s="1" t="s">
         <v>565</v>
       </c>
@@ -40571,9 +40563,7 @@
       <c r="AN189" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO189" s="1" t="s">
-        <v>1743</v>
-      </c>
+      <c r="AO189" s="1"/>
       <c r="AP189" s="1" t="s">
         <v>1799</v>
       </c>
@@ -40583,12 +40573,8 @@
       <c r="AR189" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS189" s="1" t="s">
-        <v>1909</v>
-      </c>
-      <c r="AT189" s="1" t="s">
-        <v>2075</v>
-      </c>
+      <c r="AS189" s="1"/>
+      <c r="AT189" s="1"/>
       <c r="AU189" s="1"/>
       <c r="AV189" s="1"/>
       <c r="AW189" s="1"/>
@@ -40627,7 +40613,7 @@
         <v>564</v>
       </c>
       <c r="BN189" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO189" s="1"/>
       <c r="BP189" s="1"/>
@@ -40635,7 +40621,7 @@
     </row>
     <row r="190" spans="1:69">
       <c r="A190" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>246</v>
@@ -40656,25 +40642,29 @@
         <v>565</v>
       </c>
       <c r="H190" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J190" s="1"/>
       <c r="K190" s="1" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
+        <v>753</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>1022</v>
+      </c>
       <c r="P190" s="1" t="s">
-        <v>722</v>
+        <v>1169</v>
       </c>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
@@ -40693,10 +40683,14 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
-      <c r="AD190" s="1"/>
+      <c r="AD190" s="1" t="s">
+        <v>1537</v>
+      </c>
       <c r="AE190" s="1"/>
       <c r="AF190" s="1"/>
-      <c r="AG190" s="1"/>
+      <c r="AG190" s="1" t="s">
+        <v>1622</v>
+      </c>
       <c r="AH190" s="1" t="s">
         <v>565</v>
       </c>
@@ -40718,7 +40712,9 @@
       <c r="AN190" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO190" s="1"/>
+      <c r="AO190" s="1" t="s">
+        <v>1743</v>
+      </c>
       <c r="AP190" s="1" t="s">
         <v>1799</v>
       </c>
@@ -40728,8 +40724,12 @@
       <c r="AR190" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS190" s="1"/>
-      <c r="AT190" s="1"/>
+      <c r="AS190" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AT190" s="1" t="s">
+        <v>2075</v>
+      </c>
       <c r="AU190" s="1"/>
       <c r="AV190" s="1"/>
       <c r="AW190" s="1"/>
@@ -40768,7 +40768,7 @@
         <v>564</v>
       </c>
       <c r="BN190" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO190" s="1"/>
       <c r="BP190" s="1"/>
@@ -41397,7 +41397,7 @@
         <v>2023</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>543</v>
@@ -41488,7 +41488,7 @@
         <v>1801</v>
       </c>
       <c r="AS195" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="AT195" s="1" t="s">
         <v>2080</v>
@@ -49457,10 +49457,10 @@
         <v>2023</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>564</v>
@@ -49485,13 +49485,13 @@
         <v>720</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
@@ -49513,7 +49513,7 @@
         <v>1436</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="AE247" s="1" t="s">
         <v>1609</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="AS247" s="1"/>
       <c r="AT247" s="1" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="AU247" s="1"/>
       <c r="AV247" s="1"/>
@@ -49612,10 +49612,10 @@
         <v>2023</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>564</v>
@@ -49640,13 +49640,13 @@
         <v>720</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O248" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
@@ -49668,7 +49668,7 @@
         <v>1436</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="AE248" s="1" t="s">
         <v>1610</v>
@@ -49710,7 +49710,7 @@
       </c>
       <c r="AS248" s="1"/>
       <c r="AT248" s="1" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="AU248" s="1"/>
       <c r="AV248" s="1"/>
@@ -52425,7 +52425,7 @@
     </row>
     <row r="266" spans="1:69">
       <c r="A266" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>318</v>
@@ -52434,10 +52434,10 @@
         <v>2023</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>564</v>
@@ -52453,31 +52453,31 @@
       </c>
       <c r="J266" s="1"/>
       <c r="K266" s="1" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>669</v>
+        <v>616</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O266" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P266" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="Q266" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="R266" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="S266" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="T266" s="1"/>
       <c r="U266" s="1"/>
@@ -52488,21 +52488,21 @@
       <c r="X266" s="1"/>
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
-      <c r="AA266" s="1" t="s">
-        <v>1368</v>
-      </c>
+      <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
-      <c r="AC266" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="AD266" s="1"/>
-      <c r="AE266" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="AF266" s="1"/>
-      <c r="AG266" s="1"/>
+      <c r="AC266" s="1"/>
+      <c r="AD266" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AE266" s="1"/>
+      <c r="AF266" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AG266" s="1" t="s">
+        <v>1625</v>
+      </c>
       <c r="AH266" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AI266" s="2">
         <v>2</v>
@@ -52511,7 +52511,7 @@
         <v>1628</v>
       </c>
       <c r="AK266" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL266" s="1" t="s">
         <v>1628</v>
@@ -52523,7 +52523,7 @@
         <v>1628</v>
       </c>
       <c r="AO266" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="AP266" s="1" t="s">
         <v>1799</v>
@@ -52534,10 +52534,14 @@
       <c r="AR266" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS266" s="1"/>
-      <c r="AT266" s="1"/>
+      <c r="AS266" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AT266" s="1" t="s">
+        <v>2015</v>
+      </c>
       <c r="AU266" s="1" t="s">
-        <v>2133</v>
+        <v>2148</v>
       </c>
       <c r="AV266" s="1"/>
       <c r="AW266" s="1"/>
@@ -52559,7 +52563,7 @@
       <c r="BE266" s="1"/>
       <c r="BF266" s="1"/>
       <c r="BG266" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH266" s="1" t="s">
         <v>565</v>
@@ -52569,7 +52573,9 @@
         <v>0</v>
       </c>
       <c r="BK266" s="1"/>
-      <c r="BL266" s="1"/>
+      <c r="BL266" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM266" s="1" t="s">
         <v>564</v>
       </c>
@@ -52582,7 +52588,7 @@
     </row>
     <row r="267" spans="1:69">
       <c r="A267" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>318</v>
@@ -52591,10 +52597,10 @@
         <v>2023</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>564</v>
@@ -52610,31 +52616,31 @@
       </c>
       <c r="J267" s="1"/>
       <c r="K267" s="1" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>616</v>
+        <v>669</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O267" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P267" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="Q267" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="R267" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="S267" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="T267" s="1"/>
       <c r="U267" s="1"/>
@@ -52645,21 +52651,21 @@
       <c r="X267" s="1"/>
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
-      <c r="AA267" s="1"/>
+      <c r="AA267" s="1" t="s">
+        <v>1368</v>
+      </c>
       <c r="AB267" s="1"/>
-      <c r="AC267" s="1"/>
-      <c r="AD267" s="1" t="s">
-        <v>1580</v>
-      </c>
-      <c r="AE267" s="1"/>
-      <c r="AF267" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="AG267" s="1" t="s">
-        <v>1625</v>
-      </c>
+      <c r="AC267" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AD267" s="1"/>
+      <c r="AE267" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AF267" s="1"/>
+      <c r="AG267" s="1"/>
       <c r="AH267" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI267" s="2">
         <v>2</v>
@@ -52668,7 +52674,7 @@
         <v>1628</v>
       </c>
       <c r="AK267" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL267" s="1" t="s">
         <v>1628</v>
@@ -52680,7 +52686,7 @@
         <v>1628</v>
       </c>
       <c r="AO267" s="1" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AP267" s="1" t="s">
         <v>1799</v>
@@ -52691,14 +52697,10 @@
       <c r="AR267" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS267" s="1" t="s">
-        <v>1934</v>
-      </c>
-      <c r="AT267" s="1" t="s">
-        <v>2015</v>
-      </c>
+      <c r="AS267" s="1"/>
+      <c r="AT267" s="1"/>
       <c r="AU267" s="1" t="s">
-        <v>2148</v>
+        <v>2133</v>
       </c>
       <c r="AV267" s="1"/>
       <c r="AW267" s="1"/>
@@ -52720,7 +52722,7 @@
       <c r="BE267" s="1"/>
       <c r="BF267" s="1"/>
       <c r="BG267" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BH267" s="1" t="s">
         <v>565</v>
@@ -52730,9 +52732,7 @@
         <v>0</v>
       </c>
       <c r="BK267" s="1"/>
-      <c r="BL267" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL267" s="1"/>
       <c r="BM267" s="1" t="s">
         <v>564</v>
       </c>
@@ -57894,13 +57894,13 @@
       </c>
       <c r="J301" s="1"/>
       <c r="K301" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N301" s="1" t="s">
         <v>822</v>

--- a/results/garant_neprednasi.xlsx
+++ b/results/garant_neprednasi.xlsx
@@ -1111,12 +1111,12 @@
     <t>Fyzická geografie I</t>
   </si>
   <si>
+    <t>Anatomie a fyziologie člověka</t>
+  </si>
+  <si>
     <t>Sociální geografie I</t>
   </si>
   <si>
-    <t>Anatomie a fyziologie člověka</t>
-  </si>
-  <si>
     <t>Fyzická geografie II</t>
   </si>
   <si>
@@ -1180,15 +1180,15 @@
     <t>Organická chemie</t>
   </si>
   <si>
+    <t>Fyzika pro chemiky II</t>
+  </si>
+  <si>
+    <t>Fyzika pro chemiky</t>
+  </si>
+  <si>
     <t>Chemie a fyzika živých soustav</t>
   </si>
   <si>
-    <t>Fyzika pro chemiky</t>
-  </si>
-  <si>
-    <t>Fyzika pro chemiky II</t>
-  </si>
-  <si>
     <t>Biofilmy</t>
   </si>
   <si>
@@ -1255,12 +1255,12 @@
     <t>Programování pro GUI</t>
   </si>
   <si>
+    <t>Instrumentál. analýza pro nanotechnology</t>
+  </si>
+  <si>
     <t>Instrumentální metody pro nanotechnology</t>
   </si>
   <si>
-    <t>Instrumentál. analýza pro nanotechnology</t>
-  </si>
-  <si>
     <t>Toxikologie I</t>
   </si>
   <si>
@@ -1273,27 +1273,27 @@
     <t>Statistika v biologii</t>
   </si>
   <si>
+    <t>Úvod do fyziky</t>
+  </si>
+  <si>
     <t>Metody řešení matematických úloh</t>
   </si>
   <si>
-    <t>Úvod do fyziky</t>
-  </si>
-  <si>
     <t>Odborné prezentace v matematice</t>
   </si>
   <si>
+    <t>Poč. mod. - zpracování obrazu a signálu</t>
+  </si>
+  <si>
     <t>Teorie grafů</t>
   </si>
   <si>
-    <t>Poč. mod. - zpracování obrazu a signálu</t>
+    <t>Matematická analýza I</t>
   </si>
   <si>
     <t>Organická chemie I</t>
   </si>
   <si>
-    <t>Matematická analýza I</t>
-  </si>
-  <si>
     <t>Matematika III</t>
   </si>
   <si>
@@ -1465,25 +1465,25 @@
     <t>Vědecká komunikace v biologii</t>
   </si>
   <si>
+    <t>Metody přípravy nanomateriálů</t>
+  </si>
+  <si>
+    <t>Lokální a regionální rozvoj</t>
+  </si>
+  <si>
     <t>Historie matematiky</t>
   </si>
   <si>
-    <t>Lokální a regionální rozvoj</t>
-  </si>
-  <si>
-    <t>Metody přípravy nanomateriálů</t>
-  </si>
-  <si>
     <t>Aktuální problémy Česka</t>
+  </si>
+  <si>
+    <t>Dějiny myšlení v geografii</t>
   </si>
   <si>
     <t xml:space="preserve">Metody charakterizace látek a materiálů
 </t>
   </si>
   <si>
-    <t>Dějiny myšlení v geografii</t>
-  </si>
-  <si>
     <t>Vakuová fyzika a technika</t>
   </si>
   <si>
@@ -1733,12 +1733,12 @@
     <t>'RNDr. Ivan Farský, CSc.'</t>
   </si>
   <si>
+    <t>'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
+  </si>
+  <si>
     <t>'Mgr. Kristýna Rybová, Ph.D.'</t>
   </si>
   <si>
-    <t>'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
@@ -1781,12 +1781,12 @@
     <t>'Mgr. Michaela Liegertová, Ph.D.'</t>
   </si>
   <si>
+    <t>'prof. RNDr. Ivo Nezbeda, DrSc.'</t>
+  </si>
+  <si>
     <t>'RNDr. Oldřich Benada, CSc.'</t>
   </si>
   <si>
-    <t>'prof. RNDr. Ivo Nezbeda, DrSc.'</t>
-  </si>
-  <si>
     <t>'prof. doc. RNDr. Milan Gryndler, CSc.'</t>
   </si>
   <si>
@@ -1838,12 +1838,12 @@
     <t>'RNDr. Veronika Pitrová, PhD., Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Jiří Králík, Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Martin Kuřil, Ph.D.'</t>
   </si>
   <si>
-    <t>'RNDr. Jiří Králík, Ph.D.'</t>
-  </si>
-  <si>
     <t>'PhDr. Jiří Přibyl, Ph.D.'</t>
   </si>
   <si>
@@ -2099,12 +2099,12 @@
     <t>[315]</t>
   </si>
   <si>
+    <t>[3066]</t>
+  </si>
+  <si>
     <t>[5856]</t>
   </si>
   <si>
-    <t>[3066]</t>
-  </si>
-  <si>
     <t>[3164]</t>
   </si>
   <si>
@@ -2147,12 +2147,12 @@
     <t>[4472]</t>
   </si>
   <si>
+    <t>[305]</t>
+  </si>
+  <si>
     <t>[1983]</t>
   </si>
   <si>
-    <t>[305]</t>
-  </si>
-  <si>
     <t>[3661]</t>
   </si>
   <si>
@@ -2207,12 +2207,12 @@
     <t>[5205]</t>
   </si>
   <si>
+    <t>[303]</t>
+  </si>
+  <si>
     <t>[264]</t>
   </si>
   <si>
-    <t>[303]</t>
-  </si>
-  <si>
     <t>[267]</t>
   </si>
   <si>
@@ -2342,12 +2342,12 @@
     <t>'RNDr. Ivan Farský, CSc.', 'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Petr Jošt, Ph.D.', 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Jiří Anděl, CSc.', 'Mgr. Kristýna Rybová, Ph.D.'</t>
   </si>
   <si>
-    <t>'Mgr. Petr Jošt, Ph.D.', 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.'</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Jan Jirsák, Ph.D.', 'Ing. Magda Škvorová, Ph.D.'</t>
   </si>
   <si>
@@ -2456,12 +2456,12 @@
     <t>'Ing. Mgr. Pavel Beránek', 'RNDr. Petr Kubera, Ph.D.'</t>
   </si>
   <si>
+    <t>'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
+  </si>
+  <si>
     <t>'Ing. Jiří Henych, Ph.D.', 'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
   </si>
   <si>
-    <t>'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
-  </si>
-  <si>
     <t>'PharmDr. Markéta Švarcová, Ph.D.'</t>
   </si>
   <si>
@@ -2474,21 +2474,21 @@
     <t>'doc. RNDr. Bohumír Opic, DrSc.', 'RNDr. Veronika Pitrová, PhD., Ph.D.'</t>
   </si>
   <si>
+    <t>'RNDr. Jiří Králík, Ph.D.', 'RNDr. Martin Švec, Ph.D.'</t>
+  </si>
+  <si>
     <t>'Mgr. Gabriel Kádek', 'RNDr. Veronika Pitrová, PhD., Ph.D.'</t>
   </si>
   <si>
-    <t>'RNDr. Jiří Králík, Ph.D.', 'RNDr. Martin Švec, Ph.D.'</t>
-  </si>
-  <si>
     <t>'doc. PaedDr. Petr Eisenmann, CSc.', 'Mgr. Lucie Loukotová'</t>
   </si>
   <si>
+    <t>'Mgr. Martin Svoboda, Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Martin Kuřil, Ph.D.', 'PhDr. Jiří Přibyl, Ph.D.'</t>
   </si>
   <si>
-    <t>'Mgr. Martin Svoboda, Ph.D.'</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Jan Malý, DrSc.'</t>
   </si>
   <si>
@@ -2621,12 +2621,12 @@
     <t>'doc. RNDr. Jaromír Hajer, CSc.', 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.', 'Mgr. Jan Malý, Ph.D.'</t>
   </si>
   <si>
+    <t>'prof. Ing. Zdeňka Kolská, Ph.D.', 'Mgr. Jan Malý, Ph.D.', 'doc. RNDr. Jaroslav Pavlík, CSc.'</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Jaroslav Koutský, Ph.D.', 'RNDr. Silvie Rita Kučerová, Ph.D.'</t>
   </si>
   <si>
-    <t>'prof. Ing. Zdeňka Kolská, Ph.D.', 'Mgr. Jan Malý, Ph.D.', 'doc. RNDr. Jaroslav Pavlík, CSc.'</t>
-  </si>
-  <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.', 'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
@@ -2768,12 +2768,12 @@
     <t>'RNDr. Ivan Farský, CSc.' (100), 'Mgr. Jiří Riezner, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'Mgr. Petr Jošt, Ph.D.' (100), 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Jiří Anděl, CSc.' (100), 'Mgr. Kristýna Rybová, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'Mgr. Petr Jošt, Ph.D.' (100), 'prof. PharmDr. Jana Žďárová-Karasová, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Jan Jirsák, Ph.D.' (100), 'Ing. Magda Škvorová, Ph.D.' (100)</t>
   </si>
   <si>
@@ -2888,12 +2888,12 @@
     <t>'Ing. Mgr. Pavel Beránek' (100), 'RNDr. Petr Kubera, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'Ing. Jiří Henych, Ph.D.' (90), 'prof. Ing. Zdeňka Kolská, Ph.D.' (10)</t>
   </si>
   <si>
-    <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'PharmDr. Markéta Švarcová, Ph.D.' (100)</t>
   </si>
   <si>
@@ -2906,21 +2906,21 @@
     <t>'doc. RNDr. Bohumír Opic, DrSc.' (100), 'RNDr. Veronika Pitrová, PhD., Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'RNDr. Jiří Králík, Ph.D.' (100), 'RNDr. Martin Švec, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'Mgr. Gabriel Kádek' (100), 'RNDr. Veronika Pitrová, PhD., Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'RNDr. Jiří Králík, Ph.D.' (100), 'RNDr. Martin Švec, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'doc. PaedDr. Petr Eisenmann, CSc.' (100), 'Mgr. Lucie Loukotová' (100)</t>
   </si>
   <si>
+    <t>'Mgr. Martin Svoboda, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'RNDr. Martin Kuřil, Ph.D.' (100), 'PhDr. Jiří Přibyl, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'Mgr. Martin Svoboda, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Jan Malý, DrSc.' (100)</t>
   </si>
   <si>
@@ -3074,12 +3074,12 @@
     <t>'doc. RNDr. Jaromír Hajer, CSc.' (100), 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100), 'doc. RNDr. Jaroslav Pavlík, CSc.' (100)</t>
+  </si>
+  <si>
     <t>'doc. RNDr. Jaroslav Koutský, Ph.D.' (100), 'RNDr. Silvie Rita Kučerová, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100), 'doc. RNDr. Jaroslav Pavlík, CSc.' (100)</t>
-  </si>
-  <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.' (100), 'Mgr. Jiří Riezner, Ph.D.' (100)</t>
   </si>
   <si>
@@ -3236,12 +3236,12 @@
     <t>[315, 3164]</t>
   </si>
   <si>
+    <t>[8815, 3066]</t>
+  </si>
+  <si>
     <t>[312, 5856]</t>
   </si>
   <si>
-    <t>[8815, 3066]</t>
-  </si>
-  <si>
     <t>[2855, 2856]</t>
   </si>
   <si>
@@ -3350,12 +3350,12 @@
     <t>[6973, 650]</t>
   </si>
   <si>
+    <t>[332]</t>
+  </si>
+  <si>
     <t>[5431, 332]</t>
   </si>
   <si>
-    <t>[332]</t>
-  </si>
-  <si>
     <t>[3176]</t>
   </si>
   <si>
@@ -3368,21 +3368,21 @@
     <t>[8438, 5205]</t>
   </si>
   <si>
+    <t>[303, 613]</t>
+  </si>
+  <si>
     <t>[9489, 5205]</t>
   </si>
   <si>
-    <t>[303, 613]</t>
-  </si>
-  <si>
     <t>[261, 3188]</t>
   </si>
   <si>
+    <t>[5958]</t>
+  </si>
+  <si>
     <t>[264, 267]</t>
   </si>
   <si>
-    <t>[5958]</t>
-  </si>
-  <si>
     <t>[1537]</t>
   </si>
   <si>
@@ -3515,12 +3515,12 @@
     <t>[278, 2939, 280]</t>
   </si>
   <si>
+    <t>[332, 280, 308]</t>
+  </si>
+  <si>
     <t>[1644, 3528]</t>
   </si>
   <si>
-    <t>[332, 280, 308]</t>
-  </si>
-  <si>
     <t>[3528, 3164]</t>
   </si>
   <si>
@@ -4220,10 +4220,10 @@
     <t>KCH/K211, KI/KAEL</t>
   </si>
   <si>
+    <t>KMA/K401</t>
+  </si>
+  <si>
     <t>KCH/K501, KCH/K505, KCH/K507, KCH/K603</t>
-  </si>
-  <si>
-    <t>KMA/K401</t>
   </si>
   <si>
     <t>KCH/K501</t>
@@ -4741,14 +4741,6 @@
 'http://www.fi.muni.cz/~hlineny/Vyuka/GT/Grafy-text10.pdf'</t>
   </si>
   <si>
-    <t>'Svoboda J. a kol. Organická chemie I, skripta VŠCHT Praha. VŠCHT Praha, 2005. ',
-'McMurry J. organická chemie VUTIUM Praha 2007. ISBN 978-80-7080-637-1. ',
-'Studijní opora Organická chemie I (on-line: http://chemistry.ujep.cz/1214-studijni-opory). ',
-'Bláha K., Ferles M., Staněk J. a kol. Nomenklatura organické chemie. SNTL, Praha. 1982. ',
-'Orchin M., Kaplan F. ,Macomber R. S. Organická chemie - příruční naučný slovník, SNTL, Praha. 1986. ',
-'Panico R., Powell W. H., Richer J. C. Průvodce názvoslovím organických sloučenin podle IUPAC, doporučení 1993. Academia Praha. 2000. '</t>
-  </si>
-  <si>
     <t>'ČERNÝ, Ilja. Inteligentní kalkulus. ',
 'ČERNÝ, Ilja. Matematická analýza I. Liberec: Technická univerzita, 1995. ISBN 80-7083-188-X.',
 'ČERNÝ, Ilja. Matematická analýza II. Liberec: Technická univerzita, 1996. ISBN 80-7083-188-X.',
@@ -4780,6 +4772,14 @@
 'http://botany.natur.cuni.cz'</t>
   </si>
   <si>
+    <t>'Svoboda J. a kol. Organická chemie I, skripta VŠCHT Praha. VŠCHT Praha, 2005. ',
+'McMurry J. organická chemie VUTIUM Praha 2007. ISBN 978-80-7080-637-1. ',
+'Studijní opora Organická chemie I (on-line: http://chemistry.ujep.cz/1214-studijni-opory). ',
+'Bláha K., Ferles M., Staněk J. a kol. Nomenklatura organické chemie. SNTL, Praha. 1982. ',
+'Orchin M., Kaplan F. ,Macomber R. S. Organická chemie - příruční naučný slovník, SNTL, Praha. 1986. ',
+'Panico R., Powell W. H., Richer J. C. Průvodce názvoslovím organických sloučenin podle IUPAC, doporučení 1993. Academia Praha. 2000. '</t>
+  </si>
+  <si>
     <t>'Fišer K. Teoretická mechanika. UJEP Ústí n.L., 2003. ',
 'Brdička M., Hladík A. Teoretická mechanika. Academia Praha, 1987. 1987. ',
 'Kvasnica J. Mechanika. Academia Praha. 1988. ',
@@ -4808,16 +4808,16 @@
 'Kuřina, F. Deset geometrických transformací. Praha: Prometheus, 2002. ISBN 80-7196-231-7.'</t>
   </si>
   <si>
+    <t>'BARTOVSKÁ, L. Aplikovaná fyzikální chemie. Praha: VŠCHT, 1995. ',
+'Novák, J. Fyzikální chemie I, VŠCHT Praha. 1999. ',
+'Brdička, R., Dvořák, J. Základy fyzikální chemie, Praha. 1977. ',
+'Atkins P.W. Physical Chemistry. Oxford Univ. Press., 1994. '</t>
+  </si>
+  <si>
     <t>'JARNÍK, V. Integrální počet I, Praha, ACADEMIA, 1984. ',
 'VESELÝ, J. Matematická analýza pro učitele I, II, Matfyz press, 1994. ',
 'ČERNÝ, I. Matematická analýza 2. část, Liberec, 1995. ',
 'ČERNÝ, I. Matematická analýza 3. část, Liberec, 1996. '</t>
-  </si>
-  <si>
-    <t>'BARTOVSKÁ, L. Aplikovaná fyzikální chemie. Praha: VŠCHT, 1995. ',
-'Novák, J. Fyzikální chemie I, VŠCHT Praha. 1999. ',
-'Brdička, R., Dvořák, J. Základy fyzikální chemie, Praha. 1977. ',
-'Atkins P.W. Physical Chemistry. Oxford Univ. Press., 1994. '</t>
   </si>
   <si>
     <t>'Bartovská L., J. Novák. Úlohy z fyzikální chemie, VŠCHT Praha 2005. ',
@@ -5240,6 +5240,17 @@
 'Daníčková S. Skrytá poselství vědy, Academia Praha. 2009. '</t>
   </si>
   <si>
+    <t>'Challa S. S. R. Kumar (ed.). Nanomaterials for Biosensors. ',
+'Koch C. C. Nanostructured materials - Processing, Properties and Potential Application, Noyes Publication / William Andrew Publishing, 2002. ',
+'Cao G., Wang Y. Nanostructures and Nanomaterials - Synthesis. ',
+'Schmid, G. (ed.):. Nanotechnology. ',
+'Hošek Jan. Úvod do nanotechnologie, ČVUT v Praze, 2011. '</t>
+  </si>
+  <si>
+    <t>'Jakubíková, D. Strategický marketing. Strategie a trendy. 2013. ISBN 978-80-247-4670-8.',
+'BLAŽEK, Jiří, UHLÍŘ, David. Teorie regionálního rozvoje: nástin, kritika, implikace. Praha: Karolinum, 2011. ISBN 978-80-246-1974-3.'</t>
+  </si>
+  <si>
     <t>'AL CHVÁRIZMÍ. Aritmetický a Algebraický traktát, OPS, 2009. ',
 'STRUIK, D.J. Dějiny matematiky, Orbis, Pha, 1963. ',
 'JUŠKEVIČ, A.P. Dějiny matematiky ve středověku, Academia, Praha, 1978. ',
@@ -5250,17 +5261,6 @@
 'BEČVÁŘ, J., FUCHS, E. Matematika v proměnách věků III, Výzkumné centrum pro dějiny vědy, Praha, 2004. ',
 'VOPĚNKA, P. Úhelný kámen evropské vzdělanosti a moci, Práh, Praha, 2001. ',
 'VOPĚNKA, P. Vyprávění o kráse novobarokní matematiky, Práh, Praha, 2004. '</t>
-  </si>
-  <si>
-    <t>'Jakubíková, D. Strategický marketing. Strategie a trendy. 2013. ISBN 978-80-247-4670-8.',
-'BLAŽEK, Jiří, UHLÍŘ, David. Teorie regionálního rozvoje: nástin, kritika, implikace. Praha: Karolinum, 2011. ISBN 978-80-246-1974-3.'</t>
-  </si>
-  <si>
-    <t>'Challa S. S. R. Kumar (ed.). Nanomaterials for Biosensors. ',
-'Koch C. C. Nanostructured materials - Processing, Properties and Potential Application, Noyes Publication / William Andrew Publishing, 2002. ',
-'Cao G., Wang Y. Nanostructures and Nanomaterials - Synthesis. ',
-'Schmid, G. (ed.):. Nanotechnology. ',
-'Hošek Jan. Úvod do nanotechnologie, ČVUT v Praze, 2011. '</t>
   </si>
   <si>
     <t>'J. Kopáček. Matematika pro fyziky II, Praha, Matfyzpress, 1998. ',
@@ -5945,11 +5945,11 @@
     <t>Kurz se soustředí na seznámení studentů s vybranými základními okruhy z oblasti fyzické geografie. Objasňuje potřebnou fyzickogeografickou terminologiia a teorie. Zabývá se vztahy uvnitř fyzickogeografických subsystémů (litosféra a atmosféra). Teoretickou problematiku vede k dovednostem studenta ve vymezování přírodních regionů a jejich charakteristiky. Kurz je věnován vymezení disciplíny fyzické geografie, postavení a pohybům Země ve vesmíru, geologické stavbě Země, energetické bilanci Země a globálnímu klimatu, klimatologii a meteorologii.</t>
   </si>
   <si>
-    <t>Kurz se soustředí na uvedení posluchačů do základů sociální geografie a sociogeografického výzkumu. Objasňuje základní pojmy, zabývá zákonitostmi rozmístění sociogeografických jevů a vztahy uvnitř sociogeografických systémů. Teoretickou problematiku vede k dovednostem vymezování sociogeografických regionů (jádro x periferie) a chápání řádovostní hierarchie.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Předmět pokrývá znalosti o stavbě lidského těla, na které bezprostředně navazuje vysvětlení funkce jednotlivých orgánových soustav na úrovni buňky, tkání, orgánů ale i organismu, jako celku. V rámci fyziologie by absolvent předmětu měl získat znalosti o stavbě a funkci jednotlivých orgánových soustav a o základních fyziologických mechanismech regulace procesů v lidském těle. Předmět tvoří základ pro studium dalších toxikologických disciplín, které vycházejí ze znalostí normální anatomie a fyziologie.
 </t>
+  </si>
+  <si>
+    <t>Kurz se soustředí na uvedení posluchačů do základů sociální geografie a sociogeografického výzkumu. Objasňuje základní pojmy, zabývá zákonitostmi rozmístění sociogeografických jevů a vztahy uvnitř sociogeografických systémů. Teoretickou problematiku vede k dovednostem vymezování sociogeografických regionů (jádro x periferie) a chápání řádovostní hierarchie.</t>
   </si>
   <si>
     <t>Kurz se soustředí na seznámení studentů s vybranými základními okruhy z oblasti fyzické geografie. Objasňuje potřebnou
@@ -6037,12 +6037,12 @@
 touto přednáškou a seminářem.</t>
   </si>
   <si>
+    <t>Student se aktivně seznámí s vybranými partiemi z fyziky, které jsou zapotřebí pro bezproblémové studium navazujících
+kurzů z oblasti chemie.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seminář je určen pro studenty 1. ročníku, oboru biologie, studijního programu biologie. Cílem semináře je sjednocení získaných znalostí středoškolské chemie, fyziky a biologie makromolekul, které jsou nezbytné pro studium dalších biologických předmětů. Studenti by měli získat přehled o vzájemné propojenosti fyzikálních a chemických zákonů v základních biologických systémech (Makromolekuly - Buňky - Organismy).  Část semináře bude věnována moderním fyzikálním metodám pro charakterizaci struktury funkce biologických objektů.
 </t>
-  </si>
-  <si>
-    <t>Student se aktivně seznámí s vybranými partiemi z fyziky, které jsou zapotřebí pro bezproblémové studium navazujících
-kurzů z oblasti chemie.</t>
   </si>
   <si>
     <t>Cílem kurzu bude seznámit posluchače s mikrobiálními biofilmy, jejich životním cyklem, vlivem na okolní prostředí (včetně člověka) a metodickými postupy. V rámci cvičení budou provedeny jednoduché kultivační pokusy a analýza narostlého biofilmu. Kurz bude zakončen zápočtovým testem.</t>
@@ -6164,15 +6164,15 @@
     <t>Posluchači se seznámí se základy kalkulu a matematické analýzy, hlavně integrálního počtu, a jejich použití v jiných oborech. V kurzu bude probírán integrál (Newtonův a Riemannův přístup) a jeho aplikace (hlavně geometrické, fyzikální), jednoduché diferenciální rovnice a funkce více proměnných (parciální derivace, integrace, extrémy).</t>
   </si>
   <si>
-    <t>Předmět je koncipován tak, že po převážně obecných partiích, které mají vytvořit potřebný aparát pro pochopení zákonitostí chemismu organických sloučenin, následuje přehled jednotlivých skupin organických sloučenin. Cílem je vytvořit ucelený obraz moderní organické chemie a nezbytný základ pro navazující předměty.</t>
-  </si>
-  <si>
     <t>Cílem kurzu je seznámit posluchače s teoretickými základy matematické analýzy, hlavně přesnými matematickými definicemi spojitosti, limity a derivace. Navazuje úzce na kurz Úvod do infinitezimálního počtu. Dále se studenti seznámí s využitím těchto pojmů v oborech jako je fyzika, ekonomie i samotná matematika (průběh funkce a aproximace polynomy, číselné posloupnosti a řady).</t>
   </si>
   <si>
     <t xml:space="preserve">Cílem tohoto kurzu je poskytnout základní informace o morfologii (stavba buňky a stélky), systematice, ekologii, historickém vývoji a významu organismů, které tradičně studují vědecké obory algologie, mykologie, lichenologie a bryologie. Důraz je kladen především na vývojové vztahy jednotlivých skupin organismů, na jejich roli v ekosystémech a na propojení s praktickou aplikací (biotechnologie, medicína, zemědělství, bioindikace apod.).
 Tento kurz byl inovován v rámci projektu CZ.1.07/2.2.00/28.0296 "Mezioborové vazby a podpora praxe v přírodovědných a technických studijních programech UJEP"
 </t>
+  </si>
+  <si>
+    <t>Předmět je koncipován tak, že po převážně obecných partiích, které mají vytvořit potřebný aparát pro pochopení zákonitostí chemismu organických sloučenin, následuje přehled jednotlivých skupin organických sloučenin. Cílem je vytvořit ucelený obraz moderní organické chemie a nezbytný základ pro navazující předměty.</t>
   </si>
   <si>
     <t>Tématem kurzu je diferenciální a integrální počet funkcí více proměnných včetně plošného a křivkového integrálu. Tyto partie jsou nepostradatelné pro aplikace ve fyzice a inženýrství.</t>
@@ -6397,13 +6397,10 @@
     <t>Kurz předpokládá znalost zásad tzv. vědecké metody (vymezení otázky/problému, tvorby hypotéz a zásad jejich ověřování, vč. plánování experimentu, formulace závěrů a základů statistiky). Kurz je součástí výchovy studentů k přípravě diplomové práce, jakož i případné postgraduální studium a vstup absolventů do výzkumné praxe.</t>
   </si>
   <si>
+    <t>Cílem kurzu je seznámit účastníky s vývojem a současnými trendy v teorii regionálního a lokálního rozvoje. Je kladen důraz na pochopení problematiky v kontextu vývoje ekonomického myšlení, vývoje širších socioekonomických procesů, proměn prostorové organizace společnosti a kulturních aspektů. Osvojení si teorie regionálního rozvoje je nezbytným předpokladem pro kvalifikovanou práci v decizní sféře, orgánech státní správy a samosprávy, rozvojových agenturách a dalších institucích, které mají možnost ovlivňovat a definovat vývoj území. Jádro kurzu tvoří analýza příslušných teorií regionálního rozvoje, doplněná konkrétními příklady z praxe na úrovni makroregionální i lokální.</t>
+  </si>
+  <si>
     <t>Kurz má umožnit studentům zařadit jejich matematické znalosti do historického kontextu. Stručně popisuje prehistorii matematiky, ustavení matematiky jako vědy, antickou matematiku, arabskou matematiku a její vliv na evropskou matematiku ve středověku, vznik infinitesimálního počtu, podrobněji se věnuje zrodu teorie množin.</t>
-  </si>
-  <si>
-    <t>Cílem kurzu je seznámit účastníky s vývojem a současnými trendy v teorii regionálního a lokálního rozvoje. Je kladen důraz na pochopení problematiky v kontextu vývoje ekonomického myšlení, vývoje širších socioekonomických procesů, proměn prostorové organizace společnosti a kulturních aspektů. Osvojení si teorie regionálního rozvoje je nezbytným předpokladem pro kvalifikovanou práci v decizní sféře, orgánech státní správy a samosprávy, rozvojových agenturách a dalších institucích, které mají možnost ovlivňovat a definovat vývoj území. Jádro kurzu tvoří analýza příslušných teorií regionálního rozvoje, doplněná konkrétními příklady z praxe na úrovni makroregionální i lokální.</t>
-  </si>
-  <si>
-    <t>Teorie funkcí více proměnných (diferenciální i integrální počet) a její použití v geometrii a ve fyzice. Konvergence řad funkcí, jejich derivace a integrace, mocninné řady.</t>
   </si>
   <si>
     <t xml:space="preserve">Kurz nazvaný Biologie členovců navazuje na povinný kurz Fylogeneze a systém bezobratlých živočichů, který studenti
@@ -6411,6 +6408,9 @@
 o skupině živočichů, která významně ovlivňuje život na Zemi.
 Kurz je doplněn o online kurz se 13 tématy a závěrečným testem v aplikaci Moodle. Přihlásit se lze na tomto odkaze:  https://moodle.biology.ujep.cz/course/view.php?id=42 a to po zadání hesla, které sdělí vyučující.
 </t>
+  </si>
+  <si>
+    <t>Teorie funkcí více proměnných (diferenciální i integrální počet) a její použití v geometrii a ve fyzice. Konvergence řad funkcí, jejich derivace a integrace, mocninné řady.</t>
   </si>
   <si>
     <t>Cílem kurzu je představit a diskutovat aktuální problémy Česka zejména v oblasti environmentální, geopolitické, hospodářství a regionálního rozvoje, demografických, sociálních a kulturních aspektů. Hodnoceny jsou různé hierarchické úrovně vybraných problémů - od jejich globálního rozměru až po specifické projevy na lokální úrovni. Kurz plní funkci regionální syntézy poznatků o rozvojovém potenciálu a problémech Česka, které si student osvojil v dílčích etapách svého geografického studia.</t>
@@ -6704,11 +6704,11 @@
     <t xml:space="preserve"> - zápočtový test</t>
   </si>
   <si>
-    <t>75% účast na přednáškách, 60% úspěšnost testu</t>
-  </si>
-  <si>
     <t>Zápočet je formou testu.
 Zkouška je formou ústního zkoušení.</t>
+  </si>
+  <si>
+    <t>75% účast na přednáškách, 60% úspěšnost testu</t>
   </si>
   <si>
     <t>zápočtový test</t>
@@ -7151,6 +7151,12 @@
 Studenti vypracují návrh posterové prezentace ze zadaných výsledků, v mateřském jazyce s anglickým souhrnem. Provedou  scientometrické  zhodnocení zadaného konkrétního článku (evidence a "ranking" daného publikačního média  v databázích, citační odezva článku a autora).  Provedou rozbor předloženého, záměrně "mutovaného" manuskriptu, vyhledají záměrné nedostatky a doporučí, nebo zamítnou k publikaci. Seznámí se s formuláři pro žádost o finanční podporu vybraných grantových agentur ČR.</t>
   </si>
   <si>
+    <t xml:space="preserve">- aktivní účast na cvičeních (max. 2 neomluvené absence)
+- prezentace a obhajoba návrhu řešení vybraného rozvojového projektu
+- ústní zkouška
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zápočet:_x000D_
 1. Vypracování seminární práce na zadané téma. _x000D_
 2. Připomínkování seminární práce._x000D_
@@ -7158,12 +7164,6 @@
 Zkouška:_x000D_
 Obhajoba seminární práce na zadané téma._x000D_
 _x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- aktivní účast na cvičeních (max. 2 neomluvené absence)
-- prezentace a obhajoba návrhu řešení vybraného rozvojového projektu
-- ústní zkouška
 </t>
   </si>
   <si>
@@ -7403,22 +7403,6 @@
 12. Srážky, vlhkost. Regionální proudění v atmosféře.
 13. Synoptická meteorologie I.
 14. Synoptická meteorologie II.</t>
-  </si>
-  <si>
-    <t>1. Úvod do problematiky, hlavní pojmy. Teorie a definice.
-2. Předmětová specifikace sociální geografie a klasifikace věd.
-3. Paradigma v sociální geografii.
-4. Sociogeografické regiony. 
-5. Typy regionů a sociogeografická regionalizace.
-6. Rozmístění obyvatelstva ve vztahu k přírodním a socioekonomickým faktorům. Antropogeneze.
-7. Objekt a předmět studia environmentální geografie, její postavení v sociální geografie.
-8. Objekt a předmět studia politické geografie, její postavení v sociální geografie.
-9.  Objekt a předmět studia kulturní geografie, její postavení v sociální geografie.
-10.  Objekt a předmět studia geografie obyvatelstva, její postavení v sociální geografie.
-11. Mechanický a sociální pohyb.
-12. Demografický cyklus a demografická revoluce.
-13. Sociogeografické makroregiony světa.
-14. Základní metody sociogeografického výzkumu</t>
   </si>
   <si>
     <t xml:space="preserve">  1.  Úvod do anatomie a fyziologie člověka
@@ -7437,6 +7421,22 @@
   1.  Anatomie a fyziologie pohlavní soustavy
   2.  Embryonální a fetální vývoj člověka
 </t>
+  </si>
+  <si>
+    <t>1. Úvod do problematiky, hlavní pojmy. Teorie a definice.
+2. Předmětová specifikace sociální geografie a klasifikace věd.
+3. Paradigma v sociální geografii.
+4. Sociogeografické regiony. 
+5. Typy regionů a sociogeografická regionalizace.
+6. Rozmístění obyvatelstva ve vztahu k přírodním a socioekonomickým faktorům. Antropogeneze.
+7. Objekt a předmět studia environmentální geografie, její postavení v sociální geografie.
+8. Objekt a předmět studia politické geografie, její postavení v sociální geografie.
+9.  Objekt a předmět studia kulturní geografie, její postavení v sociální geografie.
+10.  Objekt a předmět studia geografie obyvatelstva, její postavení v sociální geografie.
+11. Mechanický a sociální pohyb.
+12. Demografický cyklus a demografická revoluce.
+13. Sociogeografické makroregiony světa.
+14. Základní metody sociogeografického výzkumu</t>
   </si>
   <si>
     <t>1. Úvod do fyzické geografie (objekt a předmět), modely a základní literatura.
@@ -7805,37 +7805,6 @@
 kyslíkem a sírou</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Atributy živých systémů
-Chemické složení živých organismů, Anorganické a organické látky, Biopolymery.
-2. Chemie a fyzika - základy
-Fyzikální veličiny a měřicí jednotky, Základní chemické zákony, Stavba atomu, Stavba molekul, Hmotnost, množství, složení látek, Třídění látek, Složení soustavy, Roztoky, koncentrace, pH, Proč je nutné pracovat v experimentální biologii s přesně definovanými roztoky, Biologické pufry, Základní metody separace a kvantifikace biomolekul.
-3. Biomolekuly
-Lipidy - jednoduché a složené lipidy, izoprenoidy a steroidy,  biologické membrány, lipoidní micely, model a tvorba membránových struktur, transport membránami.
-Sacharidy - monosacharidy a jejich rozdělení, stereoizomerie, deriváty monosacharidů, alkoholy, glykosidy, estery, oligo- a polysacharidy, jejich struktura a funkce.
-Bílkoviny, jejich struktura a funkce - aminokyseliny, stereoizomerie, kódované a nekódované aminokyseliny, aminokyseliny esenciální, peptidy, peptidická vazba, sekvence aminokyselin a jejich určení, syntéza peptidů, Fyzikální a chemické vlastnosti bílkovin, konformace a její stabilita.
-Nukleové kyseliny - Složení DNA a RNA, báze, nukleotidy a nukleotidy, biosyntéza a odbourávání, síly, které podmiňují molekulární struktury, typy interakcí, slabé interakce, třídění van der Walsových systémů, struktura DNA, primární a sekundární struktura, její parametrizace, nepravidelné struktury, typologie cirkulární DNA,  faktory ovlivňující tvorbu a stabilitu nelokální NK: vodíkové vazby, stacking interakce, orientace vláken, chemická modifikace, vazba ligandu, chybné párování.
-4. Enzymy
-Chemická a enzymová katalýza, koenzymy a prostetické skupiny, enzymová kinetika, regulace enzymové aktivity: allosterická, kovalentní modifikace, součinnost enzymů, praktické využití enzymů,
-5. Bioenergetika
-Energetika enzymových reakcí, makroergické sloučeniny, respirační řetězec, oxidační fosforylace, metabolismus sacharidů, glykolýza, cyklus trikarboxylových kyselin, energetický zisk, pasteurův efekt. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-? Optika ? Vlnová a částicová povaha světla.
-? Elektrostatika ? Coulombův zákon, intenzita a potenciál, elektrický dipól, kondenzátory, pohyb elektrického
-náboje v homogenním elektrickém poli.
-? Stejnosměrný obvod ? Ohmův zákon, elektrický odpor, výkon, Jouleův zákon.
-? Magnetické pole ? silové účinky magnetického pole, hmotový spektrograf, měřicí přístroje, cyklotron, Hallův
-jev, Biotův-Savartův zákon, magnetické pole v látkách.
-? Elektromagnetické pole ? magnetická indukce, síla na pohybující se náboj, pohyb nabité částice v
-elektromagnetickém poli, světlo jako elektromagnetická vlna.
-? Obvody střídavého proudu ? generátor střídavého proudu, střední a efektivní hodnota střídavého proudu, výkon
-střídavého proudu, impedance, fázové posunutí, sériový rezonanční obvod.
-? Základní pojmy moderní fyziky ? záření černého tělesa, Stefanův-Boltzmannův zákon, Planckův zákon,
-vyzařování, absorpce, emise, laser, Fotoelektrický jev, rentgenové záření, rentgenová difrakce na krystalech</t>
-  </si>
-  <si>
     <t>ELEKTROSTATIKA
 Základní pojmy a axiomy; Coulombův zákon, intenzita pole, elektricky potenciál
 Pole bodových nábojů, multipolový rozvoj
@@ -7869,6 +7838,37 @@
 Částice v centrálním poli
 Atom vodíku: Bohr a Schrödinger
 Pauliho princip a víceatomové molekuly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+? Optika ? Vlnová a částicová povaha světla.
+? Elektrostatika ? Coulombův zákon, intenzita a potenciál, elektrický dipól, kondenzátory, pohyb elektrického
+náboje v homogenním elektrickém poli.
+? Stejnosměrný obvod ? Ohmův zákon, elektrický odpor, výkon, Jouleův zákon.
+? Magnetické pole ? silové účinky magnetického pole, hmotový spektrograf, měřicí přístroje, cyklotron, Hallův
+jev, Biotův-Savartův zákon, magnetické pole v látkách.
+? Elektromagnetické pole ? magnetická indukce, síla na pohybující se náboj, pohyb nabité částice v
+elektromagnetickém poli, světlo jako elektromagnetická vlna.
+? Obvody střídavého proudu ? generátor střídavého proudu, střední a efektivní hodnota střídavého proudu, výkon
+střídavého proudu, impedance, fázové posunutí, sériový rezonanční obvod.
+? Základní pojmy moderní fyziky ? záření černého tělesa, Stefanův-Boltzmannův zákon, Planckův zákon,
+vyzařování, absorpce, emise, laser, Fotoelektrický jev, rentgenové záření, rentgenová difrakce na krystalech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Atributy živých systémů
+Chemické složení živých organismů, Anorganické a organické látky, Biopolymery.
+2. Chemie a fyzika - základy
+Fyzikální veličiny a měřicí jednotky, Základní chemické zákony, Stavba atomu, Stavba molekul, Hmotnost, množství, složení látek, Třídění látek, Složení soustavy, Roztoky, koncentrace, pH, Proč je nutné pracovat v experimentální biologii s přesně definovanými roztoky, Biologické pufry, Základní metody separace a kvantifikace biomolekul.
+3. Biomolekuly
+Lipidy - jednoduché a složené lipidy, izoprenoidy a steroidy,  biologické membrány, lipoidní micely, model a tvorba membránových struktur, transport membránami.
+Sacharidy - monosacharidy a jejich rozdělení, stereoizomerie, deriváty monosacharidů, alkoholy, glykosidy, estery, oligo- a polysacharidy, jejich struktura a funkce.
+Bílkoviny, jejich struktura a funkce - aminokyseliny, stereoizomerie, kódované a nekódované aminokyseliny, aminokyseliny esenciální, peptidy, peptidická vazba, sekvence aminokyselin a jejich určení, syntéza peptidů, Fyzikální a chemické vlastnosti bílkovin, konformace a její stabilita.
+Nukleové kyseliny - Složení DNA a RNA, báze, nukleotidy a nukleotidy, biosyntéza a odbourávání, síly, které podmiňují molekulární struktury, typy interakcí, slabé interakce, třídění van der Walsových systémů, struktura DNA, primární a sekundární struktura, její parametrizace, nepravidelné struktury, typologie cirkulární DNA,  faktory ovlivňující tvorbu a stabilitu nelokální NK: vodíkové vazby, stacking interakce, orientace vláken, chemická modifikace, vazba ligandu, chybné párování.
+4. Enzymy
+Chemická a enzymová katalýza, koenzymy a prostetické skupiny, enzymová kinetika, regulace enzymové aktivity: allosterická, kovalentní modifikace, součinnost enzymů, praktické využití enzymů,
+5. Bioenergetika
+Energetika enzymových reakcí, makroergické sloučeniny, respirační řetězec, oxidační fosforylace, metabolismus sacharidů, glykolýza, cyklus trikarboxylových kyselin, energetický zisk, pasteurův efekt. 
+</t>
   </si>
   <si>
     <t xml:space="preserve">1. Úvod
@@ -8402,14 +8402,6 @@
 5) Stromy (základní vlastnosti stromů, kostra grafu). _x000D_
 6) Barevnost a kreslení grafů (barevnost grafů, rovinné nakreslení grafů, rozpoznávání rovinných grafů, barvení map a rovinných grafů). _x000D_
 7) Toky v sítích (definice sítě, hledání největšího toku, zobecnění sítí, další aplikace algoritmu pro hledání největšího toku - párování v bipartitním grafu a Hallova věta). </t>
-  </si>
-  <si>
-    <t>Obsah 1. bloku: 
-Úvod - význam a základní principy organické chemie. Vazby v organických sloučeninách:  Kyseliny a báze, elektrofily a nukleofily, funkční skupiny. Alkany, izomerie, konformace cykloalkanů. Chiralita obecně a chirální molekuly. Stereochemie v chemických reakcích. Haloalkany: SN2 substituce, SN1 substituce, stabilita karbokationtů. Mono- a bimolekulární eliminace E1 a E2, konkurence mezi substitucí a eliminací. Alkoholy: acidobazické vlastnosti, syntéza. Organokovové sloučeniny. Příprava a použití alkoxidů. Přesmyky karbokationtů.  Ethery a analogy alkoholů a etherů se sírou.
-Obsah 2. bloku: 
-NMR pro určení struktury organických sloučenin.  Alkeny. Infračervená spektroskopie. Alkyny a trojná vazba. Příprava alkynů, reakce alkynů. Delokalizované p-systémy, 2-propenylový (allylový) systém, konjugované dieny. Dielsova-Alderova cykloadice. UV/VIS spektroskopie. Benzen a aromaticita, Hückelovo pravidlo.  Elektrofilní aromatická substituce. Aktivační a deaktivační vlivy substituentů, řízení substituce. Benzylový systém. Fenoly a nukleofilní aromatická substituce. Arendiazoniové soli. Aldehydy a ketony. Reakce karbonylové skupiny. a,b-Nenasycené aldehydy a ketony. Enoly, enoláty, aldolová kondenzace. Konjugované adice na a,b-nenasycené aldehydy a ketony. Michaelova adice.
-Obsah 3. bloku: 
-Karboxylové kyseliny a jejich funkční deriváty. Acidobazické vlastnosti, syntéza. Adičně-eliminační mechanismus substituce na karboxylovém uhlíku. Hmotnostní spektrometrie. Aminy, jejich deriváty a další funkční skupiny obsahující dusík. Kvarterní amoniové soli a Hofmannova eliminace. Mannichova reakce a nitrosace aminů. b-Dikarbonylové sloučeniny. Claisenova kondenzace a ostatní použití b-dikarbonylových sloučenin jako syntetických intermediátů. Aromatické a nearomatické pětičlenné a šestičlenné heterocykly s dusíkem, kyslíkem a sírou.</t>
   </si>
   <si>
     <t>1. Reálná čísla a jejich vlastnosti
@@ -8516,6 +8508,14 @@
 </t>
   </si>
   <si>
+    <t>Obsah 1. bloku: 
+Úvod - význam a základní principy organické chemie. Vazby v organických sloučeninách:  Kyseliny a báze, elektrofily a nukleofily, funkční skupiny. Alkany, izomerie, konformace cykloalkanů. Chiralita obecně a chirální molekuly. Stereochemie v chemických reakcích. Haloalkany: SN2 substituce, SN1 substituce, stabilita karbokationtů. Mono- a bimolekulární eliminace E1 a E2, konkurence mezi substitucí a eliminací. Alkoholy: acidobazické vlastnosti, syntéza. Organokovové sloučeniny. Příprava a použití alkoxidů. Přesmyky karbokationtů.  Ethery a analogy alkoholů a etherů se sírou.
+Obsah 2. bloku: 
+NMR pro určení struktury organických sloučenin.  Alkeny. Infračervená spektroskopie. Alkyny a trojná vazba. Příprava alkynů, reakce alkynů. Delokalizované p-systémy, 2-propenylový (allylový) systém, konjugované dieny. Dielsova-Alderova cykloadice. UV/VIS spektroskopie. Benzen a aromaticita, Hückelovo pravidlo.  Elektrofilní aromatická substituce. Aktivační a deaktivační vlivy substituentů, řízení substituce. Benzylový systém. Fenoly a nukleofilní aromatická substituce. Arendiazoniové soli. Aldehydy a ketony. Reakce karbonylové skupiny. a,b-Nenasycené aldehydy a ketony. Enoly, enoláty, aldolová kondenzace. Konjugované adice na a,b-nenasycené aldehydy a ketony. Michaelova adice.
+Obsah 3. bloku: 
+Karboxylové kyseliny a jejich funkční deriváty. Acidobazické vlastnosti, syntéza. Adičně-eliminační mechanismus substituce na karboxylovém uhlíku. Hmotnostní spektrometrie. Aminy, jejich deriváty a další funkční skupiny obsahující dusík. Kvarterní amoniové soli a Hofmannova eliminace. Mannichova reakce a nitrosace aminů. b-Dikarbonylové sloučeniny. Claisenova kondenzace a ostatní použití b-dikarbonylových sloučenin jako syntetických intermediátů. Aromatické a nearomatické pětičlenné a šestičlenné heterocykly s dusíkem, kyslíkem a sírou.</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Mechanika hmotných bodů. Základní hypotézy klasické mechaniky, vztažný systém, Newtonovy pohybové zákony. Pohyb hmotného bodu._x000D_
 2. Inerciální a neinerciální s.s., pravé a zdánlivé síly. _x000D_
 3. Impulsové věty a zákony zachování hybnosti a momentu hybnosti pro soustavu hmotných bodů._x000D_
@@ -8561,6 +8561,12 @@
 9. Axiomatika</t>
   </si>
   <si>
+    <t>Blok 1.
+Rovnovážné vlastnosti plynů, kapalin a pevných látek. Klasická termodynamika. Fázová rovnováha v jednosložkových systémech.
+Blok 2.
+Chemická rovnováha. Chemická kinetika. Elektrochemie.</t>
+  </si>
+  <si>
     <t>1. Primitivní funkce, základní vlastnosti, per partes_x000D_
 2. Substituce, rozklad rac. funkcí na parc. zlomky_x000D_
 3. Integrace parc. zlomků, převody na rac. funkce_x000D_
@@ -8576,12 +8582,6 @@
 13. Extrémy funkcí více proměnných (i vázané) Integrování funkcí více proměnných_x000D_
 14. Integrování funkcí více proměnných_x000D_
 15. Extrémy, opakování</t>
-  </si>
-  <si>
-    <t>Blok 1.
-Rovnovážné vlastnosti plynů, kapalin a pevných látek. Klasická termodynamika. Fázová rovnováha v jednosložkových systémech.
-Blok 2.
-Chemická rovnováha. Chemická kinetika. Elektrochemie.</t>
   </si>
   <si>
     <t>Úvod do fyzikální chemie: Rozvoj metod v 19. a 20. století, vlastnosti stavové/nestavové, vývoj disciplin - nauky o struktuře atomů a molekul, termodynamiky klasické a statistické, reakční kinetiky.   
@@ -9535,19 +9535,11 @@
 Programy EU, nadace apod).</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Význam historie matematiky, etapy vývoje matematiky, prehistorie matematiky
-2.	Egyptská matematika
-3.	Matematika v Mezopotámii
-4.	Matematika v antickém Řecku
-5.	Čínská matematika a indická matematika
-6.	Matematika v islámských zemích, matematika ve středověké Evropě
-7.	Počátky novověku v matematice
-8.	Matematika v 16. století
-9.	Matematika v 17. století
-10.	Matematika v 18. století
-11.	Matematika v 19. století
-12.	Směry vývoje v současné matematice
-13.	Významní čeští matematici
+    <t xml:space="preserve">Předmět bude zahrnovat tři tematické okruhy: 
+Fyzikální metody přípravy nanomateriálů, chemické metody přípravy nanomateriálů a bionanotechnologie.
+1)	Teoretické základy fyzikálních metod přípravy nanomateriálů - top-down versus bottom -   up procesy, plazmové depozice tenkých vrstev a nanočástic, plazmové modifikace a funkcionalizace povrchů, litografické techniky (EBL, UV - litografie, milling techniky, AFM litografie, koloidní a polymerní templátová nanolitografie.
+2)	Chemické metody přípravy nanomateriálů - příprava nanostruktur nulté dimenze (0D), příprava jednodimenzioálních nanostruktur (1D) - nanodrátky, nanotrubičky, příprava dvoudimenzionálních nanostruktur (2D) - nanostrukturované povrchy, interkalace, chemické metody depozice nanočástic a chemické modifikace povrchů, hybridní organo-inorganické nanostruktury, dendrimerní nanokompozity.
+3)       Bionanotechnologie, příprava nanočástic pomocí mikroorganismů
 </t>
   </si>
   <si>
@@ -9567,11 +9559,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Předmět bude zahrnovat tři tematické okruhy: 
-Fyzikální metody přípravy nanomateriálů, chemické metody přípravy nanomateriálů a bionanotechnologie.
-1)	Teoretické základy fyzikálních metod přípravy nanomateriálů - top-down versus bottom -   up procesy, plazmové depozice tenkých vrstev a nanočástic, plazmové modifikace a funkcionalizace povrchů, litografické techniky (EBL, UV - litografie, milling techniky, AFM litografie, koloidní a polymerní templátová nanolitografie.
-2)	Chemické metody přípravy nanomateriálů - příprava nanostruktur nulté dimenze (0D), příprava jednodimenzioálních nanostruktur (1D) - nanodrátky, nanotrubičky, příprava dvoudimenzionálních nanostruktur (2D) - nanostrukturované povrchy, interkalace, chemické metody depozice nanočástic a chemické modifikace povrchů, hybridní organo-inorganické nanostruktury, dendrimerní nanokompozity.
-3)       Bionanotechnologie, příprava nanočástic pomocí mikroorganismů
+    <t xml:space="preserve">1.	Význam historie matematiky, etapy vývoje matematiky, prehistorie matematiky
+2.	Egyptská matematika
+3.	Matematika v Mezopotámii
+4.	Matematika v antickém Řecku
+5.	Čínská matematika a indická matematika
+6.	Matematika v islámských zemích, matematika ve středověké Evropě
+7.	Počátky novověku v matematice
+8.	Matematika v 16. století
+9.	Matematika v 17. století
+10.	Matematika v 18. století
+11.	Matematika v 19. století
+12.	Směry vývoje v současné matematice
+13.	Významní čeští matematici
 </t>
   </si>
   <si>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>82</v>
@@ -12179,13 +12179,13 @@
         <v>365</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>566</v>
@@ -12195,7 +12195,7 @@
         <v>572</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>650</v>
+        <v>572</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>694</v>
@@ -12226,9 +12226,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="1" t="s">
-        <v>1451</v>
-      </c>
+      <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
@@ -12236,7 +12234,7 @@
         <v>565</v>
       </c>
       <c r="AI7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>1628</v>
@@ -12257,10 +12255,10 @@
         <v>1635</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>1801</v>
@@ -12309,7 +12307,7 @@
         <v>564</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
@@ -12317,7 +12315,7 @@
     </row>
     <row r="8" spans="1:69">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>82</v>
@@ -12332,13 +12330,13 @@
         <v>366</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H8" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>566</v>
@@ -12348,7 +12346,7 @@
         <v>573</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>695</v>
@@ -12379,7 +12377,9 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="AD8" s="1" t="s">
+        <v>1451</v>
+      </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
@@ -12387,7 +12387,7 @@
         <v>565</v>
       </c>
       <c r="AI8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>1628</v>
@@ -12408,10 +12408,10 @@
         <v>1636</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>1801</v>
@@ -12460,7 +12460,7 @@
         <v>564</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
@@ -13823,15 +13823,9 @@
       <c r="BN17" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="BO17" s="1" t="s">
-        <v>2177</v>
-      </c>
-      <c r="BP17" s="1" t="s">
-        <v>2181</v>
-      </c>
-      <c r="BQ17" s="1" t="s">
-        <v>2181</v>
-      </c>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="1"/>
     </row>
     <row r="18" spans="1:69">
       <c r="A18" s="1" t="s">
@@ -13980,9 +13974,15 @@
       <c r="BN18" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="BO18" s="1"/>
-      <c r="BP18" s="1"/>
-      <c r="BQ18" s="1"/>
+      <c r="BO18" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
+        <v>2181</v>
+      </c>
     </row>
     <row r="19" spans="1:69">
       <c r="A19" s="1" t="s">
@@ -14477,13 +14477,13 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>784</v>
@@ -16179,10 +16179,10 @@
         <v>2023</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>565</v>
@@ -16198,22 +16198,22 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -16258,7 +16258,7 @@
         <v>1629</v>
       </c>
       <c r="AO33" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>1799</v>
@@ -16270,10 +16270,10 @@
         <v>1801</v>
       </c>
       <c r="AS33" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="36" spans="1:69">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>107</v>
@@ -16670,15 +16670,19 @@
         <v>588</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>937</v>
+      </c>
       <c r="P36" s="1" t="s">
-        <v>722</v>
+        <v>1092</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -16694,26 +16698,30 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
+      <c r="AA36" s="1" t="s">
+        <v>1323</v>
+      </c>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="AE36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1" t="s">
+        <v>1597</v>
+      </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI36" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ36" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK36" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL36" s="1" t="s">
         <v>1629</v>
@@ -16728,23 +16736,19 @@
         <v>1653</v>
       </c>
       <c r="AP36" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ36" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR36" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS36" s="1" t="s">
-        <v>1823</v>
-      </c>
+      <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
         <v>1972</v>
       </c>
-      <c r="AU36" s="1" t="s">
-        <v>2131</v>
-      </c>
+      <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
@@ -16782,7 +16786,7 @@
         <v>564</v>
       </c>
       <c r="BN36" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
@@ -16818,13 +16822,13 @@
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>794</v>
@@ -16882,7 +16886,7 @@
         <v>1629</v>
       </c>
       <c r="AO37" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="AP37" s="1" t="s">
         <v>1799</v>
@@ -16941,7 +16945,7 @@
     </row>
     <row r="38" spans="1:69">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>107</v>
@@ -16972,19 +16976,15 @@
         <v>589</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>937</v>
-      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="1" t="s">
-        <v>1092</v>
+        <v>722</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -17000,30 +17000,26 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-      <c r="AA38" s="1" t="s">
-        <v>1323</v>
-      </c>
+      <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
-      <c r="AC38" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1" t="s">
-        <v>1597</v>
-      </c>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI38" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ38" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK38" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1" t="s">
         <v>1629</v>
@@ -17038,19 +17034,23 @@
         <v>1654</v>
       </c>
       <c r="AP38" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR38" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS38" s="1"/>
+      <c r="AS38" s="1" t="s">
+        <v>1823</v>
+      </c>
       <c r="AT38" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="AU38" s="1"/>
+      <c r="AU38" s="1" t="s">
+        <v>2131</v>
+      </c>
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
@@ -17088,7 +17088,7 @@
         <v>564</v>
       </c>
       <c r="BN38" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
@@ -18636,13 +18636,13 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>784</v>
@@ -20157,10 +20157,10 @@
         <v>2023</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>564</v>
@@ -20176,13 +20176,13 @@
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>655</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -20234,7 +20234,7 @@
         <v>1628</v>
       </c>
       <c r="AO59" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="AP59" s="1" t="s">
         <v>1799</v>
@@ -20249,7 +20249,7 @@
         <v>1823</v>
       </c>
       <c r="AT59" s="1" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="AU59" s="1" t="s">
         <v>2131</v>
@@ -23743,7 +23743,7 @@
     </row>
     <row r="82" spans="1:69">
       <c r="A82" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>150</v>
@@ -23755,29 +23755,29 @@
         <v>413</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>413</v>
+        <v>547</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H82" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>813</v>
@@ -23788,14 +23788,10 @@
       <c r="P82" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="Q82" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>1246</v>
-      </c>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
       <c r="S82" s="1" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -23816,7 +23812,7 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI82" s="2">
         <v>2</v>
@@ -23825,7 +23821,7 @@
         <v>1628</v>
       </c>
       <c r="AK82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82" s="1" t="s">
         <v>1628</v>
@@ -23873,7 +23869,7 @@
       <c r="BE82" s="1"/>
       <c r="BF82" s="1"/>
       <c r="BG82" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BH82" s="1" t="s">
         <v>565</v>
@@ -23883,9 +23879,7 @@
         <v>0</v>
       </c>
       <c r="BK82" s="1"/>
-      <c r="BL82" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL82" s="1"/>
       <c r="BM82" s="1" t="s">
         <v>564</v>
       </c>
@@ -23898,7 +23892,7 @@
     </row>
     <row r="83" spans="1:69">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>150</v>
@@ -23910,29 +23904,29 @@
         <v>414</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>547</v>
+        <v>414</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H83" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>814</v>
@@ -23943,10 +23937,14 @@
       <c r="P83" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
+      <c r="Q83" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>1246</v>
+      </c>
       <c r="S83" s="1" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -23967,7 +23965,7 @@
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AI83" s="2">
         <v>2</v>
@@ -23976,7 +23974,7 @@
         <v>1628</v>
       </c>
       <c r="AK83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL83" s="1" t="s">
         <v>1628</v>
@@ -24024,7 +24022,7 @@
       <c r="BE83" s="1"/>
       <c r="BF83" s="1"/>
       <c r="BG83" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH83" s="1" t="s">
         <v>565</v>
@@ -24034,7 +24032,9 @@
         <v>0</v>
       </c>
       <c r="BK83" s="1"/>
-      <c r="BL83" s="1"/>
+      <c r="BL83" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM83" s="1" t="s">
         <v>564</v>
       </c>
@@ -24975,7 +24975,7 @@
     </row>
     <row r="90" spans="1:69">
       <c r="A90" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>156</v>
@@ -25006,7 +25006,7 @@
         <v>607</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>663</v>
+        <v>607</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>730</v>
@@ -25040,10 +25040,10 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1" t="s">
-        <v>1482</v>
-      </c>
+      <c r="AC90" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
@@ -25057,7 +25057,7 @@
         <v>1629</v>
       </c>
       <c r="AK90" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL90" s="1" t="s">
         <v>1629</v>
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
       <c r="AN90" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="AO90" s="1"/>
       <c r="AP90" s="1" t="s">
@@ -25078,12 +25078,8 @@
       <c r="AR90" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS90" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="AT90" s="1" t="s">
-        <v>2000</v>
-      </c>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
@@ -25130,7 +25126,7 @@
     </row>
     <row r="91" spans="1:69">
       <c r="A91" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>156</v>
@@ -25161,7 +25157,7 @@
         <v>608</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>731</v>
@@ -25195,10 +25191,10 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
-      <c r="AC91" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="AD91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1" t="s">
+        <v>1482</v>
+      </c>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
@@ -25212,7 +25208,7 @@
         <v>1629</v>
       </c>
       <c r="AK91" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AL91" s="1" t="s">
         <v>1629</v>
@@ -25221,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="AN91" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="AO91" s="1"/>
       <c r="AP91" s="1" t="s">
@@ -25233,8 +25229,12 @@
       <c r="AR91" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS91" s="1"/>
-      <c r="AT91" s="1"/>
+      <c r="AS91" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="AT91" s="1" t="s">
+        <v>2000</v>
+      </c>
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
@@ -25436,7 +25436,7 @@
     </row>
     <row r="93" spans="1:69">
       <c r="A93" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>158</v>
@@ -25448,7 +25448,7 @@
         <v>422</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>422</v>
+        <v>548</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>565</v>
@@ -25457,20 +25457,20 @@
         <v>564</v>
       </c>
       <c r="H93" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>822</v>
@@ -25502,9 +25502,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
-      <c r="AD93" s="1" t="s">
-        <v>1484</v>
-      </c>
+      <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
@@ -25512,7 +25510,7 @@
         <v>565</v>
       </c>
       <c r="AI93" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ93" s="1" t="s">
         <v>1629</v>
@@ -25539,12 +25537,8 @@
       <c r="AR93" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS93" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="AT93" s="1" t="s">
-        <v>2002</v>
-      </c>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
       <c r="AU93" s="1"/>
       <c r="AV93" s="1"/>
       <c r="AW93" s="1"/>
@@ -25569,7 +25563,7 @@
         <v>565</v>
       </c>
       <c r="BH93" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI93" s="1"/>
       <c r="BJ93" s="2">
@@ -25591,7 +25585,7 @@
     </row>
     <row r="94" spans="1:69">
       <c r="A94" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>158</v>
@@ -25603,7 +25597,7 @@
         <v>423</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>548</v>
+        <v>423</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>565</v>
@@ -25612,20 +25606,20 @@
         <v>564</v>
       </c>
       <c r="H94" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>823</v>
@@ -25657,7 +25651,9 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
+      <c r="AD94" s="1" t="s">
+        <v>1484</v>
+      </c>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
@@ -25665,7 +25661,7 @@
         <v>565</v>
       </c>
       <c r="AI94" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ94" s="1" t="s">
         <v>1629</v>
@@ -25692,8 +25688,12 @@
       <c r="AR94" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS94" s="1"/>
-      <c r="AT94" s="1"/>
+      <c r="AS94" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AT94" s="1" t="s">
+        <v>2002</v>
+      </c>
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
@@ -25718,7 +25718,7 @@
         <v>565</v>
       </c>
       <c r="BH94" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI94" s="1"/>
       <c r="BJ94" s="2">
@@ -25740,7 +25740,7 @@
     </row>
     <row r="95" spans="1:69">
       <c r="A95" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>159</v>
@@ -25761,38 +25761,38 @@
         <v>565</v>
       </c>
       <c r="H95" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>659</v>
+        <v>596</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
@@ -25803,9 +25803,7 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-      <c r="AA95" s="1" t="s">
-        <v>1335</v>
-      </c>
+      <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1" t="s">
         <v>1401</v>
@@ -25820,7 +25818,7 @@
         <v>565</v>
       </c>
       <c r="AI95" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ95" s="1" t="s">
         <v>1629</v>
@@ -25841,24 +25839,28 @@
         <v>1681</v>
       </c>
       <c r="AP95" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ95" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR95" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS95" s="1"/>
+      <c r="AS95" s="1" t="s">
+        <v>1848</v>
+      </c>
       <c r="AT95" s="1" t="s">
         <v>2003</v>
       </c>
-      <c r="AU95" s="1"/>
+      <c r="AU95" s="1" t="s">
+        <v>2133</v>
+      </c>
       <c r="AV95" s="1"/>
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
       <c r="AY95" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1" t="s">
@@ -25899,7 +25901,7 @@
     </row>
     <row r="96" spans="1:69">
       <c r="A96" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>159</v>
@@ -25908,10 +25910,10 @@
         <v>2023</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>564</v>
@@ -25920,43 +25922,47 @@
         <v>565</v>
       </c>
       <c r="H96" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>803</v>
+        <v>590</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>947</v>
+        <v>656</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>1101</v>
+        <v>712</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>803</v>
+        <v>1215</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>947</v>
+        <v>1247</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
+        <v>1280</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="U96" s="1" t="s">
+        <v>1247</v>
+      </c>
       <c r="V96" s="1" t="s">
-        <v>722</v>
+        <v>1280</v>
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
@@ -25964,9 +25970,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
-      <c r="AC96" s="1" t="s">
-        <v>1402</v>
-      </c>
+      <c r="AC96" s="1"/>
       <c r="AD96" s="1" t="s">
         <v>1486</v>
       </c>
@@ -25977,13 +25981,13 @@
         <v>565</v>
       </c>
       <c r="AI96" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ96" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK96" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL96" s="1" t="s">
         <v>1629</v>
@@ -25992,34 +25996,32 @@
         <v>0</v>
       </c>
       <c r="AN96" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="AO96" s="1" t="s">
         <v>1682</v>
       </c>
       <c r="AP96" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ96" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="AS96" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="AT96" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="AU96" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="AU96" s="1"/>
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
       <c r="AY96" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ96" s="1"/>
       <c r="BA96" s="1" t="s">
@@ -26060,7 +26062,7 @@
     </row>
     <row r="97" spans="1:69">
       <c r="A97" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>159</v>
@@ -26069,10 +26071,10 @@
         <v>2023</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>564</v>
@@ -26088,48 +26090,48 @@
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>590</v>
+        <v>783</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>656</v>
+        <v>925</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>712</v>
+        <v>1081</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>1215</v>
+        <v>783</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>1247</v>
+        <v>925</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="T97" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>1247</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
       <c r="V97" s="1" t="s">
-        <v>1280</v>
+        <v>722</v>
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
+      <c r="AA97" s="1" t="s">
+        <v>1335</v>
+      </c>
       <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
+      <c r="AC97" s="1" t="s">
+        <v>1402</v>
+      </c>
       <c r="AD97" s="1" t="s">
         <v>1487</v>
       </c>
@@ -26146,7 +26148,7 @@
         <v>1629</v>
       </c>
       <c r="AK97" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL97" s="1" t="s">
         <v>1629</v>
@@ -26155,7 +26157,7 @@
         <v>0</v>
       </c>
       <c r="AN97" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="AO97" s="1" t="s">
         <v>1683</v>
@@ -26167,11 +26169,9 @@
         <v>1800</v>
       </c>
       <c r="AR97" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="AS97" s="1" t="s">
-        <v>1849</v>
-      </c>
+        <v>1801</v>
+      </c>
+      <c r="AS97" s="1"/>
       <c r="AT97" s="1" t="s">
         <v>2005</v>
       </c>
@@ -26887,13 +26887,13 @@
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>669</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>828</v>
@@ -27008,7 +27008,7 @@
     </row>
     <row r="103" spans="1:69">
       <c r="A103" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>165</v>
@@ -27017,10 +27017,10 @@
         <v>2023</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>565</v>
@@ -27036,31 +27036,31 @@
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>606</v>
+        <v>669</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>818</v>
+        <v>575</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>962</v>
+        <v>1250</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>1116</v>
+        <v>697</v>
       </c>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
@@ -27071,30 +27071,28 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
-      <c r="AA103" s="1" t="s">
-        <v>1337</v>
-      </c>
+      <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
-      <c r="AC103" s="1"/>
+      <c r="AC103" s="1" t="s">
+        <v>1403</v>
+      </c>
       <c r="AD103" s="1" t="s">
         <v>1491</v>
       </c>
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
-      <c r="AG103" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AG103" s="1"/>
       <c r="AH103" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI103" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ103" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK103" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL103" s="1" t="s">
         <v>1629</v>
@@ -27106,7 +27104,7 @@
         <v>1628</v>
       </c>
       <c r="AO103" s="1" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="AP103" s="1" t="s">
         <v>1799</v>
@@ -27117,20 +27115,16 @@
       <c r="AR103" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS103" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="AS103" s="1"/>
       <c r="AT103" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="AU103" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="AU103" s="1"/>
       <c r="AV103" s="1"/>
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
       <c r="AY103" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ103" s="1"/>
       <c r="BA103" s="1" t="s">
@@ -27149,16 +27143,14 @@
         <v>565</v>
       </c>
       <c r="BH103" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI103" s="1"/>
       <c r="BJ103" s="2">
         <v>0</v>
       </c>
       <c r="BK103" s="1"/>
-      <c r="BL103" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL103" s="1"/>
       <c r="BM103" s="1" t="s">
         <v>564</v>
       </c>
@@ -27171,7 +27163,7 @@
     </row>
     <row r="104" spans="1:69">
       <c r="A104" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>165</v>
@@ -27180,10 +27172,10 @@
         <v>2023</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>565</v>
@@ -27199,31 +27191,31 @@
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>669</v>
+        <v>606</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>575</v>
+        <v>818</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>1250</v>
+        <v>962</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>697</v>
+        <v>1116</v>
       </c>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
@@ -27234,28 +27226,30 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
-      <c r="AA104" s="1"/>
+      <c r="AA104" s="1" t="s">
+        <v>1337</v>
+      </c>
       <c r="AB104" s="1"/>
-      <c r="AC104" s="1" t="s">
-        <v>1403</v>
-      </c>
+      <c r="AC104" s="1"/>
       <c r="AD104" s="1" t="s">
         <v>1492</v>
       </c>
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
-      <c r="AG104" s="1"/>
+      <c r="AG104" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH104" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI104" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ104" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK104" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL104" s="1" t="s">
         <v>1629</v>
@@ -27267,7 +27261,7 @@
         <v>1628</v>
       </c>
       <c r="AO104" s="1" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="AP104" s="1" t="s">
         <v>1799</v>
@@ -27278,16 +27272,20 @@
       <c r="AR104" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS104" s="1"/>
+      <c r="AS104" s="1" t="s">
+        <v>1853</v>
+      </c>
       <c r="AT104" s="1" t="s">
         <v>2010</v>
       </c>
-      <c r="AU104" s="1"/>
+      <c r="AU104" s="1" t="s">
+        <v>2133</v>
+      </c>
       <c r="AV104" s="1"/>
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
       <c r="AY104" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ104" s="1"/>
       <c r="BA104" s="1" t="s">
@@ -27306,14 +27304,16 @@
         <v>565</v>
       </c>
       <c r="BH104" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI104" s="1"/>
       <c r="BJ104" s="2">
         <v>0</v>
       </c>
       <c r="BK104" s="1"/>
-      <c r="BL104" s="1"/>
+      <c r="BL104" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM104" s="1" t="s">
         <v>564</v>
       </c>
@@ -27354,13 +27354,13 @@
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>669</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>830</v>
@@ -32489,13 +32489,13 @@
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N138" s="1" t="s">
         <v>794</v>
@@ -32805,13 +32805,13 @@
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>816</v>
@@ -32966,13 +32966,13 @@
       </c>
       <c r="J141" s="1"/>
       <c r="K141" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N141" s="1" t="s">
         <v>816</v>
@@ -38008,13 +38008,13 @@
       </c>
       <c r="J173" s="1"/>
       <c r="K173" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>816</v>
@@ -38161,31 +38161,31 @@
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="R174" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
@@ -38936,13 +38936,13 @@
       </c>
       <c r="J179" s="1"/>
       <c r="K179" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>865</v>
@@ -39095,13 +39095,13 @@
       </c>
       <c r="J180" s="1"/>
       <c r="K180" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N180" s="1" t="s">
         <v>865</v>
@@ -39538,7 +39538,7 @@
     </row>
     <row r="183" spans="1:69">
       <c r="A183" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>243</v>
@@ -39559,38 +39559,34 @@
         <v>565</v>
       </c>
       <c r="H183" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J183" s="1"/>
       <c r="K183" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>808</v>
+        <v>868</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>952</v>
+        <v>1019</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="Q183" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="R183" s="1" t="s">
-        <v>952</v>
-      </c>
+        <v>1166</v>
+      </c>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
       <c r="S183" s="1" t="s">
-        <v>1106</v>
+        <v>722</v>
       </c>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
@@ -39609,7 +39605,9 @@
       </c>
       <c r="AE183" s="1"/>
       <c r="AF183" s="1"/>
-      <c r="AG183" s="1"/>
+      <c r="AG183" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH183" s="1" t="s">
         <v>565</v>
       </c>
@@ -39620,7 +39618,7 @@
         <v>1628</v>
       </c>
       <c r="AK183" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL183" s="1" t="s">
         <v>1628</v>
@@ -39631,21 +39629,17 @@
       <c r="AN183" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO183" s="1" t="s">
-        <v>1738</v>
-      </c>
+      <c r="AO183" s="1"/>
       <c r="AP183" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ183" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR183" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS183" s="1" t="s">
-        <v>1905</v>
-      </c>
+      <c r="AS183" s="1"/>
       <c r="AT183" s="1" t="s">
         <v>2070</v>
       </c>
@@ -39732,13 +39726,13 @@
         <v>753</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="Q184" s="1" t="s">
         <v>1232</v>
@@ -39789,7 +39783,7 @@
         <v>1628</v>
       </c>
       <c r="AO184" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="AP184" s="1" t="s">
         <v>1799</v>
@@ -39801,7 +39795,7 @@
         <v>1801</v>
       </c>
       <c r="AS184" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="AT184" s="1" t="s">
         <v>2071</v>
@@ -39852,7 +39846,7 @@
     </row>
     <row r="185" spans="1:69">
       <c r="A185" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>243</v>
@@ -39873,34 +39867,38 @@
         <v>565</v>
       </c>
       <c r="H185" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>658</v>
+        <v>675</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>869</v>
+        <v>808</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>1020</v>
+        <v>952</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
+        <v>1106</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>952</v>
+      </c>
       <c r="S185" s="1" t="s">
-        <v>722</v>
+        <v>1106</v>
       </c>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
@@ -39919,9 +39917,7 @@
       </c>
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
-      <c r="AG185" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AG185" s="1"/>
       <c r="AH185" s="1" t="s">
         <v>565</v>
       </c>
@@ -39932,7 +39928,7 @@
         <v>1628</v>
       </c>
       <c r="AK185" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL185" s="1" t="s">
         <v>1628</v>
@@ -39943,17 +39939,21 @@
       <c r="AN185" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO185" s="1"/>
+      <c r="AO185" s="1" t="s">
+        <v>1739</v>
+      </c>
       <c r="AP185" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ185" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR185" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS185" s="1"/>
+      <c r="AS185" s="1" t="s">
+        <v>1906</v>
+      </c>
       <c r="AT185" s="1" t="s">
         <v>2072</v>
       </c>
@@ -40003,7 +40003,7 @@
     </row>
     <row r="186" spans="1:69">
       <c r="A186" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>244</v>
@@ -40012,10 +40012,10 @@
         <v>2023</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>564</v>
@@ -40031,31 +40031,27 @@
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="1" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>678</v>
+        <v>592</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>962</v>
+        <v>998</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="Q186" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="R186" s="1" t="s">
-        <v>962</v>
-      </c>
+        <v>1147</v>
+      </c>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
       <c r="S186" s="1" t="s">
-        <v>1116</v>
+        <v>722</v>
       </c>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
@@ -40068,15 +40064,17 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
-      <c r="AC186" s="1" t="s">
-        <v>1428</v>
-      </c>
+      <c r="AC186" s="1"/>
       <c r="AD186" s="1" t="s">
-        <v>1535</v>
+        <v>1512</v>
       </c>
       <c r="AE186" s="1"/>
-      <c r="AF186" s="1"/>
-      <c r="AG186" s="1"/>
+      <c r="AF186" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AG186" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH186" s="1" t="s">
         <v>565</v>
       </c>
@@ -40087,7 +40085,7 @@
         <v>1628</v>
       </c>
       <c r="AK186" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL186" s="1" t="s">
         <v>1628</v>
@@ -40102,7 +40100,7 @@
         <v>1740</v>
       </c>
       <c r="AP186" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ186" s="1" t="s">
         <v>566</v>
@@ -40111,19 +40109,19 @@
         <v>1801</v>
       </c>
       <c r="AS186" s="1" t="s">
-        <v>1907</v>
+        <v>1878</v>
       </c>
       <c r="AT186" s="1" t="s">
-        <v>2073</v>
+        <v>2039</v>
       </c>
       <c r="AU186" s="1" t="s">
-        <v>2133</v>
+        <v>2141</v>
       </c>
       <c r="AV186" s="1"/>
       <c r="AW186" s="1"/>
       <c r="AX186" s="1"/>
       <c r="AY186" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ186" s="1"/>
       <c r="BA186" s="1" t="s">
@@ -40164,7 +40162,7 @@
     </row>
     <row r="187" spans="1:69">
       <c r="A187" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>244</v>
@@ -40173,10 +40171,10 @@
         <v>2023</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>564</v>
@@ -40192,27 +40190,31 @@
       </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>592</v>
+        <v>678</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>998</v>
+        <v>962</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
+        <v>1116</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>962</v>
+      </c>
       <c r="S187" s="1" t="s">
-        <v>722</v>
+        <v>1116</v>
       </c>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
@@ -40225,17 +40227,15 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
-      <c r="AC187" s="1"/>
+      <c r="AC187" s="1" t="s">
+        <v>1428</v>
+      </c>
       <c r="AD187" s="1" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="AE187" s="1"/>
-      <c r="AF187" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="AG187" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AF187" s="1"/>
+      <c r="AG187" s="1"/>
       <c r="AH187" s="1" t="s">
         <v>565</v>
       </c>
@@ -40246,7 +40246,7 @@
         <v>1628</v>
       </c>
       <c r="AK187" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL187" s="1" t="s">
         <v>1628</v>
@@ -40261,7 +40261,7 @@
         <v>1741</v>
       </c>
       <c r="AP187" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ187" s="1" t="s">
         <v>566</v>
@@ -40270,19 +40270,19 @@
         <v>1801</v>
       </c>
       <c r="AS187" s="1" t="s">
-        <v>1878</v>
+        <v>1907</v>
       </c>
       <c r="AT187" s="1" t="s">
-        <v>2039</v>
+        <v>2073</v>
       </c>
       <c r="AU187" s="1" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
       <c r="AV187" s="1"/>
       <c r="AW187" s="1"/>
       <c r="AX187" s="1"/>
       <c r="AY187" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ187" s="1"/>
       <c r="BA187" s="1" t="s">
@@ -40480,7 +40480,7 @@
     </row>
     <row r="189" spans="1:69">
       <c r="A189" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>246</v>
@@ -40501,25 +40501,29 @@
         <v>565</v>
       </c>
       <c r="H189" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J189" s="1"/>
       <c r="K189" s="1" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>580</v>
+        <v>630</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
+        <v>753</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>1022</v>
+      </c>
       <c r="P189" s="1" t="s">
-        <v>722</v>
+        <v>1169</v>
       </c>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
@@ -40538,10 +40542,14 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
-      <c r="AD189" s="1"/>
+      <c r="AD189" s="1" t="s">
+        <v>1537</v>
+      </c>
       <c r="AE189" s="1"/>
       <c r="AF189" s="1"/>
-      <c r="AG189" s="1"/>
+      <c r="AG189" s="1" t="s">
+        <v>1622</v>
+      </c>
       <c r="AH189" s="1" t="s">
         <v>565</v>
       </c>
@@ -40563,7 +40571,9 @@
       <c r="AN189" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO189" s="1"/>
+      <c r="AO189" s="1" t="s">
+        <v>1743</v>
+      </c>
       <c r="AP189" s="1" t="s">
         <v>1799</v>
       </c>
@@ -40573,8 +40583,12 @@
       <c r="AR189" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS189" s="1"/>
-      <c r="AT189" s="1"/>
+      <c r="AS189" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AT189" s="1" t="s">
+        <v>2075</v>
+      </c>
       <c r="AU189" s="1"/>
       <c r="AV189" s="1"/>
       <c r="AW189" s="1"/>
@@ -40613,7 +40627,7 @@
         <v>564</v>
       </c>
       <c r="BN189" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO189" s="1"/>
       <c r="BP189" s="1"/>
@@ -40621,7 +40635,7 @@
     </row>
     <row r="190" spans="1:69">
       <c r="A190" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>246</v>
@@ -40642,29 +40656,25 @@
         <v>565</v>
       </c>
       <c r="H190" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J190" s="1"/>
       <c r="K190" s="1" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="O190" s="1" t="s">
-        <v>1022</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
       <c r="P190" s="1" t="s">
-        <v>1169</v>
+        <v>722</v>
       </c>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
@@ -40683,14 +40693,10 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
-      <c r="AD190" s="1" t="s">
-        <v>1537</v>
-      </c>
+      <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
       <c r="AF190" s="1"/>
-      <c r="AG190" s="1" t="s">
-        <v>1622</v>
-      </c>
+      <c r="AG190" s="1"/>
       <c r="AH190" s="1" t="s">
         <v>565</v>
       </c>
@@ -40712,9 +40718,7 @@
       <c r="AN190" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO190" s="1" t="s">
-        <v>1743</v>
-      </c>
+      <c r="AO190" s="1"/>
       <c r="AP190" s="1" t="s">
         <v>1799</v>
       </c>
@@ -40724,12 +40728,8 @@
       <c r="AR190" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS190" s="1" t="s">
-        <v>1909</v>
-      </c>
-      <c r="AT190" s="1" t="s">
-        <v>2075</v>
-      </c>
+      <c r="AS190" s="1"/>
+      <c r="AT190" s="1"/>
       <c r="AU190" s="1"/>
       <c r="AV190" s="1"/>
       <c r="AW190" s="1"/>
@@ -40768,7 +40768,7 @@
         <v>564</v>
       </c>
       <c r="BN190" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO190" s="1"/>
       <c r="BP190" s="1"/>
@@ -45653,7 +45653,7 @@
         <v>1628</v>
       </c>
       <c r="AO222" s="1" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="AP222" s="1" t="s">
         <v>1798</v>
@@ -47304,13 +47304,13 @@
       </c>
       <c r="J233" s="1"/>
       <c r="K233" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L233" s="1" t="s">
         <v>669</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N233" s="1" t="s">
         <v>829</v>
@@ -49457,10 +49457,10 @@
         <v>2023</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>564</v>
@@ -49485,13 +49485,13 @@
         <v>720</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
@@ -49513,7 +49513,7 @@
         <v>1436</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE247" s="1" t="s">
         <v>1609</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="AS247" s="1"/>
       <c r="AT247" s="1" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="AU247" s="1"/>
       <c r="AV247" s="1"/>
@@ -49612,10 +49612,10 @@
         <v>2023</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>564</v>
@@ -49640,13 +49640,13 @@
         <v>720</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O248" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
@@ -49668,7 +49668,7 @@
         <v>1436</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE248" s="1" t="s">
         <v>1610</v>
@@ -49710,7 +49710,7 @@
       </c>
       <c r="AS248" s="1"/>
       <c r="AT248" s="1" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="AU248" s="1"/>
       <c r="AV248" s="1"/>
@@ -51033,10 +51033,10 @@
         <v>2023</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>564</v>
@@ -51052,13 +51052,13 @@
       </c>
       <c r="J257" s="1"/>
       <c r="K257" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L257" s="1" t="s">
         <v>655</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
@@ -51110,7 +51110,7 @@
         <v>1628</v>
       </c>
       <c r="AO257" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="AP257" s="1" t="s">
         <v>1798</v>
@@ -52616,13 +52616,13 @@
       </c>
       <c r="J267" s="1"/>
       <c r="K267" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L267" s="1" t="s">
         <v>669</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N267" s="1" t="s">
         <v>835</v>
@@ -57894,31 +57894,31 @@
       </c>
       <c r="J301" s="1"/>
       <c r="K301" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O301" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P301" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="Q301" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="R301" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="S301" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="T301" s="1"/>
       <c r="U301" s="1"/>

--- a/results/garant_neprednasi.xlsx
+++ b/results/garant_neprednasi.xlsx
@@ -1135,12 +1135,12 @@
     <t>Obecná didaktika chemie</t>
   </si>
   <si>
+    <t>Toxikologie rostlin a živočišných toxinů</t>
+  </si>
+  <si>
     <t>Geologie pro geografy</t>
   </si>
   <si>
-    <t>Toxikologie rostlin a živočišných toxinů</t>
-  </si>
-  <si>
     <t>Heterocyklické a organokovové sloučeniny</t>
   </si>
   <si>
@@ -1246,27 +1246,27 @@
     <t>Data Analysis and Visualisation</t>
   </si>
   <si>
+    <t>Fyzika a fyz. chemie mat.a nanomateriálů</t>
+  </si>
+  <si>
     <t>Fyzika a fyzikální chemie materiálů</t>
   </si>
   <si>
-    <t>Fyzika a fyz. chemie mat.a nanomateriálů</t>
-  </si>
-  <si>
     <t>Programování pro GUI</t>
   </si>
   <si>
+    <t>Instrumentální metody pro nanotechnology</t>
+  </si>
+  <si>
     <t>Instrumentál. analýza pro nanotechnology</t>
   </si>
   <si>
-    <t>Instrumentální metody pro nanotechnology</t>
+    <t>Lineární algebra a geometrie I</t>
   </si>
   <si>
     <t>Toxikologie I</t>
   </si>
   <si>
-    <t>Lineární algebra a geometrie I</t>
-  </si>
-  <si>
     <t>Úvod do toxikologie</t>
   </si>
   <si>
@@ -1282,12 +1282,12 @@
     <t>Odborné prezentace v matematice</t>
   </si>
   <si>
+    <t>Teorie grafů</t>
+  </si>
+  <si>
     <t>Poč. mod. - zpracování obrazu a signálu</t>
   </si>
   <si>
-    <t>Teorie grafů</t>
-  </si>
-  <si>
     <t>Matematická analýza I</t>
   </si>
   <si>
@@ -1321,12 +1321,12 @@
     <t>Analytická chemie I</t>
   </si>
   <si>
+    <t>Úvod do molekulárních simulací</t>
+  </si>
+  <si>
     <t>Fyziologie živočichů a člověka</t>
   </si>
   <si>
-    <t>Úvod do molekulárních simulací</t>
-  </si>
-  <si>
     <t>Antropologie a genetika člověka</t>
   </si>
   <si>
@@ -1465,13 +1465,13 @@
     <t>Vědecká komunikace v biologii</t>
   </si>
   <si>
+    <t>Lokální a regionální rozvoj</t>
+  </si>
+  <si>
+    <t>Historie matematiky</t>
+  </si>
+  <si>
     <t>Metody přípravy nanomateriálů</t>
-  </si>
-  <si>
-    <t>Lokální a regionální rozvoj</t>
-  </si>
-  <si>
-    <t>Historie matematiky</t>
   </si>
   <si>
     <t>Aktuální problémy Česka</t>
@@ -1484,12 +1484,12 @@
 </t>
   </si>
   <si>
+    <t>Vzorkování a validace v analytic. chemii</t>
+  </si>
+  <si>
     <t>Vakuová fyzika a technika</t>
   </si>
   <si>
-    <t>Vzorkování a validace v analytic. chemii</t>
-  </si>
-  <si>
     <t>Globalizace a regionální ekonomika</t>
   </si>
   <si>
@@ -1499,12 +1499,12 @@
     <t>Organická chemie Nmgr.</t>
   </si>
   <si>
+    <t>Cytogenetika</t>
+  </si>
+  <si>
     <t>Koordinační chemie</t>
   </si>
   <si>
-    <t>Cytogenetika</t>
-  </si>
-  <si>
     <t>Potenciál kulturní krajiny a GIS</t>
   </si>
   <si>
@@ -1544,12 +1544,12 @@
     <t>Fyziologie a molekul. biologie živ. buňk</t>
   </si>
   <si>
+    <t>Biochemie</t>
+  </si>
+  <si>
     <t>Metody molekulární biologie</t>
   </si>
   <si>
-    <t>Biochemie</t>
-  </si>
-  <si>
     <t>Mikrofluid. systémy a biologická analýza</t>
   </si>
   <si>
@@ -2456,18 +2456,18 @@
     <t>'Ing. Mgr. Pavel Beránek', 'RNDr. Petr Kubera, Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Jiří Henych, Ph.D.', 'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
+  </si>
+  <si>
     <t>'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
   </si>
   <si>
-    <t>'Ing. Jiří Henych, Ph.D.', 'prof. Ing. Zdeňka Kolská, Ph.D.'</t>
+    <t>'PhDr. Magdalena Krátká, Ph.D.', 'RNDr. Martin Kuřil, Ph.D.'</t>
   </si>
   <si>
     <t>'PharmDr. Markéta Švarcová, Ph.D.'</t>
   </si>
   <si>
-    <t>'PhDr. Magdalena Krátká, Ph.D.', 'RNDr. Martin Kuřil, Ph.D.'</t>
-  </si>
-  <si>
     <t>'Mgr. Alena Černíková, MSc., Ph.D.', 'Mgr. Lucie Loukotová'</t>
   </si>
   <si>
@@ -2483,12 +2483,12 @@
     <t>'doc. PaedDr. Petr Eisenmann, CSc.', 'Mgr. Lucie Loukotová'</t>
   </si>
   <si>
+    <t>'RNDr. Martin Kuřil, Ph.D.', 'PhDr. Jiří Přibyl, Ph.D.'</t>
+  </si>
+  <si>
     <t>'Mgr. Martin Svoboda, Ph.D.'</t>
   </si>
   <si>
-    <t>'RNDr. Martin Kuřil, Ph.D.', 'PhDr. Jiří Přibyl, Ph.D.'</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Jan Malý, DrSc.'</t>
   </si>
   <si>
@@ -2519,12 +2519,12 @@
     <t>'doc. RNDr. Vlastimil Dohnal, Ph.D.', 'RNDr. Milan Šmídl, Ph.D.', 'RNDr. Ľuboš Vrtoch, PhD., Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Filip Moučka, Ph.D.', 'prof. RNDr. Ivo Nezbeda, DrSc.'</t>
+  </si>
+  <si>
     <t>'Mgr. Marian Rupert', 'Ing. Stanislav Vinopal, Ph.D.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Filip Moučka, Ph.D.', 'prof. RNDr. Ivo Nezbeda, DrSc.'</t>
-  </si>
-  <si>
     <t>'RNDr. Jan Ipser, CSc.', 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.'</t>
   </si>
   <si>
@@ -2621,24 +2621,24 @@
     <t>'doc. RNDr. Jaromír Hajer, CSc.', 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.', 'Mgr. Jan Malý, Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. RNDr. Jaroslav Koutský, Ph.D.', 'RNDr. Silvie Rita Kučerová, Ph.D.'</t>
+  </si>
+  <si>
     <t>'prof. Ing. Zdeňka Kolská, Ph.D.', 'Mgr. Jan Malý, Ph.D.', 'doc. RNDr. Jaroslav Pavlík, CSc.'</t>
   </si>
   <si>
-    <t>'doc. RNDr. Jaroslav Koutský, Ph.D.', 'RNDr. Silvie Rita Kučerová, Ph.D.'</t>
-  </si>
-  <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.', 'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.', 'doc. Mgr. Pavel Raška, Ph.D.'</t>
   </si>
   <si>
+    <t>'Ing. Sylvie Kříženecká, Ph.D.', 'doc. Dr. Ing. Pavel Kuráň'</t>
+  </si>
+  <si>
     <t>'RNDr. Adéla Jagerová, Ph.D.', 'doc. RNDr. Jaroslav Pavlík, CSc.'</t>
   </si>
   <si>
-    <t>'Ing. Sylvie Kříženecká, Ph.D.', 'doc. Dr. Ing. Pavel Kuráň'</t>
-  </si>
-  <si>
     <t>'Ing. Miroslav Kopáček, Ph.D.'</t>
   </si>
   <si>
@@ -2651,12 +2651,12 @@
     <t>'Ing. Ondřej Baszczyňski, Ph.D.', 'doc. Ing. Jan Čermák, CSc.'</t>
   </si>
   <si>
+    <t>'Mgr. Hana Auer Malinská, Ph.D.', 'Mgr. Martin Forman'</t>
+  </si>
+  <si>
     <t>'doc. Ing. Jan Čermák, CSc.', 'RNDr. Václav Šícha, Ph.D.', 'doc. RNDr. Pavel Vojtíšek, CSc.'</t>
   </si>
   <si>
-    <t>'Mgr. Hana Auer Malinská, Ph.D.', 'Mgr. Martin Forman'</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Martin Balej, Ph.D.', 'Mgr. Martin Dolejš, Ph.D.'</t>
   </si>
   <si>
@@ -2888,18 +2888,18 @@
     <t>'Ing. Mgr. Pavel Beránek' (100), 'RNDr. Petr Kubera, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'Ing. Jiří Henych, Ph.D.' (90), 'prof. Ing. Zdeňka Kolská, Ph.D.' (10)</t>
+  </si>
+  <si>
     <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'Ing. Jiří Henych, Ph.D.' (90), 'prof. Ing. Zdeňka Kolská, Ph.D.' (10)</t>
+    <t>'PhDr. Magdalena Krátká, Ph.D.' (100), 'RNDr. Martin Kuřil, Ph.D.' (100)</t>
   </si>
   <si>
     <t>'PharmDr. Markéta Švarcová, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'PhDr. Magdalena Krátká, Ph.D.' (100), 'RNDr. Martin Kuřil, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'Mgr. Alena Černíková, MSc., Ph.D.' (100), 'Mgr. Lucie Loukotová' (100)</t>
   </si>
   <si>
@@ -2915,12 +2915,12 @@
     <t>'doc. PaedDr. Petr Eisenmann, CSc.' (100), 'Mgr. Lucie Loukotová' (100)</t>
   </si>
   <si>
+    <t>'RNDr. Martin Kuřil, Ph.D.' (100), 'PhDr. Jiří Přibyl, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'Mgr. Martin Svoboda, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'RNDr. Martin Kuřil, Ph.D.' (100), 'PhDr. Jiří Přibyl, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'prof. RNDr. Jan Malý, DrSc.' (100)</t>
   </si>
   <si>
@@ -2951,12 +2951,12 @@
     <t>'doc. RNDr. Vlastimil Dohnal, Ph.D.' (100), 'RNDr. Milan Šmídl, Ph.D.' (100), 'RNDr. Ľuboš Vrtoch, PhD., Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'doc. RNDr. Filip Moučka, Ph.D.' (100), 'prof. RNDr. Ivo Nezbeda, DrSc.' (100)</t>
+  </si>
+  <si>
     <t>'Mgr. Marian Rupert' (100), 'Ing. Stanislav Vinopal, Ph.D.' (100)</t>
   </si>
   <si>
-    <t>'doc. RNDr. Filip Moučka, Ph.D.' (100), 'prof. RNDr. Ivo Nezbeda, DrSc.' (100)</t>
-  </si>
-  <si>
     <t>'RNDr. Jan Ipser, CSc.' (100), 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.' (100)</t>
   </si>
   <si>
@@ -3074,24 +3074,24 @@
     <t>'doc. RNDr. Jaromír Hajer, CSc.' (100), 'doc. RNDr. Eva Jozífková, Ph.D. et Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'doc. RNDr. Jaroslav Koutský, Ph.D.' (100), 'RNDr. Silvie Rita Kučerová, Ph.D.' (100)</t>
+  </si>
+  <si>
     <t>'prof. Ing. Zdeňka Kolská, Ph.D.' (100), 'Mgr. Jan Malý, Ph.D.' (100), 'doc. RNDr. Jaroslav Pavlík, CSc.' (100)</t>
   </si>
   <si>
-    <t>'doc. RNDr. Jaroslav Koutský, Ph.D.' (100), 'RNDr. Silvie Rita Kučerová, Ph.D.' (100)</t>
-  </si>
-  <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.' (100), 'Mgr. Jiří Riezner, Ph.D.' (100)</t>
   </si>
   <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.' (100), 'doc. Mgr. Pavel Raška, Ph.D.' (100)</t>
   </si>
   <si>
+    <t>'Ing. Sylvie Kříženecká, Ph.D.' (60), 'doc. Dr. Ing. Pavel Kuráň' (30)</t>
+  </si>
+  <si>
     <t>'RNDr. Adéla Jagerová, Ph.D.' (50), 'doc. RNDr. Jaroslav Pavlík, CSc.' (50)</t>
   </si>
   <si>
-    <t>'Ing. Sylvie Kříženecká, Ph.D.' (60), 'doc. Dr. Ing. Pavel Kuráň' (30)</t>
-  </si>
-  <si>
     <t>'Ing. Miroslav Kopáček, Ph.D.' (100)</t>
   </si>
   <si>
@@ -3104,12 +3104,12 @@
     <t>'Ing. Ondřej Baszczyňski, Ph.D.' (100), 'doc. Ing. Jan Čermák, CSc.' (100)</t>
   </si>
   <si>
+    <t>'Mgr. Hana Auer Malinská, Ph.D.' (100), 'Mgr. Martin Forman' (100)</t>
+  </si>
+  <si>
     <t>'doc. Ing. Jan Čermák, CSc.' (30), 'RNDr. Václav Šícha, Ph.D.' (40), 'doc. RNDr. Pavel Vojtíšek, CSc.' (30)</t>
   </si>
   <si>
-    <t>'Mgr. Hana Auer Malinská, Ph.D.' (100), 'Mgr. Martin Forman' (100)</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Martin Balej, Ph.D.' (100), 'Mgr. Martin Dolejš, Ph.D.' (100)</t>
   </si>
   <si>
@@ -3350,18 +3350,18 @@
     <t>[6973, 650]</t>
   </si>
   <si>
+    <t>[5431, 332]</t>
+  </si>
+  <si>
     <t>[332]</t>
   </si>
   <si>
-    <t>[5431, 332]</t>
+    <t>[425, 264]</t>
   </si>
   <si>
     <t>[3176]</t>
   </si>
   <si>
-    <t>[425, 264]</t>
-  </si>
-  <si>
     <t>[9488, 3188]</t>
   </si>
   <si>
@@ -3377,12 +3377,12 @@
     <t>[261, 3188]</t>
   </si>
   <si>
+    <t>[264, 267]</t>
+  </si>
+  <si>
     <t>[5958]</t>
   </si>
   <si>
-    <t>[264, 267]</t>
-  </si>
-  <si>
     <t>[1537]</t>
   </si>
   <si>
@@ -3413,12 +3413,12 @@
     <t>[2227, 3704, 4117]</t>
   </si>
   <si>
+    <t>[3222, 305]</t>
+  </si>
+  <si>
     <t>[5275, 8024]</t>
   </si>
   <si>
-    <t>[3222, 305]</t>
-  </si>
-  <si>
     <t>[930, 2939]</t>
   </si>
   <si>
@@ -3515,24 +3515,24 @@
     <t>[278, 2939, 280]</t>
   </si>
   <si>
+    <t>[1644, 3528]</t>
+  </si>
+  <si>
     <t>[332, 280, 308]</t>
   </si>
   <si>
-    <t>[1644, 3528]</t>
-  </si>
-  <si>
     <t>[3528, 3164]</t>
   </si>
   <si>
     <t>[3528, 1434]</t>
   </si>
   <si>
+    <t>[921, 7015]</t>
+  </si>
+  <si>
     <t>[8739, 308]</t>
   </si>
   <si>
-    <t>[921, 7015]</t>
-  </si>
-  <si>
     <t>[5457]</t>
   </si>
   <si>
@@ -3545,10 +3545,10 @@
     <t>[8419, 1064]</t>
   </si>
   <si>
+    <t>[5471, 4619]</t>
+  </si>
+  <si>
     <t>[1064, 4310, 8421]</t>
-  </si>
-  <si>
-    <t>[5471, 4619]</t>
   </si>
   <si>
     <t>[313, 4303]</t>
@@ -4667,13 +4667,6 @@
 'Janko a kol. Analýza znečištěnin a technika jejich odběru. VŠCHT, Pardubice, 1984. '</t>
   </si>
   <si>
-    <t>'Patočka J. Úvod do obecné toxikologie. ZSF JU, 2003. ',
-'Horák, J., Linhart, I., Klusoň, K. Úvod do toxikologie a ekologie pro chemiky. VŠCHT Praha. 2004. ',
-'Prokeš J a kol.:. Základy toxikologie. Galén, 2005. ',
-'Vopršalová M., Žáčková P. Základy toxikologie pro farmaceuty. UK Praha, Vydavatelství Karolinum, 1996. ',
-'HRDINA, V.; HRDINA, R.; JAHODÁŘ, L.; MARTINEC, Z.; MĚRKA, V. Přírodní toxiny a jedy. Koedice GALÉN-KAROLINUM. Praha. 2004. Praha, 2004. '</t>
-  </si>
-  <si>
     <t>'Blažek, J. et al. Algebra a teoretická aritmetika I, SPN Praha, 1983. ',
 'W. K. NICHOLSON. Elementary Linear Algebra with Applications, Brunele, Weber and Schmidt, Boston, 1986. ',
 'PAUL R. HALMOS. Finite-Dimensional Vector Spaces, Springer, New York - Berlin - Heidelberg, 1974. ',
@@ -4685,6 +4678,13 @@
 'I. V. PROSKURJAKOV. Sbornik zadač po linějnoj algebre, Nauka, Moskva, 1984. ',
 'PETER KAPRÁLIK, JOZEF TVAROŽEK. Zbierka riešených príkladov a úloh z lineárnej algebry a analytickej geometrie, Alfa, Bratislava, 1987. ',
 'A. K. FADDEJEV, J. S. SOMINSKIJ. Zbierka úloh z vyššej algebry, Alfa, Bratislava, 1968. '</t>
+  </si>
+  <si>
+    <t>'Patočka J. Úvod do obecné toxikologie. ZSF JU, 2003. ',
+'Horák, J., Linhart, I., Klusoň, K. Úvod do toxikologie a ekologie pro chemiky. VŠCHT Praha. 2004. ',
+'Prokeš J a kol.:. Základy toxikologie. Galén, 2005. ',
+'Vopršalová M., Žáčková P. Základy toxikologie pro farmaceuty. UK Praha, Vydavatelství Karolinum, 1996. ',
+'HRDINA, V.; HRDINA, R.; JAHODÁŘ, L.; MARTINEC, Z.; MĚRKA, V. Přírodní toxiny a jedy. Koedice GALÉN-KAROLINUM. Praha. 2004. Praha, 2004. '</t>
   </si>
   <si>
     <t>'http://biology.ujep.cz/vyuka/',
@@ -4749,6 +4749,14 @@
 'KOPÁČEK, Jiří. Matematická analýza pro fyziky I. Praha: Matfyzpress, 1997. ISBN 80-85863-74-X.'</t>
   </si>
   <si>
+    <t>'Svoboda J. a kol. Organická chemie I, skripta VŠCHT Praha. VŠCHT Praha, 2005. ',
+'McMurry J. organická chemie VUTIUM Praha 2007. ISBN 978-80-7080-637-1. ',
+'Studijní opora Organická chemie I (on-line: http://chemistry.ujep.cz/1214-studijni-opory). ',
+'Bláha K., Ferles M., Staněk J. a kol. Nomenklatura organické chemie. SNTL, Praha. 1982. ',
+'Orchin M., Kaplan F. ,Macomber R. S. Organická chemie - příruční naučný slovník, SNTL, Praha. 1986. ',
+'Panico R., Powell W. H., Richer J. C. Průvodce názvoslovím organických sloučenin podle IUPAC, doporučení 1993. Academia Praha. 2000. '</t>
+  </si>
+  <si>
     <t>'Rosypal S. a kol. Nový přehled biologie. 2003. ',
 'Kalina T. et Váňa J. (2006). Sinice, řasy, houby, mechorosty a podobné organismy v současné biologii. Karolinum Praha. Karolinum Praha, 2006. ',
 'Nienhaus F., Butin H., Boehmer B. Atlas chorob a škůdců okrasných dřevin.- Brázda, Praha. 1998. ',
@@ -4772,14 +4780,6 @@
 'http://botany.natur.cuni.cz'</t>
   </si>
   <si>
-    <t>'Svoboda J. a kol. Organická chemie I, skripta VŠCHT Praha. VŠCHT Praha, 2005. ',
-'McMurry J. organická chemie VUTIUM Praha 2007. ISBN 978-80-7080-637-1. ',
-'Studijní opora Organická chemie I (on-line: http://chemistry.ujep.cz/1214-studijni-opory). ',
-'Bláha K., Ferles M., Staněk J. a kol. Nomenklatura organické chemie. SNTL, Praha. 1982. ',
-'Orchin M., Kaplan F. ,Macomber R. S. Organická chemie - příruční naučný slovník, SNTL, Praha. 1986. ',
-'Panico R., Powell W. H., Richer J. C. Průvodce názvoslovím organických sloučenin podle IUPAC, doporučení 1993. Academia Praha. 2000. '</t>
-  </si>
-  <si>
     <t>'Fišer K. Teoretická mechanika. UJEP Ústí n.L., 2003. ',
 'Brdička M., Hladík A. Teoretická mechanika. Academia Praha, 1987. 1987. ',
 'Kvasnica J. Mechanika. Academia Praha. 1988. ',
@@ -4808,16 +4808,16 @@
 'Kuřina, F. Deset geometrických transformací. Praha: Prometheus, 2002. ISBN 80-7196-231-7.'</t>
   </si>
   <si>
+    <t>'JARNÍK, V. Integrální počet I, Praha, ACADEMIA, 1984. ',
+'VESELÝ, J. Matematická analýza pro učitele I, II, Matfyz press, 1994. ',
+'ČERNÝ, I. Matematická analýza 2. část, Liberec, 1995. ',
+'ČERNÝ, I. Matematická analýza 3. část, Liberec, 1996. '</t>
+  </si>
+  <si>
     <t>'BARTOVSKÁ, L. Aplikovaná fyzikální chemie. Praha: VŠCHT, 1995. ',
 'Novák, J. Fyzikální chemie I, VŠCHT Praha. 1999. ',
 'Brdička, R., Dvořák, J. Základy fyzikální chemie, Praha. 1977. ',
 'Atkins P.W. Physical Chemistry. Oxford Univ. Press., 1994. '</t>
-  </si>
-  <si>
-    <t>'JARNÍK, V. Integrální počet I, Praha, ACADEMIA, 1984. ',
-'VESELÝ, J. Matematická analýza pro učitele I, II, Matfyz press, 1994. ',
-'ČERNÝ, I. Matematická analýza 2. část, Liberec, 1995. ',
-'ČERNÝ, I. Matematická analýza 3. část, Liberec, 1996. '</t>
   </si>
   <si>
     <t>'Bartovská L., J. Novák. Úlohy z fyzikální chemie, VŠCHT Praha 2005. ',
@@ -5240,13 +5240,6 @@
 'Daníčková S. Skrytá poselství vědy, Academia Praha. 2009. '</t>
   </si>
   <si>
-    <t>'Challa S. S. R. Kumar (ed.). Nanomaterials for Biosensors. ',
-'Koch C. C. Nanostructured materials - Processing, Properties and Potential Application, Noyes Publication / William Andrew Publishing, 2002. ',
-'Cao G., Wang Y. Nanostructures and Nanomaterials - Synthesis. ',
-'Schmid, G. (ed.):. Nanotechnology. ',
-'Hošek Jan. Úvod do nanotechnologie, ČVUT v Praze, 2011. '</t>
-  </si>
-  <si>
     <t>'Jakubíková, D. Strategický marketing. Strategie a trendy. 2013. ISBN 978-80-247-4670-8.',
 'BLAŽEK, Jiří, UHLÍŘ, David. Teorie regionálního rozvoje: nástin, kritika, implikace. Praha: Karolinum, 2011. ISBN 978-80-246-1974-3.'</t>
   </si>
@@ -5263,6 +5256,13 @@
 'VOPĚNKA, P. Vyprávění o kráse novobarokní matematiky, Práh, Praha, 2004. '</t>
   </si>
   <si>
+    <t>'Challa S. S. R. Kumar (ed.). Nanomaterials for Biosensors. ',
+'Koch C. C. Nanostructured materials - Processing, Properties and Potential Application, Noyes Publication / William Andrew Publishing, 2002. ',
+'Cao G., Wang Y. Nanostructures and Nanomaterials - Synthesis. ',
+'Schmid, G. (ed.):. Nanotechnology. ',
+'Hošek Jan. Úvod do nanotechnologie, ČVUT v Praze, 2011. '</t>
+  </si>
+  <si>
     <t>'J. Kopáček. Matematika pro fyziky II, Praha, Matfyzpress, 1998. ',
 'KOPÁČEK, J. Matematika pro fyziky III. Matfyzpress, Praha. ',
 'KOPÁČEK, J. Matematika pro fyziky IV. Matfyzpress, Praha. ',
@@ -5286,6 +5286,12 @@
 'JOHNSTON, R.J. et al. (eds). The Dictionary of Human Geography. London, 1994. '</t>
   </si>
   <si>
+    <t>'SKÁCEL, F., TEKÁČ, V. Analýza ovzduší, Vydavatelství VŠCHT Praha 2019. ',
+'MILDE, D., PLZÁK, Z. Průvodce kvalitou v analytické chemii, Kvalimetrie 22. EURACHEM - ČR, 2017. ',
+'HORÁLEK V., ŠEVČÍK J. G. K., ČURDOVÁ E., HELÁN V. Vzorkování I - obecné zásady. 2 THETA, Český Těšín 2010. ',
+'KOTLÍK, B. a kol. Vzorkování II. Český Těšín: 2THETA 2016. 2THETA, 2016. '</t>
+  </si>
+  <si>
     <t>'Pátý L. Fyzika nízkých tlaků. Praha, 1968. ',
 'Groszkowski J. Technika vysokého vakua. Praha, 1981. ',
 'Dúbravcová V. Vakuová a ultravakuová technika . ',
@@ -5295,12 +5301,6 @@
 'Pátý L. Vakuová technika . '</t>
   </si>
   <si>
-    <t>'SKÁCEL, F., TEKÁČ, V. Analýza ovzduší, Vydavatelství VŠCHT Praha 2019. ',
-'MILDE, D., PLZÁK, Z. Průvodce kvalitou v analytické chemii, Kvalimetrie 22. EURACHEM - ČR, 2017. ',
-'HORÁLEK V., ŠEVČÍK J. G. K., ČURDOVÁ E., HELÁN V. Vzorkování I - obecné zásady. 2 THETA, Český Těšín 2010. ',
-'KOTLÍK, B. a kol. Vzorkování II. Český Těšín: 2THETA 2016. 2THETA, 2016. '</t>
-  </si>
-  <si>
     <t>'JANOVEC, J., MACEK, K., ZUNA, P. Fyzikální metalurgie. ČVUT, Praha, 2008. ',
 'D. Vojtěch. Materiály a jejich mezní stavy, VŠCHT Praha, 2009. 2009. ',
 'L. Ptáček a kol. Nauka o materiálu I., CERM S.R.O. Brno 2003. ISBN 80-7204-283-1.',
@@ -5321,13 +5321,6 @@
 'Červinka O. a kol. Chemie organických sloučenin I a II, SNTL Praha 1985, vybrané kapitoly. ',
 'ELSCHENBROICH, C. Organometallics. 3rd ed. Wiley/VCH. Weinheim, 2006. ',
 'Vogel P., Houk K. N. Organic Chemistry: Theory, Reactivity and Mechanisms in Modern Synthesis, Wiley ? VCH, 2019. '</t>
-  </si>
-  <si>
-    <t>'Housecroft C. E., Sharpe, A. G. Anorganická chemie, VŠCHT Praha (2014). ',
-'Gispert J. R. Coordination Chemistry, Wiley-VCH (2008). ',
-'A. von Zelewsky. Stereochemistry of Coordination Compounds, J.Wiley and sons (1996). ',
-'F.A. Cotton, C. Murillo , G.Wilkinson, M. Bochmann. Advanced Inorganic Chemistry (Sixth Edition); J. Wiley and sons. ',
-'Figgis B.N., Hitchman M. A. Ligand Field Theory and Its Application, Wiley-VCH (2000). '</t>
   </si>
   <si>
     <t>'SNUSTAD, D. Peter a Michael J. SIMMONS. Genetika. 1. vydání. Brno: Nakladatelství Masarykovy univerzity, 2009. 894 s. ISBN 978-80-210-4852-2. ',
@@ -5342,6 +5335,13 @@
 'Michalová K. Úvod do lidské cytogenetiky. IDVPZ, Brno 1999. '</t>
   </si>
   <si>
+    <t>'Housecroft C. E., Sharpe, A. G. Anorganická chemie, VŠCHT Praha (2014). ',
+'Gispert J. R. Coordination Chemistry, Wiley-VCH (2008). ',
+'A. von Zelewsky. Stereochemistry of Coordination Compounds, J.Wiley and sons (1996). ',
+'F.A. Cotton, C. Murillo , G.Wilkinson, M. Bochmann. Advanced Inorganic Chemistry (Sixth Edition); J. Wiley and sons. ',
+'Figgis B.N., Hitchman M. A. Ligand Field Theory and Its Application, Wiley-VCH (2000). '</t>
+  </si>
+  <si>
     <t>'CLOKE, Paul. Practising human geography. 2004. '</t>
   </si>
   <si>
@@ -5412,6 +5412,15 @@
 'Rozsypal S. et al. Nový přehled biologie (pouze vydání z roku 2003). Praha, 2003. ISBN 80-7183-268-5.',
 'Archibald J. One plus One, Equals One, Symbiosis and the Evolution Complex, Oxford University Press, 2014 (česky Vyšehrad, 2017). ',
 'Sheetz M., Yu H. The Cell as a Machine, Cambridge University Press, 2018. '</t>
+  </si>
+  <si>
+    <t>'Vodrážka Z. Biochemie, Academia, Praha. 1999. ',
+'KODÍČEK, M., VALENTOVÁ O., HYNEK R. Biochemie. VŠCHT Praha 2015. ISBN: 978-80-7080-927-3. ',
+'Campbell, M. K. Biochemistry, belmont: Thomson Brooks/Cole, 2009. ',
+'Murray R.K., Granner D.K., Mayes P.A., Rodwell V.W. Harperova biochemie, HaH, Praha. 1998. ',
+'Poušek, L. Přehled biochemie člověka, Praha:ČVUT, 2008. ',
+'Rozsypal S. a kol. Úvod do molekulární biologie I.-III. Academia, Praha 2000. ',
+'Skálová L., Szotáková B., Netopilová M. Základní biochemické dráhy v buňce, UK Praha, 2004. Praha, 2004. '</t>
   </si>
   <si>
     <t>'ŠMARDA, J. a kol. Metody molekulární biologie. Masarykova univerzita, Brno, 2010. ISBN 978-8-0210-3841-7. ',
@@ -5426,15 +5435,6 @@
 'KOČÁREK, E. et al. Molekulární biologie v medicíně. Praha: NCO NZO, 2007. 218 s. ISBN 978-80-7013-450-4. ',
 'Cvrčková Fatima. Úvod do praktické bioinformatiky, Academia, (2006). ',
 'Dorian J., et al. Základy lékařské genetiky. Praha: Galén, 2007. ISBN 978-80-7262-449-2.'</t>
-  </si>
-  <si>
-    <t>'Vodrážka Z. Biochemie, Academia, Praha. 1999. ',
-'KODÍČEK, M., VALENTOVÁ O., HYNEK R. Biochemie. VŠCHT Praha 2015. ISBN: 978-80-7080-927-3. ',
-'Campbell, M. K. Biochemistry, belmont: Thomson Brooks/Cole, 2009. ',
-'Murray R.K., Granner D.K., Mayes P.A., Rodwell V.W. Harperova biochemie, HaH, Praha. 1998. ',
-'Poušek, L. Přehled biochemie člověka, Praha:ČVUT, 2008. ',
-'Rozsypal S. a kol. Úvod do molekulární biologie I.-III. Academia, Praha 2000. ',
-'Skálová L., Szotáková B., Netopilová M. Základní biochemické dráhy v buňce, UK Praha, 2004. Praha, 2004. '</t>
   </si>
   <si>
     <t>'FRANSSILA, Sami. Introduction to microfabrication. 2nd ed. Chichester, West Sussex [England]: John Wiley &amp; Sons, 2010. ISBN 978-0-470-74983-8. ',
@@ -6145,10 +6145,10 @@
     <t>Kurz je zaměřen na vizuální programování v moderních desktopových prostředích. V souladu se zaměřením moderních operačních systémů je důraz kladen na interaktivní graficky orientované aplikace a na návrh grafických uživatelských rozhraní. Student je prostřednictvím tohoto kurzu seznámen s filozofií událostmi řízeného programování a získá základní stupeň znalostí programátora v dominantní počítačové platformě.</t>
   </si>
   <si>
+    <t>Předmět studentům poskytuje, spolu s paralelní přednáškou Základy matematiky, základní matematické znalosti a nástroje pro další matematické disciplíny.</t>
+  </si>
+  <si>
     <t>Přednáška z toxikologie podává základní přehled o obecné a speciální toxikologii posluchačům 1. ročníku oborů s chemií. V obecné části je předmět zaměřen na vymezení základních pojmů, jsou popsány možnosti vstupu škodlivin do organismu, distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Dále jsou probrány faktory ovlivňující toxický účinek, projevy toxického účinku, všeobecné zásady terapie otrav a první pomoci. V souvislosti s tím jsou studenti seznamováni i s platnou legislativou související s nakládáním s chemickými látkami a způsoby ochrany proti působení chemických látek.Ve speciální části je pozornost zaměřena na toxické vlastnosti vybraných anorganických a organických sloučenin, přírodních toxinů živočišného a rostlinného původu a dále omamných látek a některých běžně užívaných léků.</t>
-  </si>
-  <si>
-    <t>Předmět studentům poskytuje, spolu s paralelní přednáškou Základy matematiky, základní matematické znalosti a nástroje pro další matematické disciplíny.</t>
   </si>
   <si>
     <t>Přednáška je určena studentům 1. ročníku studijních oborů s chemií a úspěšné složení zkoušky je podmínkou pro přijetí k praktickým laboratorním cvičením na katedře chemie. V úvodu budou studenti seznámeni se základními toxikologickými pojmy, možnostmi vstupu, mechanismy biotransformace a vyloučení toxických látek organismem. V rámci speciální toxikologie je pozornost zaměřena na toxické vlastnosti nebezpečných anorganických a organických látek a nakládání s těmito látkami s ohledem na zásady bezpečnosti práce a správné laboratorní praxe.</t>
@@ -6165,6 +6165,9 @@
   </si>
   <si>
     <t>Cílem kurzu je seznámit posluchače s teoretickými základy matematické analýzy, hlavně přesnými matematickými definicemi spojitosti, limity a derivace. Navazuje úzce na kurz Úvod do infinitezimálního počtu. Dále se studenti seznámí s využitím těchto pojmů v oborech jako je fyzika, ekonomie i samotná matematika (průběh funkce a aproximace polynomy, číselné posloupnosti a řady).</t>
+  </si>
+  <si>
+    <t>Předmět je koncipován tak, že po převážně obecných partiích, které mají vytvořit potřebný aparát pro pochopení zákonitostí chemismu organických sloučenin, následuje přehled jednotlivých skupin organických sloučenin. Cílem je vytvořit ucelený obraz moderní organické chemie a nezbytný základ pro navazující předměty.</t>
   </si>
   <si>
     <t xml:space="preserve">Cílem tohoto kurzu je poskytnout základní informace o morfologii (stavba buňky a stélky), systematice, ekologii, historickém vývoji a významu organismů, které tradičně studují vědecké obory algologie, mykologie, lichenologie a bryologie. Důraz je kladen především na vývojové vztahy jednotlivých skupin organismů, na jejich roli v ekosystémech a na propojení s praktickou aplikací (biotechnologie, medicína, zemědělství, bioindikace apod.).
@@ -6172,9 +6175,6 @@
 </t>
   </si>
   <si>
-    <t>Předmět je koncipován tak, že po převážně obecných partiích, které mají vytvořit potřebný aparát pro pochopení zákonitostí chemismu organických sloučenin, následuje přehled jednotlivých skupin organických sloučenin. Cílem je vytvořit ucelený obraz moderní organické chemie a nezbytný základ pro navazující předměty.</t>
-  </si>
-  <si>
     <t>Tématem kurzu je diferenciální a integrální počet funkcí více proměnných včetně plošného a křivkového integrálu. Tyto partie jsou nepostradatelné pro aplikace ve fyzice a inženýrství.</t>
   </si>
   <si>
@@ -6206,14 +6206,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Předmět poskytne studentům informace (1) o společných základních funkcích živočichů (dráždivost, vzrušivost, smyslové vnímání, neuroendokrinní regulace, metabolismus, pohyb, imunita, adaptace, vyšší nervová činnost, emoce, chování apod.) a (2) o jejich orgánových, buněčných a molekulárních atributech, vč. nástinu jejich fylogeneze.
-Přednášky jsou členěny do 13 bloků. Po přednášce následuje cvičení zahrnující monitoraci a procvičování probraných funkcí za využití speciálních pomůcek a přístrojů včetně mikroskopie a simulačních, interaktivních počítačových programů.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Naivní versus preferenční vzorkování konfiguračního prostoru; Metropolisův algoritmus; jedno-duché simulace v NVT souboru; technické detaily a měření. Základní metody na určení entro-pických veličin. 
 Aplikace: jednoduchá kapalina a Isingův model. Základy molekulární dynamiky (MD) 
 Algoritmy řešení diferenciálních rovnic; Verletův algoritmus; metody prediktor-korektor; simu-lace v mikrokanonickém souboru.Nefyzikální aplikace: optimalizace problému s mnoha stupni volnosti. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Předmět poskytne studentům informace (1) o společných základních funkcích živočichů (dráždivost, vzrušivost, smyslové vnímání, neuroendokrinní regulace, metabolismus, pohyb, imunita, adaptace, vyšší nervová činnost, emoce, chování apod.) a (2) o jejich orgánových, buněčných a molekulárních atributech, vč. nástinu jejich fylogeneze.
+Přednášky jsou členěny do 13 bloků. Po přednášce následuje cvičení zahrnující monitoraci a procvičování probraných funkcí za využití speciálních pomůcek a přístrojů včetně mikroskopie a simulačních, interaktivních počítačových programů.
 </t>
   </si>
   <si>
@@ -6403,14 +6403,14 @@
     <t>Kurz má umožnit studentům zařadit jejich matematické znalosti do historického kontextu. Stručně popisuje prehistorii matematiky, ustavení matematiky jako vědy, antickou matematiku, arabskou matematiku a její vliv na evropskou matematiku ve středověku, vznik infinitesimálního počtu, podrobněji se věnuje zrodu teorie množin.</t>
   </si>
   <si>
+    <t>Teorie funkcí více proměnných (diferenciální i integrální počet) a její použití v geometrii a ve fyzice. Konvergence řad funkcí, jejich derivace a integrace, mocninné řady.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kurz nazvaný Biologie členovců navazuje na povinný kurz Fylogeneze a systém bezobratlých živočichů, který studenti
 absolvují v předchozím, bakalářském programu odborné biologie. Cílem kurzu je prohloubit a rozšířit již získané znalosti
 o skupině živočichů, která významně ovlivňuje život na Zemi.
 Kurz je doplněn o online kurz se 13 tématy a závěrečným testem v aplikaci Moodle. Přihlásit se lze na tomto odkaze:  https://moodle.biology.ujep.cz/course/view.php?id=42 a to po zadání hesla, které sdělí vyučující.
 </t>
-  </si>
-  <si>
-    <t>Teorie funkcí více proměnných (diferenciální i integrální počet) a její použití v geometrii a ve fyzice. Konvergence řad funkcí, jejich derivace a integrace, mocninné řady.</t>
   </si>
   <si>
     <t>Cílem kurzu je představit a diskutovat aktuální problémy Česka zejména v oblasti environmentální, geopolitické, hospodářství a regionálního rozvoje, demografických, sociálních a kulturních aspektů. Hodnoceny jsou různé hierarchické úrovně vybraných problémů - od jejich globálního rozměru až po specifické projevy na lokální úrovni. Kurz plní funkci regionální syntézy poznatků o rozvojovém potenciálu a problémech Česka, které si student osvojil v dílčích etapách svého geografického studia.</t>
@@ -6509,12 +6509,12 @@
 buněčného a tkáňového bioinženýrství.</t>
   </si>
   <si>
+    <t>Předmět seznamuje studenty se základy biochemie především pro hlubší pochopení souvisejících biologických
+předmětů. Předmět navazuje na znalosti bakalářského studia a rozšiřuje je do hloubky i do šířky.</t>
+  </si>
+  <si>
     <t>Cílem kurzu je seznámit účastníky s vývojem a současnými trendy v oblasti experimentální molekulární biologie a
 molekulární genetiky.</t>
-  </si>
-  <si>
-    <t>Předmět seznamuje studenty se základy biochemie především pro hlubší pochopení souvisejících biologických
-předmětů. Předmět navazuje na znalosti bakalářského studia a rozšiřuje je do hloubky i do šířky.</t>
   </si>
   <si>
     <t>Cílem kurzu je seznámit studenty s aktuálními trendy mikrotechnologií využitelnými v oblasti biologických věd a věd hraničních s biologií. Studenti se seznámí s významem miniaturizace pro vývoj experimentálních metod a na praktických příkladech získají přehled o možnostech využití mikrofluidních systémů v bioaplikacích s různým zaměřením (např. kultivace buněčných kultur, manipulace s buňkami, tvorba koncentračních gradientů pro experiment, povrchové modifikace pro imobilizace bioaktivních látek, příprava microarrays apod.). V průběhu kurzu si studenti prakticky osvojí vybrané techniky z workflow výroby mikrofluidních systémů a provedou vybrané experimenty související s daným tématem.</t>
@@ -6718,11 +6718,11 @@
 Zkouška je formou ústního zkoušení.</t>
   </si>
   <si>
-    <t>Zpracování semestrálního úkolu - geologická mapa a geologický profil malým územím.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 zápočtový test, ústní zkouška.</t>
+  </si>
+  <si>
+    <t>Zpracování semestrálního úkolu - geologická mapa a geologický profil malým územím.</t>
   </si>
   <si>
     <t>Zápočet je formou zápočtové písemné práce.
@@ -7228,10 +7228,10 @@
     <t>Kromě účasti na cvičeních je podmínkou udělení zápočtu získání alespoň polovičního množství bodů ze tří zápočtových písemných prací, které studenti píšou v průběhu semestru a odevzdání všech seminárních prací.</t>
   </si>
   <si>
+    <t>Písemný zápočtový test, ústní zkouška (3 otázky)</t>
+  </si>
+  <si>
     <t>Předpokládají se znalosti principů molekulární biologie a zásad práce v laboratoři na úrovni bakalářského studia</t>
-  </si>
-  <si>
-    <t>Písemný zápočtový test, ústní zkouška (3 otázky)</t>
   </si>
   <si>
     <t>Zápočet: řešení příkladů_x000D_
@@ -7527,23 +7527,6 @@
 11. Imunotoxicita nanočástic
 12. Regulace, testování toxicity, bezpečnost nanočástic
 13. Hodnocení rizika nanočástic - koncept BED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Metody studia vnitřní stavby Země. Seismický model, jeho hlavní strukturní složky a diskontinuity.
-2. Zemská kůra - chemické, minerální a horninové složení.  Kritéria pro klasifikaci minerálů - systém minerálů a jeho hlavní reprezentanti.  Kritéria pro klasifikaci hornin -  systém hornin a jeho hlavní reprezentanti. 
-3. Zemská kůra, kontinentální a oceánský typ. Morfostrukturní jednotky zemské kůry (hypsografická křivka), kratogeny, pevninská pohoří, pevninský svah, úpatí, oceánská pánev, hlubokomořské příkopy. 
-4. Zemský plášť a jeho strukturní složky (litosféra, astenosféra, střední plášť, spodní plášť), vnější jádro, jadérko. Termální model Země, teplota a tepelný tok v zemském tělese. Geotermální energie.  
-5. Teorie deskové tektoniky, její východiska a základní principy.  Pohyb litosférických desek a pohyb plášťových hmot. Divergentní hranice mezi deskami, pevninský, mezipevninský a oceánský rift. Konvergentní hranice mezi deskami, typy subdukce (japonský, andský, himalájský typ), obdukce. Transformní hranice. 
-6. Tektogeneze a její fáze podle Wilsnova cyklu. Magmatismus, metamorfismus a orogeneze v  riftogenezi a kratonizaci.    
-7. Geografické důsledky deskové tektoniky. Geologický cyklus, vývoj zemské kůry na Zemi. Paleogeografie - rekonstrukce pohybu litosférických desek v minulosti. Neotektonika a její regionální projevy.  
-8. Zemětřesení, jeho typy a  klasifikační stupnice. Geografické rozšíření seismických jevů.  Epeirogeneze  a její důsledky. 
-9. Magmatismus, jeho typy a klasifikace. Krystalizace magmatu,  struktury magmatitů a typy magmatických těles. Systém magmatitů a jeho klasifikační kritéria. 
-10. Vulkanismus, tvary těles vulkanitů, sopečné produkty a postvulkanické jevy. Geografické rozšíření vulkanických pásem na Zemi. 
-11. Metamorfóza, její procesy, typy a činitelé. Migmatitizace. Systém metamorfitů a jeho klasifikační kritéria. 
-12. Zvětrávání hornin, jeho typy a činitelé.  Mechanické zvětrávání  (dezintegrace, deskvamace, kongelifrakce, exfoliace), zvětrávání  chemické a biologické.
-13. Geneze sedimentů. Transport, sedimentace, sedimentační prostředí. Úložné poměry sedimentů (stratigrafický hiát, konkordance, diskordance). Systém sedimentů a jeho klasifikační kritéria. 
-14. Geologické struktury.  
-</t>
   </si>
   <si>
     <t>Úvod do problematiky: charakteristika hlavních přednášených částí - látky obsažené v přírodních zdrojích, pesticidy a
@@ -7567,6 +7550,23 @@
 Látky izolované ze živočichů - rozdělení podle rodů - látky produkované hmyzem, látky izolované z měkkýšů, látky
 izolované z obratlovců (toxiny, barviva, léčiva). Struktura hlavních látek, význam v historii a v současnosti.
 Studijní literatura a studijní pomůcky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Metody studia vnitřní stavby Země. Seismický model, jeho hlavní strukturní složky a diskontinuity.
+2. Zemská kůra - chemické, minerální a horninové složení.  Kritéria pro klasifikaci minerálů - systém minerálů a jeho hlavní reprezentanti.  Kritéria pro klasifikaci hornin -  systém hornin a jeho hlavní reprezentanti. 
+3. Zemská kůra, kontinentální a oceánský typ. Morfostrukturní jednotky zemské kůry (hypsografická křivka), kratogeny, pevninská pohoří, pevninský svah, úpatí, oceánská pánev, hlubokomořské příkopy. 
+4. Zemský plášť a jeho strukturní složky (litosféra, astenosféra, střední plášť, spodní plášť), vnější jádro, jadérko. Termální model Země, teplota a tepelný tok v zemském tělese. Geotermální energie.  
+5. Teorie deskové tektoniky, její východiska a základní principy.  Pohyb litosférických desek a pohyb plášťových hmot. Divergentní hranice mezi deskami, pevninský, mezipevninský a oceánský rift. Konvergentní hranice mezi deskami, typy subdukce (japonský, andský, himalájský typ), obdukce. Transformní hranice. 
+6. Tektogeneze a její fáze podle Wilsnova cyklu. Magmatismus, metamorfismus a orogeneze v  riftogenezi a kratonizaci.    
+7. Geografické důsledky deskové tektoniky. Geologický cyklus, vývoj zemské kůry na Zemi. Paleogeografie - rekonstrukce pohybu litosférických desek v minulosti. Neotektonika a její regionální projevy.  
+8. Zemětřesení, jeho typy a  klasifikační stupnice. Geografické rozšíření seismických jevů.  Epeirogeneze  a její důsledky. 
+9. Magmatismus, jeho typy a klasifikace. Krystalizace magmatu,  struktury magmatitů a typy magmatických těles. Systém magmatitů a jeho klasifikační kritéria. 
+10. Vulkanismus, tvary těles vulkanitů, sopečné produkty a postvulkanické jevy. Geografické rozšíření vulkanických pásem na Zemi. 
+11. Metamorfóza, její procesy, typy a činitelé. Migmatitizace. Systém metamorfitů a jeho klasifikační kritéria. 
+12. Zvětrávání hornin, jeho typy a činitelé.  Mechanické zvětrávání  (dezintegrace, deskvamace, kongelifrakce, exfoliace), zvětrávání  chemické a biologické.
+13. Geneze sedimentů. Transport, sedimentace, sedimentační prostředí. Úložné poměry sedimentů (stratigrafický hiát, konkordance, diskordance). Systém sedimentů a jeho klasifikační kritéria. 
+14. Geologické struktury.  
+</t>
   </si>
   <si>
     <t>1. Seznámení s předmětem, definice oboru a oblastí zájmu medicíny katastrof.
@@ -8266,14 +8266,6 @@
 porozita, krystalinita aj.) a jejich vztah k chemické analýze.</t>
   </si>
   <si>
-    <t>Obsah 1. bloku:
-Základní pojmy toxikologie: Toxikologické disciplíny a jejich souvislost s lékařskými a chemickými obory: 
-Pojem toxická látka. Letální dávka. Expozice. 
-Obecná toxikologie: Cesty a mechanismy vstupu jedů do organismu, brány vstupu, vstřebávání toxinů, jejich metabolismus. Distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Zásady pro bezpečnou práci v chemických laboratořích, první předlékařská pomoc. Speciální toxikologie: toxikologické vlastnosti toxikologicky významných látek v rámci jednotlivých prvků hlavních a vedlejších skupin PSP a jejich sloučenin.
-Obsah 2. bloku:
-Speciální toxikologie: toxické vlastnosti vybraných toxikologicky významných organických látek (po skupinách podle funkčních skupin), živočišné jedy, fytotoxikologie, toxikologie omamných látek a některých běžně užívaných léků. Základy vojenské toxikologie.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.Těleso, vektorové prostory (význačné příklady)
 2. - 3.	Maticový počet
 4. - 5.	Soustavy lineárních rovnic (maticový zápis soustavy, Gauss-Jordanova eliminační metoda)
@@ -8284,6 +8276,14 @@
 12. - 13. Determinanty (definice, základní vlastnosti, Laplaceův rozvoj, výpočet determinantu, inverzní matice, Cramerovy formule)
 14. Vlastní čísla a vlastní vektory matice, charakteristický polynom
 </t>
+  </si>
+  <si>
+    <t>Obsah 1. bloku:
+Základní pojmy toxikologie: Toxikologické disciplíny a jejich souvislost s lékařskými a chemickými obory: 
+Pojem toxická látka. Letální dávka. Expozice. 
+Obecná toxikologie: Cesty a mechanismy vstupu jedů do organismu, brány vstupu, vstřebávání toxinů, jejich metabolismus. Distribuce a kinetika toxických látek v organismu a možnosti eliminace toxických látek z organismu. Zásady pro bezpečnou práci v chemických laboratořích, první předlékařská pomoc. Speciální toxikologie: toxikologické vlastnosti toxikologicky významných látek v rámci jednotlivých prvků hlavních a vedlejších skupin PSP a jejich sloučenin.
+Obsah 2. bloku:
+Speciální toxikologie: toxické vlastnosti vybraných toxikologicky významných organických látek (po skupinách podle funkčních skupin), živočišné jedy, fytotoxikologie, toxikologie omamných látek a některých běžně užívaných léků. Základy vojenské toxikologie.</t>
   </si>
   <si>
     <t>1. základní pojmy, historie toxikologie, toxikologie a její dělení
@@ -8419,6 +8419,14 @@
 13. Aproximace funkcí polynomy, Taylorovy polynomy
 14. Goniometrické funkce pomocí Taylorových řad.
 15. Opakování</t>
+  </si>
+  <si>
+    <t>Obsah 1. bloku: 
+Úvod - význam a základní principy organické chemie. Vazby v organických sloučeninách:  Kyseliny a báze, elektrofily a nukleofily, funkční skupiny. Alkany, izomerie, konformace cykloalkanů. Chiralita obecně a chirální molekuly. Stereochemie v chemických reakcích. Haloalkany: SN2 substituce, SN1 substituce, stabilita karbokationtů. Mono- a bimolekulární eliminace E1 a E2, konkurence mezi substitucí a eliminací. Alkoholy: acidobazické vlastnosti, syntéza. Organokovové sloučeniny. Příprava a použití alkoxidů. Přesmyky karbokationtů.  Ethery a analogy alkoholů a etherů se sírou.
+Obsah 2. bloku: 
+NMR pro určení struktury organických sloučenin.  Alkeny. Infračervená spektroskopie. Alkyny a trojná vazba. Příprava alkynů, reakce alkynů. Delokalizované p-systémy, 2-propenylový (allylový) systém, konjugované dieny. Dielsova-Alderova cykloadice. UV/VIS spektroskopie. Benzen a aromaticita, Hückelovo pravidlo.  Elektrofilní aromatická substituce. Aktivační a deaktivační vlivy substituentů, řízení substituce. Benzylový systém. Fenoly a nukleofilní aromatická substituce. Arendiazoniové soli. Aldehydy a ketony. Reakce karbonylové skupiny. a,b-Nenasycené aldehydy a ketony. Enoly, enoláty, aldolová kondenzace. Konjugované adice na a,b-nenasycené aldehydy a ketony. Michaelova adice.
+Obsah 3. bloku: 
+Karboxylové kyseliny a jejich funkční deriváty. Acidobazické vlastnosti, syntéza. Adičně-eliminační mechanismus substituce na karboxylovém uhlíku. Hmotnostní spektrometrie. Aminy, jejich deriváty a další funkční skupiny obsahující dusík. Kvarterní amoniové soli a Hofmannova eliminace. Mannichova reakce a nitrosace aminů. b-Dikarbonylové sloučeniny. Claisenova kondenzace a ostatní použití b-dikarbonylových sloučenin jako syntetických intermediátů. Aromatické a nearomatické pětičlenné a šestičlenné heterocykly s dusíkem, kyslíkem a sírou.</t>
   </si>
   <si>
     <t xml:space="preserve">1. blok 2 hod. SK + 3 hod. PS 
@@ -8508,14 +8516,6 @@
 </t>
   </si>
   <si>
-    <t>Obsah 1. bloku: 
-Úvod - význam a základní principy organické chemie. Vazby v organických sloučeninách:  Kyseliny a báze, elektrofily a nukleofily, funkční skupiny. Alkany, izomerie, konformace cykloalkanů. Chiralita obecně a chirální molekuly. Stereochemie v chemických reakcích. Haloalkany: SN2 substituce, SN1 substituce, stabilita karbokationtů. Mono- a bimolekulární eliminace E1 a E2, konkurence mezi substitucí a eliminací. Alkoholy: acidobazické vlastnosti, syntéza. Organokovové sloučeniny. Příprava a použití alkoxidů. Přesmyky karbokationtů.  Ethery a analogy alkoholů a etherů se sírou.
-Obsah 2. bloku: 
-NMR pro určení struktury organických sloučenin.  Alkeny. Infračervená spektroskopie. Alkyny a trojná vazba. Příprava alkynů, reakce alkynů. Delokalizované p-systémy, 2-propenylový (allylový) systém, konjugované dieny. Dielsova-Alderova cykloadice. UV/VIS spektroskopie. Benzen a aromaticita, Hückelovo pravidlo.  Elektrofilní aromatická substituce. Aktivační a deaktivační vlivy substituentů, řízení substituce. Benzylový systém. Fenoly a nukleofilní aromatická substituce. Arendiazoniové soli. Aldehydy a ketony. Reakce karbonylové skupiny. a,b-Nenasycené aldehydy a ketony. Enoly, enoláty, aldolová kondenzace. Konjugované adice na a,b-nenasycené aldehydy a ketony. Michaelova adice.
-Obsah 3. bloku: 
-Karboxylové kyseliny a jejich funkční deriváty. Acidobazické vlastnosti, syntéza. Adičně-eliminační mechanismus substituce na karboxylovém uhlíku. Hmotnostní spektrometrie. Aminy, jejich deriváty a další funkční skupiny obsahující dusík. Kvarterní amoniové soli a Hofmannova eliminace. Mannichova reakce a nitrosace aminů. b-Dikarbonylové sloučeniny. Claisenova kondenzace a ostatní použití b-dikarbonylových sloučenin jako syntetických intermediátů. Aromatické a nearomatické pětičlenné a šestičlenné heterocykly s dusíkem, kyslíkem a sírou.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Mechanika hmotných bodů. Základní hypotézy klasické mechaniky, vztažný systém, Newtonovy pohybové zákony. Pohyb hmotného bodu._x000D_
 2. Inerciální a neinerciální s.s., pravé a zdánlivé síly. _x000D_
 3. Impulsové věty a zákony zachování hybnosti a momentu hybnosti pro soustavu hmotných bodů._x000D_
@@ -8561,12 +8561,6 @@
 9. Axiomatika</t>
   </si>
   <si>
-    <t>Blok 1.
-Rovnovážné vlastnosti plynů, kapalin a pevných látek. Klasická termodynamika. Fázová rovnováha v jednosložkových systémech.
-Blok 2.
-Chemická rovnováha. Chemická kinetika. Elektrochemie.</t>
-  </si>
-  <si>
     <t>1. Primitivní funkce, základní vlastnosti, per partes_x000D_
 2. Substituce, rozklad rac. funkcí na parc. zlomky_x000D_
 3. Integrace parc. zlomků, převody na rac. funkce_x000D_
@@ -8582,6 +8576,12 @@
 13. Extrémy funkcí více proměnných (i vázané) Integrování funkcí více proměnných_x000D_
 14. Integrování funkcí více proměnných_x000D_
 15. Extrémy, opakování</t>
+  </si>
+  <si>
+    <t>Blok 1.
+Rovnovážné vlastnosti plynů, kapalin a pevných látek. Klasická termodynamika. Fázová rovnováha v jednosložkových systémech.
+Blok 2.
+Chemická rovnováha. Chemická kinetika. Elektrochemie.</t>
   </si>
   <si>
     <t>Úvod do fyzikální chemie: Rozvoj metod v 19. a 20. století, vlastnosti stavové/nestavové, vývoj disciplin - nauky o struktuře atomů a molekul, termodynamiky klasické a statistické, reakční kinetiky.   
@@ -9535,14 +9535,6 @@
 Programy EU, nadace apod).</t>
   </si>
   <si>
-    <t xml:space="preserve">Předmět bude zahrnovat tři tematické okruhy: 
-Fyzikální metody přípravy nanomateriálů, chemické metody přípravy nanomateriálů a bionanotechnologie.
-1)	Teoretické základy fyzikálních metod přípravy nanomateriálů - top-down versus bottom -   up procesy, plazmové depozice tenkých vrstev a nanočástic, plazmové modifikace a funkcionalizace povrchů, litografické techniky (EBL, UV - litografie, milling techniky, AFM litografie, koloidní a polymerní templátová nanolitografie.
-2)	Chemické metody přípravy nanomateriálů - příprava nanostruktur nulté dimenze (0D), příprava jednodimenzioálních nanostruktur (1D) - nanodrátky, nanotrubičky, příprava dvoudimenzionálních nanostruktur (2D) - nanostrukturované povrchy, interkalace, chemické metody depozice nanočástic a chemické modifikace povrchů, hybridní organo-inorganické nanostruktury, dendrimerní nanokompozity.
-3)       Bionanotechnologie, příprava nanočástic pomocí mikroorganismů
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Teorie regionálního rozvoje, definice rozvojových problémů.
 2. Hlavní teoreticko-metodologické přístupy ve 20. a 21. století.
 3. Hlavní teorie v moderní ekonomii.
@@ -9575,6 +9567,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Předmět bude zahrnovat tři tematické okruhy: 
+Fyzikální metody přípravy nanomateriálů, chemické metody přípravy nanomateriálů a bionanotechnologie.
+1)	Teoretické základy fyzikálních metod přípravy nanomateriálů - top-down versus bottom -   up procesy, plazmové depozice tenkých vrstev a nanočástic, plazmové modifikace a funkcionalizace povrchů, litografické techniky (EBL, UV - litografie, milling techniky, AFM litografie, koloidní a polymerní templátová nanolitografie.
+2)	Chemické metody přípravy nanomateriálů - příprava nanostruktur nulté dimenze (0D), příprava jednodimenzioálních nanostruktur (1D) - nanodrátky, nanotrubičky, příprava dvoudimenzionálních nanostruktur (2D) - nanostrukturované povrchy, interkalace, chemické metody depozice nanočástic a chemické modifikace povrchů, hybridní organo-inorganické nanostruktury, dendrimerní nanokompozity.
+3)       Bionanotechnologie, příprava nanočástic pomocí mikroorganismů
+</t>
+  </si>
+  <si>
     <t>1.	Spojitost a limity funkcí více proměnných
 2.	Parciální derivace, gradient
 3.	Použití parc. derivace (implicitní funkce, nevázané extrémy)
@@ -9617,24 +9617,6 @@
 10. Přístup kritického realismu.
 11. Postmoderní přístupy.
 12. Závěr: multiparadigmatický vývoj socální geografie.</t>
-  </si>
-  <si>
-    <t>1. Význam vakuové fyziky ve vědě a technice.
-2. Vybrané kapitoly z kinetické teorie plynů, režimy proudění plynů, vakuová vodivost, proudění plynu
-netěsnostmi.
-3. Povrchové procesy: vazby molekul a atomů, fyzikální a chemická sorpce a desorpce, adsorpční izotermy.
-4. Tlak nasycených par, odpařování.
-5. Materiály pro vakuovou techniku.
-6. Metody získávání nízkých tlaků: čerpací rychlost, časový průběh čerpacího procesu, mezní tlak, zbytková
-atmosféra.
-7. Vývěvy s pracovní komorou: pístové, s valivým pístem, olejové a suché rotační vývěvy, šroubové vývěvy.
-8. Vývěvy s přenosem impulsu: Rootsovy vývěvy, molekulární a turbomolekulární vývěvy.
-9. Vývěvy s proudem pracovní tekutiny: vodní vývěva, difúzní vývěvy.
-10. Vývěvy s vazbou molekul: kryosorpční, zeolitové, sublimační vývěvy.
-11. Měření nízkých tlaků: membránové a kompresní vakuoměry, tepelné vakuoměry, ionizační vakuoměry.
-12. Měření parciálních tlaků, hledání netěsností vakuových soustav.
-13. Stavební prvky vakuových soustav, spoje, příruby, těsnění, přenos pohybu do vakua. Zásady práce s vakuovými
-systémy, vakuová hygiena.</t>
   </si>
   <si>
     <t>1. Úvod: význam a úloha analytické chemie v průmyslu, farmacii a ochraně životního prostředí.
@@ -9654,6 +9636,24 @@
 13. Vzorkování v provozech - potravinářský průmysl, farmaceutický průmysl, chemický průmysl, sledování
 kvality a stanovení nejistoty
 14. Příprava vzorku a validace metod v toxikologických laboratořích</t>
+  </si>
+  <si>
+    <t>1. Význam vakuové fyziky ve vědě a technice.
+2. Vybrané kapitoly z kinetické teorie plynů, režimy proudění plynů, vakuová vodivost, proudění plynu
+netěsnostmi.
+3. Povrchové procesy: vazby molekul a atomů, fyzikální a chemická sorpce a desorpce, adsorpční izotermy.
+4. Tlak nasycených par, odpařování.
+5. Materiály pro vakuovou techniku.
+6. Metody získávání nízkých tlaků: čerpací rychlost, časový průběh čerpacího procesu, mezní tlak, zbytková
+atmosféra.
+7. Vývěvy s pracovní komorou: pístové, s valivým pístem, olejové a suché rotační vývěvy, šroubové vývěvy.
+8. Vývěvy s přenosem impulsu: Rootsovy vývěvy, molekulární a turbomolekulární vývěvy.
+9. Vývěvy s proudem pracovní tekutiny: vodní vývěva, difúzní vývěvy.
+10. Vývěvy s vazbou molekul: kryosorpční, zeolitové, sublimační vývěvy.
+11. Měření nízkých tlaků: membránové a kompresní vakuoměry, tepelné vakuoměry, ionizační vakuoměry.
+12. Měření parciálních tlaků, hledání netěsností vakuových soustav.
+13. Stavební prvky vakuových soustav, spoje, příruby, těsnění, přenos pohybu do vakua. Zásady práce s vakuovými
+systémy, vakuová hygiena.</t>
   </si>
   <si>
     <t xml:space="preserve">1) Charakteristika globalizace a další základní pojmy_x000D_
@@ -9774,6 +9774,19 @@
 Úvod do studia mechanismů organických reakcí</t>
   </si>
   <si>
+    <t>1. Základní mikroskopické, cytogenetické techniky, zhotovování preparátů, mikroskopická,
+submikroskopická stavba chromozomů, chromatidy, ramena, primární a sekundární konstrikce,
+telomery,
+2. Karyotyp, idiogram, proužkovací techniky( Q-, G-, R-, C-, N-banding),.
+3. Buněčný cyklus, mitoza, meioza
+4. Klastogeny, poškození DNA v důsledku působení biologických, fyzikálních, chemických faktorů
+5. Typy aberací, cytogenetické testy
+6. Vrozené poruchy lidských chromozomů,
+7. Cytogenetika nádorové buňky
+8. metody prenatálního skríninku, FISH, CGH,
+9. Pohlavní chromozomy</t>
+  </si>
+  <si>
     <t>1. Obecná základní část:
 Kousek historie. Myšlenka hlavní a vedlejší valence. Wernerovská chemie a Nobelova cena za chemii.
 Topologie v koordinační chemii. Názvosloví a základní pojmy. Isomerie a symetrie. Koordinační polyedry. Chiralita koordinačních sloučenin.
@@ -9798,19 +9811,6 @@
 Redox děje ve spojení s komplexními sloučeninami, cesty přenosu elektronu.
 Vícejaderné komplexní sloučeniny, isopolykyseliny a heteropolykyseliny, komplexy s vazbou kov ? kov, klastry.
 Koordinační sloučeniny v supramolekulární chemii, molekulární rozpoznávání.</t>
-  </si>
-  <si>
-    <t>1. Základní mikroskopické, cytogenetické techniky, zhotovování preparátů, mikroskopická,
-submikroskopická stavba chromozomů, chromatidy, ramena, primární a sekundární konstrikce,
-telomery,
-2. Karyotyp, idiogram, proužkovací techniky( Q-, G-, R-, C-, N-banding),.
-3. Buněčný cyklus, mitoza, meioza
-4. Klastogeny, poškození DNA v důsledku působení biologických, fyzikálních, chemických faktorů
-5. Typy aberací, cytogenetické testy
-6. Vrozené poruchy lidských chromozomů,
-7. Cytogenetika nádorové buňky
-8. metody prenatálního skríninku, FISH, CGH,
-9. Pohlavní chromozomy</t>
   </si>
   <si>
     <t xml:space="preserve">1. Krajina jako supersystém, terminologie.
@@ -10725,22 +10725,22 @@
     <t>[0]</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>11</t>
@@ -13080,9 +13080,7 @@
       <c r="BP12" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="BQ12" s="1" t="s">
-        <v>2181</v>
-      </c>
+      <c r="BQ12" s="1"/>
     </row>
     <row r="13" spans="1:69">
       <c r="A13" s="1" t="s">
@@ -13237,7 +13235,9 @@
       <c r="BP13" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="BQ13" s="1"/>
+      <c r="BQ13" s="1" t="s">
+        <v>2182</v>
+      </c>
     </row>
     <row r="14" spans="1:69">
       <c r="A14" s="1" t="s">
@@ -13823,9 +13823,15 @@
       <c r="BN17" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
+      <c r="BO17" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>2182</v>
+      </c>
     </row>
     <row r="18" spans="1:69">
       <c r="A18" s="1" t="s">
@@ -13974,19 +13980,13 @@
       <c r="BN18" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="BO18" s="1" t="s">
-        <v>2177</v>
-      </c>
-      <c r="BP18" s="1" t="s">
-        <v>2181</v>
-      </c>
-      <c r="BQ18" s="1" t="s">
-        <v>2181</v>
-      </c>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="1"/>
     </row>
     <row r="19" spans="1:69">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>91</v>
@@ -13998,7 +13998,7 @@
         <v>373</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>373</v>
+        <v>543</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>564</v>
@@ -14014,31 +14014,27 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>652</v>
+        <v>577</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>1243</v>
-      </c>
+        <v>1077</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -14049,12 +14045,12 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
+      <c r="AA19" s="1" t="s">
+        <v>1321</v>
+      </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1" t="s">
-        <v>1454</v>
-      </c>
+      <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -14062,13 +14058,13 @@
         <v>565</v>
       </c>
       <c r="AI19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ19" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1" t="s">
         <v>1628</v>
@@ -14079,9 +14075,7 @@
       <c r="AN19" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO19" s="1" t="s">
-        <v>1640</v>
-      </c>
+      <c r="AO19" s="1"/>
       <c r="AP19" s="1" t="s">
         <v>1799</v>
       </c>
@@ -14135,21 +14129,15 @@
         <v>564</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="BO19" s="1" t="s">
-        <v>2178</v>
-      </c>
-      <c r="BP19" s="1" t="s">
-        <v>2183</v>
-      </c>
-      <c r="BQ19" s="1" t="s">
-        <v>2178</v>
-      </c>
+        <v>2176</v>
+      </c>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
     </row>
     <row r="20" spans="1:69">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>91</v>
@@ -14161,7 +14149,7 @@
         <v>374</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>543</v>
+        <v>374</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>564</v>
@@ -14177,27 +14165,31 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+        <v>1080</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>1243</v>
+      </c>
       <c r="S20" s="1" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -14208,12 +14200,12 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>1321</v>
-      </c>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>1454</v>
+      </c>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -14221,13 +14213,13 @@
         <v>565</v>
       </c>
       <c r="AI20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="1" t="s">
         <v>1628</v>
@@ -14238,7 +14230,9 @@
       <c r="AN20" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO20" s="1"/>
+      <c r="AO20" s="1" t="s">
+        <v>1640</v>
+      </c>
       <c r="AP20" s="1" t="s">
         <v>1799</v>
       </c>
@@ -14292,11 +14286,17 @@
         <v>564</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>2176</v>
-      </c>
-      <c r="BO20" s="1"/>
-      <c r="BP20" s="1"/>
-      <c r="BQ20" s="1"/>
+        <v>722</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>2177</v>
+      </c>
     </row>
     <row r="21" spans="1:69">
       <c r="A21" s="1" t="s">
@@ -14607,10 +14607,10 @@
         <v>2023</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>564</v>
@@ -14704,7 +14704,7 @@
         <v>1801</v>
       </c>
       <c r="AS23" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="AT23" s="1" t="s">
         <v>1961</v>
@@ -14756,7 +14756,7 @@
         <v>2184</v>
       </c>
       <c r="BQ23" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="24" spans="1:69">
@@ -15223,7 +15223,7 @@
         <v>722</v>
       </c>
       <c r="BO26" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="BP26" s="1" t="s">
         <v>2185</v>
@@ -15382,7 +15382,7 @@
         <v>722</v>
       </c>
       <c r="BO27" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="BP27" s="1" t="s">
         <v>2180</v>
@@ -18317,7 +18317,7 @@
         <v>2023</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>543</v>
@@ -18408,10 +18408,10 @@
         <v>1801</v>
       </c>
       <c r="AS47" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
@@ -23272,7 +23272,7 @@
     </row>
     <row r="79" spans="1:69">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>148</v>
@@ -23337,15 +23337,11 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
-      <c r="AC79" s="1" t="s">
-        <v>1394</v>
-      </c>
+      <c r="AC79" s="1"/>
       <c r="AD79" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="AE79" s="1" t="s">
-        <v>1598</v>
-      </c>
+      <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1" t="s">
@@ -23406,7 +23402,7 @@
       <c r="BE79" s="1"/>
       <c r="BF79" s="1"/>
       <c r="BG79" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BH79" s="1" t="s">
         <v>565</v>
@@ -23416,9 +23412,7 @@
         <v>0</v>
       </c>
       <c r="BK79" s="1"/>
-      <c r="BL79" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL79" s="1"/>
       <c r="BM79" s="1" t="s">
         <v>564</v>
       </c>
@@ -23431,7 +23425,7 @@
     </row>
     <row r="80" spans="1:69">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>148</v>
@@ -23496,11 +23490,15 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
+      <c r="AC80" s="1" t="s">
+        <v>1394</v>
+      </c>
       <c r="AD80" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="AE80" s="1"/>
+      <c r="AE80" s="1" t="s">
+        <v>1598</v>
+      </c>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1" t="s">
@@ -23561,7 +23559,7 @@
       <c r="BE80" s="1"/>
       <c r="BF80" s="1"/>
       <c r="BG80" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH80" s="1" t="s">
         <v>565</v>
@@ -23571,7 +23569,9 @@
         <v>0</v>
       </c>
       <c r="BK80" s="1"/>
-      <c r="BL80" s="1"/>
+      <c r="BL80" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM80" s="1" t="s">
         <v>564</v>
       </c>
@@ -23743,7 +23743,7 @@
     </row>
     <row r="82" spans="1:69">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>150</v>
@@ -23755,29 +23755,29 @@
         <v>413</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>547</v>
+        <v>413</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H82" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>813</v>
@@ -23788,10 +23788,14 @@
       <c r="P82" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
+      <c r="Q82" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>1246</v>
+      </c>
       <c r="S82" s="1" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -23812,7 +23816,7 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AI82" s="2">
         <v>2</v>
@@ -23821,7 +23825,7 @@
         <v>1628</v>
       </c>
       <c r="AK82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="1" t="s">
         <v>1628</v>
@@ -23869,7 +23873,7 @@
       <c r="BE82" s="1"/>
       <c r="BF82" s="1"/>
       <c r="BG82" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH82" s="1" t="s">
         <v>565</v>
@@ -23879,7 +23883,9 @@
         <v>0</v>
       </c>
       <c r="BK82" s="1"/>
-      <c r="BL82" s="1"/>
+      <c r="BL82" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM82" s="1" t="s">
         <v>564</v>
       </c>
@@ -23892,7 +23898,7 @@
     </row>
     <row r="83" spans="1:69">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>150</v>
@@ -23904,29 +23910,29 @@
         <v>414</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>414</v>
+        <v>547</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>564</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H83" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>814</v>
@@ -23937,14 +23943,10 @@
       <c r="P83" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="Q83" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>1246</v>
-      </c>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
       <c r="S83" s="1" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -23965,7 +23967,7 @@
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI83" s="2">
         <v>2</v>
@@ -23974,7 +23976,7 @@
         <v>1628</v>
       </c>
       <c r="AK83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="1" t="s">
         <v>1628</v>
@@ -24022,7 +24024,7 @@
       <c r="BE83" s="1"/>
       <c r="BF83" s="1"/>
       <c r="BG83" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BH83" s="1" t="s">
         <v>565</v>
@@ -24032,9 +24034,7 @@
         <v>0</v>
       </c>
       <c r="BK83" s="1"/>
-      <c r="BL83" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL83" s="1"/>
       <c r="BM83" s="1" t="s">
         <v>564</v>
       </c>
@@ -24047,7 +24047,7 @@
     </row>
     <row r="84" spans="1:69">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>151</v>
@@ -24068,20 +24068,20 @@
         <v>565</v>
       </c>
       <c r="H84" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>661</v>
+        <v>603</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>815</v>
@@ -24092,10 +24092,14 @@
       <c r="P84" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
+      <c r="Q84" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>959</v>
+      </c>
       <c r="S84" s="1" t="s">
-        <v>722</v>
+        <v>1113</v>
       </c>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -24108,9 +24112,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
-      <c r="AC84" s="1" t="s">
-        <v>1396</v>
-      </c>
+      <c r="AC84" s="1"/>
       <c r="AD84" s="1" t="s">
         <v>1478</v>
       </c>
@@ -24121,13 +24123,13 @@
         <v>565</v>
       </c>
       <c r="AI84" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ84" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK84" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AL84" s="1" t="s">
         <v>1629</v>
@@ -24145,21 +24147,25 @@
         <v>1799</v>
       </c>
       <c r="AQ84" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR84" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS84" s="1"/>
+      <c r="AS84" s="1" t="s">
+        <v>1841</v>
+      </c>
       <c r="AT84" s="1" t="s">
         <v>1994</v>
       </c>
-      <c r="AU84" s="1"/>
+      <c r="AU84" s="1" t="s">
+        <v>2133</v>
+      </c>
       <c r="AV84" s="1"/>
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
       <c r="AY84" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1" t="s">
@@ -24178,14 +24184,16 @@
         <v>565</v>
       </c>
       <c r="BH84" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI84" s="1"/>
       <c r="BJ84" s="2">
         <v>0</v>
       </c>
       <c r="BK84" s="1"/>
-      <c r="BL84" s="1"/>
+      <c r="BL84" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM84" s="1" t="s">
         <v>564</v>
       </c>
@@ -24198,7 +24206,7 @@
     </row>
     <row r="85" spans="1:69">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>151</v>
@@ -24219,20 +24227,20 @@
         <v>565</v>
       </c>
       <c r="H85" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>603</v>
+        <v>661</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>816</v>
@@ -24243,14 +24251,10 @@
       <c r="P85" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="Q85" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>960</v>
-      </c>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
       <c r="S85" s="1" t="s">
-        <v>1114</v>
+        <v>722</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -24263,7 +24267,9 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
+      <c r="AC85" s="1" t="s">
+        <v>1396</v>
+      </c>
       <c r="AD85" s="1" t="s">
         <v>1479</v>
       </c>
@@ -24274,13 +24280,13 @@
         <v>565</v>
       </c>
       <c r="AI85" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ85" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK85" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AL85" s="1" t="s">
         <v>1629</v>
@@ -24298,25 +24304,21 @@
         <v>1799</v>
       </c>
       <c r="AQ85" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR85" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS85" s="1" t="s">
-        <v>1841</v>
-      </c>
+      <c r="AS85" s="1"/>
       <c r="AT85" s="1" t="s">
         <v>1995</v>
       </c>
-      <c r="AU85" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="AU85" s="1"/>
       <c r="AV85" s="1"/>
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
       <c r="AY85" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1" t="s">
@@ -24335,16 +24337,14 @@
         <v>565</v>
       </c>
       <c r="BH85" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI85" s="1"/>
       <c r="BJ85" s="2">
         <v>0</v>
       </c>
       <c r="BK85" s="1"/>
-      <c r="BL85" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL85" s="1"/>
       <c r="BM85" s="1" t="s">
         <v>564</v>
       </c>
@@ -25436,7 +25436,7 @@
     </row>
     <row r="93" spans="1:69">
       <c r="A93" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>158</v>
@@ -25448,7 +25448,7 @@
         <v>422</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>548</v>
+        <v>422</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>565</v>
@@ -25457,20 +25457,20 @@
         <v>564</v>
       </c>
       <c r="H93" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>822</v>
@@ -25502,7 +25502,9 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
+      <c r="AD93" s="1" t="s">
+        <v>1484</v>
+      </c>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
@@ -25510,7 +25512,7 @@
         <v>565</v>
       </c>
       <c r="AI93" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ93" s="1" t="s">
         <v>1629</v>
@@ -25537,8 +25539,12 @@
       <c r="AR93" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS93" s="1"/>
-      <c r="AT93" s="1"/>
+      <c r="AS93" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AT93" s="1" t="s">
+        <v>2002</v>
+      </c>
       <c r="AU93" s="1"/>
       <c r="AV93" s="1"/>
       <c r="AW93" s="1"/>
@@ -25563,7 +25569,7 @@
         <v>565</v>
       </c>
       <c r="BH93" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI93" s="1"/>
       <c r="BJ93" s="2">
@@ -25585,7 +25591,7 @@
     </row>
     <row r="94" spans="1:69">
       <c r="A94" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>158</v>
@@ -25597,7 +25603,7 @@
         <v>423</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>423</v>
+        <v>548</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>565</v>
@@ -25606,20 +25612,20 @@
         <v>564</v>
       </c>
       <c r="H94" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>823</v>
@@ -25651,9 +25657,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
-      <c r="AD94" s="1" t="s">
-        <v>1484</v>
-      </c>
+      <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
@@ -25661,7 +25665,7 @@
         <v>565</v>
       </c>
       <c r="AI94" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ94" s="1" t="s">
         <v>1629</v>
@@ -25688,12 +25692,8 @@
       <c r="AR94" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS94" s="1" t="s">
-        <v>1847</v>
-      </c>
-      <c r="AT94" s="1" t="s">
-        <v>2002</v>
-      </c>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
       <c r="AU94" s="1"/>
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
@@ -25718,7 +25718,7 @@
         <v>565</v>
       </c>
       <c r="BH94" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI94" s="1"/>
       <c r="BJ94" s="2">
@@ -25901,7 +25901,7 @@
     </row>
     <row r="96" spans="1:69">
       <c r="A96" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>159</v>
@@ -25910,10 +25910,10 @@
         <v>2023</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>564</v>
@@ -25929,48 +25929,48 @@
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>590</v>
+        <v>783</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>656</v>
+        <v>925</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>712</v>
+        <v>1081</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>1215</v>
+        <v>783</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>1247</v>
+        <v>925</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>1280</v>
-      </c>
-      <c r="T96" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="U96" s="1" t="s">
-        <v>1247</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
       <c r="V96" s="1" t="s">
-        <v>1280</v>
+        <v>722</v>
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
+      <c r="AA96" s="1" t="s">
+        <v>1335</v>
+      </c>
       <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
+      <c r="AC96" s="1" t="s">
+        <v>1402</v>
+      </c>
       <c r="AD96" s="1" t="s">
         <v>1486</v>
       </c>
@@ -25987,7 +25987,7 @@
         <v>1629</v>
       </c>
       <c r="AK96" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL96" s="1" t="s">
         <v>1629</v>
@@ -25996,7 +25996,7 @@
         <v>0</v>
       </c>
       <c r="AN96" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="AO96" s="1" t="s">
         <v>1682</v>
@@ -26008,11 +26008,9 @@
         <v>1800</v>
       </c>
       <c r="AR96" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="AS96" s="1" t="s">
-        <v>1849</v>
-      </c>
+        <v>1801</v>
+      </c>
+      <c r="AS96" s="1"/>
       <c r="AT96" s="1" t="s">
         <v>2004</v>
       </c>
@@ -26062,7 +26060,7 @@
     </row>
     <row r="97" spans="1:69">
       <c r="A97" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>159</v>
@@ -26071,10 +26069,10 @@
         <v>2023</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>564</v>
@@ -26090,48 +26088,48 @@
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>783</v>
+        <v>590</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>925</v>
+        <v>656</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>1081</v>
+        <v>712</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>783</v>
+        <v>1215</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>925</v>
+        <v>1247</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
+        <v>1280</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="U97" s="1" t="s">
+        <v>1247</v>
+      </c>
       <c r="V97" s="1" t="s">
-        <v>722</v>
+        <v>1280</v>
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-      <c r="AA97" s="1" t="s">
-        <v>1335</v>
-      </c>
+      <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
-      <c r="AC97" s="1" t="s">
-        <v>1402</v>
-      </c>
+      <c r="AC97" s="1"/>
       <c r="AD97" s="1" t="s">
         <v>1487</v>
       </c>
@@ -26148,7 +26146,7 @@
         <v>1629</v>
       </c>
       <c r="AK97" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL97" s="1" t="s">
         <v>1629</v>
@@ -26157,7 +26155,7 @@
         <v>0</v>
       </c>
       <c r="AN97" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="AO97" s="1" t="s">
         <v>1683</v>
@@ -26169,9 +26167,11 @@
         <v>1800</v>
       </c>
       <c r="AR97" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="AS97" s="1"/>
+        <v>1802</v>
+      </c>
+      <c r="AS97" s="1" t="s">
+        <v>1849</v>
+      </c>
       <c r="AT97" s="1" t="s">
         <v>2005</v>
       </c>
@@ -27008,7 +27008,7 @@
     </row>
     <row r="103" spans="1:69">
       <c r="A103" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>165</v>
@@ -27017,10 +27017,10 @@
         <v>2023</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>565</v>
@@ -27036,31 +27036,31 @@
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>669</v>
+        <v>606</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>575</v>
+        <v>818</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>1250</v>
+        <v>962</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>697</v>
+        <v>1116</v>
       </c>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
@@ -27071,28 +27071,30 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
-      <c r="AA103" s="1"/>
+      <c r="AA103" s="1" t="s">
+        <v>1337</v>
+      </c>
       <c r="AB103" s="1"/>
-      <c r="AC103" s="1" t="s">
-        <v>1403</v>
-      </c>
+      <c r="AC103" s="1"/>
       <c r="AD103" s="1" t="s">
         <v>1491</v>
       </c>
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
-      <c r="AG103" s="1"/>
+      <c r="AG103" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH103" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI103" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ103" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK103" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL103" s="1" t="s">
         <v>1629</v>
@@ -27104,7 +27106,7 @@
         <v>1628</v>
       </c>
       <c r="AO103" s="1" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="AP103" s="1" t="s">
         <v>1799</v>
@@ -27115,16 +27117,20 @@
       <c r="AR103" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS103" s="1"/>
+      <c r="AS103" s="1" t="s">
+        <v>1853</v>
+      </c>
       <c r="AT103" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="AU103" s="1"/>
+      <c r="AU103" s="1" t="s">
+        <v>2133</v>
+      </c>
       <c r="AV103" s="1"/>
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
       <c r="AY103" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ103" s="1"/>
       <c r="BA103" s="1" t="s">
@@ -27143,14 +27149,16 @@
         <v>565</v>
       </c>
       <c r="BH103" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI103" s="1"/>
       <c r="BJ103" s="2">
         <v>0</v>
       </c>
       <c r="BK103" s="1"/>
-      <c r="BL103" s="1"/>
+      <c r="BL103" s="1" t="s">
+        <v>2174</v>
+      </c>
       <c r="BM103" s="1" t="s">
         <v>564</v>
       </c>
@@ -27163,7 +27171,7 @@
     </row>
     <row r="104" spans="1:69">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>165</v>
@@ -27172,10 +27180,10 @@
         <v>2023</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>565</v>
@@ -27191,31 +27199,31 @@
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>606</v>
+        <v>669</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>1116</v>
+        <v>1127</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>818</v>
+        <v>575</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>962</v>
+        <v>1250</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>1116</v>
+        <v>697</v>
       </c>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
@@ -27226,30 +27234,28 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
-      <c r="AA104" s="1" t="s">
-        <v>1337</v>
-      </c>
+      <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
+      <c r="AC104" s="1" t="s">
+        <v>1403</v>
+      </c>
       <c r="AD104" s="1" t="s">
         <v>1492</v>
       </c>
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
-      <c r="AG104" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AG104" s="1"/>
       <c r="AH104" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI104" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ104" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="AK104" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL104" s="1" t="s">
         <v>1629</v>
@@ -27261,7 +27267,7 @@
         <v>1628</v>
       </c>
       <c r="AO104" s="1" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="AP104" s="1" t="s">
         <v>1799</v>
@@ -27272,20 +27278,16 @@
       <c r="AR104" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS104" s="1" t="s">
-        <v>1853</v>
-      </c>
+      <c r="AS104" s="1"/>
       <c r="AT104" s="1" t="s">
         <v>2010</v>
       </c>
-      <c r="AU104" s="1" t="s">
-        <v>2133</v>
-      </c>
+      <c r="AU104" s="1"/>
       <c r="AV104" s="1"/>
       <c r="AW104" s="1"/>
       <c r="AX104" s="1"/>
       <c r="AY104" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ104" s="1"/>
       <c r="BA104" s="1" t="s">
@@ -27304,16 +27306,14 @@
         <v>565</v>
       </c>
       <c r="BH104" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI104" s="1"/>
       <c r="BJ104" s="2">
         <v>0</v>
       </c>
       <c r="BK104" s="1"/>
-      <c r="BL104" s="1" t="s">
-        <v>2174</v>
-      </c>
+      <c r="BL104" s="1"/>
       <c r="BM104" s="1" t="s">
         <v>564</v>
       </c>
@@ -27958,7 +27958,7 @@
     </row>
     <row r="109" spans="1:69">
       <c r="A109" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>170</v>
@@ -27976,23 +27976,19 @@
         <v>564</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H109" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J109" s="1"/>
-      <c r="K109" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>616</v>
-      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>834</v>
@@ -28004,18 +28000,22 @@
         <v>1132</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>834</v>
+        <v>635</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>978</v>
+        <v>1252</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
+        <v>758</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>1252</v>
+      </c>
       <c r="V109" s="1" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
@@ -28024,21 +28024,15 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
-      <c r="AD109" s="1" t="s">
-        <v>1496</v>
-      </c>
+      <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
-      <c r="AF109" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="AG109" s="1" t="s">
-        <v>1625</v>
-      </c>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
       <c r="AH109" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI109" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ109" s="1" t="s">
         <v>1629</v>
@@ -28065,20 +28059,12 @@
         <v>1800</v>
       </c>
       <c r="AR109" s="1" t="s">
-        <v>1802</v>
-      </c>
-      <c r="AS109" s="1" t="s">
-        <v>1857</v>
-      </c>
-      <c r="AT109" s="1" t="s">
-        <v>2015</v>
-      </c>
-      <c r="AU109" s="1" t="s">
-        <v>2140</v>
-      </c>
-      <c r="AV109" s="1" t="s">
-        <v>2151</v>
-      </c>
+        <v>1801</v>
+      </c>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="1"/>
+      <c r="AU109" s="1"/>
+      <c r="AV109" s="1"/>
       <c r="AW109" s="1"/>
       <c r="AX109" s="1"/>
       <c r="AY109" s="1" t="s">
@@ -28101,7 +28087,7 @@
         <v>565</v>
       </c>
       <c r="BH109" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="BI109" s="1"/>
       <c r="BJ109" s="2">
@@ -28123,7 +28109,7 @@
     </row>
     <row r="110" spans="1:69">
       <c r="A110" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>170</v>
@@ -28141,19 +28127,23 @@
         <v>564</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H110" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="K110" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>616</v>
+      </c>
       <c r="M110" s="1" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>835</v>
@@ -28165,22 +28155,18 @@
         <v>1133</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>635</v>
+        <v>835</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>1252</v>
+        <v>979</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="T110" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="U110" s="1" t="s">
-        <v>1252</v>
-      </c>
+        <v>1133</v>
+      </c>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
       <c r="V110" s="1" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
@@ -28189,15 +28175,21 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
-      <c r="AD110" s="1"/>
+      <c r="AD110" s="1" t="s">
+        <v>1496</v>
+      </c>
       <c r="AE110" s="1"/>
-      <c r="AF110" s="1"/>
-      <c r="AG110" s="1"/>
+      <c r="AF110" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AG110" s="1" t="s">
+        <v>1625</v>
+      </c>
       <c r="AH110" s="1" t="s">
         <v>565</v>
       </c>
       <c r="AI110" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ110" s="1" t="s">
         <v>1629</v>
@@ -28224,12 +28216,20 @@
         <v>1800</v>
       </c>
       <c r="AR110" s="1" t="s">
-        <v>1801</v>
-      </c>
-      <c r="AS110" s="1"/>
-      <c r="AT110" s="1"/>
-      <c r="AU110" s="1"/>
-      <c r="AV110" s="1"/>
+        <v>1802</v>
+      </c>
+      <c r="AS110" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="AT110" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AU110" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="AV110" s="1" t="s">
+        <v>2151</v>
+      </c>
       <c r="AW110" s="1"/>
       <c r="AX110" s="1"/>
       <c r="AY110" s="1" t="s">
@@ -28252,7 +28252,7 @@
         <v>565</v>
       </c>
       <c r="BH110" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BI110" s="1"/>
       <c r="BJ110" s="2">
@@ -30562,10 +30562,10 @@
         <v>2023</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>564</v>
@@ -32814,22 +32814,22 @@
         <v>731</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
@@ -32975,22 +32975,22 @@
         <v>731</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
@@ -38017,13 +38017,13 @@
         <v>731</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -38170,22 +38170,22 @@
         <v>731</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="R174" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
@@ -39538,7 +39538,7 @@
     </row>
     <row r="183" spans="1:69">
       <c r="A183" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>243</v>
@@ -39559,20 +39559,20 @@
         <v>565</v>
       </c>
       <c r="H183" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J183" s="1"/>
       <c r="K183" s="1" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="N183" s="1" t="s">
         <v>868</v>
@@ -39583,10 +39583,14 @@
       <c r="P183" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
+      <c r="Q183" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>1266</v>
+      </c>
       <c r="S183" s="1" t="s">
-        <v>722</v>
+        <v>1297</v>
       </c>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
@@ -39605,9 +39609,7 @@
       </c>
       <c r="AE183" s="1"/>
       <c r="AF183" s="1"/>
-      <c r="AG183" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AG183" s="1"/>
       <c r="AH183" s="1" t="s">
         <v>565</v>
       </c>
@@ -39618,7 +39620,7 @@
         <v>1628</v>
       </c>
       <c r="AK183" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL183" s="1" t="s">
         <v>1628</v>
@@ -39629,17 +39631,21 @@
       <c r="AN183" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO183" s="1"/>
+      <c r="AO183" s="1" t="s">
+        <v>1738</v>
+      </c>
       <c r="AP183" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ183" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR183" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS183" s="1"/>
+      <c r="AS183" s="1" t="s">
+        <v>1905</v>
+      </c>
       <c r="AT183" s="1" t="s">
         <v>2070</v>
       </c>
@@ -39689,7 +39695,7 @@
     </row>
     <row r="184" spans="1:69">
       <c r="A184" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>243</v>
@@ -39710,38 +39716,38 @@
         <v>565</v>
       </c>
       <c r="H184" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J184" s="1"/>
       <c r="K184" s="1" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>753</v>
+        <v>718</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>869</v>
+        <v>808</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>1020</v>
+        <v>952</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>1167</v>
+        <v>1106</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>1232</v>
+        <v>808</v>
       </c>
       <c r="R184" s="1" t="s">
-        <v>1266</v>
+        <v>952</v>
       </c>
       <c r="S184" s="1" t="s">
-        <v>1297</v>
+        <v>1106</v>
       </c>
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
@@ -39783,7 +39789,7 @@
         <v>1628</v>
       </c>
       <c r="AO184" s="1" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="AP184" s="1" t="s">
         <v>1799</v>
@@ -39795,7 +39801,7 @@
         <v>1801</v>
       </c>
       <c r="AS184" s="1" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="AT184" s="1" t="s">
         <v>2071</v>
@@ -39846,7 +39852,7 @@
     </row>
     <row r="185" spans="1:69">
       <c r="A185" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>243</v>
@@ -39867,38 +39873,34 @@
         <v>565</v>
       </c>
       <c r="H185" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>808</v>
+        <v>869</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>952</v>
+        <v>1020</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="Q185" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="R185" s="1" t="s">
-        <v>952</v>
-      </c>
+        <v>1167</v>
+      </c>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
       <c r="S185" s="1" t="s">
-        <v>1106</v>
+        <v>722</v>
       </c>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
@@ -39917,7 +39919,9 @@
       </c>
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
-      <c r="AG185" s="1"/>
+      <c r="AG185" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH185" s="1" t="s">
         <v>565</v>
       </c>
@@ -39928,7 +39932,7 @@
         <v>1628</v>
       </c>
       <c r="AK185" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL185" s="1" t="s">
         <v>1628</v>
@@ -39939,21 +39943,17 @@
       <c r="AN185" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO185" s="1" t="s">
-        <v>1739</v>
-      </c>
+      <c r="AO185" s="1"/>
       <c r="AP185" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ185" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR185" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS185" s="1" t="s">
-        <v>1906</v>
-      </c>
+      <c r="AS185" s="1"/>
       <c r="AT185" s="1" t="s">
         <v>2072</v>
       </c>
@@ -40003,7 +40003,7 @@
     </row>
     <row r="186" spans="1:69">
       <c r="A186" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>244</v>
@@ -40012,10 +40012,10 @@
         <v>2023</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>564</v>
@@ -40031,27 +40031,31 @@
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="1" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>592</v>
+        <v>678</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>714</v>
+        <v>745</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>998</v>
+        <v>962</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
+        <v>1116</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>962</v>
+      </c>
       <c r="S186" s="1" t="s">
-        <v>722</v>
+        <v>1116</v>
       </c>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
@@ -40064,17 +40068,15 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
-      <c r="AC186" s="1"/>
+      <c r="AC186" s="1" t="s">
+        <v>1428</v>
+      </c>
       <c r="AD186" s="1" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="AE186" s="1"/>
-      <c r="AF186" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="AG186" s="1" t="s">
-        <v>1624</v>
-      </c>
+      <c r="AF186" s="1"/>
+      <c r="AG186" s="1"/>
       <c r="AH186" s="1" t="s">
         <v>565</v>
       </c>
@@ -40085,7 +40087,7 @@
         <v>1628</v>
       </c>
       <c r="AK186" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL186" s="1" t="s">
         <v>1628</v>
@@ -40100,7 +40102,7 @@
         <v>1740</v>
       </c>
       <c r="AP186" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ186" s="1" t="s">
         <v>566</v>
@@ -40109,19 +40111,19 @@
         <v>1801</v>
       </c>
       <c r="AS186" s="1" t="s">
-        <v>1878</v>
+        <v>1907</v>
       </c>
       <c r="AT186" s="1" t="s">
-        <v>2039</v>
+        <v>2073</v>
       </c>
       <c r="AU186" s="1" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
       <c r="AV186" s="1"/>
       <c r="AW186" s="1"/>
       <c r="AX186" s="1"/>
       <c r="AY186" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AZ186" s="1"/>
       <c r="BA186" s="1" t="s">
@@ -40162,7 +40164,7 @@
     </row>
     <row r="187" spans="1:69">
       <c r="A187" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>244</v>
@@ -40171,10 +40173,10 @@
         <v>2023</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>564</v>
@@ -40190,31 +40192,27 @@
       </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>678</v>
+        <v>592</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>962</v>
+        <v>998</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="Q187" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="R187" s="1" t="s">
-        <v>962</v>
-      </c>
+        <v>1147</v>
+      </c>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
       <c r="S187" s="1" t="s">
-        <v>1116</v>
+        <v>722</v>
       </c>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
@@ -40227,15 +40225,17 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
-      <c r="AC187" s="1" t="s">
-        <v>1428</v>
-      </c>
+      <c r="AC187" s="1"/>
       <c r="AD187" s="1" t="s">
-        <v>1535</v>
+        <v>1512</v>
       </c>
       <c r="AE187" s="1"/>
-      <c r="AF187" s="1"/>
-      <c r="AG187" s="1"/>
+      <c r="AF187" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AG187" s="1" t="s">
+        <v>1624</v>
+      </c>
       <c r="AH187" s="1" t="s">
         <v>565</v>
       </c>
@@ -40246,7 +40246,7 @@
         <v>1628</v>
       </c>
       <c r="AK187" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL187" s="1" t="s">
         <v>1628</v>
@@ -40261,7 +40261,7 @@
         <v>1741</v>
       </c>
       <c r="AP187" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ187" s="1" t="s">
         <v>566</v>
@@ -40270,19 +40270,19 @@
         <v>1801</v>
       </c>
       <c r="AS187" s="1" t="s">
-        <v>1907</v>
+        <v>1878</v>
       </c>
       <c r="AT187" s="1" t="s">
-        <v>2073</v>
+        <v>2039</v>
       </c>
       <c r="AU187" s="1" t="s">
-        <v>2133</v>
+        <v>2141</v>
       </c>
       <c r="AV187" s="1"/>
       <c r="AW187" s="1"/>
       <c r="AX187" s="1"/>
       <c r="AY187" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AZ187" s="1"/>
       <c r="BA187" s="1" t="s">
@@ -40776,7 +40776,7 @@
     </row>
     <row r="191" spans="1:69">
       <c r="A191" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>247</v>
@@ -40788,7 +40788,7 @@
         <v>489</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>564</v>
@@ -40804,13 +40804,13 @@
       </c>
       <c r="J191" s="1"/>
       <c r="K191" s="1" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="N191" s="1" t="s">
         <v>872</v>
@@ -40843,9 +40843,7 @@
       </c>
       <c r="AE191" s="1"/>
       <c r="AF191" s="1"/>
-      <c r="AG191" s="1" t="s">
-        <v>1622</v>
-      </c>
+      <c r="AG191" s="1"/>
       <c r="AH191" s="1" t="s">
         <v>565</v>
       </c>
@@ -40867,14 +40865,12 @@
       <c r="AN191" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO191" s="1" t="s">
-        <v>1744</v>
-      </c>
+      <c r="AO191" s="1"/>
       <c r="AP191" s="1" t="s">
         <v>1799</v>
       </c>
       <c r="AQ191" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR191" s="1" t="s">
         <v>1801</v>
@@ -40887,9 +40883,7 @@
       <c r="AV191" s="1"/>
       <c r="AW191" s="1"/>
       <c r="AX191" s="1"/>
-      <c r="AY191" s="1" t="s">
-        <v>2153</v>
-      </c>
+      <c r="AY191" s="1"/>
       <c r="AZ191" s="1"/>
       <c r="BA191" s="1" t="s">
         <v>564</v>
@@ -40921,7 +40915,7 @@
         <v>564</v>
       </c>
       <c r="BN191" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO191" s="1"/>
       <c r="BP191" s="1"/>
@@ -40929,7 +40923,7 @@
     </row>
     <row r="192" spans="1:69">
       <c r="A192" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>247</v>
@@ -40941,7 +40935,7 @@
         <v>490</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>564</v>
@@ -40957,13 +40951,13 @@
       </c>
       <c r="J192" s="1"/>
       <c r="K192" s="1" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>754</v>
+        <v>720</v>
       </c>
       <c r="N192" s="1" t="s">
         <v>873</v>
@@ -40996,7 +40990,9 @@
       </c>
       <c r="AE192" s="1"/>
       <c r="AF192" s="1"/>
-      <c r="AG192" s="1"/>
+      <c r="AG192" s="1" t="s">
+        <v>1622</v>
+      </c>
       <c r="AH192" s="1" t="s">
         <v>565</v>
       </c>
@@ -41018,12 +41014,14 @@
       <c r="AN192" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="AO192" s="1"/>
+      <c r="AO192" s="1" t="s">
+        <v>1744</v>
+      </c>
       <c r="AP192" s="1" t="s">
         <v>1799</v>
       </c>
       <c r="AQ192" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR192" s="1" t="s">
         <v>1801</v>
@@ -41036,7 +41034,9 @@
       <c r="AV192" s="1"/>
       <c r="AW192" s="1"/>
       <c r="AX192" s="1"/>
-      <c r="AY192" s="1"/>
+      <c r="AY192" s="1" t="s">
+        <v>2153</v>
+      </c>
       <c r="AZ192" s="1"/>
       <c r="BA192" s="1" t="s">
         <v>564</v>
@@ -41068,7 +41068,7 @@
         <v>564</v>
       </c>
       <c r="BN192" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO192" s="1"/>
       <c r="BP192" s="1"/>
@@ -41397,7 +41397,7 @@
         <v>2023</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>543</v>
@@ -41488,7 +41488,7 @@
         <v>1801</v>
       </c>
       <c r="AS195" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="AT195" s="1" t="s">
         <v>2080</v>
@@ -41849,7 +41849,7 @@
     </row>
     <row r="198" spans="1:69">
       <c r="A198" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>253</v>
@@ -41867,23 +41867,23 @@
         <v>564</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H198" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J198" s="1"/>
       <c r="K198" s="1" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="N198" s="1" t="s">
         <v>878</v>
@@ -41916,7 +41916,9 @@
       </c>
       <c r="AE198" s="1"/>
       <c r="AF198" s="1"/>
-      <c r="AG198" s="1"/>
+      <c r="AG198" s="1" t="s">
+        <v>1622</v>
+      </c>
       <c r="AH198" s="1" t="s">
         <v>565</v>
       </c>
@@ -41948,11 +41950,15 @@
       <c r="AR198" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS198" s="1"/>
+      <c r="AS198" s="1" t="s">
+        <v>1911</v>
+      </c>
       <c r="AT198" s="1" t="s">
         <v>2083</v>
       </c>
-      <c r="AU198" s="1"/>
+      <c r="AU198" s="1" t="s">
+        <v>2143</v>
+      </c>
       <c r="AV198" s="1"/>
       <c r="AW198" s="1"/>
       <c r="AX198" s="1"/>
@@ -41990,7 +41996,7 @@
         <v>564</v>
       </c>
       <c r="BN198" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO198" s="1"/>
       <c r="BP198" s="1"/>
@@ -41998,7 +42004,7 @@
     </row>
     <row r="199" spans="1:69">
       <c r="A199" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>253</v>
@@ -42016,23 +42022,23 @@
         <v>564</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H199" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J199" s="1"/>
       <c r="K199" s="1" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="N199" s="1" t="s">
         <v>879</v>
@@ -42065,9 +42071,7 @@
       </c>
       <c r="AE199" s="1"/>
       <c r="AF199" s="1"/>
-      <c r="AG199" s="1" t="s">
-        <v>1622</v>
-      </c>
+      <c r="AG199" s="1"/>
       <c r="AH199" s="1" t="s">
         <v>565</v>
       </c>
@@ -42099,15 +42103,11 @@
       <c r="AR199" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="AS199" s="1" t="s">
-        <v>1911</v>
-      </c>
+      <c r="AS199" s="1"/>
       <c r="AT199" s="1" t="s">
         <v>2084</v>
       </c>
-      <c r="AU199" s="1" t="s">
-        <v>2143</v>
-      </c>
+      <c r="AU199" s="1"/>
       <c r="AV199" s="1"/>
       <c r="AW199" s="1"/>
       <c r="AX199" s="1"/>
@@ -42145,7 +42145,7 @@
         <v>564</v>
       </c>
       <c r="BN199" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO199" s="1"/>
       <c r="BP199" s="1"/>
@@ -42306,10 +42306,10 @@
         <v>2180</v>
       </c>
       <c r="BP200" s="1" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="BQ200" s="1" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="201" spans="1:69">
@@ -44629,7 +44629,7 @@
     </row>
     <row r="216" spans="1:69">
       <c r="A216" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>270</v>
@@ -44650,38 +44650,38 @@
         <v>564</v>
       </c>
       <c r="H216" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J216" s="1"/>
       <c r="K216" s="1" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>887</v>
+        <v>851</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>1039</v>
+        <v>1000</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>1185</v>
+        <v>1149</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>1236</v>
+        <v>851</v>
       </c>
       <c r="R216" s="1" t="s">
-        <v>1270</v>
+        <v>1000</v>
       </c>
       <c r="S216" s="1" t="s">
-        <v>1301</v>
+        <v>1149</v>
       </c>
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
@@ -44698,22 +44698,20 @@
       <c r="AD216" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="AE216" s="1" t="s">
-        <v>1604</v>
-      </c>
+      <c r="AE216" s="1"/>
       <c r="AF216" s="1"/>
       <c r="AG216" s="1"/>
       <c r="AH216" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AI216" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ216" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK216" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL216" s="1" t="s">
         <v>1628</v>
@@ -44728,10 +44726,10 @@
         <v>1761</v>
       </c>
       <c r="AP216" s="1" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="AQ216" s="1" t="s">
-        <v>566</v>
+        <v>1800</v>
       </c>
       <c r="AR216" s="1" t="s">
         <v>1801</v>
@@ -44740,11 +44738,9 @@
         <v>1920</v>
       </c>
       <c r="AT216" s="1" t="s">
-        <v>2092</v>
-      </c>
-      <c r="AU216" s="1" t="s">
-        <v>2144</v>
-      </c>
+        <v>2043</v>
+      </c>
+      <c r="AU216" s="1"/>
       <c r="AV216" s="1"/>
       <c r="AW216" s="1"/>
       <c r="AX216" s="1"/>
@@ -44782,7 +44778,7 @@
         <v>564</v>
       </c>
       <c r="BN216" s="1" t="s">
-        <v>722</v>
+        <v>2176</v>
       </c>
       <c r="BO216" s="1"/>
       <c r="BP216" s="1"/>
@@ -44790,7 +44786,7 @@
     </row>
     <row r="217" spans="1:69">
       <c r="A217" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>270</v>
@@ -44811,38 +44807,38 @@
         <v>564</v>
       </c>
       <c r="H217" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>566</v>
       </c>
       <c r="J217" s="1"/>
       <c r="K217" s="1" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>746</v>
+        <v>709</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>851</v>
+        <v>887</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>1000</v>
+        <v>1039</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>1149</v>
+        <v>1185</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>851</v>
+        <v>1236</v>
       </c>
       <c r="R217" s="1" t="s">
-        <v>1000</v>
+        <v>1270</v>
       </c>
       <c r="S217" s="1" t="s">
-        <v>1149</v>
+        <v>1301</v>
       </c>
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
@@ -44859,20 +44855,22 @@
       <c r="AD217" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="AE217" s="1"/>
+      <c r="AE217" s="1" t="s">
+        <v>1604</v>
+      </c>
       <c r="AF217" s="1"/>
       <c r="AG217" s="1"/>
       <c r="AH217" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AI217" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ217" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="AK217" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL217" s="1" t="s">
         <v>1628</v>
@@ -44887,10 +44885,10 @@
         <v>1762</v>
       </c>
       <c r="AP217" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="AQ217" s="1" t="s">
-        <v>1800</v>
+        <v>566</v>
       </c>
       <c r="AR217" s="1" t="s">
         <v>1801</v>
@@ -44899,9 +44897,11 @@
         <v>1921</v>
       </c>
       <c r="AT217" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="AU217" s="1"/>
+        <v>2092</v>
+      </c>
+      <c r="AU217" s="1" t="s">
+        <v>2144</v>
+      </c>
       <c r="AV217" s="1"/>
       <c r="AW217" s="1"/>
       <c r="AX217" s="1"/>
@@ -44939,7 +44939,7 @@
         <v>564</v>
       </c>
       <c r="BN217" s="1" t="s">
-        <v>2176</v>
+        <v>722</v>
       </c>
       <c r="BO217" s="1"/>
       <c r="BP217" s="1"/>
@@ -45653,7 +45653,7 @@
         <v>1628</v>
       </c>
       <c r="AO222" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="AP222" s="1" t="s">
         <v>1798</v>
@@ -48992,10 +48992,10 @@
         <v>2023</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>564</v>
@@ -49457,10 +49457,10 @@
         <v>2023</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>564</v>
@@ -49485,13 +49485,13 @@
         <v>720</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
@@ -49513,7 +49513,7 @@
         <v>1436</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AE247" s="1" t="s">
         <v>1609</v>
@@ -49555,7 +49555,7 @@
       </c>
       <c r="AS247" s="1"/>
       <c r="AT247" s="1" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="AU247" s="1"/>
       <c r="AV247" s="1"/>
@@ -49612,10 +49612,10 @@
         <v>2023</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>564</v>
@@ -49640,13 +49640,13 @@
         <v>720</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O248" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
@@ -49668,7 +49668,7 @@
         <v>1436</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="AE248" s="1" t="s">
         <v>1610</v>
@@ -49710,7 +49710,7 @@
       </c>
       <c r="AS248" s="1"/>
       <c r="AT248" s="1" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="AU248" s="1"/>
       <c r="AV248" s="1"/>
@@ -52434,10 +52434,10 @@
         <v>2023</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>564</v>
@@ -52462,22 +52462,22 @@
         <v>739</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O266" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P266" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="Q266" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="R266" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="S266" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="T266" s="1"/>
       <c r="U266" s="1"/>
@@ -52523,7 +52523,7 @@
         <v>1628</v>
       </c>
       <c r="AO266" s="1" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AP266" s="1" t="s">
         <v>1799</v>
@@ -52597,10 +52597,10 @@
         <v>2023</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>564</v>
@@ -52625,22 +52625,22 @@
         <v>710</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O267" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P267" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="Q267" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="R267" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="S267" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="T267" s="1"/>
       <c r="U267" s="1"/>
@@ -52686,7 +52686,7 @@
         <v>1628</v>
       </c>
       <c r="AO267" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="AP267" s="1" t="s">
         <v>1799</v>
@@ -53070,10 +53070,10 @@
         <v>2023</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>564</v>
@@ -53098,22 +53098,22 @@
         <v>739</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="Q270" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="R270" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="S270" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="T270" s="1"/>
       <c r="U270" s="1"/>
@@ -53159,7 +53159,7 @@
         <v>1628</v>
       </c>
       <c r="AO270" s="1" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AP270" s="1" t="s">
         <v>1799</v>
@@ -55238,10 +55238,10 @@
         <v>2023</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>564</v>
@@ -57903,22 +57903,22 @@
         <v>731</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O301" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P301" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Q301" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="R301" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="S301" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="T301" s="1"/>
       <c r="U301" s="1"/>
@@ -58340,7 +58340,7 @@
         <v>2023</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>563</v>
@@ -58394,7 +58394,7 @@
       <c r="AB304" s="1"/>
       <c r="AC304" s="1"/>
       <c r="AD304" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="AE304" s="1"/>
       <c r="AF304" s="1"/>
@@ -58436,7 +58436,7 @@
       </c>
       <c r="AS304" s="1"/>
       <c r="AT304" s="1" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="AU304" s="1"/>
       <c r="AV304" s="1"/>
